--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ED83BE5-FBDB-44A3-BE60-414BF225F506}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{267A8D5E-C061-4875-AF04-E7593A9C72D8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,61 +2110,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
@@ -2173,34 +2173,34 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4</c:v>
@@ -2209,13 +2209,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3992,12 +3992,18 @@
       <c r="G16" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="63">
+        <v>2</v>
+      </c>
+      <c r="I16" s="64">
+        <v>0</v>
+      </c>
       <c r="J16" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="66"/>
+      <c r="K16" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="57">
@@ -5531,9 +5537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5583,11 +5589,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5693,81 +5699,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30181,23 +30187,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30213,11 +30207,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -31913,79 +31919,79 @@
       </c>
       <c r="C11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,0)=Resultat!$I16,OFFSET(Kuponger!$G12,0,0)=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,0)=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(A11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(A11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(A11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(B11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(B11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(B11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(C11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(C11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(C11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(D11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(D11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(D11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(E11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(E11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(E11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(F11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(F11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(F11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(G11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(G11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(G11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(H11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(H11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(H11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(I11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(I11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(I11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(J11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(J11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(J11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(K11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(K11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(K11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(L11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(L11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(L11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(M11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(M11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(M11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(N11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(N11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(N11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(O11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(O11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(O11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(P11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(P11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(P11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(Q11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(Q11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(Q11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(R11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(R11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(R11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(S11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(S11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(S11))=Resultat!$H16),1,0)</f>
@@ -31997,43 +32003,43 @@
       </c>
       <c r="X11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(U11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(U11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(U11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(V11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(V11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(V11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(W11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(W11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(W11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(X11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(X11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(X11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(Y11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(Y11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(Y11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(Z11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(Z11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(Z11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(AA11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(AA11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(AA11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(AB11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(AB11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(AB11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(AC11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(AC11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(AC11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(AD11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(AD11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(AD11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(AE11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(AE11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(AE11))=Resultat!$H16),1,0)</f>
@@ -32045,15 +32051,15 @@
       </c>
       <c r="AJ11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(AG11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(AG11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(AG11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(AH11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(AH11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(AH11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
         <f ca="1">IF(AND(Resultat!$I16&lt;&gt;"",OFFSET(Kuponger!$F12,0,3*COLUMN(AI11))=Resultat!$I16,OFFSET(Kuponger!$G12,0,3*COLUMN(AI11))=Resultat!$K16),3,0) + IF(AND(Resultat!$H16&lt;&gt;"",OFFSET(Kuponger!$E12,0,3*COLUMN(AI11))=Resultat!$H16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
@@ -39882,79 +39888,79 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39966,43 +39972,43 @@
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40014,15 +40020,15 @@
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{267A8D5E-C061-4875-AF04-E7593A9C72D8}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6030980F-00B3-4892-B943-7C9FD009780E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,58 +2110,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>9</c:v>
@@ -2176,34 +2176,34 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>11</c:v>
@@ -2215,7 +2215,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4027,12 +4027,18 @@
       <c r="G17" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
+      <c r="H17" s="63">
+        <v>1</v>
+      </c>
+      <c r="I17" s="64">
+        <v>3</v>
+      </c>
       <c r="J17" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="66"/>
+      <c r="K17" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="57">
@@ -5537,7 +5543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
@@ -5589,11 +5595,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5699,81 +5705,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30187,11 +30193,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30207,23 +30225,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -32073,7 +32079,7 @@
       </c>
       <c r="C12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,0)=Resultat!$I17,OFFSET(Kuponger!$G13,0,0)=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,0)=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(A12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(A12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(A12))=Resultat!$H17),1,0)</f>
@@ -32081,27 +32087,27 @@
       </c>
       <c r="E12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(B12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(B12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(B12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(C12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(C12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(C12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(D12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(D12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(D12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(E12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(E12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(E12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(F12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(F12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(F12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(G12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(G12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(G12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(H12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(H12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(H12))=Resultat!$H17),1,0)</f>
@@ -32109,7 +32115,7 @@
       </c>
       <c r="L12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(I12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(I12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(I12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(J12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(J12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(J12))=Resultat!$H17),1,0)</f>
@@ -32117,31 +32123,31 @@
       </c>
       <c r="N12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(K12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(K12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(K12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(L12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(L12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(L12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(M12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(M12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(M12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(N12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(N12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(N12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(O12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(O12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(O12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(P12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(P12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(P12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(Q12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(Q12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(Q12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(R12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(R12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(R12))=Resultat!$H17),1,0)</f>
@@ -32161,43 +32167,43 @@
       </c>
       <c r="Y12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(V12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(V12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(V12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(W12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(W12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(W12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(X12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(X12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(X12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(Y12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(Y12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(Y12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(Z12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(Z12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(Z12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(AA12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(AA12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(AA12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(AB12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(AB12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(AB12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(AC12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(AC12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(AC12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(AD12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(AD12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(AD12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(AE12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(AE12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(AE12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(AF12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(AF12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(AF12))=Resultat!$H17),1,0)</f>
@@ -32213,7 +32219,7 @@
       </c>
       <c r="AL12">
         <f ca="1">IF(AND(Resultat!$I17&lt;&gt;"",OFFSET(Kuponger!$F13,0,3*COLUMN(AI12))=Resultat!$I17,OFFSET(Kuponger!$G13,0,3*COLUMN(AI12))=Resultat!$K17),3,0) + IF(AND(Resultat!$H17&lt;&gt;"",OFFSET(Kuponger!$E13,0,3*COLUMN(AI12))=Resultat!$H17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
@@ -39888,7 +39894,7 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
@@ -39896,27 +39902,27 @@
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39924,7 +39930,7 @@
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39932,31 +39938,31 @@
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39976,43 +39982,43 @@
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40028,7 +40034,7 @@
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6030980F-00B3-4892-B943-7C9FD009780E}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5687C012-0968-4848-82C0-3919B9FCB752}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,112 +2110,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,7 +3477,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4062,12 +4062,18 @@
       <c r="G18" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
+      <c r="H18" s="63">
+        <v>1</v>
+      </c>
+      <c r="I18" s="64">
+        <v>2</v>
+      </c>
       <c r="J18" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="57">
@@ -5545,7 +5551,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5595,11 +5601,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5705,81 +5711,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30193,23 +30199,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30225,11 +30219,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -32233,47 +32239,47 @@
       </c>
       <c r="C13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,0)=Resultat!$I18,OFFSET(Kuponger!$G14,0,0)=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,0)=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(A13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(A13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(A13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(B13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(B13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(B13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(C13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(C13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(C13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(D13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(D13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(D13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(E13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(E13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(E13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(F13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(F13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(F13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(G13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(G13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(G13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(H13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(H13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(H13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(I13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(I13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(I13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(J13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(J13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(J13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(K13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(K13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(K13))=Resultat!$H18),1,0)</f>
@@ -32281,31 +32287,31 @@
       </c>
       <c r="O13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(L13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(L13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(L13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(M13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(M13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(M13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(N13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(N13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(N13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(O13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(O13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(O13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(P13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(P13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(P13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(Q13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(Q13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(Q13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(R13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(R13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(R13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(S13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(S13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(S13))=Resultat!$H18),1,0)</f>
@@ -32313,67 +32319,67 @@
       </c>
       <c r="W13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(T13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(T13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(T13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(U13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(U13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(U13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(V13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(V13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(V13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(W13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(W13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(W13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(X13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(X13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(X13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(Y13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(Y13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(Y13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(Z13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(Z13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(Z13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AA13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AA13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AA13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AB13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AB13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AB13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AC13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AC13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AC13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AD13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AD13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AD13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AE13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AE13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AE13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AF13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AF13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AF13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AG13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AG13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AG13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AH13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AH13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AH13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
         <f ca="1">IF(AND(Resultat!$I18&lt;&gt;"",OFFSET(Kuponger!$F14,0,3*COLUMN(AI13))=Resultat!$I18,OFFSET(Kuponger!$G14,0,3*COLUMN(AI13))=Resultat!$K18),3,0) + IF(AND(Resultat!$H18&lt;&gt;"",OFFSET(Kuponger!$E14,0,3*COLUMN(AI13))=Resultat!$H18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
@@ -39894,47 +39900,47 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39942,31 +39948,31 @@
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39974,67 +39980,67 @@
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5687C012-0968-4848-82C0-3919B9FCB752}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB80B45-5DE7-442E-A5D8-B90D39093416}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="12470" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="182">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -2110,112 +2110,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="29">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="33">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4097,12 +4097,18 @@
       <c r="G19" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
+      <c r="H19" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="64">
+        <v>2</v>
+      </c>
       <c r="J19" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="66"/>
+      <c r="K19" s="66">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="57">
@@ -4126,12 +4132,18 @@
       <c r="G20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
+      <c r="H20" s="63">
+        <v>1</v>
+      </c>
+      <c r="I20" s="64">
+        <v>2</v>
+      </c>
       <c r="J20" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="66"/>
+      <c r="K20" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="57">
@@ -5551,7 +5563,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32449,7 +32461,7 @@
       </c>
       <c r="Q14">
         <f ca="1">IF(AND(Resultat!$I19&lt;&gt;"",OFFSET(Kuponger!$F15,0,3*COLUMN(N14))=Resultat!$I19,OFFSET(Kuponger!$G15,0,3*COLUMN(N14))=Resultat!$K19),3,0) + IF(AND(Resultat!$H19&lt;&gt;"",OFFSET(Kuponger!$E15,0,3*COLUMN(N14))=Resultat!$H19),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <f ca="1">IF(AND(Resultat!$I19&lt;&gt;"",OFFSET(Kuponger!$F15,0,3*COLUMN(O14))=Resultat!$I19,OFFSET(Kuponger!$G15,0,3*COLUMN(O14))=Resultat!$K19),3,0) + IF(AND(Resultat!$H19&lt;&gt;"",OFFSET(Kuponger!$E15,0,3*COLUMN(O14))=Resultat!$H19),1,0)</f>
@@ -32469,7 +32481,7 @@
       </c>
       <c r="V14">
         <f ca="1">IF(AND(Resultat!$I19&lt;&gt;"",OFFSET(Kuponger!$F15,0,3*COLUMN(S14))=Resultat!$I19,OFFSET(Kuponger!$G15,0,3*COLUMN(S14))=Resultat!$K19),3,0) + IF(AND(Resultat!$H19&lt;&gt;"",OFFSET(Kuponger!$E15,0,3*COLUMN(S14))=Resultat!$H19),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <f ca="1">IF(AND(Resultat!$I19&lt;&gt;"",OFFSET(Kuponger!$F15,0,3*COLUMN(T14))=Resultat!$I19,OFFSET(Kuponger!$G15,0,3*COLUMN(T14))=Resultat!$K19),3,0) + IF(AND(Resultat!$H19&lt;&gt;"",OFFSET(Kuponger!$E15,0,3*COLUMN(T14))=Resultat!$H19),1,0)</f>
@@ -32547,79 +32559,79 @@
       </c>
       <c r="C15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,0)=Resultat!$I20,OFFSET(Kuponger!$G16,0,0)=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,0)=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(A15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(A15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(A15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(B15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(B15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(B15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(C15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(C15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(C15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(D15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(D15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(D15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(E15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(E15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(E15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(F15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(F15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(F15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(G15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(G15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(G15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(H15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(H15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(H15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(I15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(I15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(I15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(J15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(J15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(J15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(K15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(K15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(K15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(L15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(L15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(L15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(M15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(M15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(M15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(N15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(N15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(N15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(O15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(O15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(O15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(P15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(P15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(P15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(Q15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(Q15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(Q15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(R15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(R15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(R15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(S15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(S15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(S15))=Resultat!$H20),1,0)</f>
@@ -32627,67 +32639,67 @@
       </c>
       <c r="W15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(T15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(T15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(T15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(U15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(U15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(U15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(V15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(V15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(V15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(W15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(W15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(W15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(X15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(X15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(X15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(Y15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(Y15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(Y15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(Z15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(Z15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(Z15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AA15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AA15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AA15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AB15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AB15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AB15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AC15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AC15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AC15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AD15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AD15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AD15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AE15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AE15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AE15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AF15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AF15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AF15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AG15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AG15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AG15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AH15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AH15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AH15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL15">
         <f ca="1">IF(AND(Resultat!$I20&lt;&gt;"",OFFSET(Kuponger!$F16,0,3*COLUMN(AI15))=Resultat!$I20,OFFSET(Kuponger!$G16,0,3*COLUMN(AI15))=Resultat!$K20),3,0) + IF(AND(Resultat!$H20&lt;&gt;"",OFFSET(Kuponger!$E16,0,3*COLUMN(AI15))=Resultat!$H20),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
@@ -39900,147 +39912,147 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB80B45-5DE7-442E-A5D8-B90D39093416}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD8530A-5D98-47F5-9165-811EB7E54A9C}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="12470" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="182">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,7 +2110,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
@@ -2119,13 +2119,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16</c:v>
@@ -2134,7 +2134,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
@@ -2152,28 +2152,28 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8</c:v>
@@ -2191,10 +2191,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>12</c:v>
@@ -2209,10 +2209,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>10</c:v>
@@ -3477,7 +3477,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4167,12 +4167,18 @@
       <c r="G21" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="64">
+        <v>1</v>
+      </c>
       <c r="J21" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="66"/>
+      <c r="K21" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="57">
@@ -5563,7 +5569,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5613,11 +5619,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5723,81 +5729,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30211,11 +30217,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30231,23 +30249,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -32713,7 +32719,7 @@
       </c>
       <c r="C16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,0)=Resultat!$I21,OFFSET(Kuponger!$G17,0,0)=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,0)=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(A16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(A16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(A16))=Resultat!$H21),1,0)</f>
@@ -32725,15 +32731,15 @@
       </c>
       <c r="F16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(C16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(C16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(C16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(D16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(D16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(D16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(E16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(E16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(E16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(F16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(F16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(F16))=Resultat!$H21),1,0)</f>
@@ -32745,7 +32751,7 @@
       </c>
       <c r="K16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(H16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(H16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(H16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(I16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(I16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(I16))=Resultat!$H21),1,0)</f>
@@ -32769,7 +32775,7 @@
       </c>
       <c r="Q16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(N16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(N16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(N16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(O16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(O16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(O16))=Resultat!$H21),1,0)</f>
@@ -32777,11 +32783,11 @@
       </c>
       <c r="S16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(P16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(P16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(P16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(Q16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(Q16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(Q16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(R16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(R16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(R16))=Resultat!$H21),1,0)</f>
@@ -32789,15 +32795,15 @@
       </c>
       <c r="V16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(S16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(S16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(S16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(T16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(T16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(T16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(U16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(U16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(U16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(V16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(V16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(V16))=Resultat!$H21),1,0)</f>
@@ -32821,11 +32827,11 @@
       </c>
       <c r="AD16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(AA16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(AA16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(AA16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(AB16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(AB16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(AB16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(AC16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(AC16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(AC16))=Resultat!$H21),1,0)</f>
@@ -32845,11 +32851,11 @@
       </c>
       <c r="AJ16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(AG16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(AG16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(AG16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(AH16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(AH16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(AH16))=Resultat!$H21),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL16">
         <f ca="1">IF(AND(Resultat!$I21&lt;&gt;"",OFFSET(Kuponger!$F17,0,3*COLUMN(AI16))=Resultat!$I21,OFFSET(Kuponger!$G17,0,3*COLUMN(AI16))=Resultat!$K21),3,0) + IF(AND(Resultat!$H21&lt;&gt;"",OFFSET(Kuponger!$E17,0,3*COLUMN(AI16))=Resultat!$H21),1,0)</f>
@@ -39912,7 +39918,7 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
@@ -39924,15 +39930,15 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39944,7 +39950,7 @@
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39968,7 +39974,7 @@
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39976,11 +39982,11 @@
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39988,15 +39994,15 @@
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40020,11 +40026,11 @@
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40044,11 +40050,11 @@
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD8530A-5D98-47F5-9165-811EB7E54A9C}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B992CEA4-944A-4AA7-B23F-EFCCF8F53E26}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="12470" windowHeight="10660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="182">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,19 +2110,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12</c:v>
@@ -2134,25 +2134,25 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12</c:v>
@@ -2161,16 +2161,16 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>15</c:v>
@@ -2179,43 +2179,43 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="F9" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4202,12 +4202,18 @@
       <c r="G22" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
+      <c r="H22" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="64">
+        <v>1</v>
+      </c>
       <c r="J22" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="66"/>
+      <c r="K22" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="57">
@@ -4231,12 +4237,18 @@
       <c r="G23" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
+      <c r="H23" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
       <c r="J23" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="66"/>
+      <c r="K23" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="57">
@@ -5567,9 +5579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5619,11 +5631,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5729,81 +5741,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30217,23 +30229,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30249,11 +30249,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -32873,7 +32885,7 @@
       </c>
       <c r="C17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,0)=Resultat!$I22,OFFSET(Kuponger!$G18,0,0)=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,0)=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(A17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(A17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(A17))=Resultat!$H22),1,0)</f>
@@ -32881,7 +32893,7 @@
       </c>
       <c r="E17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(B17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(B17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(B17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(C17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(C17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(C17))=Resultat!$H22),1,0)</f>
@@ -32889,7 +32901,7 @@
       </c>
       <c r="G17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(D17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(D17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(D17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(E17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(E17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(E17))=Resultat!$H22),1,0)</f>
@@ -32905,7 +32917,7 @@
       </c>
       <c r="K17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(H17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(H17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(H17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(I17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(I17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(I17))=Resultat!$H22),1,0)</f>
@@ -32913,7 +32925,7 @@
       </c>
       <c r="M17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(J17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(J17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(J17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(K17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(K17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(K17))=Resultat!$H22),1,0)</f>
@@ -32921,15 +32933,15 @@
       </c>
       <c r="O17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(L17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(L17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(L17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(M17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(M17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(M17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(N17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(N17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(N17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(O17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(O17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(O17))=Resultat!$H22),1,0)</f>
@@ -32945,15 +32957,15 @@
       </c>
       <c r="U17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(R17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(R17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(R17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(S17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(S17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(S17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(T17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(T17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(T17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(U17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(U17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(U17))=Resultat!$H22),1,0)</f>
@@ -32969,7 +32981,7 @@
       </c>
       <c r="AA17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(X17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(X17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(X17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(Y17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(Y17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(Y17))=Resultat!$H22),1,0)</f>
@@ -32981,11 +32993,11 @@
       </c>
       <c r="AD17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AA17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AA17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AA17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AB17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AB17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AB17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AC17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AC17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AC17))=Resultat!$H22),1,0)</f>
@@ -32993,7 +33005,7 @@
       </c>
       <c r="AG17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AD17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AD17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AD17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AE17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AE17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AE17))=Resultat!$H22),1,0)</f>
@@ -33001,7 +33013,7 @@
       </c>
       <c r="AI17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AF17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AF17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AF17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AG17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AG17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AG17))=Resultat!$H22),1,0)</f>
@@ -33009,11 +33021,11 @@
       </c>
       <c r="AK17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AH17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AH17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AH17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17">
         <f ca="1">IF(AND(Resultat!$I22&lt;&gt;"",OFFSET(Kuponger!$F18,0,3*COLUMN(AI17))=Resultat!$I22,OFFSET(Kuponger!$G18,0,3*COLUMN(AI17))=Resultat!$K22),3,0) + IF(AND(Resultat!$H22&lt;&gt;"",OFFSET(Kuponger!$E18,0,3*COLUMN(AI17))=Resultat!$H22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
@@ -33027,7 +33039,7 @@
       </c>
       <c r="C18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,0)=Resultat!$I23,OFFSET(Kuponger!$G19,0,0)=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,0)=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(A18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(A18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(A18))=Resultat!$H23),1,0)</f>
@@ -33035,15 +33047,15 @@
       </c>
       <c r="E18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(B18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(B18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(B18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(C18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(C18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(C18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(D18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(D18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(D18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(E18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(E18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(E18))=Resultat!$H23),1,0)</f>
@@ -33059,7 +33071,7 @@
       </c>
       <c r="K18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(H18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(H18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(H18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(I18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(I18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(I18))=Resultat!$H23),1,0)</f>
@@ -33071,7 +33083,7 @@
       </c>
       <c r="N18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(K18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(K18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(K18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(L18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(L18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(L18))=Resultat!$H23),1,0)</f>
@@ -33079,7 +33091,7 @@
       </c>
       <c r="P18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(M18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(M18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(M18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(N18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(N18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(N18))=Resultat!$H23),1,0)</f>
@@ -33095,7 +33107,7 @@
       </c>
       <c r="T18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(Q18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(Q18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(Q18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(R18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(R18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(R18))=Resultat!$H23),1,0)</f>
@@ -33103,7 +33115,7 @@
       </c>
       <c r="V18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(S18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(S18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(S18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(T18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(T18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(T18))=Resultat!$H23),1,0)</f>
@@ -33119,7 +33131,7 @@
       </c>
       <c r="Z18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(W18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(W18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(W18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(X18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(X18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(X18))=Resultat!$H23),1,0)</f>
@@ -33131,7 +33143,7 @@
       </c>
       <c r="AC18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(Z18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(Z18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(Z18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(AA18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(AA18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(AA18))=Resultat!$H23),1,0)</f>
@@ -33147,15 +33159,15 @@
       </c>
       <c r="AG18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(AD18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(AD18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(AD18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(AE18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(AE18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(AE18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(AF18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(AF18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(AF18))=Resultat!$H23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
         <f ca="1">IF(AND(Resultat!$I23&lt;&gt;"",OFFSET(Kuponger!$F19,0,3*COLUMN(AG18))=Resultat!$I23,OFFSET(Kuponger!$G19,0,3*COLUMN(AG18))=Resultat!$K23),3,0) + IF(AND(Resultat!$H23&lt;&gt;"",OFFSET(Kuponger!$E19,0,3*COLUMN(AG18))=Resultat!$H23),1,0)</f>
@@ -39918,7 +39930,7 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
@@ -39926,15 +39938,15 @@
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39950,7 +39962,7 @@
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39958,23 +39970,23 @@
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39986,19 +39998,19 @@
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40010,11 +40022,11 @@
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40022,15 +40034,15 @@
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40038,15 +40050,15 @@
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40054,11 +40066,11 @@
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B992CEA4-944A-4AA7-B23F-EFCCF8F53E26}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D8CF5F-4FBD-45DF-A5B3-6FF27AB8F0D5}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="12470" windowHeight="10660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2113,16 +2113,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12</c:v>
@@ -2131,19 +2131,19 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20</c:v>
@@ -2152,16 +2152,16 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>15</c:v>
@@ -2170,7 +2170,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>15</c:v>
@@ -2185,7 +2185,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>9</c:v>
@@ -2200,19 +2200,19 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>11</c:v>
@@ -3476,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4272,12 +4272,18 @@
       <c r="G24" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="H24" s="63">
+        <v>1</v>
+      </c>
+      <c r="I24" s="64">
+        <v>1</v>
+      </c>
       <c r="J24" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="66"/>
+      <c r="K24" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="57">
@@ -5579,7 +5585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
@@ -5631,11 +5637,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5741,81 +5747,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30229,11 +30235,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30249,23 +30267,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -33197,11 +33203,11 @@
       </c>
       <c r="D19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(A19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(A19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(A19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(B19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(B19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(B19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(C19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(C19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(C19))=Resultat!$H24),1,0)</f>
@@ -33209,7 +33215,7 @@
       </c>
       <c r="G19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(D19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(D19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(D19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(E19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(E19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(E19))=Resultat!$H24),1,0)</f>
@@ -33221,11 +33227,11 @@
       </c>
       <c r="J19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(G19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(G19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(G19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(H19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(H19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(H19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(I19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(I19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(I19))=Resultat!$H24),1,0)</f>
@@ -33233,11 +33239,11 @@
       </c>
       <c r="M19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(J19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(J19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(J19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(K19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(K19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(K19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(L19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(L19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(L19))=Resultat!$H24),1,0)</f>
@@ -33249,11 +33255,11 @@
       </c>
       <c r="Q19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(N19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(N19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(N19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(O19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(O19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(O19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(P19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(P19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(P19))=Resultat!$H24),1,0)</f>
@@ -33261,7 +33267,7 @@
       </c>
       <c r="T19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(Q19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(Q19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(Q19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(R19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(R19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(R19))=Resultat!$H24),1,0)</f>
@@ -33273,7 +33279,7 @@
       </c>
       <c r="W19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(T19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(T19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(T19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(U19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(U19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(U19))=Resultat!$H24),1,0)</f>
@@ -33293,7 +33299,7 @@
       </c>
       <c r="AB19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(Y19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(Y19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(Y19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(Z19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(Z19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(Z19))=Resultat!$H24),1,0)</f>
@@ -33313,7 +33319,7 @@
       </c>
       <c r="AG19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(AD19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(AD19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(AD19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(AE19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(AE19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(AE19))=Resultat!$H24),1,0)</f>
@@ -33321,7 +33327,7 @@
       </c>
       <c r="AI19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(AF19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(AF19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(AF19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(AG19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(AG19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(AG19))=Resultat!$H24),1,0)</f>
@@ -33329,7 +33335,7 @@
       </c>
       <c r="AK19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(AH19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(AH19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(AH19))=Resultat!$H24),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL19">
         <f ca="1">IF(AND(Resultat!$I24&lt;&gt;"",OFFSET(Kuponger!$F20,0,3*COLUMN(AI19))=Resultat!$I24,OFFSET(Kuponger!$G20,0,3*COLUMN(AI19))=Resultat!$K24),3,0) + IF(AND(Resultat!$H24&lt;&gt;"",OFFSET(Kuponger!$E20,0,3*COLUMN(AI19))=Resultat!$H24),1,0)</f>
@@ -39934,11 +39940,11 @@
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39946,7 +39952,7 @@
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39958,11 +39964,11 @@
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39970,11 +39976,11 @@
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39986,11 +39992,11 @@
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39998,7 +40004,7 @@
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40010,7 +40016,7 @@
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40030,7 +40036,7 @@
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40050,7 +40056,7 @@
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40058,7 +40064,7 @@
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40066,7 +40072,7 @@
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D8CF5F-4FBD-45DF-A5B3-6FF27AB8F0D5}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A8AE2AE-7427-4AB8-9B37-CB01EFFEB0FA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="183">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>Linnea Nilsson</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -1824,11 +1827,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1854,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,7 +2113,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -2119,7 +2122,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23</c:v>
@@ -2137,7 +2140,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
@@ -2197,10 +2200,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>14</c:v>
@@ -2212,7 +2215,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>11</c:v>
@@ -3477,7 +3480,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D9" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4307,12 +4310,18 @@
       <c r="G25" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
+      <c r="H25" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
       <c r="J25" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="66">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="57">
@@ -5637,11 +5646,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5747,81 +5756,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30235,23 +30244,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30267,11 +30264,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -33353,7 +33362,7 @@
       </c>
       <c r="C20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,0)=Resultat!$I25,OFFSET(Kuponger!$G21,0,0)=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,0)=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(A20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(A20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(A20))=Resultat!$H25),1,0)</f>
@@ -33365,7 +33374,7 @@
       </c>
       <c r="F20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(C20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(C20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(C20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(D20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(D20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(D20))=Resultat!$H25),1,0)</f>
@@ -33389,7 +33398,7 @@
       </c>
       <c r="L20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(I20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(I20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(I20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(J20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(J20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(J20))=Resultat!$H25),1,0)</f>
@@ -33469,11 +33478,11 @@
       </c>
       <c r="AF20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AC20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AC20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AC20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AD20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AD20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AD20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AE20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AE20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AE20))=Resultat!$H25),1,0)</f>
@@ -33489,7 +33498,7 @@
       </c>
       <c r="AK20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AH20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AH20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AH20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AI20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AI20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AI20))=Resultat!$H25),1,0)</f>
@@ -39936,7 +39945,7 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
@@ -39948,7 +39957,7 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39972,7 +39981,7 @@
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40052,11 +40061,11 @@
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40072,7 +40081,7 @@
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A8AE2AE-7427-4AB8-9B37-CB01EFFEB0FA}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62EFBF8C-3979-461B-BE9B-88E32761520F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="182">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -604,9 +604,6 @@
   </si>
   <si>
     <t>Linnea Nilsson</t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
 </sst>
 </file>
@@ -1827,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1854,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2119,34 +2116,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20</c:v>
@@ -2185,28 +2182,28 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>16</c:v>
@@ -2215,7 +2212,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>11</c:v>
@@ -3479,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4310,8 +4307,8 @@
       <c r="G25" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="63" t="s">
-        <v>182</v>
+      <c r="H25" s="63">
+        <v>2</v>
       </c>
       <c r="I25" s="64">
         <v>1</v>
@@ -5646,11 +5643,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5756,81 +5753,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30244,11 +30241,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30264,23 +30273,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -33370,23 +33367,23 @@
       </c>
       <c r="E20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(B20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(B20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(B20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(C20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(C20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(C20))=Resultat!$H25),1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(D20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(D20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(D20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(E20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(E20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(E20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(F20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(F20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(F20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(G20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(G20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(G20))=Resultat!$H25),1,0)</f>
@@ -33394,11 +33391,11 @@
       </c>
       <c r="K20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(H20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(H20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(H20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(I20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(I20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(I20))=Resultat!$H25),1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(J20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(J20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(J20))=Resultat!$H25),1,0)</f>
@@ -33406,7 +33403,7 @@
       </c>
       <c r="N20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(K20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(K20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(K20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(L20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(L20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(L20))=Resultat!$H25),1,0)</f>
@@ -33458,7 +33455,7 @@
       </c>
       <c r="AA20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(X20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(X20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(X20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(Y20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(Y20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(Y20))=Resultat!$H25),1,0)</f>
@@ -33466,7 +33463,7 @@
       </c>
       <c r="AC20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(Z20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(Z20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(Z20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AA20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AA20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AA20))=Resultat!$H25),1,0)</f>
@@ -33474,11 +33471,11 @@
       </c>
       <c r="AE20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AB20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AB20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AB20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AC20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AC20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AC20))=Resultat!$H25),1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AD20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AD20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AD20))=Resultat!$H25),1,0)</f>
@@ -33486,7 +33483,7 @@
       </c>
       <c r="AH20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AE20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AE20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AE20))=Resultat!$H25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AF20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AF20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AF20))=Resultat!$H25),1,0)</f>
@@ -33498,7 +33495,7 @@
       </c>
       <c r="AK20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AH20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AH20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AH20))=Resultat!$H25),1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL20">
         <f ca="1">IF(AND(Resultat!$I25&lt;&gt;"",OFFSET(Kuponger!$F21,0,3*COLUMN(AI20))=Resultat!$I25,OFFSET(Kuponger!$G21,0,3*COLUMN(AI20))=Resultat!$K25),3,0) + IF(AND(Resultat!$H25&lt;&gt;"",OFFSET(Kuponger!$E21,0,3*COLUMN(AI20))=Resultat!$H25),1,0)</f>
@@ -39953,23 +39950,23 @@
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39977,11 +39974,11 @@
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39989,7 +39986,7 @@
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40041,7 +40038,7 @@
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40049,7 +40046,7 @@
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40057,11 +40054,11 @@
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40069,7 +40066,7 @@
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40081,7 +40078,7 @@
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62EFBF8C-3979-461B-BE9B-88E32761520F}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75EF1E1D-1ED6-4F55-87B6-8BBCF425833D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="182">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2119,16 +2119,16 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12</c:v>
@@ -2140,25 +2140,25 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>20</c:v>
@@ -2167,7 +2167,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>16</c:v>
@@ -2185,16 +2185,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>16</c:v>
@@ -2203,19 +2203,19 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,7 +3477,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4342,12 +4342,18 @@
       <c r="G26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="H26" s="63">
+        <v>2</v>
+      </c>
+      <c r="I26" s="64">
+        <v>1</v>
+      </c>
       <c r="J26" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K26" s="66"/>
+      <c r="K26" s="66">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="57">
@@ -4371,12 +4377,18 @@
       <c r="G27" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
+      <c r="H27" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="64">
+        <v>0</v>
+      </c>
       <c r="J27" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K27" s="66"/>
+      <c r="K27" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="57">
@@ -5643,11 +5655,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5753,81 +5765,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30241,23 +30253,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30273,11 +30273,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -33525,7 +33537,7 @@
       </c>
       <c r="F21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(C21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(C21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(C21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(D21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(D21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(D21))=Resultat!$H26),1,0)</f>
@@ -33537,7 +33549,7 @@
       </c>
       <c r="I21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(F21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(F21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(F21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(G21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(G21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(G21))=Resultat!$H26),1,0)</f>
@@ -33553,15 +33565,15 @@
       </c>
       <c r="M21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(J21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(J21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(J21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(K21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(K21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(K21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(L21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(L21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(L21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(M21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(M21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(M21))=Resultat!$H26),1,0)</f>
@@ -33573,7 +33585,7 @@
       </c>
       <c r="R21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(O21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(O21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(O21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(P21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(P21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(P21))=Resultat!$H26),1,0)</f>
@@ -33613,19 +33625,19 @@
       </c>
       <c r="AB21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(Y21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(Y21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(Y21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(Z21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(Z21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(Z21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(AA21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(AA21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(AA21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(AB21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(AB21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(AB21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(AC21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(AC21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(AC21))=Resultat!$H26),1,0)</f>
@@ -33637,7 +33649,7 @@
       </c>
       <c r="AH21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(AE21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(AE21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(AE21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(AF21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(AF21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(AF21))=Resultat!$H26),1,0)</f>
@@ -33653,7 +33665,7 @@
       </c>
       <c r="AL21">
         <f ca="1">IF(AND(Resultat!$I26&lt;&gt;"",OFFSET(Kuponger!$F22,0,3*COLUMN(AI21))=Resultat!$I26,OFFSET(Kuponger!$G22,0,3*COLUMN(AI21))=Resultat!$K26),3,0) + IF(AND(Resultat!$H26&lt;&gt;"",OFFSET(Kuponger!$E22,0,3*COLUMN(AI21))=Resultat!$H26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
@@ -33687,7 +33699,7 @@
       </c>
       <c r="H22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(E22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(E22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(E22))=Resultat!$H27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(F22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(F22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(F22))=Resultat!$H27),1,0)</f>
@@ -33719,19 +33731,19 @@
       </c>
       <c r="P22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(M22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(M22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(M22))=Resultat!$H27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(N22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(N22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(N22))=Resultat!$H27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(O22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(O22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(O22))=Resultat!$H27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(P22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(P22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(P22))=Resultat!$H27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(Q22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(Q22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(Q22))=Resultat!$H27),1,0)</f>
@@ -33743,7 +33755,7 @@
       </c>
       <c r="V22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(S22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(S22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(S22))=Resultat!$H27),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(T22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(T22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(T22))=Resultat!$H27),1,0)</f>
@@ -33775,7 +33787,7 @@
       </c>
       <c r="AD22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(AA22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(AA22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(AA22))=Resultat!$H27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(AB22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(AB22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(AB22))=Resultat!$H27),1,0)</f>
@@ -33799,7 +33811,7 @@
       </c>
       <c r="AJ22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(AG22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(AG22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(AG22))=Resultat!$H27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
         <f ca="1">IF(AND(Resultat!$I27&lt;&gt;"",OFFSET(Kuponger!$F23,0,3*COLUMN(AH22))=Resultat!$I27,OFFSET(Kuponger!$G23,0,3*COLUMN(AH22))=Resultat!$K27),3,0) + IF(AND(Resultat!$H27&lt;&gt;"",OFFSET(Kuponger!$E23,0,3*COLUMN(AH22))=Resultat!$H27),1,0)</f>
@@ -39954,7 +39966,7 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39962,11 +39974,11 @@
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39982,31 +39994,31 @@
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40018,7 +40030,7 @@
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40042,19 +40054,19 @@
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40066,7 +40078,7 @@
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40074,7 +40086,7 @@
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40082,7 +40094,7 @@
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75EF1E1D-1ED6-4F55-87B6-8BBCF425833D}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EA30AE-CDE2-460C-9EB1-D9CDFD781616}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="182">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,112 +2110,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
+                <c:pt idx="27">
+                  <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="32">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,7 +3477,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4412,10 +4412,16 @@
       <c r="G28" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
+      <c r="H28" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="64">
+        <v>1</v>
+      </c>
       <c r="J28" s="65"/>
-      <c r="K28" s="66"/>
+      <c r="K28" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="57">
@@ -4439,12 +4445,18 @@
       <c r="G29" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="63">
+        <v>2</v>
+      </c>
+      <c r="I29" s="64">
+        <v>0</v>
+      </c>
       <c r="J29" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="66"/>
+      <c r="K29" s="66">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="57">
@@ -4468,12 +4480,18 @@
       <c r="G30" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
+      <c r="H30" s="63">
+        <v>1</v>
+      </c>
+      <c r="I30" s="64">
+        <v>2</v>
+      </c>
       <c r="J30" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K30" s="66"/>
+      <c r="K30" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="57">
@@ -5605,7 +5623,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5655,11 +5673,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5765,81 +5783,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30253,11 +30271,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30273,23 +30303,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -33861,7 +33879,7 @@
       </c>
       <c r="J23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(G23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(G23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(G23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(H23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(H23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(H23))=Resultat!$H28),1,0)</f>
@@ -33877,7 +33895,7 @@
       </c>
       <c r="N23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(K23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(K23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(K23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(L23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(L23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(L23))=Resultat!$H28),1,0)</f>
@@ -33909,7 +33927,7 @@
       </c>
       <c r="V23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(S23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(S23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(S23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(T23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(T23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(T23))=Resultat!$H28),1,0)</f>
@@ -33933,19 +33951,19 @@
       </c>
       <c r="AB23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(Y23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(Y23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(Y23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(Z23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(Z23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(Z23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(AA23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(AA23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(AA23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(AB23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(AB23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(AB23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(AC23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(AC23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(AC23))=Resultat!$H28),1,0)</f>
@@ -33953,7 +33971,7 @@
       </c>
       <c r="AG23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(AD23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(AD23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(AD23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(AE23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(AE23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(AE23))=Resultat!$H28),1,0)</f>
@@ -33965,7 +33983,7 @@
       </c>
       <c r="AJ23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(AG23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(AG23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(AG23))=Resultat!$H28),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK23">
         <f ca="1">IF(AND(Resultat!$I28&lt;&gt;"",OFFSET(Kuponger!$F24,0,3*COLUMN(AH23))=Resultat!$I28,OFFSET(Kuponger!$G24,0,3*COLUMN(AH23))=Resultat!$K28),3,0) + IF(AND(Resultat!$H28&lt;&gt;"",OFFSET(Kuponger!$E24,0,3*COLUMN(AH23))=Resultat!$H28),1,0)</f>
@@ -33987,47 +34005,47 @@
       </c>
       <c r="C24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,0)=Resultat!$I29,OFFSET(Kuponger!$G25,0,0)=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,0)=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(A24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(A24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(A24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(B24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(B24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(B24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(C24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(C24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(C24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(D24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(D24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(D24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(E24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(E24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(E24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(F24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(F24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(F24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(G24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(G24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(G24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(H24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(H24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(H24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(I24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(I24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(I24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(J24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(J24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(J24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(K24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(K24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(K24))=Resultat!$H29),1,0)</f>
@@ -34035,27 +34053,27 @@
       </c>
       <c r="O24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(L24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(L24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(L24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(M24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(M24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(M24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(N24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(N24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(N24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(O24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(O24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(O24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(P24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(P24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(P24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(Q24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(Q24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(Q24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(R24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(R24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(R24))=Resultat!$H29),1,0)</f>
@@ -34067,67 +34085,67 @@
       </c>
       <c r="W24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(T24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(T24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(T24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(U24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(U24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(U24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(V24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(V24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(V24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(W24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(W24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(W24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(X24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(X24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(X24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(Y24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(Y24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(Y24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(Z24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(Z24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(Z24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AA24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AA24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AA24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AB24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AB24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AB24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AC24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AC24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AC24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AD24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AD24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AD24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AE24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AE24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AE24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AF24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AF24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AF24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AG24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AG24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AG24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AH24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AH24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AH24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
         <f ca="1">IF(AND(Resultat!$I29&lt;&gt;"",OFFSET(Kuponger!$F25,0,3*COLUMN(AI24))=Resultat!$I29,OFFSET(Kuponger!$G25,0,3*COLUMN(AI24))=Resultat!$K29),3,0) + IF(AND(Resultat!$H29&lt;&gt;"",OFFSET(Kuponger!$E25,0,3*COLUMN(AI24))=Resultat!$H29),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
@@ -34141,59 +34159,59 @@
       </c>
       <c r="C25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,0)=Resultat!$I30,OFFSET(Kuponger!$G26,0,0)=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,0)=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(A25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(A25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(A25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(B25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(B25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(B25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(C25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(C25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(C25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(D25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(D25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(D25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(E25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(E25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(E25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(F25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(F25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(F25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(G25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(G25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(G25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(H25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(H25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(H25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(I25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(I25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(I25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(J25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(J25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(J25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(K25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(K25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(K25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(L25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(L25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(L25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(M25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(M25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(M25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(N25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(N25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(N25))=Resultat!$H30),1,0)</f>
@@ -34201,19 +34219,19 @@
       </c>
       <c r="R25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(O25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(O25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(O25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(P25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(P25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(P25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(Q25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(Q25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(Q25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(R25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(R25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(R25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(S25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(S25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(S25))=Resultat!$H30),1,0)</f>
@@ -34221,43 +34239,43 @@
       </c>
       <c r="W25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(T25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(T25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(T25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(U25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(U25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(U25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(V25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(V25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(V25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(W25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(W25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(W25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(X25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(X25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(X25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(Y25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(Y25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(Y25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(Z25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(Z25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(Z25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AA25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AA25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AA25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AB25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AB25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AB25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AC25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AC25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AC25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AD25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AD25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AD25))=Resultat!$H30),1,0)</f>
@@ -34265,23 +34283,23 @@
       </c>
       <c r="AH25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AE25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AE25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AE25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AF25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AF25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AF25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AG25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AG25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AG25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AH25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AH25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AH25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
         <f ca="1">IF(AND(Resultat!$I30&lt;&gt;"",OFFSET(Kuponger!$F26,0,3*COLUMN(AI25))=Resultat!$I30,OFFSET(Kuponger!$G26,0,3*COLUMN(AI25))=Resultat!$K30),3,0) + IF(AND(Resultat!$H30&lt;&gt;"",OFFSET(Kuponger!$E26,0,3*COLUMN(AI25))=Resultat!$H30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.35">
@@ -39954,147 +39972,147 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EA30AE-CDE2-460C-9EB1-D9CDFD781616}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7D71E06-71D5-41D2-9572-8969FDE9FF34}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="182">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -1824,11 +1824,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,11 +1851,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2110,112 +2110,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>31</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView topLeftCell="A43" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4515,12 +4515,18 @@
       <c r="G31" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
+      <c r="H31" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="64">
+        <v>1</v>
+      </c>
       <c r="J31" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="66"/>
+      <c r="K31" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="57">
@@ -4544,12 +4550,18 @@
       <c r="G32" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="H32" s="63">
+        <v>2</v>
+      </c>
+      <c r="I32" s="64">
+        <v>0</v>
+      </c>
       <c r="J32" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K32" s="66"/>
+      <c r="K32" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="57">
@@ -4904,9 +4916,6 @@
       </c>
       <c r="H44" s="68"/>
       <c r="I44" s="64"/>
-      <c r="J44" s="65" t="s">
-        <v>88</v>
-      </c>
       <c r="K44" s="66"/>
       <c r="M44" s="99" t="s">
         <v>51</v>
@@ -5317,7 +5326,9 @@
       <c r="I62" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J62" s="46"/>
+      <c r="J62" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="K62" s="79" t="s">
         <v>25</v>
       </c>
@@ -5328,7 +5339,9 @@
       <c r="I63" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="46"/>
+      <c r="J63" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="K63" s="79" t="s">
         <v>18</v>
       </c>
@@ -5339,7 +5352,9 @@
       <c r="I64" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J64" s="47"/>
+      <c r="J64" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="K64" s="79" t="s">
         <v>28</v>
       </c>
@@ -5348,7 +5363,9 @@
       <c r="I65" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J65" s="47"/>
+      <c r="J65" s="47" t="s">
+        <v>18</v>
+      </c>
       <c r="K65" s="79" t="s">
         <v>7</v>
       </c>
@@ -5578,7 +5595,7 @@
   </sheetData>
   <protectedRanges>
     <protectedRange password="DCE9" sqref="K7:K57" name="Bortaresultat"/>
-    <protectedRange password="DCE9" sqref="I7:J57" name="Hemmaresultat"/>
+    <protectedRange password="DCE9" sqref="I7:I57 J7:J43 J45:J57" name="Hemmaresultat"/>
     <protectedRange password="DCE9" sqref="H7:H57" name="Tipstecken"/>
   </protectedRanges>
   <mergeCells count="4">
@@ -5622,8 +5639,8 @@
   <dimension ref="A1:DM98"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5673,11 +5690,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5783,81 +5800,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30271,23 +30288,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30303,11 +30308,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -30417,10 +30434,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34317,7 +34334,7 @@
       </c>
       <c r="D26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(A26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(A26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(A26))=Resultat!$H31),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(B26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(B26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(B26))=Resultat!$H31),1,0)</f>
@@ -34325,7 +34342,7 @@
       </c>
       <c r="F26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(C26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(C26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(C26))=Resultat!$H31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(D26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(D26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(D26))=Resultat!$H31),1,0)</f>
@@ -34357,7 +34374,7 @@
       </c>
       <c r="N26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(K26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(K26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(K26))=Resultat!$H31),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(L26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(L26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(L26))=Resultat!$H31),1,0)</f>
@@ -34389,7 +34406,7 @@
       </c>
       <c r="V26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(S26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(S26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(S26))=Resultat!$H31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(T26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(T26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(T26))=Resultat!$H31),1,0)</f>
@@ -34413,7 +34430,7 @@
       </c>
       <c r="AB26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(Y26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(Y26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(Y26))=Resultat!$H31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(Z26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(Z26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(Z26))=Resultat!$H31),1,0)</f>
@@ -34433,15 +34450,15 @@
       </c>
       <c r="AG26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(AD26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(AD26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(AD26))=Resultat!$H31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(AE26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(AE26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(AE26))=Resultat!$H31),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(AF26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(AF26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(AF26))=Resultat!$H31),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ26">
         <f ca="1">IF(AND(Resultat!$I31&lt;&gt;"",OFFSET(Kuponger!$F27,0,3*COLUMN(AG26))=Resultat!$I31,OFFSET(Kuponger!$G27,0,3*COLUMN(AG26))=Resultat!$K31),3,0) + IF(AND(Resultat!$H31&lt;&gt;"",OFFSET(Kuponger!$E27,0,3*COLUMN(AG26))=Resultat!$H31),1,0)</f>
@@ -34479,11 +34496,11 @@
       </c>
       <c r="F27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(C27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(C27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(C27))=Resultat!$H32),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(D27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(D27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(D27))=Resultat!$H32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(E27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(E27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(E27))=Resultat!$H32),1,0)</f>
@@ -34495,7 +34512,7 @@
       </c>
       <c r="J27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(G27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(G27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(G27))=Resultat!$H32),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(H27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(H27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(H27))=Resultat!$H32),1,0)</f>
@@ -34503,7 +34520,7 @@
       </c>
       <c r="L27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(I27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(I27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(I27))=Resultat!$H32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(J27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(J27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(J27))=Resultat!$H32),1,0)</f>
@@ -34515,7 +34532,7 @@
       </c>
       <c r="O27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(L27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(L27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(L27))=Resultat!$H32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(M27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(M27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(M27))=Resultat!$H32),1,0)</f>
@@ -34555,7 +34572,7 @@
       </c>
       <c r="Y27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(V27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(V27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(V27))=Resultat!$H32),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(W27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(W27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(W27))=Resultat!$H32),1,0)</f>
@@ -34599,11 +34616,11 @@
       </c>
       <c r="AJ27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(AG27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(AG27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(AG27))=Resultat!$H32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(AH27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(AH27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(AH27))=Resultat!$H32),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL27">
         <f ca="1">IF(AND(Resultat!$I32&lt;&gt;"",OFFSET(Kuponger!$F28,0,3*COLUMN(AI27))=Resultat!$I32,OFFSET(Kuponger!$G28,0,3*COLUMN(AI27))=Resultat!$K32),3,0) + IF(AND(Resultat!$H32&lt;&gt;"",OFFSET(Kuponger!$E28,0,3*COLUMN(AI27))=Resultat!$H32),1,0)</f>
@@ -38467,35 +38484,35 @@
       <c r="B53" s="19"/>
       <c r="C53" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,0)))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,0)))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,0)))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" s="96" cm="1">
         <f t="array" aca="1" ref="D53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(A54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(A54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(A54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" s="96" cm="1">
         <f t="array" aca="1" ref="E53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(B54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(B54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(B54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="96" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(C54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(C54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(C54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" s="96" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(D54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(D54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(D54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H53" s="96" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(E54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(E54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(E54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I53" s="96" cm="1">
         <f t="array" aca="1" ref="I53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(F54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(F54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(F54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" s="96" cm="1">
         <f t="array" aca="1" ref="J53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(G54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(G54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(G54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K53" s="96" cm="1">
         <f t="array" aca="1" ref="K53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(H54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(H54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(H54))))=1,1,0)))</f>
@@ -38503,31 +38520,31 @@
       </c>
       <c r="L53" s="96" cm="1">
         <f t="array" aca="1" ref="L53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(I54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(I54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(I54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M53" s="96" cm="1">
         <f t="array" aca="1" ref="M53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(J54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(J54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(J54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="96" cm="1">
         <f t="array" aca="1" ref="N53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(K54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(K54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(K54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O53" s="96" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(L54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(L54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(L54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P53" s="96" cm="1">
         <f t="array" aca="1" ref="P53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(M54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(M54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(M54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="96" cm="1">
         <f t="array" aca="1" ref="Q53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(N54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(N54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(N54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R53" s="96" cm="1">
         <f t="array" aca="1" ref="R53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(O54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(O54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(O54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S53" s="96" cm="1">
         <f t="array" aca="1" ref="S53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(P54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(P54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(P54))))=1,1,0)))</f>
@@ -38535,79 +38552,79 @@
       </c>
       <c r="T53" s="96" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Q54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Q54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Q54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U53" s="96" cm="1">
         <f t="array" aca="1" ref="U53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(R54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(R54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(R54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="96" cm="1">
         <f t="array" aca="1" ref="V53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(S54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(S54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(S54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W53" s="96" cm="1">
         <f t="array" aca="1" ref="W53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(T54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(T54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(T54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X53" s="96" cm="1">
         <f t="array" aca="1" ref="X53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(U54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(U54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(U54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y53" s="96" cm="1">
         <f t="array" aca="1" ref="Y53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(V54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(V54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(V54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z53" s="96" cm="1">
         <f t="array" aca="1" ref="Z53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(W54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(W54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(W54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA53" s="96" cm="1">
         <f t="array" aca="1" ref="AA53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(X54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(X54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(X54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB53" s="96" cm="1">
         <f t="array" aca="1" ref="AB53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Y54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Y54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Y54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="96" cm="1">
         <f t="array" aca="1" ref="AC53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Z54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Z54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Z54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD53" s="96" cm="1">
         <f t="array" aca="1" ref="AD53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AA54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AA54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AA54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE53" s="96" cm="1">
         <f t="array" aca="1" ref="AE53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AB54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AB54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AB54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF53" s="96" cm="1">
         <f t="array" aca="1" ref="AF53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AC54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AC54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AC54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG53" s="96" cm="1">
         <f t="array" aca="1" ref="AG53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AD54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AD54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AD54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH53" s="96" cm="1">
         <f t="array" aca="1" ref="AH53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AE54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AE54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AE54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI53" s="96" cm="1">
         <f t="array" aca="1" ref="AI53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AF54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AF54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AF54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ53" s="96" cm="1">
         <f t="array" aca="1" ref="AJ53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AG54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AG54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AG54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK53" s="96" cm="1">
         <f t="array" aca="1" ref="AK53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AH54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AH54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AH54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL53" s="96" cm="1">
         <f t="array" aca="1" ref="AL53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AI54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AI54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(AI54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM53" s="96"/>
     </row>
@@ -39972,35 +39989,35 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40008,31 +40025,31 @@
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40040,79 +40057,79 @@
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7D71E06-71D5-41D2-9572-8969FDE9FF34}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D9253BF-00C1-40E7-8F34-601B71465937}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="160">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -447,69 +447,6 @@
     <t>Maximilian Markurt</t>
   </si>
   <si>
-    <t>Tyskland 9</t>
-  </si>
-  <si>
-    <t>Ungern 5</t>
-  </si>
-  <si>
-    <t>Skottland 3</t>
-  </si>
-  <si>
-    <t>Schweiz 1</t>
-  </si>
-  <si>
-    <t>Italien 7</t>
-  </si>
-  <si>
-    <t>Spanien 7</t>
-  </si>
-  <si>
-    <t>Kroatien 1</t>
-  </si>
-  <si>
-    <t>Albanien 0</t>
-  </si>
-  <si>
-    <t>England 9</t>
-  </si>
-  <si>
-    <t>Danmark 4</t>
-  </si>
-  <si>
-    <t>Serbien 4</t>
-  </si>
-  <si>
-    <t>Slovenien 0</t>
-  </si>
-  <si>
-    <t>Frankrike 7</t>
-  </si>
-  <si>
-    <t>Nederländerna 7</t>
-  </si>
-  <si>
-    <t>Polen 3</t>
-  </si>
-  <si>
-    <t>Österrike 0</t>
-  </si>
-  <si>
-    <t>Rumänien 2</t>
-  </si>
-  <si>
-    <t>Ukraina 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkiet 4 </t>
-  </si>
-  <si>
-    <t>Tjeckien 4</t>
-  </si>
-  <si>
-    <t>Georgien 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tyskland </t>
   </si>
   <si>
@@ -586,9 +523,6 @@
   </si>
   <si>
     <t>Cissi Westerlund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kroatien </t>
   </si>
   <si>
     <t xml:space="preserve">Tjeckien </t>
@@ -2110,112 +2044,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>41</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView topLeftCell="A40" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4585,12 +4519,18 @@
       <c r="G33" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
+      <c r="H33" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="64">
+        <v>1</v>
+      </c>
       <c r="J33" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="66"/>
+      <c r="K33" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="57">
@@ -4614,12 +4554,18 @@
       <c r="G34" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="H34" s="63">
+        <v>2</v>
+      </c>
+      <c r="I34" s="64">
+        <v>0</v>
+      </c>
       <c r="J34" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K34" s="66"/>
+      <c r="K34" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="57">
@@ -5382,7 +5328,9 @@
       <c r="I68" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J68" s="46"/>
+      <c r="J68" s="46" t="s">
+        <v>21</v>
+      </c>
       <c r="K68" s="79" t="s">
         <v>21</v>
       </c>
@@ -5391,7 +5339,9 @@
       <c r="I69" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J69" s="46"/>
+      <c r="J69" s="46" t="s">
+        <v>5</v>
+      </c>
       <c r="K69" s="79" t="s">
         <v>11</v>
       </c>
@@ -5400,7 +5350,9 @@
       <c r="I70" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J70" s="47"/>
+      <c r="J70" s="47" t="s">
+        <v>11</v>
+      </c>
       <c r="K70" s="79" t="s">
         <v>5</v>
       </c>
@@ -5409,7 +5361,9 @@
       <c r="I71" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J71" s="47"/>
+      <c r="J71" s="47" t="s">
+        <v>89</v>
+      </c>
       <c r="K71" s="79" t="s">
         <v>89</v>
       </c>
@@ -5638,8 +5592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -5781,97 +5735,97 @@
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
       <c r="BP1" s="139" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="BQ1" s="139"/>
       <c r="BR1" s="139"/>
       <c r="BS1" s="139" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="BT1" s="139"/>
       <c r="BU1" s="139"/>
       <c r="BV1" s="139" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="BW1" s="139"/>
       <c r="BX1" s="139"/>
       <c r="BY1" s="139" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="BZ1" s="139"/>
       <c r="CA1" s="139"/>
       <c r="CB1" s="139" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="CC1" s="139"/>
       <c r="CD1" s="139"/>
       <c r="CE1" s="139" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="CF1" s="139"/>
       <c r="CG1" s="139"/>
       <c r="CH1" s="139" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="CI1" s="139"/>
       <c r="CJ1" s="139"/>
       <c r="CK1" s="139" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="CL1" s="139"/>
       <c r="CM1" s="139"/>
       <c r="CN1" s="139" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="CO1" s="139"/>
       <c r="CP1" s="139"/>
       <c r="CQ1" s="139" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="CR1" s="139"/>
       <c r="CS1" s="139"/>
       <c r="CT1" s="139" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="CU1" s="139"/>
       <c r="CV1" s="139"/>
       <c r="CW1" s="140" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="CX1" s="139"/>
       <c r="CY1" s="139"/>
       <c r="CZ1" s="139" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="DA1" s="139"/>
       <c r="DB1" s="139"/>
       <c r="DC1" s="139" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="DD1" s="139"/>
       <c r="DE1" s="139"/>
       <c r="DF1" s="139" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="DG1" s="139"/>
       <c r="DH1" s="139"/>
@@ -10660,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -20694,7 +20648,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -24102,8 +24056,8 @@
       </c>
       <c r="AY57" s="31"/>
       <c r="AZ57" s="31"/>
-      <c r="BA57" s="103" t="s">
-        <v>129</v>
+      <c r="BA57" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="BB57" s="31"/>
       <c r="BC57" s="31"/>
@@ -24276,8 +24230,8 @@
       </c>
       <c r="AY58" s="31"/>
       <c r="AZ58" s="31"/>
-      <c r="BA58" s="103" t="s">
-        <v>130</v>
+      <c r="BA58" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="BB58" s="31"/>
       <c r="BC58" s="31"/>
@@ -24452,8 +24406,8 @@
       </c>
       <c r="AY59" s="31"/>
       <c r="AZ59" s="31"/>
-      <c r="BA59" s="103" t="s">
-        <v>131</v>
+      <c r="BA59" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="BB59" s="31"/>
       <c r="BC59" s="31"/>
@@ -24628,8 +24582,8 @@
       </c>
       <c r="AY60" s="31"/>
       <c r="AZ60" s="31"/>
-      <c r="BA60" s="103" t="s">
-        <v>132</v>
+      <c r="BA60" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="BB60" s="31"/>
       <c r="BC60" s="31"/>
@@ -25046,8 +25000,8 @@
       </c>
       <c r="AY63" s="31"/>
       <c r="AZ63" s="31"/>
-      <c r="BA63" s="103" t="s">
-        <v>133</v>
+      <c r="BA63" s="50" t="s">
+        <v>5</v>
       </c>
       <c r="BB63" s="31"/>
       <c r="BC63" s="31"/>
@@ -25130,7 +25084,7 @@
       <c r="CZ63" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="DC63" s="115" t="s">
+      <c r="DC63" s="50" t="s">
         <v>21</v>
       </c>
       <c r="DF63" s="103" t="s">
@@ -25220,8 +25174,8 @@
       </c>
       <c r="AY64" s="31"/>
       <c r="AZ64" s="31"/>
-      <c r="BA64" s="103" t="s">
-        <v>134</v>
+      <c r="BA64" s="50" t="s">
+        <v>21</v>
       </c>
       <c r="BB64" s="31"/>
       <c r="BC64" s="31"/>
@@ -25306,7 +25260,7 @@
       <c r="CZ64" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="DC64" s="115" t="s">
+      <c r="DC64" s="50" t="s">
         <v>5</v>
       </c>
       <c r="DF64" s="103" t="s">
@@ -25396,8 +25350,8 @@
       </c>
       <c r="AY65" s="31"/>
       <c r="AZ65" s="31"/>
-      <c r="BA65" s="103" t="s">
-        <v>135</v>
+      <c r="BA65" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="BB65" s="31"/>
       <c r="BC65" s="31"/>
@@ -25482,8 +25436,8 @@
       <c r="CZ65" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="DC65" s="115" t="s">
-        <v>176</v>
+      <c r="DC65" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="DF65" s="103" t="s">
         <v>11</v>
@@ -25572,8 +25526,8 @@
       </c>
       <c r="AY66" s="31"/>
       <c r="AZ66" s="31"/>
-      <c r="BA66" s="103" t="s">
-        <v>136</v>
+      <c r="BA66" s="50" t="s">
+        <v>89</v>
       </c>
       <c r="BB66" s="31"/>
       <c r="BC66" s="31"/>
@@ -25658,7 +25612,7 @@
       <c r="CZ66" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="DC66" s="115" t="s">
+      <c r="DC66" s="50" t="s">
         <v>89</v>
       </c>
       <c r="DF66" s="103" t="s">
@@ -25990,8 +25944,8 @@
       </c>
       <c r="AY69" s="31"/>
       <c r="AZ69" s="31"/>
-      <c r="BA69" s="103" t="s">
-        <v>137</v>
+      <c r="BA69" s="50" t="s">
+        <v>10</v>
       </c>
       <c r="BB69" s="31"/>
       <c r="BC69" s="31"/>
@@ -26164,8 +26118,8 @@
       </c>
       <c r="AY70" s="31"/>
       <c r="AZ70" s="31"/>
-      <c r="BA70" s="103" t="s">
-        <v>138</v>
+      <c r="BA70" s="50" t="s">
+        <v>8</v>
       </c>
       <c r="BB70" s="31"/>
       <c r="BC70" s="31"/>
@@ -26340,8 +26294,8 @@
       </c>
       <c r="AY71" s="31"/>
       <c r="AZ71" s="31"/>
-      <c r="BA71" s="103" t="s">
-        <v>139</v>
+      <c r="BA71" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="BB71" s="31"/>
       <c r="BC71" s="31"/>
@@ -26516,8 +26470,8 @@
       </c>
       <c r="AY72" s="31"/>
       <c r="AZ72" s="31"/>
-      <c r="BA72" s="103" t="s">
-        <v>140</v>
+      <c r="BA72" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="BB72" s="31"/>
       <c r="BC72" s="31"/>
@@ -26934,8 +26888,8 @@
       </c>
       <c r="AY75" s="31"/>
       <c r="AZ75" s="31"/>
-      <c r="BA75" s="103" t="s">
-        <v>141</v>
+      <c r="BA75" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="BB75" s="31"/>
       <c r="BC75" s="31"/>
@@ -27108,8 +27062,8 @@
       </c>
       <c r="AY76" s="31"/>
       <c r="AZ76" s="31"/>
-      <c r="BA76" s="103" t="s">
-        <v>142</v>
+      <c r="BA76" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="BB76" s="31"/>
       <c r="BC76" s="31"/>
@@ -27284,8 +27238,8 @@
       </c>
       <c r="AY77" s="31"/>
       <c r="AZ77" s="31"/>
-      <c r="BA77" s="103" t="s">
-        <v>143</v>
+      <c r="BA77" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="BB77" s="31"/>
       <c r="BC77" s="31"/>
@@ -27460,8 +27414,8 @@
       </c>
       <c r="AY78" s="31"/>
       <c r="AZ78" s="31"/>
-      <c r="BA78" s="103" t="s">
-        <v>144</v>
+      <c r="BA78" s="50" t="s">
+        <v>12</v>
       </c>
       <c r="BB78" s="31"/>
       <c r="BC78" s="31"/>
@@ -27878,7 +27832,7 @@
       </c>
       <c r="AY81" s="31"/>
       <c r="AZ81" s="31"/>
-      <c r="BA81" s="103" t="s">
+      <c r="BA81" s="50" t="s">
         <v>9</v>
       </c>
       <c r="BB81" s="31"/>
@@ -28052,7 +28006,7 @@
       </c>
       <c r="AY82" s="31"/>
       <c r="AZ82" s="31"/>
-      <c r="BA82" s="103" t="s">
+      <c r="BA82" s="50" t="s">
         <v>23</v>
       </c>
       <c r="BB82" s="31"/>
@@ -28228,8 +28182,8 @@
       </c>
       <c r="AY83" s="31"/>
       <c r="AZ83" s="31"/>
-      <c r="BA83" s="103" t="s">
-        <v>145</v>
+      <c r="BA83" s="50" t="s">
+        <v>92</v>
       </c>
       <c r="BB83" s="31"/>
       <c r="BC83" s="31"/>
@@ -28404,8 +28358,8 @@
       </c>
       <c r="AY84" s="31"/>
       <c r="AZ84" s="31"/>
-      <c r="BA84" s="103" t="s">
-        <v>146</v>
+      <c r="BA84" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="BB84" s="31"/>
       <c r="BC84" s="31"/>
@@ -28822,7 +28776,7 @@
       </c>
       <c r="AY87" s="31"/>
       <c r="AZ87" s="31"/>
-      <c r="BA87" s="103" t="s">
+      <c r="BA87" s="50" t="s">
         <v>26</v>
       </c>
       <c r="BB87" s="31"/>
@@ -28996,8 +28950,8 @@
       </c>
       <c r="AY88" s="31"/>
       <c r="AZ88" s="31"/>
-      <c r="BA88" s="103" t="s">
-        <v>147</v>
+      <c r="BA88" s="50" t="s">
+        <v>4</v>
       </c>
       <c r="BB88" s="31"/>
       <c r="BC88" s="31"/>
@@ -29172,8 +29126,8 @@
       </c>
       <c r="AY89" s="31"/>
       <c r="AZ89" s="31"/>
-      <c r="BA89" s="103" t="s">
-        <v>148</v>
+      <c r="BA89" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="BB89" s="31"/>
       <c r="BC89" s="31"/>
@@ -29259,7 +29213,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29348,8 +29302,8 @@
       </c>
       <c r="AY90" s="31"/>
       <c r="AZ90" s="31"/>
-      <c r="BA90" s="103" t="s">
-        <v>149</v>
+      <c r="BA90" s="50" t="s">
+        <v>93</v>
       </c>
       <c r="BB90" s="31"/>
       <c r="BC90" s="31"/>
@@ -29435,7 +29389,7 @@
         <v>93</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="DF90" s="103" t="s">
         <v>93</v>
@@ -29458,7 +29412,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29576,7 +29530,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29618,7 +29572,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29638,7 +29592,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29760,7 +29714,7 @@
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
@@ -29785,7 +29739,7 @@
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
@@ -29793,13 +29747,13 @@
         <v>117</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
@@ -30043,7 +29997,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30073,7 +30027,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30269,7 +30223,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange password="DCE9" sqref="AF57:AF60 AI57:AI60 AL57:AL60 AO57:AO60 AR57:AR60 AU57:AU60 AX57:AX60 BG57:BG60 BJ57:BJ60 BM57:BM60 AF63:AF66 AI63:AI66 AL63:AL66 AO63:AO66 AR63:AR66 AU63:AU66 AX63:AX66 BG63:BG66 BJ63:BJ66 BM63:BM66 AF69:AF72 AI69:AI72 AL69:AL72 AO69:AO72 AR69:AR72 AU69:AU72 AX69:AX72 BG69:BG72 BJ69:BJ72 BM69:BM72 AF75:AF78 AI75:AI78 AL75:AL78 AO75:AO78 AR75:AR78 AU75:AU78 AX75:AX78 BG75:BG78 BJ75:BJ78 BM75:BM78 AF81:AF84 AI81:AI84 AL81:AL84 AO81:AO84 AR81:AR84 AU81:AU84 AX81:AX84 BG81:BG84 BJ81:BJ84 BM81:BM84 AF87:AF90 AI87:AI90 AL87:AL90 AO87:AO90 AR87:AR90 AU87:AU90 AX87:AX90 BG87:BG90 BJ87:BJ90 BM87:BM90 BP57:BP60 BS57:BS60 CB57:CB60 CE57:CE60 CK57:CK60 CN57:CN60 CT57:CT60 BP63:BP66 BS63:BS66 CB63:CB66 CE63:CE66 CK63:CK66 CN63:CN66 CT63:CT66 BP69:BP72 BS69:BS72 CB69:CB72 CE69:CE72 CK69:CK72 CN69:CN72 CT69:CT72 BP75:BP78 BS75:BS78 CB75:CB78 CE75:CE78 CK75:CK78 CN75:CN78 CT75:CT78 BP81:BP84 BS81:BS84 CB81:CB84 CE81:CE84 CK81:CK84 CN81:CN84 CT81:CT84 BP87:BP90 BS87:BS90 CB87:CB90 CE87:CE90 CK87:CK90 CN87:CN90 CT87:CT90" name="Tipstecken_2"/>
+    <protectedRange password="DCE9" sqref="AF57:AF60 AI57:AI60 AL57:AL60 AO57:AO60 AR57:AR60 AU57:AU60 AX57:AX60 BG57:BG60 BJ57:BJ60 BM57:BM60 AF63:AF66 AI63:AI66 AL63:AL66 AO63:AO66 AR63:AR66 AU63:AU66 AX63:AX66 BG63:BG66 BJ63:BJ66 BM63:BM66 AF69:AF72 AI69:AI72 AL69:AL72 AO69:AO72 AR69:AR72 AU69:AU72 AX69:AX72 BG69:BG72 BJ69:BJ72 BM69:BM72 AF75:AF78 AI75:AI78 AL75:AL78 AO75:AO78 AR75:AR78 AU75:AU78 AX75:AX78 BG75:BG78 BJ75:BJ78 BM75:BM78 AF81:AF84 AI81:AI84 AL81:AL84 AO81:AO84 AR81:AR84 AU81:AU84 AX81:AX84 BG81:BG84 BJ81:BJ84 BM81:BM84 AF87:AF90 AI87:AI90 AL87:AL90 AO87:AO90 AR87:AR90 AU87:AU90 AX87:AX90 BG87:BG90 BJ87:BJ90 BM87:BM90 BP57:BP60 BS57:BS60 CB57:CB60 CE57:CE60 CK57:CK60 CN57:CN60 CT57:CT60 BP63:BP66 BS63:BS66 CB63:CB66 CE63:CE66 CK63:CK66 CN63:CN66 CT63:CT66 BP69:BP72 BS69:BS72 CB69:CB72 CE69:CE72 CK69:CK72 CN69:CN72 CT69:CT72 BP75:BP78 BS75:BS78 CB75:CB78 CE75:CE78 CK75:CK78 CN75:CN78 CT75:CT78 BP81:BP84 BS81:BS84 CB81:CB84 CE81:CE84 CK81:CK84 CN81:CN84 CT81:CT84 BP87:BP90 BS87:BS90 CB87:CB90 CE87:CE90 CK87:CK90 CN87:CN90 CT87:CT90 DC63:DC66 BA57:BA60 BA63:BA66 BA69:BA72 BA75:BA78 BA81:BA84 BA87:BA90" name="Tipstecken_2"/>
     <protectedRange password="DCE9" sqref="K57:K60 K63:K66 K69:K72 K75:K78 K81:K84 K87:K90" name="Tipstecken_4_1"/>
     <protectedRange password="DCE9" sqref="N57:N60 N63:N66 N69:N72 N75:N78 N81:N84 N87:N90" name="Tipstecken_5_1"/>
     <protectedRange password="DCE9" sqref="V3:V53" name="Bortaresultat_1"/>
@@ -30277,7 +30231,6 @@
     <protectedRange password="DCE9" sqref="W57:W60 W63:W66 W69:W72 W75:W78 W81:W84 W87:W90" name="Tipstecken_3"/>
     <protectedRange password="DCE9" sqref="Z57:Z60 Z63:Z66 Z69:Z72 Z75:Z78 Z81:Z84 Z87:Z90" name="Tipstecken_6"/>
     <protectedRange password="DCE9" sqref="AC57:AC60 AC63:AC66 AC69:AC72 AC75:AC78 AC81:AC84 AC87:AC90" name="Tipstecken_7"/>
-    <protectedRange password="DCE9" sqref="BA57:BA60 BA63:BA66 BA69:BA72 BA75:BA78 BA81:BA84 BA87:BA90" name="Tipstecken_1"/>
     <protectedRange password="DCE9" sqref="BD57:BD60 BD63:BD66 BD69:BD72 BD75:BD78 BD81:BD84 BD87:BD90" name="Tipstecken_4"/>
     <protectedRange password="DCE9" sqref="BV57:BV60 BV63:BV66 BV69:BV72 BV75:BV78 BV81:BV84 BV87:BV90" name="Tipstecken_5"/>
     <protectedRange password="DCE9" sqref="BY57:BY60 BY63:BY66 BY69:BY72 BY75:BY78 BY81:BY84 BY87:BY90" name="Tipstecken_8"/>
@@ -30346,22 +30299,22 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q75:Q78 AF75:AF78 AI75:AI78 BJ75:BJ78 BP75:BP78 BS75:BS78 CE75:CE78 CK75:CK78 CZ75:CZ78" xr:uid="{E14F03BD-32C5-4C28-B824-4CE1604D9CE8}">
       <formula1>$N$26:$N$29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H87:H90 K87:K90 N87:N90 T87:T90 W87:W90 Z87:Z90 AC87:AC90 BA87:BA90 BD87:BD90 BV87:BV90 BY87:BY90 CH87:CH90 CQ87:CQ90 CW87:CW90 DF87:DF90" xr:uid="{BF20269D-BF1B-4962-B1AF-88A77B3324BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H87:H90 K87:K90 N87:N90 T87:T90 W87:W90 Z87:Z90 AC87:AC90 DF87:DF90 BD87:BD90 BV87:BV90 BY87:BY90 CH87:CH90 CQ87:CQ90 CW87:CW90" xr:uid="{BF20269D-BF1B-4962-B1AF-88A77B3324BB}">
       <formula1>$N$38:$N$41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H81:H84 K81:K84 N81:N84 T81:T84 W81:W84 Z81:Z84 AC81:AC84 BA81:BA84 BD81:BD84 BV81:BV84 BY81:BY84 CH81:CH84 CQ81:CQ84 CW81:CW84 DF81:DF84" xr:uid="{3A908A39-BB8D-4F69-B74D-F9E2431E953C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H81:H84 K81:K84 N81:N84 T81:T84 W81:W84 Z81:Z84 AC81:AC84 DF81:DF84 BD81:BD84 BV81:BV84 BY81:BY84 CH81:CH84 CQ81:CQ84 CW81:CW84" xr:uid="{3A908A39-BB8D-4F69-B74D-F9E2431E953C}">
       <formula1>$N$32:$N$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H75:H78 K75:K78 N75:N78 T75:T78 W75:W78 Z75:Z78 AC75:AC78 BA75:BA78 BD75:BD78 BV75:BV78 BY75:BY78 CH75:CH78 CQ75:CQ78 CW75:CW78 DF75:DF78" xr:uid="{03917967-4074-4CD0-AA9E-C27C4A3EC292}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H75:H78 K75:K78 N75:N78 T75:T78 W75:W78 Z75:Z78 AC75:AC78 DF75:DF78 BD75:BD78 BV75:BV78 BY75:BY78 CH75:CH78 CQ75:CQ78 CW75:CW78" xr:uid="{03917967-4074-4CD0-AA9E-C27C4A3EC292}">
       <formula1>$N$26:$N$29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69:H72 K69:K72 N69:N72 T69:T72 W69:W72 Z69:Z72 AC69:AC72 BA69:BA72 BD69:BD72 BV69:BV72 BY69:BY72 CH69:CH72 CQ69:CQ72 CW69:CW72 DF69:DF72" xr:uid="{C0F31157-D79C-4701-A6CD-23D15C408315}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69:H72 K69:K72 N69:N72 T69:T72 W69:W72 Z69:Z72 AC69:AC72 DF69:DF72 BD69:BD72 BV69:BV72 BY69:BY72 CH69:CH72 CQ69:CQ72 CW69:CW72" xr:uid="{C0F31157-D79C-4701-A6CD-23D15C408315}">
       <formula1>$N$20:$N$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H57:H60 K57:K60 N57:N60 T57:T60 W57:W60 Z57:Z60 AC57:AC60 BA57:BA60 BD57:BD60 BV57:BV60 BY57:BY60 CH57:CH60 CQ57:CQ60 CW57:CW60 DF57:DF60" xr:uid="{5A3246F3-66DA-42F4-9B35-A9F1BE8A5DF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H57:H60 K57:K60 N57:N60 T57:T60 W57:W60 Z57:Z60 AC57:AC60 DF57:DF60 BD57:BD60 BV57:BV60 BY57:BY60 CH57:CH60 CQ57:CQ60 CW57:CW60" xr:uid="{5A3246F3-66DA-42F4-9B35-A9F1BE8A5DF1}">
       <formula1>$N$8:$N$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H63:H66 K63:K66 N63:N66 T63:T66 W63:W66 Z63:Z66 AC63:AC66 BA63:BA66 BD63:BD66 BV63:BV66 BY63:BY66 CH63:CH66 CQ63:CQ66 CW63:CW66 DF63:DF66" xr:uid="{8D340A08-96C3-4502-A45A-E107221B509D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H63:H66 K63:K66 N63:N66 T63:T66 W63:W66 Z63:Z66 AC63:AC66 DF63:DF66 BD63:BD66 BV63:BV66 BY63:BY66 CH63:CH66 CQ63:CQ66 CW63:CW66" xr:uid="{8D340A08-96C3-4502-A45A-E107221B509D}">
       <formula1>$N$14:$N$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E90" xr:uid="{C1F2C275-D6F8-4086-B302-CBC0CE524097}">
@@ -30392,37 +30345,37 @@
           <x14:formula1>
             <xm:f>Resultat!$K$62:$K$65</xm:f>
           </x14:formula1>
-          <xm:sqref>AO57:AO60 CN57:CN60 AL57:AL60 CT57:CT60 BM57:BM60 AR57:AR60 AU57:AU60 CB57:CB60 AX57:AX60 BG57:BG60</xm:sqref>
+          <xm:sqref>AO57:AO60 CN57:CN60 AL57:AL60 CT57:CT60 BM57:BM60 AR57:AR60 AU57:AU60 CB57:CB60 AX57:AX60 BG57:BG60 BA57:BA60</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4296BCEB-50C9-4A56-8D69-584B61608784}">
           <x14:formula1>
             <xm:f>Resultat!$K$68:$K$71</xm:f>
           </x14:formula1>
-          <xm:sqref>AO63:AO66 CN63:CN66 AL63:AL66 CT63:CT66 BM63:BM66 AR63:AR66 AU63:AU66 CB63:CB66 AX63:AX66 BG63:BG66</xm:sqref>
+          <xm:sqref>AO63:AO66 CN63:CN66 AL63:AL66 CT63:CT66 BM63:BM66 AR63:AR66 AU63:AU66 CB63:CB66 AX63:AX66 BG63:BG66 DC63:DC66 BA63:BA66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DBDF8DD-DFD1-4C53-BBE8-572D0FAC2D7A}">
           <x14:formula1>
             <xm:f>Resultat!$K$74:$K$77</xm:f>
           </x14:formula1>
-          <xm:sqref>AO69:AO72 CN69:CN72 AL69:AL72 CT69:CT72 BM69:BM72 AR69:AR72 AU69:AU72 CB69:CB72 AX69:AX72 BG69:BG72</xm:sqref>
+          <xm:sqref>AO69:AO72 CN69:CN72 AL69:AL72 CT69:CT72 BM69:BM72 AR69:AR72 AU69:AU72 CB69:CB72 AX69:AX72 BG69:BG72 BA69:BA72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06E01187-34CA-4576-9485-339F03DB105C}">
           <x14:formula1>
             <xm:f>Resultat!$K$80:$K$83</xm:f>
           </x14:formula1>
-          <xm:sqref>AO75:AO78 CN75:CN78 AL75:AL78 CT75:CT78 BM75:BM78 AR75:AR78 AU75:AU78 CB75:CB78 AX75:AX78 BG75:BG78</xm:sqref>
+          <xm:sqref>AO75:AO78 CN75:CN78 AL75:AL78 CT75:CT78 BM75:BM78 AR75:AR78 AU75:AU78 CB75:CB78 AX75:AX78 BG75:BG78 BA75:BA78</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{745EB80B-D01E-467A-AD74-134762F0E1DC}">
           <x14:formula1>
             <xm:f>Resultat!$K$86:$K$89</xm:f>
           </x14:formula1>
-          <xm:sqref>AO81:AO84 CN81:CN84 AL81:AL84 CT81:CT84 BM81:BM84 AR81:AR84 AU81:AU84 CB81:CB84 AX81:AX84 BG81:BG84</xm:sqref>
+          <xm:sqref>AO81:AO84 CN81:CN84 AL81:AL84 CT81:CT84 BM81:BM84 AR81:AR84 AU81:AU84 CB81:CB84 AX81:AX84 BG81:BG84 BA81:BA84</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E46F9096-5B0D-4E70-BA0C-FC8CE8520FF8}">
           <x14:formula1>
             <xm:f>Resultat!$K$92:$K$95</xm:f>
           </x14:formula1>
-          <xm:sqref>AO87:AO90 CN87:CN90 AL87:AL90 CT87:CT90 BM87:BM90 AR87:AR90 AU87:AU90 CB87:CB90 AX87:AX90 BG87:BG90</xm:sqref>
+          <xm:sqref>AO87:AO90 CN87:CN90 AL87:AL90 CT87:CT90 BM87:BM90 AR87:AR90 AU87:AU90 CB87:CB90 AX87:AX90 BG87:BG90 BA87:BA90</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30434,10 +30387,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomLeft" activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34638,11 +34591,11 @@
       </c>
       <c r="C28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,0)=Resultat!$I33,OFFSET(Kuponger!$G29,0,0)=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,0)=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(A28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(A28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(A28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(B28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(B28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(B28))=Resultat!$H33),1,0)</f>
@@ -34650,15 +34603,15 @@
       </c>
       <c r="F28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(C28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(C28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(C28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(D28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(D28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(D28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(E28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(E28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(E28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(F28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(F28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(F28))=Resultat!$H33),1,0)</f>
@@ -34666,7 +34619,7 @@
       </c>
       <c r="J28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(G28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(G28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(G28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(H28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(H28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(H28))=Resultat!$H33),1,0)</f>
@@ -34686,11 +34639,11 @@
       </c>
       <c r="O28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(L28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(L28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(L28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(M28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(M28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(M28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(N28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(N28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(N28))=Resultat!$H33),1,0)</f>
@@ -34698,7 +34651,7 @@
       </c>
       <c r="R28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(O28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(O28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(O28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(P28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(P28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(P28))=Resultat!$H33),1,0)</f>
@@ -34706,7 +34659,7 @@
       </c>
       <c r="T28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(Q28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(Q28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(Q28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(R28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(R28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(R28))=Resultat!$H33),1,0)</f>
@@ -34714,7 +34667,7 @@
       </c>
       <c r="V28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(S28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(S28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(S28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(T28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(T28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(T28))=Resultat!$H33),1,0)</f>
@@ -34722,7 +34675,7 @@
       </c>
       <c r="X28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(U28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(U28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(U28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(V28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(V28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(V28))=Resultat!$H33),1,0)</f>
@@ -34730,7 +34683,7 @@
       </c>
       <c r="Z28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(W28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(W28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(W28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(X28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(X28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(X28))=Resultat!$H33),1,0)</f>
@@ -34742,7 +34695,7 @@
       </c>
       <c r="AC28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(Z28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(Z28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(Z28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(AA28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(AA28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(AA28))=Resultat!$H33),1,0)</f>
@@ -34758,11 +34711,11 @@
       </c>
       <c r="AG28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(AD28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(AD28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(AD28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(AE28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(AE28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(AE28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(AF28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(AF28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(AF28))=Resultat!$H33),1,0)</f>
@@ -34770,7 +34723,7 @@
       </c>
       <c r="AJ28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(AG28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(AG28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(AG28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(AH28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(AH28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(AH28))=Resultat!$H33),1,0)</f>
@@ -34778,7 +34731,7 @@
       </c>
       <c r="AL28">
         <f ca="1">IF(AND(Resultat!$I33&lt;&gt;"",OFFSET(Kuponger!$F29,0,3*COLUMN(AI28))=Resultat!$I33,OFFSET(Kuponger!$G29,0,3*COLUMN(AI28))=Resultat!$K33),3,0) + IF(AND(Resultat!$H33&lt;&gt;"",OFFSET(Kuponger!$E29,0,3*COLUMN(AI28))=Resultat!$H33),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.35">
@@ -34792,79 +34745,79 @@
       </c>
       <c r="C29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,0)=Resultat!$I34,OFFSET(Kuponger!$G30,0,0)=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,0)=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(A29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(A29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(A29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(B29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(B29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(B29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(C29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(C29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(C29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(D29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(D29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(D29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(E29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(E29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(E29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(F29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(F29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(F29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(G29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(G29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(G29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(H29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(H29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(H29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(I29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(I29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(I29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(J29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(J29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(J29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(K29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(K29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(K29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(L29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(L29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(L29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(M29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(M29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(M29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(N29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(N29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(N29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(O29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(O29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(O29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(P29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(P29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(P29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(Q29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(Q29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(Q29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(R29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(R29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(R29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(S29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(S29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(S29))=Resultat!$H34),1,0)</f>
@@ -34872,67 +34825,67 @@
       </c>
       <c r="W29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(T29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(T29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(T29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(U29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(U29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(U29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(V29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(V29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(V29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(W29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(W29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(W29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(X29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(X29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(X29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(Y29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(Y29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(Y29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(Z29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(Z29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(Z29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AA29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AA29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AA29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AB29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AB29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AB29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AC29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AC29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AC29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AD29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AD29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AD29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AE29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AE29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AE29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AF29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AF29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AF29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AG29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AG29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AG29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AH29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AH29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AH29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29">
         <f ca="1">IF(AND(Resultat!$I34&lt;&gt;"",OFFSET(Kuponger!$F30,0,3*COLUMN(AI29))=Resultat!$I34,OFFSET(Kuponger!$G30,0,3*COLUMN(AI29))=Resultat!$K34),3,0) + IF(AND(Resultat!$H34&lt;&gt;"",OFFSET(Kuponger!$E30,0,3*COLUMN(AI29))=Resultat!$H34),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.35">
@@ -38548,7 +38501,7 @@
       </c>
       <c r="S53" s="96" cm="1">
         <f t="array" aca="1" ref="S53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(P54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(P54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(P54))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="96" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Q54))))=4,6,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Q54))))=2,3,IF(SUMPRODUCT(--(Resultat!$J62:$J65=OFFSET(Kuponger!$E57:$E60,0,3*COLUMN(Q54))))=1,1,0)))</f>
@@ -38635,79 +38588,79 @@
       <c r="B54" s="19"/>
       <c r="C54" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,0)))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,0)))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,0)))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54" s="96" cm="1">
         <f t="array" aca="1" ref="D54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(A55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(A55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(A55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54" s="96" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(B55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(B55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(B55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F54" s="96" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(C55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(C55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(C55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="96" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(D55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(D55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(D55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H54" s="96" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(E55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(E55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(E55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54" s="96" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(F55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(F55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(F55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J54" s="96" cm="1">
         <f t="array" aca="1" ref="J54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(G55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(G55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(G55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="96" cm="1">
         <f t="array" aca="1" ref="K54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(H55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(H55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(H55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L54" s="96" cm="1">
         <f t="array" aca="1" ref="L54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(I55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(I55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(I55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M54" s="96" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(J55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(J55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(J55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N54" s="96" cm="1">
         <f t="array" aca="1" ref="N54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(K55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(K55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(K55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O54" s="96" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(L55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(L55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(L55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P54" s="96" cm="1">
         <f t="array" aca="1" ref="P54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(M55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(M55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(M55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q54" s="96" cm="1">
         <f t="array" aca="1" ref="Q54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(N55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(N55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(N55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R54" s="96" cm="1">
         <f t="array" aca="1" ref="R54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(O55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(O55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(O55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S54" s="96" cm="1">
         <f t="array" aca="1" ref="S54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(P55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(P55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(P55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T54" s="96" cm="1">
         <f t="array" aca="1" ref="T54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Q55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Q55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Q55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U54" s="96" cm="1">
         <f t="array" aca="1" ref="U54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(R55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(R55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(R55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V54" s="96" cm="1">
         <f t="array" aca="1" ref="V54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(S55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(S55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(S55))))=1,1,0)))</f>
@@ -38715,67 +38668,67 @@
       </c>
       <c r="W54" s="96" cm="1">
         <f t="array" aca="1" ref="W54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(T55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(T55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(T55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X54" s="96" cm="1">
         <f t="array" aca="1" ref="X54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(U55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(U55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(U55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="96" cm="1">
         <f t="array" aca="1" ref="Y54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(V55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(V55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(V55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z54" s="96" cm="1">
         <f t="array" aca="1" ref="Z54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(W55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(W55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(W55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA54" s="96" cm="1">
         <f t="array" aca="1" ref="AA54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(X55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(X55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(X55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB54" s="96" cm="1">
         <f t="array" aca="1" ref="AB54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Y55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Y55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Y55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC54" s="96" cm="1">
         <f t="array" aca="1" ref="AC54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Z55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Z55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(Z55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD54" s="96" cm="1">
         <f t="array" aca="1" ref="AD54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AA55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AA55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AA55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE54" s="96" cm="1">
         <f t="array" aca="1" ref="AE54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AB55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AB55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AB55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF54" s="96" cm="1">
         <f t="array" aca="1" ref="AF54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AC55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AC55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AC55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG54" s="96" cm="1">
         <f t="array" aca="1" ref="AG54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AD55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AD55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AD55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH54" s="96" cm="1">
         <f t="array" aca="1" ref="AH54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AE55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AE55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AE55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI54" s="96" cm="1">
         <f t="array" aca="1" ref="AI54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AF55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AF55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AF55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ54" s="96" cm="1">
         <f t="array" aca="1" ref="AJ54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AG55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AG55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AG55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK54" s="96" cm="1">
         <f t="array" aca="1" ref="AK54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AH55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AH55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AH55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL54" s="96" cm="1">
         <f t="array" aca="1" ref="AL54" ca="1">IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AI55))))=4,6,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AI55))))=2,3,IF(SUMPRODUCT(--(Resultat!$J68:$J71=OFFSET(Kuponger!$E63:$E66,0,3*COLUMN(AI55))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM54" s="96"/>
     </row>
@@ -39989,147 +39942,147 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D9253BF-00C1-40E7-8F34-601B71465937}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BCB93B-F301-4902-BF54-5BFD78E964F7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="160">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -2047,13 +2047,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>46</c:v>
@@ -2062,19 +2062,19 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>24</c:v>
@@ -2089,46 +2089,46 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>34</c:v>
@@ -2137,19 +2137,19 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView topLeftCell="A49" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4589,12 +4589,18 @@
       <c r="G35" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
+      <c r="H35" s="63">
+        <v>2</v>
+      </c>
+      <c r="I35" s="64">
+        <v>2</v>
+      </c>
       <c r="J35" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="66"/>
+      <c r="K35" s="66">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="57">
@@ -4618,12 +4624,18 @@
       <c r="G36" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
+      <c r="H36" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="64">
+        <v>1</v>
+      </c>
       <c r="J36" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="66"/>
+      <c r="K36" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="57">
@@ -5424,7 +5436,9 @@
       <c r="I80" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J80" s="47"/>
+      <c r="J80" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="K80" s="79" t="s">
         <v>22</v>
       </c>
@@ -5433,7 +5447,9 @@
       <c r="I81" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J81" s="47"/>
+      <c r="J81" s="47" t="s">
+        <v>27</v>
+      </c>
       <c r="K81" s="79" t="s">
         <v>30</v>
       </c>
@@ -5442,7 +5458,9 @@
       <c r="I82" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J82" s="47"/>
+      <c r="J82" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="K82" s="79" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +5469,9 @@
       <c r="I83" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J83" s="47"/>
+      <c r="J83" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="K83" s="79" t="s">
         <v>27</v>
       </c>
@@ -5592,9 +5612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30387,10 +30407,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="S57" sqref="S57"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35129,11 +35149,11 @@
       </c>
       <c r="V31">
         <f ca="1">IF(AND(Resultat!$I36&lt;&gt;"",OFFSET(Kuponger!$F32,0,3*COLUMN(S31))=Resultat!$I36,OFFSET(Kuponger!$G32,0,3*COLUMN(S31))=Resultat!$K36),3,0) + IF(AND(Resultat!$H36&lt;&gt;"",OFFSET(Kuponger!$E32,0,3*COLUMN(S31))=Resultat!$H36),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <f ca="1">IF(AND(Resultat!$I36&lt;&gt;"",OFFSET(Kuponger!$F32,0,3*COLUMN(T31))=Resultat!$I36,OFFSET(Kuponger!$G32,0,3*COLUMN(T31))=Resultat!$K36),3,0) + IF(AND(Resultat!$H36&lt;&gt;"",OFFSET(Kuponger!$E32,0,3*COLUMN(T31))=Resultat!$H36),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X31">
         <f ca="1">IF(AND(Resultat!$I36&lt;&gt;"",OFFSET(Kuponger!$F32,0,3*COLUMN(U31))=Resultat!$I36,OFFSET(Kuponger!$G32,0,3*COLUMN(U31))=Resultat!$K36),3,0) + IF(AND(Resultat!$H36&lt;&gt;"",OFFSET(Kuponger!$E32,0,3*COLUMN(U31))=Resultat!$H36),1,0)</f>
@@ -38894,7 +38914,7 @@
       </c>
       <c r="D56" s="96" cm="1">
         <f t="array" aca="1" ref="D56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(A57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(A57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(A57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="96" cm="1">
         <f t="array" aca="1" ref="E56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(B57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(B57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(B57))))=1,1,0)))</f>
@@ -38902,7 +38922,7 @@
       </c>
       <c r="F56" s="96" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(C57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(C57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(C57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" s="96" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(D57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(D57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(D57))))=1,1,0)))</f>
@@ -38914,15 +38934,15 @@
       </c>
       <c r="I56" s="96" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(F57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(F57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(F57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="96" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(G57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(G57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(G57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="96" cm="1">
         <f t="array" aca="1" ref="K56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(H57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(H57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(H57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="96" cm="1">
         <f t="array" aca="1" ref="L56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(I57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(I57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(I57))))=1,1,0)))</f>
@@ -38930,7 +38950,7 @@
       </c>
       <c r="M56" s="96" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(J57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(J57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(J57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="96" cm="1">
         <f t="array" aca="1" ref="N56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(K57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(K57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(K57))))=1,1,0)))</f>
@@ -38950,7 +38970,7 @@
       </c>
       <c r="R56" s="96" cm="1">
         <f t="array" aca="1" ref="R56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(O57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(O57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(O57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="96" cm="1">
         <f t="array" aca="1" ref="S56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(P57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(P57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(P57))))=1,1,0)))</f>
@@ -38958,7 +38978,7 @@
       </c>
       <c r="T56" s="96" cm="1">
         <f t="array" aca="1" ref="T56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Q57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Q57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Q57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="96" cm="1">
         <f t="array" aca="1" ref="U56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(R57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(R57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(R57))))=1,1,0)))</f>
@@ -38966,11 +38986,11 @@
       </c>
       <c r="V56" s="96" cm="1">
         <f t="array" aca="1" ref="V56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(S57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(S57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(S57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" s="96" cm="1">
         <f t="array" aca="1" ref="W56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(T57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(T57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(T57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="96" cm="1">
         <f t="array" aca="1" ref="X56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(U57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(U57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(U57))))=1,1,0)))</f>
@@ -38978,31 +38998,31 @@
       </c>
       <c r="Y56" s="96" cm="1">
         <f t="array" aca="1" ref="Y56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(V57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(V57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(V57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="96" cm="1">
         <f t="array" aca="1" ref="Z56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(W57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(W57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(W57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56" s="96" cm="1">
         <f t="array" aca="1" ref="AA56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(X57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(X57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(X57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56" s="96" cm="1">
         <f t="array" aca="1" ref="AB56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Y57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Y57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Y57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" s="96" cm="1">
         <f t="array" aca="1" ref="AC56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Z57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Z57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(Z57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="96" cm="1">
         <f t="array" aca="1" ref="AD56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AA57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AA57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AA57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56" s="96" cm="1">
         <f t="array" aca="1" ref="AE56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AB57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AB57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AB57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56" s="96" cm="1">
         <f t="array" aca="1" ref="AF56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AC57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AC57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AC57))))=1,1,0)))</f>
@@ -39014,23 +39034,23 @@
       </c>
       <c r="AH56" s="96" cm="1">
         <f t="array" aca="1" ref="AH56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AE57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AE57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AE57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI56" s="96" cm="1">
         <f t="array" aca="1" ref="AI56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AF57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AF57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AF57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ56" s="96" cm="1">
         <f t="array" aca="1" ref="AJ56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AG57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AG57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AG57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK56" s="96" cm="1">
         <f t="array" aca="1" ref="AK56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AH57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AH57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AH57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="96" cm="1">
         <f t="array" aca="1" ref="AL56" ca="1">IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AI57))))=4,6,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AI57))))=2,3,IF(SUMPRODUCT(--(Resultat!$J80:$J83=OFFSET(Kuponger!$E75:$E78,0,3*COLUMN(AI57))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56" s="96"/>
     </row>
@@ -39946,7 +39966,7 @@
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39954,7 +39974,7 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39966,15 +39986,15 @@
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39982,7 +40002,7 @@
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40002,7 +40022,7 @@
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40010,7 +40030,7 @@
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40018,11 +40038,11 @@
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40030,31 +40050,31 @@
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40066,23 +40086,23 @@
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BCB93B-F301-4902-BF54-5BFD78E964F7}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C63205E-8710-40F8-BC75-1ADA22201D1A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="160">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -1758,11 +1758,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,11 +1785,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2044,112 +2044,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="24">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="25">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4659,12 +4659,18 @@
       <c r="G37" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
+      <c r="H37" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="64">
+        <v>0</v>
+      </c>
       <c r="J37" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="66"/>
+      <c r="K37" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="57">
@@ -4688,12 +4694,18 @@
       <c r="G38" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
+      <c r="H38" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="64">
+        <v>0</v>
+      </c>
       <c r="J38" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K38" s="66"/>
+      <c r="K38" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="57">
@@ -5392,7 +5404,9 @@
       <c r="I74" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="47"/>
+      <c r="J74" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="K74" s="79" t="s">
         <v>90</v>
       </c>
@@ -5401,7 +5415,9 @@
       <c r="I75" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J75" s="47"/>
+      <c r="J75" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="K75" s="79" t="s">
         <v>8</v>
       </c>
@@ -5410,7 +5426,9 @@
       <c r="I76" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J76" s="47"/>
+      <c r="J76" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="K76" s="79" t="s">
         <v>91</v>
       </c>
@@ -5419,7 +5437,9 @@
       <c r="I77" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J77" s="47"/>
+      <c r="J77" s="47" t="s">
+        <v>91</v>
+      </c>
       <c r="K77" s="79" t="s">
         <v>10</v>
       </c>
@@ -5664,11 +5684,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5774,81 +5794,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30261,11 +30281,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30281,23 +30313,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -30407,10 +30427,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35303,7 +35323,7 @@
       </c>
       <c r="V32">
         <f ca="1">IF(AND(Resultat!$I37&lt;&gt;"",OFFSET(Kuponger!$F33,0,3*COLUMN(S32))=Resultat!$I37,OFFSET(Kuponger!$G33,0,3*COLUMN(S32))=Resultat!$K37),3,0) + IF(AND(Resultat!$H37&lt;&gt;"",OFFSET(Kuponger!$E33,0,3*COLUMN(S32))=Resultat!$H37),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W32">
         <f ca="1">IF(AND(Resultat!$I37&lt;&gt;"",OFFSET(Kuponger!$F33,0,3*COLUMN(T32))=Resultat!$I37,OFFSET(Kuponger!$G33,0,3*COLUMN(T32))=Resultat!$K37),3,0) + IF(AND(Resultat!$H37&lt;&gt;"",OFFSET(Kuponger!$E33,0,3*COLUMN(T32))=Resultat!$H37),1,0)</f>
@@ -35327,7 +35347,7 @@
       </c>
       <c r="AB32">
         <f ca="1">IF(AND(Resultat!$I37&lt;&gt;"",OFFSET(Kuponger!$F33,0,3*COLUMN(Y32))=Resultat!$I37,OFFSET(Kuponger!$G33,0,3*COLUMN(Y32))=Resultat!$K37),3,0) + IF(AND(Resultat!$H37&lt;&gt;"",OFFSET(Kuponger!$E33,0,3*COLUMN(Y32))=Resultat!$H37),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <f ca="1">IF(AND(Resultat!$I37&lt;&gt;"",OFFSET(Kuponger!$F33,0,3*COLUMN(Z32))=Resultat!$I37,OFFSET(Kuponger!$G33,0,3*COLUMN(Z32))=Resultat!$K37),3,0) + IF(AND(Resultat!$H37&lt;&gt;"",OFFSET(Kuponger!$E33,0,3*COLUMN(Z32))=Resultat!$H37),1,0)</f>
@@ -35409,7 +35429,7 @@
       </c>
       <c r="J33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(G33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(G33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(G33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(H33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(H33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(H33))=Resultat!$H38),1,0)</f>
@@ -35421,11 +35441,11 @@
       </c>
       <c r="M33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(J33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(J33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(J33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(K33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(K33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(K33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(L33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(L33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(L33))=Resultat!$H38),1,0)</f>
@@ -35433,7 +35453,7 @@
       </c>
       <c r="P33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(M33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(M33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(M33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(N33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(N33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(N33))=Resultat!$H38),1,0)</f>
@@ -35441,11 +35461,11 @@
       </c>
       <c r="R33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(O33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(O33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(O33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(P33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(P33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(P33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(Q33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(Q33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(Q33))=Resultat!$H38),1,0)</f>
@@ -35457,7 +35477,7 @@
       </c>
       <c r="V33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(S33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(S33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(S33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(T33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(T33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(T33))=Resultat!$H38),1,0)</f>
@@ -35469,7 +35489,7 @@
       </c>
       <c r="Y33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(V33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(V33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(V33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(W33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(W33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(W33))=Resultat!$H38),1,0)</f>
@@ -35481,7 +35501,7 @@
       </c>
       <c r="AB33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(Y33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(Y33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(Y33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(Z33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(Z33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(Z33))=Resultat!$H38),1,0)</f>
@@ -35497,7 +35517,7 @@
       </c>
       <c r="AF33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(AC33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(AC33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(AC33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(AD33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(AD33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(AD33))=Resultat!$H38),1,0)</f>
@@ -35513,7 +35533,7 @@
       </c>
       <c r="AJ33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(AG33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(AG33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(AG33))=Resultat!$H38),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33">
         <f ca="1">IF(AND(Resultat!$I38&lt;&gt;"",OFFSET(Kuponger!$F34,0,3*COLUMN(AH33))=Resultat!$I38,OFFSET(Kuponger!$G34,0,3*COLUMN(AH33))=Resultat!$K38),3,0) + IF(AND(Resultat!$H38&lt;&gt;"",OFFSET(Kuponger!$E34,0,3*COLUMN(AH33))=Resultat!$H38),1,0)</f>
@@ -38759,23 +38779,23 @@
       <c r="B55" s="19"/>
       <c r="C55" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,0)))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,0)))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,0)))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55" s="96" cm="1">
         <f t="array" aca="1" ref="D55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(A56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(A56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(A56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E55" s="96" cm="1">
         <f t="array" aca="1" ref="E55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(B56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(B56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(B56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55" s="96" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(C56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(C56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(C56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="96" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(D56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(D56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(D56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" s="96" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(E56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(E56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(E56))))=1,1,0)))</f>
@@ -38783,55 +38803,55 @@
       </c>
       <c r="I55" s="96" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(F56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(F56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(F56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" s="96" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(G56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(G56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(G56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K55" s="96" cm="1">
         <f t="array" aca="1" ref="K55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(H56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(H56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(H56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L55" s="96" cm="1">
         <f t="array" aca="1" ref="L55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(I56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(I56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(I56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M55" s="96" cm="1">
         <f t="array" aca="1" ref="M55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(J56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(J56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(J56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N55" s="96" cm="1">
         <f t="array" aca="1" ref="N55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(K56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(K56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(K56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="96" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(L56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(L56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(L56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P55" s="96" cm="1">
         <f t="array" aca="1" ref="P55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(M56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(M56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(M56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="96" cm="1">
         <f t="array" aca="1" ref="Q55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(N56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(N56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(N56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R55" s="96" cm="1">
         <f t="array" aca="1" ref="R55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(O56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(O56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(O56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S55" s="96" cm="1">
         <f t="array" aca="1" ref="S55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(P56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(P56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(P56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T55" s="96" cm="1">
         <f t="array" aca="1" ref="T55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Q56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Q56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Q56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U55" s="96" cm="1">
         <f t="array" aca="1" ref="U55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(R56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(R56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(R56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" s="96" cm="1">
         <f t="array" aca="1" ref="V55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(S56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(S56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(S56))))=1,1,0)))</f>
@@ -38839,67 +38859,67 @@
       </c>
       <c r="W55" s="96" cm="1">
         <f t="array" aca="1" ref="W55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(T56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(T56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(T56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X55" s="96" cm="1">
         <f t="array" aca="1" ref="X55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(U56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(U56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(U56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y55" s="96" cm="1">
         <f t="array" aca="1" ref="Y55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(V56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(V56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(V56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z55" s="96" cm="1">
         <f t="array" aca="1" ref="Z55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(W56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(W56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(W56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55" s="96" cm="1">
         <f t="array" aca="1" ref="AA55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(X56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(X56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(X56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB55" s="96" cm="1">
         <f t="array" aca="1" ref="AB55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Y56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Y56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Y56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="96" cm="1">
         <f t="array" aca="1" ref="AC55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Z56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Z56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(Z56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="96" cm="1">
         <f t="array" aca="1" ref="AD55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AA56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AA56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AA56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE55" s="96" cm="1">
         <f t="array" aca="1" ref="AE55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AB56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AB56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AB56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF55" s="96" cm="1">
         <f t="array" aca="1" ref="AF55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AC56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AC56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AC56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG55" s="96" cm="1">
         <f t="array" aca="1" ref="AG55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AD56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AD56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AD56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH55" s="96" cm="1">
         <f t="array" aca="1" ref="AH55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AE56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AE56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AE56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI55" s="96" cm="1">
         <f t="array" aca="1" ref="AI55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AF56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AF56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AF56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ55" s="96" cm="1">
         <f t="array" aca="1" ref="AJ55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AG56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AG56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AG56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK55" s="96" cm="1">
         <f t="array" aca="1" ref="AK55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AH56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AH56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AH56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="96" cm="1">
         <f t="array" aca="1" ref="AL55" ca="1">IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AI56))))=4,6,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AI56))))=2,3,IF(SUMPRODUCT(--(Resultat!$J74:$J77=OFFSET(Kuponger!$E69:$E72,0,3*COLUMN(AI56))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM55" s="96"/>
     </row>
@@ -39962,23 +39982,23 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -39986,123 +40006,123 @@
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C63205E-8710-40F8-BC75-1ADA22201D1A}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{102849DA-DE26-465E-B1DA-21F75A858339}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="160">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -1758,11 +1758,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,11 +1785,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2050,103 +2050,103 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>29</c:v>
@@ -3410,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4729,12 +4729,18 @@
       <c r="G39" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="63"/>
-      <c r="I39" s="64"/>
+      <c r="H39" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="64">
+        <v>1</v>
+      </c>
       <c r="J39" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K39" s="66"/>
+      <c r="K39" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="57">
@@ -4758,12 +4764,18 @@
       <c r="G40" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
+      <c r="H40" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="64">
+        <v>0</v>
+      </c>
       <c r="J40" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K40" s="66"/>
+      <c r="K40" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="57">
@@ -5508,7 +5520,9 @@
       <c r="I86" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J86" s="47"/>
+      <c r="J86" s="47" t="s">
+        <v>92</v>
+      </c>
       <c r="K86" s="79" t="s">
         <v>9</v>
       </c>
@@ -5517,7 +5531,9 @@
       <c r="I87" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J87" s="47"/>
+      <c r="J87" s="47" t="s">
+        <v>9</v>
+      </c>
       <c r="K87" s="79" t="s">
         <v>23</v>
       </c>
@@ -5526,7 +5542,9 @@
       <c r="I88" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J88" s="47"/>
+      <c r="J88" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="K88" s="79" t="s">
         <v>92</v>
       </c>
@@ -5535,7 +5553,9 @@
       <c r="I89" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J89" s="47"/>
+      <c r="J89" s="47" t="s">
+        <v>16</v>
+      </c>
       <c r="K89" s="79" t="s">
         <v>16</v>
       </c>
@@ -5684,11 +5704,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5794,81 +5814,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30281,23 +30301,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30313,11 +30321,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -30427,10 +30447,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35567,15 +35587,15 @@
       </c>
       <c r="F34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(C34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(C34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(C34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(D34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(D34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(D34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(E34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(E34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(E34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(F34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(F34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(F34))=Resultat!$H39),1,0)</f>
@@ -35587,7 +35607,7 @@
       </c>
       <c r="K34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(H34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(H34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(H34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(I34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(I34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(I34))=Resultat!$H39),1,0)</f>
@@ -35611,15 +35631,15 @@
       </c>
       <c r="Q34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(N34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(N34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(N34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(O34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(O34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(O34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(P34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(P34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(P34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(Q34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(Q34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(Q34))=Resultat!$H39),1,0)</f>
@@ -35631,7 +35651,7 @@
       </c>
       <c r="V34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(S34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(S34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(S34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(T34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(T34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(T34))=Resultat!$H39),1,0)</f>
@@ -35639,11 +35659,11 @@
       </c>
       <c r="X34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(U34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(U34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(U34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(V34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(V34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(V34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(W34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(W34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(W34))=Resultat!$H39),1,0)</f>
@@ -35651,7 +35671,7 @@
       </c>
       <c r="AA34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(X34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(X34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(X34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(Y34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(Y34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(Y34))=Resultat!$H39),1,0)</f>
@@ -35659,7 +35679,7 @@
       </c>
       <c r="AC34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(Z34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(Z34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(Z34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(AA34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(AA34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(AA34))=Resultat!$H39),1,0)</f>
@@ -35667,27 +35687,27 @@
       </c>
       <c r="AE34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(AB34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(AB34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(AB34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(AC34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(AC34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(AC34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(AD34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(AD34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(AD34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(AE34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(AE34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(AE34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(AF34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(AF34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(AF34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(AG34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(AG34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(AG34))=Resultat!$H39),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34">
         <f ca="1">IF(AND(Resultat!$I39&lt;&gt;"",OFFSET(Kuponger!$F35,0,3*COLUMN(AH34))=Resultat!$I39,OFFSET(Kuponger!$G35,0,3*COLUMN(AH34))=Resultat!$K39),3,0) + IF(AND(Resultat!$H39&lt;&gt;"",OFFSET(Kuponger!$E35,0,3*COLUMN(AH34))=Resultat!$H39),1,0)</f>
@@ -35781,11 +35801,11 @@
       </c>
       <c r="U35">
         <f ca="1">IF(AND(Resultat!$I40&lt;&gt;"",OFFSET(Kuponger!$F36,0,3*COLUMN(R35))=Resultat!$I40,OFFSET(Kuponger!$G36,0,3*COLUMN(R35))=Resultat!$K40),3,0) + IF(AND(Resultat!$H40&lt;&gt;"",OFFSET(Kuponger!$E36,0,3*COLUMN(R35))=Resultat!$H40),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <f ca="1">IF(AND(Resultat!$I40&lt;&gt;"",OFFSET(Kuponger!$F36,0,3*COLUMN(S35))=Resultat!$I40,OFFSET(Kuponger!$G36,0,3*COLUMN(S35))=Resultat!$K40),3,0) + IF(AND(Resultat!$H40&lt;&gt;"",OFFSET(Kuponger!$E36,0,3*COLUMN(S35))=Resultat!$H40),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35">
         <f ca="1">IF(AND(Resultat!$I40&lt;&gt;"",OFFSET(Kuponger!$F36,0,3*COLUMN(T35))=Resultat!$I40,OFFSET(Kuponger!$G36,0,3*COLUMN(T35))=Resultat!$K40),3,0) + IF(AND(Resultat!$H40&lt;&gt;"",OFFSET(Kuponger!$E36,0,3*COLUMN(T35))=Resultat!$H40),1,0)</f>
@@ -35841,7 +35861,7 @@
       </c>
       <c r="AJ35">
         <f ca="1">IF(AND(Resultat!$I40&lt;&gt;"",OFFSET(Kuponger!$F36,0,3*COLUMN(AG35))=Resultat!$I40,OFFSET(Kuponger!$G36,0,3*COLUMN(AG35))=Resultat!$K40),3,0) + IF(AND(Resultat!$H40&lt;&gt;"",OFFSET(Kuponger!$E36,0,3*COLUMN(AG35))=Resultat!$H40),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35">
         <f ca="1">IF(AND(Resultat!$I40&lt;&gt;"",OFFSET(Kuponger!$F36,0,3*COLUMN(AH35))=Resultat!$I40,OFFSET(Kuponger!$G36,0,3*COLUMN(AH35))=Resultat!$K40),3,0) + IF(AND(Resultat!$H40&lt;&gt;"",OFFSET(Kuponger!$E36,0,3*COLUMN(AH35))=Resultat!$H40),1,0)</f>
@@ -39089,11 +39109,11 @@
       </c>
       <c r="E57" s="96" cm="1">
         <f t="array" aca="1" ref="E57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(B58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(B58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(B58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="96" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(C58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(C58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(C58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="96" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(D58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(D58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(D58))))=1,1,0)))</f>
@@ -39105,7 +39125,7 @@
       </c>
       <c r="I57" s="96" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(F58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(F58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(F58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="96" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(G58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(G58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(G58))))=1,1,0)))</f>
@@ -39113,11 +39133,11 @@
       </c>
       <c r="K57" s="96" cm="1">
         <f t="array" aca="1" ref="K57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(H58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(H58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(H58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="96" cm="1">
         <f t="array" aca="1" ref="L57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(I58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(I58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(I58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="96" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(J58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(J58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(J58))))=1,1,0)))</f>
@@ -39125,19 +39145,19 @@
       </c>
       <c r="N57" s="96" cm="1">
         <f t="array" aca="1" ref="N57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(K58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(K58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(K58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="96" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(L58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(L58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(L58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="96" cm="1">
         <f t="array" aca="1" ref="P57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(M58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(M58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(M58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="96" cm="1">
         <f t="array" aca="1" ref="Q57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(N58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(N58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(N58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R57" s="96" cm="1">
         <f t="array" aca="1" ref="R57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(O58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(O58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(O58))))=1,1,0)))</f>
@@ -39145,11 +39165,11 @@
       </c>
       <c r="S57" s="96" cm="1">
         <f t="array" aca="1" ref="S57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(P58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(P58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(P58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="96" cm="1">
         <f t="array" aca="1" ref="T57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Q58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Q58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Q58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="96" cm="1">
         <f t="array" aca="1" ref="U57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(R58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(R58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(R58))))=1,1,0)))</f>
@@ -39157,15 +39177,15 @@
       </c>
       <c r="V57" s="96" cm="1">
         <f t="array" aca="1" ref="V57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(S58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(S58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(S58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W57" s="96" cm="1">
         <f t="array" aca="1" ref="W57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(T58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(T58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(T58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="96" cm="1">
         <f t="array" aca="1" ref="X57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(U58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(U58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(U58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="96" cm="1">
         <f t="array" aca="1" ref="Y57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(V58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(V58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(V58))))=1,1,0)))</f>
@@ -39177,7 +39197,7 @@
       </c>
       <c r="AA57" s="96" cm="1">
         <f t="array" aca="1" ref="AA57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(X58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(X58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(X58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57" s="96" cm="1">
         <f t="array" aca="1" ref="AB57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Y58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Y58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Y58))))=1,1,0)))</f>
@@ -39185,7 +39205,7 @@
       </c>
       <c r="AC57" s="96" cm="1">
         <f t="array" aca="1" ref="AC57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Z58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Z58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(Z58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="96" cm="1">
         <f t="array" aca="1" ref="AD57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AA58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AA58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AA58))))=1,1,0)))</f>
@@ -39205,7 +39225,7 @@
       </c>
       <c r="AH57" s="96" cm="1">
         <f t="array" aca="1" ref="AH57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AE58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AE58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AE58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="96" cm="1">
         <f t="array" aca="1" ref="AI57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AF58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AF58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AF58))))=1,1,0)))</f>
@@ -39213,11 +39233,11 @@
       </c>
       <c r="AJ57" s="96" cm="1">
         <f t="array" aca="1" ref="AJ57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AG58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AG58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AG58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK57" s="96" cm="1">
         <f t="array" aca="1" ref="AK57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AH58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AH58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AH58))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="96" cm="1">
         <f t="array" aca="1" ref="AL57" ca="1">IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AI58))))=4,6,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AI58))))=2,3,IF(SUMPRODUCT(--(Resultat!$J86:$J89=OFFSET(Kuponger!$E81:$E84,0,3*COLUMN(AI58))))=1,1,0)))</f>
@@ -39990,23 +40010,23 @@
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40014,11 +40034,11 @@
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40026,51 +40046,51 @@
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40078,7 +40098,7 @@
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40086,7 +40106,7 @@
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40094,31 +40114,31 @@
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{102849DA-DE26-465E-B1DA-21F75A858339}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{364DBED5-CD70-49E2-96AD-0ED774902410}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="160">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -1758,11 +1758,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,11 +1785,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2044,112 +2044,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>34</c:v>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>51</c:v>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="25">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
+                <c:pt idx="26">
+                  <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>27</c:v>
+                <c:pt idx="28">
+                  <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4799,12 +4799,18 @@
       <c r="G41" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64"/>
+      <c r="H41" s="63">
+        <v>2</v>
+      </c>
+      <c r="I41" s="64">
+        <v>1</v>
+      </c>
       <c r="J41" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K41" s="66"/>
+      <c r="K41" s="66">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="57">
@@ -4828,12 +4834,18 @@
       <c r="G42" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
+      <c r="H42" s="63">
+        <v>1</v>
+      </c>
+      <c r="I42" s="64">
+        <v>2</v>
+      </c>
       <c r="J42" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K42" s="66"/>
+      <c r="K42" s="66">
+        <v>0</v>
+      </c>
       <c r="M42" s="7" t="s">
         <v>49</v>
       </c>
@@ -5574,7 +5586,9 @@
       <c r="I92" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J92" s="47"/>
+      <c r="J92" s="47" t="s">
+        <v>26</v>
+      </c>
       <c r="K92" s="79" t="s">
         <v>4</v>
       </c>
@@ -5583,7 +5597,9 @@
       <c r="I93" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J93" s="47"/>
+      <c r="J93" s="47" t="s">
+        <v>93</v>
+      </c>
       <c r="K93" s="79" t="s">
         <v>93</v>
       </c>
@@ -5592,7 +5608,9 @@
       <c r="I94" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J94" s="47"/>
+      <c r="J94" s="47" t="s">
+        <v>4</v>
+      </c>
       <c r="K94" s="79" t="s">
         <v>26</v>
       </c>
@@ -5601,7 +5619,9 @@
       <c r="I95" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J95" s="47"/>
+      <c r="J95" s="47" t="s">
+        <v>19</v>
+      </c>
       <c r="K95" s="79" t="s">
         <v>19</v>
       </c>
@@ -5652,9 +5672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5704,11 +5724,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>66</v>
       </c>
@@ -5814,81 +5834,81 @@
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -30301,11 +30321,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30321,23 +30353,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -35891,7 +35911,7 @@
       </c>
       <c r="E36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(B36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(B36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(B36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(C36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(C36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(C36))=Resultat!$H41),1,0)</f>
@@ -35911,7 +35931,7 @@
       </c>
       <c r="J36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(G36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(G36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(G36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(H36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(H36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(H36))=Resultat!$H41),1,0)</f>
@@ -35927,11 +35947,11 @@
       </c>
       <c r="N36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(K36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(K36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(K36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(L36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(L36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(L36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(M36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(M36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(M36))=Resultat!$H41),1,0)</f>
@@ -35939,11 +35959,11 @@
       </c>
       <c r="Q36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(N36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(N36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(N36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(O36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(O36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(O36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(P36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(P36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(P36))=Resultat!$H41),1,0)</f>
@@ -35955,7 +35975,7 @@
       </c>
       <c r="U36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(R36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(R36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(R36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(S36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(S36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(S36))=Resultat!$H41),1,0)</f>
@@ -35979,7 +35999,7 @@
       </c>
       <c r="AA36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(X36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(X36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(X36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(Y36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(Y36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(Y36))=Resultat!$H41),1,0)</f>
@@ -35987,7 +36007,7 @@
       </c>
       <c r="AC36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(Z36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(Z36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(Z36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(AA36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(AA36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(AA36))=Resultat!$H41),1,0)</f>
@@ -35995,7 +36015,7 @@
       </c>
       <c r="AE36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(AB36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(AB36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(AB36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(AC36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(AC36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(AC36))=Resultat!$H41),1,0)</f>
@@ -36003,7 +36023,7 @@
       </c>
       <c r="AG36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(AD36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(AD36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(AD36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(AE36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(AE36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(AE36))=Resultat!$H41),1,0)</f>
@@ -36015,7 +36035,7 @@
       </c>
       <c r="AJ36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(AG36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(AG36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(AG36))=Resultat!$H41),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK36">
         <f ca="1">IF(AND(Resultat!$I41&lt;&gt;"",OFFSET(Kuponger!$F37,0,3*COLUMN(AH36))=Resultat!$I41,OFFSET(Kuponger!$G37,0,3*COLUMN(AH36))=Resultat!$K41),3,0) + IF(AND(Resultat!$H41&lt;&gt;"",OFFSET(Kuponger!$E37,0,3*COLUMN(AH36))=Resultat!$H41),1,0)</f>
@@ -39252,147 +39272,147 @@
       <c r="B58" s="19"/>
       <c r="C58" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,0)))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,0)))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,0)))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="96" cm="1">
         <f t="array" aca="1" ref="D58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(A59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(A59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(A59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="96" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(B59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(B59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(B59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="96" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(C59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(C59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(C59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58" s="96" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(D59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(D59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(D59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58" s="96" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(E59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(E59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(E59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58" s="96" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(F59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(F59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(F59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" s="96" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(G59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(G59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(G59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="96" cm="1">
         <f t="array" aca="1" ref="K58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(H59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(H59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(H59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="96" cm="1">
         <f t="array" aca="1" ref="L58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(I59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(I59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(I59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58" s="96" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(J59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(J59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(J59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N58" s="96" cm="1">
         <f t="array" aca="1" ref="N58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(K59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(K59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(K59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="96" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(L59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(L59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(L59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="96" cm="1">
         <f t="array" aca="1" ref="P58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(M59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(M59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(M59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q58" s="96" cm="1">
         <f t="array" aca="1" ref="Q58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(N59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(N59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(N59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="96" cm="1">
         <f t="array" aca="1" ref="R58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(O59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(O59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(O59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="96" cm="1">
         <f t="array" aca="1" ref="S58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(P59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(P59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(P59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="96" cm="1">
         <f t="array" aca="1" ref="T58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Q59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Q59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Q59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U58" s="96" cm="1">
         <f t="array" aca="1" ref="U58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(R59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(R59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(R59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" s="96" cm="1">
         <f t="array" aca="1" ref="V58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(S59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(S59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(S59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W58" s="96" cm="1">
         <f t="array" aca="1" ref="W58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(T59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(T59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(T59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="96" cm="1">
         <f t="array" aca="1" ref="X58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(U59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(U59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(U59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y58" s="96" cm="1">
         <f t="array" aca="1" ref="Y58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(V59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(V59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(V59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z58" s="96" cm="1">
         <f t="array" aca="1" ref="Z58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(W59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(W59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(W59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58" s="96" cm="1">
         <f t="array" aca="1" ref="AA58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(X59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(X59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(X59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58" s="96" cm="1">
         <f t="array" aca="1" ref="AB58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Y59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Y59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Y59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC58" s="96" cm="1">
         <f t="array" aca="1" ref="AC58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Z59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Z59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Z59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="96" cm="1">
         <f t="array" aca="1" ref="AD58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AA59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AA59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AA59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE58" s="96" cm="1">
         <f t="array" aca="1" ref="AE58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AB59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AB59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AB59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58" s="96" cm="1">
         <f t="array" aca="1" ref="AF58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AC59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AC59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AC59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" s="96" cm="1">
         <f t="array" aca="1" ref="AG58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AD59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AD59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AD59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH58" s="96" cm="1">
         <f t="array" aca="1" ref="AH58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AE59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AE59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AE59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI58" s="96" cm="1">
         <f t="array" aca="1" ref="AI58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AF59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AF59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AF59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ58" s="96" cm="1">
         <f t="array" aca="1" ref="AJ58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AG59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AG59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AG59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK58" s="96" cm="1">
         <f t="array" aca="1" ref="AK58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AH59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AH59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AH59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL58" s="96" cm="1">
         <f t="array" aca="1" ref="AL58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AI59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AI59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AI59))))=1,1,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM58" s="96"/>
     </row>
@@ -40002,147 +40022,147 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{364DBED5-CD70-49E2-96AD-0ED774902410}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249B9FE7-2091-4F34-98EB-36E9A37AC6B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="157">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -154,18 +154,6 @@
   </si>
   <si>
     <t>Gruppspel</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>2C</t>
   </si>
   <si>
     <t>1C</t>
@@ -538,6 +526,9 @@
   </si>
   <si>
     <t>Linnea Nilsson</t>
+  </si>
+  <si>
+    <t>Italen</t>
   </si>
 </sst>
 </file>
@@ -2044,28 +2035,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>36</c:v>
@@ -2077,76 +2068,76 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>39</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>43</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>32</c:v>
@@ -3410,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3449,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -3478,7 +3469,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="53" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>1</v>
@@ -3495,10 +3486,10 @@
       <c r="F6" s="129"/>
       <c r="G6" s="130"/>
       <c r="H6" s="56" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I6" s="138" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J6" s="129"/>
       <c r="K6" s="130"/>
@@ -3511,7 +3502,7 @@
         <v>45457</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="59">
         <v>0.875</v>
@@ -3562,7 +3553,7 @@
         <v>45458</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="59">
         <v>0.625</v>
@@ -3593,7 +3584,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="86" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O8" s="79" t="s">
         <v>22</v>
@@ -3613,7 +3604,7 @@
         <v>45458</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="59">
         <v>0.75</v>
@@ -3634,7 +3625,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K9" s="66">
         <v>0</v>
@@ -3655,7 +3646,7 @@
         <v>23</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -3666,7 +3657,7 @@
         <v>45458</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="59">
         <v>0.875</v>
@@ -3678,7 +3669,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H10" s="63">
         <v>1</v>
@@ -3687,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K10" s="66">
         <v>1</v>
@@ -3699,13 +3690,13 @@
         <v>5</v>
       </c>
       <c r="N10" s="86" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>12</v>
       </c>
       <c r="P10" s="86" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="80" t="s">
         <v>26</v>
@@ -3719,7 +3710,7 @@
         <v>45459</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="59">
         <v>0.625</v>
@@ -3740,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K11" s="66">
         <v>2</v>
@@ -3749,7 +3740,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N11" s="87" t="s">
         <v>10</v>
@@ -3772,13 +3763,13 @@
         <v>45459</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" s="59">
         <v>0.75</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>29</v>
@@ -3787,13 +3778,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="64">
         <v>1</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K12" s="66">
         <v>1</v>
@@ -3807,13 +3798,13 @@
         <v>45459</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="59">
         <v>0.875</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>29</v>
@@ -3828,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K13" s="66">
         <v>1</v>
@@ -3842,13 +3833,13 @@
         <v>45460</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="59">
         <v>0.625</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>29</v>
@@ -3863,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K14" s="66">
         <v>0</v>
@@ -3877,7 +3868,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="59">
         <v>0.75</v>
@@ -3898,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K15" s="66">
         <v>1</v>
@@ -3912,7 +3903,7 @@
         <v>45460</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="59">
         <v>0.875</v>
@@ -3933,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K16" s="66">
         <v>1</v>
@@ -3947,7 +3938,7 @@
         <v>45461</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="59">
         <v>0.75</v>
@@ -3959,7 +3950,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H17" s="63">
         <v>1</v>
@@ -3968,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K17" s="66">
         <v>1</v>
@@ -3982,7 +3973,7 @@
         <v>45461</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="59">
         <v>0.875</v>
@@ -4003,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K18" s="66">
         <v>1</v>
@@ -4017,7 +4008,7 @@
         <v>45462</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19" s="59">
         <v>0.625</v>
@@ -4029,16 +4020,16 @@
         <v>29</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I19" s="64">
         <v>2</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K19" s="66">
         <v>2</v>
@@ -4052,7 +4043,7 @@
         <v>45462</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="59">
         <v>0.75</v>
@@ -4073,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K20" s="66">
         <v>0</v>
@@ -4087,7 +4078,7 @@
         <v>45462</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D21" s="59">
         <v>0.875</v>
@@ -4102,13 +4093,13 @@
         <v>7</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I21" s="64">
         <v>1</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K21" s="66">
         <v>1</v>
@@ -4122,28 +4113,28 @@
         <v>45463</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="59">
         <v>0.625</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I22" s="64">
         <v>1</v>
       </c>
       <c r="J22" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K22" s="66">
         <v>1</v>
@@ -4157,7 +4148,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23" s="59">
         <v>0.75</v>
@@ -4172,13 +4163,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I23" s="64">
         <v>1</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K23" s="66">
         <v>1</v>
@@ -4192,7 +4183,7 @@
         <v>45463</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" s="59">
         <v>0.875</v>
@@ -4213,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K24" s="66">
         <v>0</v>
@@ -4227,7 +4218,7 @@
         <v>45464</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25" s="59">
         <v>0.625</v>
@@ -4248,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K25" s="66">
         <v>2</v>
@@ -4262,7 +4253,7 @@
         <v>45464</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D26" s="59">
         <v>0.75</v>
@@ -4283,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K26" s="66">
         <v>3</v>
@@ -4297,7 +4288,7 @@
         <v>45464</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D27" s="59">
         <v>0.875</v>
@@ -4312,13 +4303,13 @@
         <v>27</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I27" s="64">
         <v>0</v>
       </c>
       <c r="J27" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K27" s="66">
         <v>0</v>
@@ -4332,13 +4323,13 @@
         <v>45465</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D28" s="59">
         <v>0.625</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F28" s="61" t="s">
         <v>29</v>
@@ -4347,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I28" s="64">
         <v>1</v>
@@ -4365,7 +4356,7 @@
         <v>45465</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D29" s="59">
         <v>0.75</v>
@@ -4386,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K29" s="66">
         <v>3</v>
@@ -4400,7 +4391,7 @@
         <v>45465</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" s="59">
         <v>0.875</v>
@@ -4412,7 +4403,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H30" s="63">
         <v>1</v>
@@ -4421,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K30" s="66">
         <v>0</v>
@@ -4435,7 +4426,7 @@
         <v>45466</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D31" s="59">
         <v>0.875</v>
@@ -4450,13 +4441,13 @@
         <v>7</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I31" s="64">
         <v>1</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K31" s="66">
         <v>1</v>
@@ -4470,7 +4461,7 @@
         <v>45466</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D32" s="59">
         <v>0.875</v>
@@ -4491,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K32" s="66">
         <v>1</v>
@@ -4505,7 +4496,7 @@
         <v>45467</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D33" s="59">
         <v>0.875</v>
@@ -4520,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I33" s="64">
         <v>1</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K33" s="66">
         <v>1</v>
@@ -4540,13 +4531,13 @@
         <v>45467</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D34" s="59">
         <v>0.875</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F34" s="61" t="s">
         <v>29</v>
@@ -4561,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K34" s="66">
         <v>1</v>
@@ -4575,7 +4566,7 @@
         <v>45468</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D35" s="59">
         <v>0.75</v>
@@ -4596,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K35" s="66">
         <v>3</v>
@@ -4610,7 +4601,7 @@
         <v>45468</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D36" s="59">
         <v>0.75</v>
@@ -4625,13 +4616,13 @@
         <v>22</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I36" s="64">
         <v>1</v>
       </c>
       <c r="J36" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K36" s="66">
         <v>1</v>
@@ -4645,7 +4636,7 @@
         <v>45468</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D37" s="59">
         <v>0.875</v>
@@ -4657,16 +4648,16 @@
         <v>29</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I37" s="64">
         <v>0</v>
       </c>
       <c r="J37" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K37" s="66">
         <v>0</v>
@@ -4680,7 +4671,7 @@
         <v>45468</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D38" s="59">
         <v>0.875</v>
@@ -4692,16 +4683,16 @@
         <v>29</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H38" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I38" s="64">
         <v>0</v>
       </c>
       <c r="J38" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K38" s="66">
         <v>0</v>
@@ -4715,7 +4706,7 @@
         <v>45469</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D39" s="59">
         <v>0.75</v>
@@ -4727,16 +4718,16 @@
         <v>29</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H39" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I39" s="64">
         <v>1</v>
       </c>
       <c r="J39" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K39" s="66">
         <v>1</v>
@@ -4750,7 +4741,7 @@
         <v>45469</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D40" s="59">
         <v>0.75</v>
@@ -4765,13 +4756,13 @@
         <v>9</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I40" s="64">
         <v>0</v>
       </c>
       <c r="J40" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K40" s="66">
         <v>0</v>
@@ -4785,7 +4776,7 @@
         <v>45469</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D41" s="59">
         <v>0.875</v>
@@ -4806,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K41" s="66">
         <v>2</v>
@@ -4820,13 +4811,13 @@
         <v>45469</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D42" s="59">
         <v>0.875</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F42" s="61" t="s">
         <v>29</v>
@@ -4841,13 +4832,13 @@
         <v>2</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K42" s="66">
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="12"/>
@@ -4860,28 +4851,34 @@
         <v>45472</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D43" s="59">
         <v>0.75</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F43" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="64"/>
+        <v>156</v>
+      </c>
+      <c r="H43" s="68">
+        <v>1</v>
+      </c>
+      <c r="I43" s="64">
+        <v>2</v>
+      </c>
       <c r="J43" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="K43" s="66"/>
+        <v>84</v>
+      </c>
+      <c r="K43" s="66">
+        <v>0</v>
+      </c>
       <c r="M43" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N43" s="97"/>
       <c r="O43" s="98"/>
@@ -4894,25 +4891,31 @@
         <v>45472</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D44" s="59">
         <v>0.875</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F44" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="68"/>
-      <c r="I44" s="64"/>
-      <c r="K44" s="66"/>
+        <v>8</v>
+      </c>
+      <c r="H44" s="68">
+        <v>1</v>
+      </c>
+      <c r="I44" s="64">
+        <v>2</v>
+      </c>
+      <c r="K44" s="66">
+        <v>0</v>
+      </c>
       <c r="M44" s="99" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N44" s="100"/>
       <c r="O44" s="101"/>
@@ -4925,28 +4928,28 @@
         <v>45473</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D45" s="59">
         <v>0.75</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F45" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G45" s="60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="64"/>
       <c r="J45" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K45" s="66"/>
       <c r="M45" s="99" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -4959,24 +4962,24 @@
         <v>45473</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D46" s="59">
         <v>0.875</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F46" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H46" s="68"/>
       <c r="I46" s="64"/>
       <c r="J46" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K46" s="66"/>
     </row>
@@ -4988,24 +4991,24 @@
         <v>45474</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D47" s="59">
         <v>0.75</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F47" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H47" s="68"/>
       <c r="I47" s="64"/>
       <c r="J47" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K47" s="66"/>
     </row>
@@ -5017,24 +5020,24 @@
         <v>45474</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D48" s="59">
         <v>0.875</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F48" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H48" s="68"/>
       <c r="I48" s="64"/>
       <c r="J48" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K48" s="66"/>
     </row>
@@ -5046,24 +5049,24 @@
         <v>45475</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D49" s="59">
         <v>0.75</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H49" s="68"/>
       <c r="I49" s="64"/>
       <c r="J49" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K49" s="66"/>
     </row>
@@ -5075,24 +5078,24 @@
         <v>45475</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D50" s="59">
         <v>0.875</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G50" s="60" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H50" s="68"/>
       <c r="I50" s="64"/>
       <c r="J50" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K50" s="66"/>
     </row>
@@ -5104,22 +5107,22 @@
         <v>45478</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D51" s="59">
         <v>0.75</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F51" s="69"/>
       <c r="G51" s="60" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="64"/>
       <c r="J51" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K51" s="66"/>
     </row>
@@ -5131,22 +5134,22 @@
         <v>45478</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D52" s="59">
         <v>0.875</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="60" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="64"/>
       <c r="J52" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K52" s="66"/>
     </row>
@@ -5158,22 +5161,22 @@
         <v>45479</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D53" s="59">
         <v>0.75</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F53" s="69"/>
       <c r="G53" s="60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="64"/>
       <c r="J53" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K53" s="66"/>
     </row>
@@ -5185,22 +5188,22 @@
         <v>45479</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D54" s="59">
         <v>0.875</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F54" s="69"/>
       <c r="G54" s="60" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="64"/>
       <c r="J54" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K54" s="66"/>
     </row>
@@ -5212,22 +5215,22 @@
         <v>45482</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D55" s="59">
         <v>0.875</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="60" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="64"/>
       <c r="J55" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K55" s="66"/>
     </row>
@@ -5239,22 +5242,22 @@
         <v>45483</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D56" s="59">
         <v>0.875</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F56" s="69"/>
       <c r="G56" s="60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="64"/>
       <c r="J56" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K56" s="66"/>
     </row>
@@ -5266,22 +5269,22 @@
         <v>45487</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D57" s="72">
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
       <c r="J57" s="77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K57" s="78"/>
     </row>
@@ -5302,7 +5305,7 @@
       <c r="D60" s="2"/>
       <c r="I60" s="44"/>
       <c r="J60" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -5310,7 +5313,7 @@
       <c r="C61" s="1"/>
       <c r="I61" s="44"/>
       <c r="J61" s="45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -5318,7 +5321,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="I62" s="44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J62" s="46" t="s">
         <v>25</v>
@@ -5331,7 +5334,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="I63" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J63" s="46" t="s">
         <v>7</v>
@@ -5344,7 +5347,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="I64" s="44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J64" s="47" t="s">
         <v>28</v>
@@ -5355,7 +5358,7 @@
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I65" s="44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J65" s="47" t="s">
         <v>18</v>
@@ -5374,7 +5377,7 @@
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I68" s="44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J68" s="46" t="s">
         <v>21</v>
@@ -5385,7 +5388,7 @@
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I69" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J69" s="46" t="s">
         <v>5</v>
@@ -5396,7 +5399,7 @@
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I70" s="44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J70" s="47" t="s">
         <v>11</v>
@@ -5407,13 +5410,13 @@
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I71" s="44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K71" s="79" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.35">
@@ -5426,18 +5429,18 @@
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I74" s="44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J74" s="47" t="s">
         <v>10</v>
       </c>
       <c r="K74" s="79" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I75" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J75" s="47" t="s">
         <v>8</v>
@@ -5448,21 +5451,21 @@
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I76" s="44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K76" s="79" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I77" s="44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J77" s="47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K77" s="79" t="s">
         <v>10</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I80" s="44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J80" s="47" t="s">
         <v>12</v>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I81" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J81" s="47" t="s">
         <v>27</v>
@@ -5500,7 +5503,7 @@
     </row>
     <row r="82" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I82" s="44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J82" s="47" t="s">
         <v>30</v>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="83" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I83" s="44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J83" s="47" t="s">
         <v>22</v>
@@ -5530,10 +5533,10 @@
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I86" s="44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J86" s="47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K86" s="79" t="s">
         <v>9</v>
@@ -5541,7 +5544,7 @@
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I87" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J87" s="47" t="s">
         <v>9</v>
@@ -5552,18 +5555,18 @@
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I88" s="44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J88" s="47" t="s">
         <v>23</v>
       </c>
       <c r="K88" s="79" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I89" s="44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J89" s="47" t="s">
         <v>16</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I92" s="44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J92" s="47" t="s">
         <v>26</v>
@@ -5595,18 +5598,18 @@
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I93" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J93" s="47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K93" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I94" s="44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J94" s="47" t="s">
         <v>4</v>
@@ -5617,7 +5620,7 @@
     </row>
     <row r="95" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I95" s="44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J95" s="47" t="s">
         <v>19</v>
@@ -5672,9 +5675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP103" sqref="AP103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5730,182 +5733,182 @@
       <c r="C1" s="139"/>
       <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F1" s="142"/>
       <c r="G1" s="143"/>
       <c r="H1" s="144" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
       <c r="N1" s="141" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O1" s="142"/>
       <c r="P1" s="143"/>
       <c r="Q1" s="141" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R1" s="142"/>
       <c r="S1" s="143"/>
       <c r="T1" s="144" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U1" s="144"/>
       <c r="V1" s="144"/>
       <c r="W1" s="141" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
       <c r="AF1" s="141" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AG1" s="142"/>
       <c r="AH1" s="143"/>
       <c r="AI1" s="141" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AJ1" s="142"/>
       <c r="AK1" s="143"/>
       <c r="AL1" s="141" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
       <c r="AU1" s="141" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
       <c r="BP1" s="148" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="BQ1" s="148"/>
       <c r="BR1" s="148"/>
       <c r="BS1" s="148" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="BT1" s="148"/>
       <c r="BU1" s="148"/>
       <c r="BV1" s="148" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="BW1" s="148"/>
       <c r="BX1" s="148"/>
       <c r="BY1" s="148" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BZ1" s="148"/>
       <c r="CA1" s="148"/>
       <c r="CB1" s="148" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="CC1" s="148"/>
       <c r="CD1" s="148"/>
       <c r="CE1" s="148" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="CF1" s="148"/>
       <c r="CG1" s="148"/>
       <c r="CH1" s="148" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="CI1" s="148"/>
       <c r="CJ1" s="148"/>
       <c r="CK1" s="148" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="CL1" s="148"/>
       <c r="CM1" s="148"/>
       <c r="CN1" s="148" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="CO1" s="148"/>
       <c r="CP1" s="148"/>
       <c r="CQ1" s="148" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="CR1" s="148"/>
       <c r="CS1" s="148"/>
       <c r="CT1" s="148" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="CU1" s="148"/>
       <c r="CV1" s="148"/>
       <c r="CW1" s="149" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="CX1" s="148"/>
       <c r="CY1" s="148"/>
       <c r="CZ1" s="148" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="DA1" s="148"/>
       <c r="DB1" s="148"/>
       <c r="DC1" s="148" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="DD1" s="148"/>
       <c r="DE1" s="148"/>
       <c r="DF1" s="148" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="DG1" s="148"/>
       <c r="DH1" s="148"/>
@@ -5916,337 +5919,337 @@
       <c r="C2" s="6"/>
       <c r="D2" s="16"/>
       <c r="E2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AG2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AH2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AJ2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AK2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AL2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AM2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AN2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AO2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AP2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AQ2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AR2" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AS2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AT2" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AU2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AV2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AW2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AX2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AY2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AZ2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BA2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BB2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BC2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BE2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BF2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BG2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BH2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BI2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BJ2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BK2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BL2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BM2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BN2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BO2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BP2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BQ2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BR2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BS2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BT2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BU2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BV2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BW2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BX2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BY2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BZ2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CA2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CB2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CC2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CD2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CE2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CF2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CG2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CH2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CI2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CJ2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CK2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CL2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CM2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CO2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CP2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CQ2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CR2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CS2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CT2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CU2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CV2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CW2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CX2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CY2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CZ2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="DA2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="DB2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="DC2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="DD2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="DE2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="DF2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="DG2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="DH2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="DI2" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="DJ2" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="DK2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:117" x14ac:dyDescent="0.35">
@@ -6437,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="BJ3" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK3" s="22">
         <v>0</v>
@@ -6657,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U4" s="17">
         <v>0</v>
@@ -6711,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="AL4" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM4" s="22">
         <v>1</v>
@@ -6783,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="BJ4" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK4" s="22">
         <v>0</v>
@@ -6792,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN4" s="22">
         <v>0</v>
@@ -6819,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="BV4" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW4" s="22">
         <v>1</v>
@@ -6846,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="CE4" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF4" s="22">
         <v>1</v>
@@ -6855,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="CH4" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CI4" s="22">
         <v>1</v>
@@ -6864,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="CK4" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL4" s="22">
         <v>1</v>
@@ -6873,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="CN4" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CO4" s="22">
         <v>1</v>
@@ -6967,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" s="22">
         <v>1</v>
@@ -6985,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O5" s="23">
         <v>1</v>
@@ -7003,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U5" s="17">
         <v>1</v>
@@ -7030,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD5" s="22">
         <v>2</v>
@@ -7075,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS5" s="22">
         <v>1</v>
@@ -7084,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="AU5" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV5" s="22">
         <v>1</v>
@@ -7093,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="AX5" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY5" s="22">
         <v>1</v>
@@ -7111,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="BD5" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE5" s="22">
         <v>1</v>
@@ -7120,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="BG5" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH5" s="22">
         <v>1</v>
@@ -7129,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="BJ5" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK5" s="22">
         <v>0</v>
@@ -7147,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ5" s="22">
         <v>1</v>
@@ -7156,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="BS5" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BT5" s="22">
         <v>2</v>
@@ -7192,7 +7195,7 @@
         <v>2</v>
       </c>
       <c r="CE5" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF5" s="22">
         <v>2</v>
@@ -7237,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="CT5" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU5" s="22">
         <v>1</v>
@@ -7246,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="CW5" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX5" s="22">
         <v>1</v>
@@ -7313,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -7367,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA6" s="22">
         <v>1</v>
@@ -7430,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV6" s="22">
         <v>0</v>
@@ -7475,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK6" s="22">
         <v>0</v>
@@ -7659,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -7668,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
@@ -7749,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM7" s="22">
         <v>1</v>
@@ -7821,7 +7824,7 @@
         <v>2</v>
       </c>
       <c r="BJ7" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK7" s="22">
         <v>0</v>
@@ -7929,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="CT7" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU7" s="22">
         <v>1</v>
@@ -8167,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="BJ8" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK8" s="22">
         <v>0</v>
@@ -8212,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="BY8" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BZ8" s="22">
         <v>0</v>
@@ -8221,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="CB8" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CC8" s="22">
         <v>2</v>
@@ -8293,7 +8296,7 @@
         <v>2</v>
       </c>
       <c r="CZ8" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA8" s="22">
         <v>1</v>
@@ -8302,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="DC8" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DD8" s="22">
         <v>1</v>
@@ -8513,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="BJ9" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK9" s="22">
         <v>0</v>
@@ -8522,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN9" s="22">
         <v>1</v>
@@ -8697,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="22">
         <v>1</v>
@@ -8706,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L10" s="22">
         <v>1</v>
@@ -8733,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U10" s="17">
         <v>1</v>
@@ -8751,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA10" s="22">
         <v>2</v>
@@ -8778,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ10" s="20">
         <v>1</v>
@@ -8787,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM10" s="22">
         <v>0</v>
@@ -8814,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV10" s="22">
         <v>1</v>
@@ -8823,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="AX10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY10" s="22">
         <v>1</v>
@@ -8832,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="BA10" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BB10" s="20">
         <v>1</v>
@@ -8841,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE10" s="22">
         <v>0</v>
@@ -8850,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH10" s="22">
         <v>0</v>
@@ -8859,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK10" s="22">
         <v>0</v>
@@ -8868,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN10" s="22">
         <v>1</v>
@@ -8877,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="BP10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ10" s="22">
         <v>1</v>
@@ -8886,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="BS10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BT10" s="22">
         <v>0</v>
@@ -8913,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="CB10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CC10" s="22">
         <v>1</v>
@@ -8922,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="CE10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF10" s="22">
         <v>1</v>
@@ -8931,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="CH10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CI10" s="22">
         <v>0</v>
@@ -8940,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="CK10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL10" s="22">
         <v>0</v>
@@ -8958,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="CQ10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CR10" s="22">
         <v>0</v>
@@ -8967,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="CT10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU10" s="22">
         <v>1</v>
@@ -8976,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="CW10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX10" s="22">
         <v>0</v>
@@ -8994,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="DC10" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DD10" s="22">
         <v>0</v>
@@ -9003,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="DF10" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="DG10" s="22">
         <v>0</v>
@@ -9205,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK11" s="22">
         <v>0</v>
@@ -9551,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="BJ12" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK12" s="22">
         <v>0</v>
@@ -9560,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN12" s="22">
         <v>1</v>
@@ -9659,7 +9662,7 @@
         <v>2</v>
       </c>
       <c r="CT12" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU12" s="22">
         <v>2</v>
@@ -9668,7 +9671,7 @@
         <v>2</v>
       </c>
       <c r="CW12" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX12" s="22">
         <v>1</v>
@@ -9735,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
@@ -9798,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD13" s="22">
         <v>1</v>
@@ -9816,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ13" s="20">
         <v>1</v>
@@ -9888,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH13" s="22">
         <v>1</v>
@@ -9897,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="BJ13" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK13" s="22">
         <v>0</v>
@@ -10014,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="CW13" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX13" s="22">
         <v>2</v>
@@ -10023,7 +10026,7 @@
         <v>2</v>
       </c>
       <c r="CZ13" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA13" s="22">
         <v>0</v>
@@ -10171,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM14" s="22">
         <v>1</v>
@@ -10243,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK14" s="22">
         <v>0</v>
@@ -10544,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV15" s="22">
         <v>2</v>
@@ -10589,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK15" s="22">
         <v>0</v>
@@ -10694,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -10935,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK16" s="22">
         <v>0</v>
@@ -11110,7 +11113,7 @@
         <v>Schweiz</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F17" s="22">
         <v>1</v>
@@ -11137,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O17" s="23">
         <v>1</v>
@@ -11155,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U17" s="17">
         <v>1</v>
@@ -11182,7 +11185,7 @@
         <v>2</v>
       </c>
       <c r="AC17" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD17" s="22">
         <v>2</v>
@@ -11236,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV17" s="22">
         <v>0</v>
@@ -11254,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="BA17" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BB17" s="20">
         <v>1</v>
@@ -11263,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="BD17" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE17" s="22">
         <v>2</v>
@@ -11281,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="BJ17" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK17" s="22">
         <v>0</v>
@@ -11290,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN17" s="22">
         <v>1</v>
@@ -11299,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="BP17" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ17" s="22">
         <v>0</v>
@@ -11353,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="CH17" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CI17" s="22">
         <v>2</v>
@@ -11362,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="CK17" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL17" s="22">
         <v>2</v>
@@ -11407,7 +11410,7 @@
         <v>2</v>
       </c>
       <c r="CZ17" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA17" s="22">
         <v>1</v>
@@ -11416,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="DC17" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DD17" s="22">
         <v>1</v>
@@ -11456,7 +11459,7 @@
         <v>Serbien</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F18" s="22">
         <v>1</v>
@@ -11474,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L18" s="22">
         <v>2</v>
@@ -11528,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD18" s="22">
         <v>1</v>
@@ -11546,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="AI18" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ18" s="20">
         <v>1</v>
@@ -11564,7 +11567,7 @@
         <v>2</v>
       </c>
       <c r="AO18" s="43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AP18" s="18">
         <v>1</v>
@@ -11573,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="AR18" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS18" s="22">
         <v>1</v>
@@ -11582,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="AU18" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV18" s="22">
         <v>1</v>
@@ -11618,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="BG18" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH18" s="22">
         <v>1</v>
@@ -11627,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="BJ18" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK18" s="22">
         <v>0</v>
@@ -11636,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN18" s="22">
         <v>0</v>
@@ -11672,7 +11675,7 @@
         <v>2</v>
       </c>
       <c r="BY18" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BZ18" s="22">
         <v>2</v>
@@ -11699,7 +11702,7 @@
         <v>2</v>
       </c>
       <c r="CH18" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CI18" s="22">
         <v>2</v>
@@ -11708,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="CK18" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL18" s="22">
         <v>0</v>
@@ -11726,7 +11729,7 @@
         <v>2</v>
       </c>
       <c r="CQ18" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CR18" s="22">
         <v>1</v>
@@ -11744,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="CW18" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX18" s="22">
         <v>0</v>
@@ -11762,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="DC18" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DD18" s="22">
         <v>0</v>
@@ -11771,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="DF18" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="DG18" s="22">
         <v>2</v>
@@ -11802,7 +11805,7 @@
         <v>England</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F19" s="22">
         <v>1</v>
@@ -11820,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L19" s="22">
         <v>1</v>
@@ -11829,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O19" s="23">
         <v>2</v>
@@ -11874,7 +11877,7 @@
         <v>3</v>
       </c>
       <c r="AC19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD19" s="22">
         <v>2</v>
@@ -11901,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM19" s="22">
         <v>2</v>
@@ -11919,7 +11922,7 @@
         <v>2</v>
       </c>
       <c r="AR19" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS19" s="22">
         <v>1</v>
@@ -11955,7 +11958,7 @@
         <v>2</v>
       </c>
       <c r="BD19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE19" s="22">
         <v>1</v>
@@ -11973,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="BJ19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK19" s="22">
         <v>0</v>
@@ -12009,7 +12012,7 @@
         <v>3</v>
       </c>
       <c r="BV19" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW19" s="22">
         <v>2</v>
@@ -12036,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="CE19" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF19" s="22">
         <v>2</v>
@@ -12072,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="CQ19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CR19" s="22">
         <v>1</v>
@@ -12081,7 +12084,7 @@
         <v>2</v>
       </c>
       <c r="CT19" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU19" s="22">
         <v>1</v>
@@ -12090,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="CW19" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX19" s="22">
         <v>2</v>
@@ -12148,7 +12151,7 @@
         <v>Italien</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F20" s="22">
         <v>0</v>
@@ -12175,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O20" s="23">
         <v>0</v>
@@ -12202,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="X20" s="22">
         <v>1</v>
@@ -12229,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG20" s="22">
         <v>2</v>
@@ -12256,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="AO20" s="43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AP20" s="18">
         <v>2</v>
@@ -12292,7 +12295,7 @@
         <v>2</v>
       </c>
       <c r="BA20" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BB20" s="20">
         <v>2</v>
@@ -12310,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH20" s="22">
         <v>0</v>
@@ -12319,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK20" s="22">
         <v>0</v>
@@ -12337,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="BP20" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ20" s="22">
         <v>1</v>
@@ -12355,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="BV20" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW20" s="22">
         <v>1</v>
@@ -12382,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="CE20" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF20" s="22">
         <v>3</v>
@@ -12409,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="CN20" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CO20" s="22">
         <v>1</v>
@@ -12445,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="CZ20" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA20" s="22">
         <v>1</v>
@@ -12494,7 +12497,7 @@
         <v>Ukraina</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F21" s="22">
         <v>1</v>
@@ -12584,7 +12587,7 @@
         <v>2</v>
       </c>
       <c r="AI21" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ21" s="20">
         <v>1</v>
@@ -12602,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="AO21" s="43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AP21" s="18">
         <v>1</v>
@@ -12611,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS21" s="22">
         <v>1</v>
@@ -12620,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="AU21" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV21" s="22">
         <v>1</v>
@@ -12629,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="AX21" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY21" s="22">
         <v>1</v>
@@ -12647,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE21" s="22">
         <v>0</v>
@@ -12656,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="BG21" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH21" s="22">
         <v>2</v>
@@ -12665,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="BJ21" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK21" s="22">
         <v>0</v>
@@ -12674,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN21" s="22">
         <v>1</v>
@@ -12692,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="BS21" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BT21" s="22">
         <v>1</v>
@@ -12701,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="BV21" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW21" s="22">
         <v>0</v>
@@ -12764,7 +12767,7 @@
         <v>2</v>
       </c>
       <c r="CQ21" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CR21" s="22">
         <v>1</v>
@@ -12791,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA21" s="22">
         <v>1</v>
@@ -12809,7 +12812,7 @@
         <v>2</v>
       </c>
       <c r="DF21" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="DG21" s="22">
         <v>0</v>
@@ -12849,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I22" s="22">
         <v>1</v>
@@ -12876,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R22" s="22">
         <v>0</v>
@@ -12912,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD22" s="22">
         <v>0</v>
@@ -12957,7 +12960,7 @@
         <v>2</v>
       </c>
       <c r="AR22" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS22" s="22">
         <v>2</v>
@@ -13011,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="BJ22" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK22" s="22">
         <v>0</v>
@@ -13020,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN22" s="22">
         <v>1</v>
@@ -13047,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="BV22" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW22" s="22">
         <v>1</v>
@@ -13056,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="BY22" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BZ22" s="22">
         <v>1</v>
@@ -13101,7 +13104,7 @@
         <v>3</v>
       </c>
       <c r="CN22" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CO22" s="22">
         <v>1</v>
@@ -13128,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="CW22" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX22" s="22">
         <v>1</v>
@@ -13137,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="CZ22" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA22" s="22">
         <v>2</v>
@@ -13146,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="DC22" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DD22" s="22">
         <v>1</v>
@@ -13231,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U23" s="17">
         <v>2</v>
@@ -13303,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="AR23" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS23" s="22">
         <v>1</v>
@@ -13312,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="AU23" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV23" s="22">
         <v>1</v>
@@ -13321,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="AX23" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY23" s="22">
         <v>2</v>
@@ -13330,7 +13333,7 @@
         <v>2</v>
       </c>
       <c r="BA23" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BB23" s="20">
         <v>3</v>
@@ -13357,7 +13360,7 @@
         <v>3</v>
       </c>
       <c r="BJ23" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK23" s="22">
         <v>0</v>
@@ -13429,7 +13432,7 @@
         <v>3</v>
       </c>
       <c r="CH23" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CI23" s="22">
         <v>1</v>
@@ -13483,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="CZ23" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA23" s="22">
         <v>2</v>
@@ -13595,7 +13598,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA24" s="22">
         <v>0</v>
@@ -13631,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM24" s="22">
         <v>1</v>
@@ -13703,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="BJ24" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK24" s="22">
         <v>0</v>
@@ -13757,7 +13760,7 @@
         <v>2</v>
       </c>
       <c r="CB24" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CC24" s="22">
         <v>2</v>
@@ -13766,7 +13769,7 @@
         <v>2</v>
       </c>
       <c r="CE24" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF24" s="22">
         <v>1</v>
@@ -13775,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="CH24" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CI24" s="22">
         <v>0</v>
@@ -13784,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="CK24" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL24" s="22">
         <v>1</v>
@@ -13829,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA24" s="22">
         <v>1</v>
@@ -13977,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM25" s="22">
         <v>1</v>
@@ -14040,7 +14043,7 @@
         <v>2</v>
       </c>
       <c r="BG25" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH25" s="22">
         <v>2</v>
@@ -14049,7 +14052,7 @@
         <v>2</v>
       </c>
       <c r="BJ25" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK25" s="22">
         <v>0</v>
@@ -14350,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV26" s="22">
         <v>1</v>
@@ -14395,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK26" s="22">
         <v>0</v>
@@ -14579,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I27" s="22">
         <v>1</v>
@@ -14597,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O27" s="23">
         <v>2</v>
@@ -14669,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM27" s="22">
         <v>1</v>
@@ -14741,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK27" s="22">
         <v>0</v>
@@ -14795,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="CB27" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CC27" s="22">
         <v>2</v>
@@ -14840,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="CQ27" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CR27" s="22">
         <v>2</v>
@@ -14849,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="CT27" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU27" s="22">
         <v>1</v>
@@ -14858,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="CW27" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX27" s="22">
         <v>1</v>
@@ -14925,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I28" s="22">
         <v>1</v>
@@ -14961,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U28" s="17">
         <v>1</v>
@@ -15006,7 +15009,7 @@
         <v>3</v>
       </c>
       <c r="AI28" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ28" s="20">
         <v>1</v>
@@ -15042,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV28" s="22">
         <v>1</v>
@@ -15060,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BB28" s="20">
         <v>1</v>
@@ -15087,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK28" s="22">
         <v>0</v>
@@ -15096,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN28" s="22">
         <v>0</v>
@@ -15123,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="BV28" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW28" s="22">
         <v>2</v>
@@ -15132,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="BY28" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BZ28" s="22">
         <v>0</v>
@@ -15150,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="CE28" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF28" s="22">
         <v>1</v>
@@ -15159,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="CH28" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CI28" s="22">
         <v>1</v>
@@ -15168,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="CK28" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL28" s="22">
         <v>2</v>
@@ -15177,7 +15180,7 @@
         <v>2</v>
       </c>
       <c r="CN28" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CO28" s="22">
         <v>1</v>
@@ -15262,7 +15265,7 @@
         <v>Italien</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F29" s="22">
         <v>0</v>
@@ -15271,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I29" s="22">
         <v>1</v>
@@ -15289,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O29" s="23">
         <v>1</v>
@@ -15307,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U29" s="17">
         <v>2</v>
@@ -15325,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA29" s="22">
         <v>0</v>
@@ -15370,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="AO29" s="43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AP29" s="18">
         <v>1</v>
@@ -15379,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="AR29" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS29" s="22">
         <v>1</v>
@@ -15397,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="AX29" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY29" s="22">
         <v>1</v>
@@ -15415,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="BD29" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE29" s="22">
         <v>0</v>
@@ -15433,7 +15436,7 @@
         <v>2</v>
       </c>
       <c r="BJ29" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK29" s="22">
         <v>0</v>
@@ -15451,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ29" s="22">
         <v>0</v>
@@ -15469,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="BV29" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW29" s="22">
         <v>0</v>
@@ -15496,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="CE29" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF29" s="22">
         <v>1</v>
@@ -15541,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="CT29" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU29" s="22">
         <v>1</v>
@@ -15559,7 +15562,7 @@
         <v>2</v>
       </c>
       <c r="CZ29" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA29" s="22">
         <v>1</v>
@@ -15577,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="DF29" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="DG29" s="22">
         <v>2</v>
@@ -15779,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="BJ30" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK30" s="22">
         <v>0</v>
@@ -15981,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O31" s="23">
         <v>1</v>
@@ -16080,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV31" s="22">
         <v>0</v>
@@ -16107,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE31" s="22">
         <v>2</v>
@@ -16125,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK31" s="22">
         <v>0</v>
@@ -16134,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN31" s="22">
         <v>1</v>
@@ -16161,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="BV31" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW31" s="22">
         <v>1</v>
@@ -16233,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="CT31" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU31" s="22">
         <v>2</v>
@@ -16471,7 +16474,7 @@
         <v>1</v>
       </c>
       <c r="BJ32" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK32" s="22">
         <v>0</v>
@@ -16480,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN32" s="22">
         <v>1</v>
@@ -16817,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK33" s="22">
         <v>0</v>
@@ -16871,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="CB33" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CC33" s="22">
         <v>2</v>
@@ -17055,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA34" s="22">
         <v>2</v>
@@ -17082,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ34" s="20">
         <v>1</v>
@@ -17091,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM34" s="22">
         <v>1</v>
@@ -17109,7 +17112,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS34" s="22">
         <v>1</v>
@@ -17127,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY34" s="22">
         <v>2</v>
@@ -17136,7 +17139,7 @@
         <v>2</v>
       </c>
       <c r="BA34" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BB34" s="20">
         <v>1</v>
@@ -17163,7 +17166,7 @@
         <v>2</v>
       </c>
       <c r="BJ34" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK34" s="22">
         <v>0</v>
@@ -17190,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="BS34" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BT34" s="22">
         <v>1</v>
@@ -17217,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="CB34" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CC34" s="22">
         <v>1</v>
@@ -17253,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="CN34" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CO34" s="22">
         <v>1</v>
@@ -17289,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="CZ34" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA34" s="22">
         <v>1</v>
@@ -17374,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R35" s="22">
         <v>1</v>
@@ -17383,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U35" s="17">
         <v>0</v>
@@ -17410,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD35" s="22">
         <v>1</v>
@@ -17464,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV35" s="22">
         <v>2</v>
@@ -17473,7 +17476,7 @@
         <v>2</v>
       </c>
       <c r="AX35" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY35" s="22">
         <v>0</v>
@@ -17482,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BB35" s="20">
         <v>2</v>
@@ -17509,7 +17512,7 @@
         <v>2</v>
       </c>
       <c r="BJ35" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK35" s="22">
         <v>0</v>
@@ -17527,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ35" s="22">
         <v>1</v>
@@ -17536,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="BS35" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BT35" s="22">
         <v>1</v>
@@ -17554,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="BY35" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BZ35" s="22">
         <v>1</v>
@@ -17572,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="CE35" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CF35" s="22">
         <v>0</v>
@@ -17590,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="CK35" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL35" s="22">
         <v>0</v>
@@ -17599,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="CN35" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CO35" s="22">
         <v>1</v>
@@ -17617,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="CT35" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU35" s="22">
         <v>1</v>
@@ -17626,7 +17629,7 @@
         <v>1</v>
       </c>
       <c r="CW35" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX35" s="22">
         <v>1</v>
@@ -17635,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="CZ35" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA35" s="22">
         <v>2</v>
@@ -17846,7 +17849,7 @@
         <v>5</v>
       </c>
       <c r="BG36" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH36" s="22">
         <v>2</v>
@@ -17855,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="BJ36" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK36" s="22">
         <v>0</v>
@@ -17981,7 +17984,7 @@
         <v>3</v>
       </c>
       <c r="CZ36" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA36" s="22">
         <v>1</v>
@@ -18030,7 +18033,7 @@
         <v>Turkiet</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F37" s="22">
         <v>1</v>
@@ -18102,7 +18105,7 @@
         <v>2</v>
       </c>
       <c r="AC37" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD37" s="22">
         <v>1</v>
@@ -18147,7 +18150,7 @@
         <v>2</v>
       </c>
       <c r="AR37" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS37" s="22">
         <v>1</v>
@@ -18174,7 +18177,7 @@
         <v>2</v>
       </c>
       <c r="BA37" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BB37" s="20">
         <v>0</v>
@@ -18201,7 +18204,7 @@
         <v>2</v>
       </c>
       <c r="BJ37" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK37" s="22">
         <v>0</v>
@@ -18228,7 +18231,7 @@
         <v>0</v>
       </c>
       <c r="BS37" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BT37" s="22">
         <v>2</v>
@@ -18237,7 +18240,7 @@
         <v>2</v>
       </c>
       <c r="BV37" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW37" s="22">
         <v>1</v>
@@ -18273,7 +18276,7 @@
         <v>3</v>
       </c>
       <c r="CH37" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CI37" s="22">
         <v>1</v>
@@ -18291,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="CN37" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CO37" s="22">
         <v>1</v>
@@ -18318,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="CW37" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX37" s="22">
         <v>1</v>
@@ -18336,7 +18339,7 @@
         <v>2</v>
       </c>
       <c r="DC37" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DD37" s="22">
         <v>2</v>
@@ -18345,7 +18348,7 @@
         <v>2</v>
       </c>
       <c r="DF37" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="DG37" s="22">
         <v>1</v>
@@ -18547,7 +18550,7 @@
         <v>3</v>
       </c>
       <c r="BJ38" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK38" s="22">
         <v>0</v>
@@ -18712,14 +18715,14 @@
       </c>
       <c r="B39" s="60" t="str">
         <f>Resultat!E43</f>
-        <v>2A</v>
+        <v>Schweiz</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="60" t="str">
         <f>Resultat!G43</f>
-        <v>2B</v>
+        <v>Italen</v>
       </c>
       <c r="E39" s="33">
         <v>2</v>
@@ -18731,7 +18734,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I39" s="22">
         <v>1</v>
@@ -18893,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="BJ39" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK39" s="22">
         <v>0</v>
@@ -18911,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ39" s="22">
         <v>0</v>
@@ -19001,7 +19004,7 @@
         <v>2</v>
       </c>
       <c r="CT39" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU39" s="22">
         <v>1</v>
@@ -19058,14 +19061,14 @@
       </c>
       <c r="B40" s="60" t="str">
         <f>Resultat!E44</f>
-        <v>1A</v>
+        <v>Tyskland</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="60" t="str">
         <f>Resultat!G44</f>
-        <v>2C</v>
+        <v>Danmark</v>
       </c>
       <c r="E40" s="33">
         <v>1</v>
@@ -19158,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ40" s="20">
         <v>1</v>
@@ -19185,7 +19188,7 @@
         <v>1</v>
       </c>
       <c r="AR40" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS40" s="22">
         <v>1</v>
@@ -19239,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK40" s="22">
         <v>0</v>
@@ -19248,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN40" s="22">
         <v>1</v>
@@ -19347,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="CT40" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU40" s="22">
         <v>1</v>
@@ -19540,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV41" s="22">
         <v>1</v>
@@ -19585,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="BJ41" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK41" s="22">
         <v>0</v>
@@ -19711,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="CZ41" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA41" s="22">
         <v>1</v>
@@ -19931,7 +19934,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK42" s="22">
         <v>0</v>
@@ -20133,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O43" s="23">
         <v>1</v>
@@ -20223,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS43" s="22">
         <v>1</v>
@@ -20277,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="BJ43" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK43" s="22">
         <v>0</v>
@@ -20286,7 +20289,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN43" s="22">
         <v>1</v>
@@ -20295,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="BP43" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ43" s="22">
         <v>1</v>
@@ -20322,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="BY43" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BZ43" s="22">
         <v>1</v>
@@ -20394,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="CW43" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX43" s="22">
         <v>1</v>
@@ -20551,7 +20554,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM44" s="22">
         <v>1</v>
@@ -20614,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="BG44" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH44" s="22">
         <v>1</v>
@@ -20623,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="BJ44" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK44" s="22">
         <v>0</v>
@@ -20659,7 +20662,7 @@
         <v>1</v>
       </c>
       <c r="BV44" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW44" s="22">
         <v>1</v>
@@ -20728,7 +20731,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -20870,7 +20873,7 @@
         <v>2</v>
       </c>
       <c r="AC45" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD45" s="22">
         <v>0</v>
@@ -20924,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV45" s="22">
         <v>0</v>
@@ -20933,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY45" s="22">
         <v>1</v>
@@ -20951,7 +20954,7 @@
         <v>1</v>
       </c>
       <c r="BD45" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE45" s="22">
         <v>2</v>
@@ -20969,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="BJ45" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK45" s="22">
         <v>0</v>
@@ -20996,7 +20999,7 @@
         <v>1</v>
       </c>
       <c r="BS45" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BT45" s="22">
         <v>1</v>
@@ -21050,7 +21053,7 @@
         <v>2</v>
       </c>
       <c r="CK45" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL45" s="22">
         <v>2</v>
@@ -21086,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="CW45" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX45" s="22">
         <v>1</v>
@@ -21095,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="CZ45" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA45" s="22">
         <v>1</v>
@@ -21315,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK46" s="22">
         <v>0</v>
@@ -21324,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN46" s="22">
         <v>1</v>
@@ -21441,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="CZ46" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA46" s="22">
         <v>1</v>
@@ -21490,7 +21493,7 @@
         <v>V37</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F47" s="22">
         <v>1</v>
@@ -21499,7 +21502,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I47" s="22">
         <v>1</v>
@@ -21562,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD47" s="22">
         <v>1</v>
@@ -21580,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ47" s="20">
         <v>1</v>
@@ -21607,7 +21610,7 @@
         <v>3</v>
       </c>
       <c r="AR47" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS47" s="22">
         <v>2</v>
@@ -21616,7 +21619,7 @@
         <v>2</v>
       </c>
       <c r="AU47" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV47" s="22">
         <v>2</v>
@@ -21652,7 +21655,7 @@
         <v>1</v>
       </c>
       <c r="BG47" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH47" s="22">
         <v>2</v>
@@ -21661,7 +21664,7 @@
         <v>2</v>
       </c>
       <c r="BJ47" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK47" s="22">
         <v>0</v>
@@ -21697,7 +21700,7 @@
         <v>2</v>
       </c>
       <c r="BV47" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BW47" s="22">
         <v>2</v>
@@ -21706,7 +21709,7 @@
         <v>2</v>
       </c>
       <c r="BY47" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BZ47" s="22">
         <v>2</v>
@@ -21769,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="CT47" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU47" s="22">
         <v>1</v>
@@ -21836,7 +21839,7 @@
         <v>V42</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F48" s="22">
         <v>1</v>
@@ -21845,7 +21848,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I48" s="22">
         <v>1</v>
@@ -21908,7 +21911,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD48" s="22">
         <v>1</v>
@@ -21953,7 +21956,7 @@
         <v>1</v>
       </c>
       <c r="AR48" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS48" s="22">
         <v>1</v>
@@ -21989,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="BD48" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE48" s="22">
         <v>1</v>
@@ -22007,7 +22010,7 @@
         <v>2</v>
       </c>
       <c r="BJ48" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK48" s="22">
         <v>0</v>
@@ -22025,7 +22028,7 @@
         <v>1</v>
       </c>
       <c r="BP48" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BQ48" s="22">
         <v>1</v>
@@ -22088,7 +22091,7 @@
         <v>3</v>
       </c>
       <c r="CK48" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL48" s="22">
         <v>2</v>
@@ -22133,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="CZ48" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA48" s="22">
         <v>1</v>
@@ -22182,7 +22185,7 @@
         <v>V38</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F49" s="22">
         <v>1</v>
@@ -22191,7 +22194,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I49" s="22">
         <v>1</v>
@@ -22272,7 +22275,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ49" s="20">
         <v>1</v>
@@ -22299,7 +22302,7 @@
         <v>1</v>
       </c>
       <c r="AR49" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS49" s="22">
         <v>1</v>
@@ -22317,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY49" s="22">
         <v>0</v>
@@ -22353,7 +22356,7 @@
         <v>2</v>
       </c>
       <c r="BJ49" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK49" s="22">
         <v>0</v>
@@ -22362,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN49" s="22">
         <v>1</v>
@@ -22380,7 +22383,7 @@
         <v>0</v>
       </c>
       <c r="BS49" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BT49" s="22">
         <v>0</v>
@@ -22407,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="CB49" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CC49" s="22">
         <v>2</v>
@@ -22470,7 +22473,7 @@
         <v>1</v>
       </c>
       <c r="CW49" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX49" s="22">
         <v>2</v>
@@ -22479,7 +22482,7 @@
         <v>2</v>
       </c>
       <c r="CZ49" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA49" s="22">
         <v>0</v>
@@ -22537,7 +22540,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I50" s="22">
         <v>1</v>
@@ -22645,7 +22648,7 @@
         <v>2</v>
       </c>
       <c r="AR50" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS50" s="22">
         <v>1</v>
@@ -22699,7 +22702,7 @@
         <v>3</v>
       </c>
       <c r="BJ50" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK50" s="22">
         <v>0</v>
@@ -22780,7 +22783,7 @@
         <v>4</v>
       </c>
       <c r="CK50" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL50" s="22">
         <v>1</v>
@@ -22898,7 +22901,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O51" s="23">
         <v>2</v>
@@ -22961,7 +22964,7 @@
         <v>1</v>
       </c>
       <c r="AI51" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ51" s="20">
         <v>1</v>
@@ -22970,7 +22973,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM51" s="22">
         <v>1</v>
@@ -22988,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS51" s="22">
         <v>1</v>
@@ -22997,7 +23000,7 @@
         <v>1</v>
       </c>
       <c r="AU51" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AV51" s="22">
         <v>1</v>
@@ -23006,7 +23009,7 @@
         <v>1</v>
       </c>
       <c r="AX51" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY51" s="22">
         <v>2</v>
@@ -23042,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="BJ51" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK51" s="22">
         <v>0</v>
@@ -23159,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="CW51" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CX51" s="22">
         <v>1</v>
@@ -23214,7 +23217,7 @@
         <v>V46</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F52" s="22">
         <v>1</v>
@@ -23286,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD52" s="22">
         <v>2</v>
@@ -23304,7 +23307,7 @@
         <v>1</v>
       </c>
       <c r="AI52" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ52" s="20">
         <v>1</v>
@@ -23313,7 +23316,7 @@
         <v>1</v>
       </c>
       <c r="AL52" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM52" s="22">
         <v>0</v>
@@ -23331,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="AR52" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS52" s="22">
         <v>1</v>
@@ -23376,7 +23379,7 @@
         <v>1</v>
       </c>
       <c r="BG52" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BH52" s="22">
         <v>2</v>
@@ -23385,7 +23388,7 @@
         <v>2</v>
       </c>
       <c r="BJ52" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK52" s="22">
         <v>0</v>
@@ -23394,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN52" s="22">
         <v>1</v>
@@ -23466,7 +23469,7 @@
         <v>3</v>
       </c>
       <c r="CK52" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL52" s="22">
         <v>1</v>
@@ -23493,7 +23496,7 @@
         <v>3</v>
       </c>
       <c r="CT52" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU52" s="22">
         <v>1</v>
@@ -23511,7 +23514,7 @@
         <v>2</v>
       </c>
       <c r="CZ52" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="DA52" s="22">
         <v>1</v>
@@ -23648,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="AI53" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AJ53" s="20">
         <v>2</v>
@@ -23675,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="AR53" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AS53" s="22">
         <v>1</v>
@@ -23693,7 +23696,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AY53" s="22">
         <v>1</v>
@@ -23711,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="BD53" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE53" s="22">
         <v>1</v>
@@ -23729,7 +23732,7 @@
         <v>3</v>
       </c>
       <c r="BJ53" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BK53" s="22">
         <v>0</v>
@@ -23783,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="CB53" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CC53" s="22">
         <v>2</v>
@@ -23837,7 +23840,7 @@
         <v>2</v>
       </c>
       <c r="CT53" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CU53" s="22">
         <v>1</v>
@@ -24054,7 +24057,7 @@
     </row>
     <row r="57" spans="1:117" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>25</v>
@@ -24863,142 +24866,142 @@
       <c r="A62"/>
       <c r="D62"/>
       <c r="E62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q62" s="106" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Z62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AC62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF62" s="106" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AI62" s="106" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AL62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AO62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AR62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AU62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AX62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BA62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BD62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BG62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BJ62" s="106" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BM62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BN62" s="31"/>
       <c r="BO62" s="31"/>
       <c r="BP62" s="106" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BQ62" s="31"/>
       <c r="BR62" s="31"/>
       <c r="BS62" s="117" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BT62" s="31"/>
       <c r="BU62" s="31"/>
       <c r="BV62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BW62" s="31"/>
       <c r="BX62" s="31"/>
       <c r="BY62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BZ62" s="31"/>
       <c r="CA62" s="31"/>
       <c r="CB62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CC62" s="31"/>
       <c r="CD62" s="31"/>
       <c r="CE62" s="123" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CF62" s="31"/>
       <c r="CG62" s="31"/>
       <c r="CH62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CI62" s="31"/>
       <c r="CJ62" s="31"/>
       <c r="CK62" s="117" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CL62" s="31"/>
       <c r="CM62" s="31"/>
       <c r="CN62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CO62" s="31"/>
       <c r="CP62" s="31"/>
       <c r="CQ62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CR62" s="31"/>
       <c r="CS62" s="31"/>
       <c r="CT62" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CU62" s="31"/>
       <c r="CV62" s="31"/>
       <c r="CW62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CZ62" s="117" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="DC62" s="117" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="DF62" s="92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:117" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>21</v>
@@ -25446,7 +25449,7 @@
       <c r="BH65" s="31"/>
       <c r="BI65" s="31"/>
       <c r="BJ65" s="104" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BK65" s="31"/>
       <c r="BL65" s="31"/>
@@ -25527,97 +25530,97 @@
       <c r="A66"/>
       <c r="D66"/>
       <c r="E66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
       <c r="N66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O66" s="31"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="104" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
       <c r="T66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="U66" s="31"/>
       <c r="V66" s="31"/>
       <c r="W66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA66" s="31"/>
       <c r="AB66" s="31"/>
       <c r="AC66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AD66" s="31"/>
       <c r="AE66" s="31"/>
       <c r="AF66" s="104" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AG66" s="31"/>
       <c r="AH66" s="31"/>
       <c r="AI66" s="104" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AJ66" s="31"/>
       <c r="AK66" s="31"/>
       <c r="AL66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AM66" s="31"/>
       <c r="AN66" s="31"/>
       <c r="AO66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="31"/>
       <c r="AR66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AS66" s="31"/>
       <c r="AT66" s="31"/>
       <c r="AU66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AV66" s="31"/>
       <c r="AW66" s="31"/>
       <c r="AX66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AY66" s="31"/>
       <c r="AZ66" s="31"/>
       <c r="BA66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BB66" s="31"/>
       <c r="BC66" s="31"/>
       <c r="BD66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BE66" s="31"/>
       <c r="BF66" s="31"/>
       <c r="BG66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BH66" s="31"/>
       <c r="BI66" s="31"/>
@@ -25627,76 +25630,76 @@
       <c r="BK66" s="31"/>
       <c r="BL66" s="31"/>
       <c r="BM66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BN66" s="31"/>
       <c r="BO66" s="31"/>
       <c r="BP66" s="104" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BQ66" s="31"/>
       <c r="BR66" s="31"/>
       <c r="BS66" s="115" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BT66" s="31"/>
       <c r="BU66" s="31"/>
       <c r="BV66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BW66" s="31"/>
       <c r="BX66" s="31"/>
       <c r="BY66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BZ66" s="31"/>
       <c r="CA66" s="31"/>
       <c r="CB66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CC66" s="31"/>
       <c r="CD66" s="31"/>
       <c r="CE66" s="121" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CF66" s="31"/>
       <c r="CG66" s="31"/>
       <c r="CH66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CI66" s="31"/>
       <c r="CJ66" s="31"/>
       <c r="CK66" s="115" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CL66" s="31"/>
       <c r="CM66" s="31"/>
       <c r="CN66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CO66" s="31"/>
       <c r="CP66" s="31"/>
       <c r="CQ66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CR66" s="31"/>
       <c r="CS66" s="31"/>
       <c r="CT66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CU66" s="31"/>
       <c r="CV66" s="31"/>
       <c r="CW66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CZ66" s="115" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="DC66" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="DF66" s="103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:110" x14ac:dyDescent="0.35">
@@ -25807,142 +25810,142 @@
       <c r="A68"/>
       <c r="D68"/>
       <c r="E68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="106" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AC68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AF68" s="106" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AI68" s="106" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AL68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AO68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AR68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AU68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AX68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BA68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BD68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BG68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BJ68" s="106" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BM68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BN68" s="31"/>
       <c r="BO68" s="31"/>
       <c r="BP68" s="106" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BQ68" s="31"/>
       <c r="BR68" s="31"/>
       <c r="BS68" s="117" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BT68" s="31"/>
       <c r="BU68" s="31"/>
       <c r="BV68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BW68" s="31"/>
       <c r="BX68" s="31"/>
       <c r="BY68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BZ68" s="31"/>
       <c r="CA68" s="31"/>
       <c r="CB68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CC68" s="31"/>
       <c r="CD68" s="31"/>
       <c r="CE68" s="123" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CF68" s="31"/>
       <c r="CG68" s="31"/>
       <c r="CH68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CI68" s="31"/>
       <c r="CJ68" s="31"/>
       <c r="CK68" s="117" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CL68" s="31"/>
       <c r="CM68" s="31"/>
       <c r="CN68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CO68" s="31"/>
       <c r="CP68" s="31"/>
       <c r="CQ68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CR68" s="31"/>
       <c r="CS68" s="31"/>
       <c r="CT68" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CU68" s="31"/>
       <c r="CV68" s="31"/>
       <c r="CW68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CZ68" s="117" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="DC68" s="117" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="DF68" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>10</v>
@@ -26174,7 +26177,7 @@
       <c r="AJ70" s="31"/>
       <c r="AK70" s="31"/>
       <c r="AL70" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AM70" s="31"/>
       <c r="AN70" s="31"/>
@@ -26209,7 +26212,7 @@
       <c r="BE70" s="31"/>
       <c r="BF70" s="31"/>
       <c r="BG70" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BH70" s="31"/>
       <c r="BI70" s="31"/>
@@ -26219,7 +26222,7 @@
       <c r="BK70" s="31"/>
       <c r="BL70" s="31"/>
       <c r="BM70" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BN70" s="31"/>
       <c r="BO70" s="31"/>
@@ -26234,7 +26237,7 @@
       <c r="BT70" s="31"/>
       <c r="BU70" s="31"/>
       <c r="BV70" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BW70" s="31"/>
       <c r="BX70" s="31"/>
@@ -26244,12 +26247,12 @@
       <c r="BZ70" s="31"/>
       <c r="CA70" s="31"/>
       <c r="CB70" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CC70" s="31"/>
       <c r="CD70" s="31"/>
       <c r="CE70" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CF70" s="31"/>
       <c r="CG70" s="31"/>
@@ -26282,10 +26285,10 @@
         <v>8</v>
       </c>
       <c r="CZ70" s="115" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="DC70" s="115" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="DF70" s="103" t="s">
         <v>8</v>
@@ -26295,57 +26298,57 @@
       <c r="A71"/>
       <c r="D71"/>
       <c r="E71" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
       <c r="H71" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I71" s="31"/>
       <c r="J71" s="31"/>
       <c r="K71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
       <c r="N71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="104" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
       <c r="T71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U71" s="31"/>
       <c r="V71" s="31"/>
       <c r="W71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="Z71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA71" s="31"/>
       <c r="AB71" s="31"/>
       <c r="AC71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD71" s="31"/>
       <c r="AE71" s="31"/>
       <c r="AF71" s="104" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG71" s="31"/>
       <c r="AH71" s="31"/>
       <c r="AI71" s="104" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ71" s="31"/>
       <c r="AK71" s="31"/>
@@ -26355,32 +26358,32 @@
       <c r="AM71" s="31"/>
       <c r="AN71" s="31"/>
       <c r="AO71" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AP71" s="31"/>
       <c r="AQ71" s="31"/>
       <c r="AR71" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AS71" s="31"/>
       <c r="AT71" s="31"/>
       <c r="AU71" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AV71" s="31"/>
       <c r="AW71" s="31"/>
       <c r="AX71" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AY71" s="31"/>
       <c r="AZ71" s="31"/>
       <c r="BA71" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BB71" s="31"/>
       <c r="BC71" s="31"/>
       <c r="BD71" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BE71" s="31"/>
       <c r="BF71" s="31"/>
@@ -26390,7 +26393,7 @@
       <c r="BH71" s="31"/>
       <c r="BI71" s="31"/>
       <c r="BJ71" s="104" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BK71" s="31"/>
       <c r="BL71" s="31"/>
@@ -26400,12 +26403,12 @@
       <c r="BN71" s="31"/>
       <c r="BO71" s="31"/>
       <c r="BP71" s="104" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BQ71" s="31"/>
       <c r="BR71" s="31"/>
       <c r="BS71" s="115" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BT71" s="31"/>
       <c r="BU71" s="31"/>
@@ -26415,7 +26418,7 @@
       <c r="BW71" s="31"/>
       <c r="BX71" s="31"/>
       <c r="BY71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BZ71" s="31"/>
       <c r="CA71" s="31"/>
@@ -26430,32 +26433,32 @@
       <c r="CF71" s="31"/>
       <c r="CG71" s="31"/>
       <c r="CH71" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="CI71" s="31"/>
       <c r="CJ71" s="31"/>
       <c r="CK71" s="115" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CL71" s="31"/>
       <c r="CM71" s="31"/>
       <c r="CN71" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CO71" s="31"/>
       <c r="CP71" s="31"/>
       <c r="CQ71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CR71" s="31"/>
       <c r="CS71" s="31"/>
       <c r="CT71" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CU71" s="31"/>
       <c r="CV71" s="31"/>
       <c r="CW71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CZ71" s="115" t="s">
         <v>8</v>
@@ -26464,183 +26467,183 @@
         <v>8</v>
       </c>
       <c r="DF71" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="D72"/>
       <c r="E72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
       <c r="H72" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
       <c r="K72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
       <c r="N72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
       <c r="Q72" s="104" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
       <c r="T72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U72" s="31"/>
       <c r="V72" s="31"/>
       <c r="W72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X72" s="31"/>
       <c r="Y72" s="31"/>
       <c r="Z72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA72" s="31"/>
       <c r="AB72" s="31"/>
       <c r="AC72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AD72" s="31"/>
       <c r="AE72" s="31"/>
       <c r="AF72" s="104" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG72" s="31"/>
       <c r="AH72" s="31"/>
       <c r="AI72" s="104" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AJ72" s="31"/>
       <c r="AK72" s="31"/>
       <c r="AL72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AM72" s="31"/>
       <c r="AN72" s="31"/>
       <c r="AO72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AP72" s="31"/>
       <c r="AQ72" s="31"/>
       <c r="AR72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AS72" s="31"/>
       <c r="AT72" s="31"/>
       <c r="AU72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AV72" s="31"/>
       <c r="AW72" s="31"/>
       <c r="AX72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AY72" s="31"/>
       <c r="AZ72" s="31"/>
       <c r="BA72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BB72" s="31"/>
       <c r="BC72" s="31"/>
       <c r="BD72" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BE72" s="31"/>
       <c r="BF72" s="31"/>
       <c r="BG72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BH72" s="31"/>
       <c r="BI72" s="31"/>
       <c r="BJ72" s="104" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BK72" s="31"/>
       <c r="BL72" s="31"/>
       <c r="BM72" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BN72" s="31"/>
       <c r="BO72" s="31"/>
       <c r="BP72" s="104" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BQ72" s="31"/>
       <c r="BR72" s="31"/>
       <c r="BS72" s="115" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BT72" s="31"/>
       <c r="BU72" s="31"/>
       <c r="BV72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BW72" s="31"/>
       <c r="BX72" s="31"/>
       <c r="BY72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BZ72" s="31"/>
       <c r="CA72" s="31"/>
       <c r="CB72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="CC72" s="31"/>
       <c r="CD72" s="31"/>
       <c r="CE72" s="121" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="CF72" s="31"/>
       <c r="CG72" s="31"/>
       <c r="CH72" s="103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CI72" s="31"/>
       <c r="CJ72" s="31"/>
       <c r="CK72" s="115" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="CL72" s="31"/>
       <c r="CM72" s="31"/>
       <c r="CN72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="CO72" s="31"/>
       <c r="CP72" s="31"/>
       <c r="CQ72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="CR72" s="31"/>
       <c r="CS72" s="31"/>
       <c r="CT72" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="CU72" s="31"/>
       <c r="CV72" s="31"/>
       <c r="CW72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="CZ72" s="115" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="DC72" s="115" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="DF72" s="103" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:110" x14ac:dyDescent="0.35">
@@ -26751,142 +26754,142 @@
       <c r="A74"/>
       <c r="D74"/>
       <c r="E74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q74" s="106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Z74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AF74" s="106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AI74" s="106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AL74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AO74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AR74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AU74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AX74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BA74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BD74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BG74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BJ74" s="106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BM74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BN74" s="31"/>
       <c r="BO74" s="31"/>
       <c r="BP74" s="106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BQ74" s="31"/>
       <c r="BR74" s="31"/>
       <c r="BS74" s="117" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BT74" s="31"/>
       <c r="BU74" s="31"/>
       <c r="BV74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BW74" s="31"/>
       <c r="BX74" s="31"/>
       <c r="BY74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BZ74" s="31"/>
       <c r="CA74" s="31"/>
       <c r="CB74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CC74" s="31"/>
       <c r="CD74" s="31"/>
       <c r="CE74" s="123" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CF74" s="31"/>
       <c r="CG74" s="31"/>
       <c r="CH74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CI74" s="31"/>
       <c r="CJ74" s="31"/>
       <c r="CK74" s="117" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CL74" s="31"/>
       <c r="CM74" s="31"/>
       <c r="CN74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CO74" s="31"/>
       <c r="CP74" s="31"/>
       <c r="CQ74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CR74" s="31"/>
       <c r="CS74" s="31"/>
       <c r="CT74" s="52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CU74" s="31"/>
       <c r="CV74" s="31"/>
       <c r="CW74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CZ74" s="117" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="DC74" s="117" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="DF74" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>27</v>
@@ -27695,142 +27698,142 @@
       <c r="A80"/>
       <c r="D80"/>
       <c r="E80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q80" s="106" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Z80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AC80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AF80" s="106" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AI80" s="106" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AL80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AO80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AR80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AU80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AX80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BA80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BD80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BG80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BJ80" s="106" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BM80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BN80" s="31"/>
       <c r="BO80" s="31"/>
       <c r="BP80" s="106" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BQ80" s="31"/>
       <c r="BR80" s="31"/>
       <c r="BS80" s="117" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BT80" s="31"/>
       <c r="BU80" s="31"/>
       <c r="BV80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BW80" s="31"/>
       <c r="BX80" s="31"/>
       <c r="BY80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BZ80" s="31"/>
       <c r="CA80" s="31"/>
       <c r="CB80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CC80" s="31"/>
       <c r="CD80" s="31"/>
       <c r="CE80" s="123" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CF80" s="31"/>
       <c r="CG80" s="31"/>
       <c r="CH80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CI80" s="31"/>
       <c r="CJ80" s="31"/>
       <c r="CK80" s="117" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CL80" s="31"/>
       <c r="CM80" s="31"/>
       <c r="CN80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CO80" s="31"/>
       <c r="CP80" s="31"/>
       <c r="CQ80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CR80" s="31"/>
       <c r="CS80" s="31"/>
       <c r="CT80" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CU80" s="31"/>
       <c r="CV80" s="31"/>
       <c r="CW80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CZ80" s="117" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="DC80" s="117" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="DF80" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="D81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E81" s="50" t="s">
         <v>9</v>
@@ -27903,7 +27906,7 @@
       <c r="AS81" s="31"/>
       <c r="AT81" s="31"/>
       <c r="AU81" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AV81" s="31"/>
       <c r="AW81" s="31"/>
@@ -27928,7 +27931,7 @@
       <c r="BH81" s="31"/>
       <c r="BI81" s="31"/>
       <c r="BJ81" s="104" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BK81" s="31"/>
       <c r="BL81" s="31"/>
@@ -28176,7 +28179,7 @@
         <v>16</v>
       </c>
       <c r="DF82" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:110" x14ac:dyDescent="0.35">
@@ -28203,7 +28206,7 @@
       <c r="O83" s="31"/>
       <c r="P83" s="31"/>
       <c r="Q83" s="104" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
@@ -28228,12 +28231,12 @@
       <c r="AD83" s="31"/>
       <c r="AE83" s="31"/>
       <c r="AF83" s="104" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AG83" s="31"/>
       <c r="AH83" s="31"/>
       <c r="AI83" s="104" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ83" s="31"/>
       <c r="AK83" s="31"/>
@@ -28248,7 +28251,7 @@
       <c r="AP83" s="31"/>
       <c r="AQ83" s="31"/>
       <c r="AR83" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AS83" s="31"/>
       <c r="AT83" s="31"/>
@@ -28258,27 +28261,27 @@
       <c r="AV83" s="31"/>
       <c r="AW83" s="31"/>
       <c r="AX83" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AY83" s="31"/>
       <c r="AZ83" s="31"/>
       <c r="BA83" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BB83" s="31"/>
       <c r="BC83" s="31"/>
       <c r="BD83" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BE83" s="31"/>
       <c r="BF83" s="31"/>
       <c r="BG83" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BH83" s="31"/>
       <c r="BI83" s="31"/>
       <c r="BJ83" s="104" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BK83" s="31"/>
       <c r="BL83" s="31"/>
@@ -28288,7 +28291,7 @@
       <c r="BN83" s="31"/>
       <c r="BO83" s="31"/>
       <c r="BP83" s="104" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BQ83" s="31"/>
       <c r="BR83" s="31"/>
@@ -28318,17 +28321,17 @@
       <c r="CF83" s="31"/>
       <c r="CG83" s="31"/>
       <c r="CH83" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CI83" s="31"/>
       <c r="CJ83" s="31"/>
       <c r="CK83" s="115" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CL83" s="31"/>
       <c r="CM83" s="31"/>
       <c r="CN83" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CO83" s="31"/>
       <c r="CP83" s="31"/>
@@ -28359,22 +28362,22 @@
       <c r="A84"/>
       <c r="D84"/>
       <c r="E84" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
       <c r="K84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
       <c r="N84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O84" s="31"/>
       <c r="P84" s="31"/>
@@ -28384,22 +28387,22 @@
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
       <c r="T84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="U84" s="31"/>
       <c r="V84" s="31"/>
       <c r="W84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AA84" s="31"/>
       <c r="AB84" s="31"/>
       <c r="AC84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AD84" s="31"/>
       <c r="AE84" s="31"/>
@@ -28414,12 +28417,12 @@
       <c r="AJ84" s="31"/>
       <c r="AK84" s="31"/>
       <c r="AL84" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AM84" s="31"/>
       <c r="AN84" s="31"/>
       <c r="AO84" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AP84" s="31"/>
       <c r="AQ84" s="31"/>
@@ -28459,7 +28462,7 @@
       <c r="BK84" s="31"/>
       <c r="BL84" s="31"/>
       <c r="BM84" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BN84" s="31"/>
       <c r="BO84" s="31"/>
@@ -28469,27 +28472,27 @@
       <c r="BQ84" s="31"/>
       <c r="BR84" s="31"/>
       <c r="BS84" s="115" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BT84" s="31"/>
       <c r="BU84" s="31"/>
       <c r="BV84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BW84" s="31"/>
       <c r="BX84" s="31"/>
       <c r="BY84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BZ84" s="31"/>
       <c r="CA84" s="31"/>
       <c r="CB84" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CC84" s="31"/>
       <c r="CD84" s="31"/>
       <c r="CE84" s="121" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CF84" s="31"/>
       <c r="CG84" s="31"/>
@@ -28509,23 +28512,23 @@
       <c r="CO84" s="31"/>
       <c r="CP84" s="31"/>
       <c r="CQ84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CR84" s="31"/>
       <c r="CS84" s="31"/>
       <c r="CT84" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CU84" s="31"/>
       <c r="CV84" s="31"/>
       <c r="CW84" s="103" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CZ84" s="115" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="DC84" s="115" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="DF84" s="103" t="s">
         <v>23</v>
@@ -28639,142 +28642,142 @@
       <c r="A86"/>
       <c r="D86"/>
       <c r="E86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q86" s="106" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Z86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AF86" s="106" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AI86" s="106" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AL86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AO86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AR86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AU86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AX86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BA86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BD86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BG86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BJ86" s="106" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BM86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BN86" s="31"/>
       <c r="BO86" s="31"/>
       <c r="BP86" s="106" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BQ86" s="31"/>
       <c r="BR86" s="31"/>
       <c r="BS86" s="117" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BT86" s="31"/>
       <c r="BU86" s="31"/>
       <c r="BV86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BW86" s="31"/>
       <c r="BX86" s="31"/>
       <c r="BY86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BZ86" s="31"/>
       <c r="CA86" s="31"/>
       <c r="CB86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CC86" s="31"/>
       <c r="CD86" s="31"/>
       <c r="CE86" s="123" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CF86" s="31"/>
       <c r="CG86" s="31"/>
       <c r="CH86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CI86" s="31"/>
       <c r="CJ86" s="31"/>
       <c r="CK86" s="117" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CL86" s="31"/>
       <c r="CM86" s="31"/>
       <c r="CN86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CO86" s="31"/>
       <c r="CP86" s="31"/>
       <c r="CQ86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CR86" s="31"/>
       <c r="CS86" s="31"/>
       <c r="CT86" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CU86" s="31"/>
       <c r="CV86" s="31"/>
       <c r="CW86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CZ86" s="117" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="DC86" s="117" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="DF86" s="92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="D87" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>26</v>
@@ -29111,13 +29114,13 @@
       <c r="CU88" s="31"/>
       <c r="CV88" s="31"/>
       <c r="CW88" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CZ88" s="115" t="s">
         <v>19</v>
       </c>
       <c r="DC88" s="115" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="DF88" s="103" t="s">
         <v>19</v>
@@ -29277,7 +29280,7 @@
       <c r="CO89" s="31"/>
       <c r="CP89" s="31"/>
       <c r="CQ89" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CR89" s="31"/>
       <c r="CS89" s="31"/>
@@ -29293,7 +29296,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29303,47 +29306,47 @@
       <c r="A90"/>
       <c r="D90"/>
       <c r="E90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
       <c r="H90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I90" s="31"/>
       <c r="J90" s="31"/>
       <c r="K90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L90" s="31"/>
       <c r="M90" s="31"/>
       <c r="N90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O90" s="31"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="104" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R90" s="31"/>
       <c r="S90" s="31"/>
       <c r="T90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U90" s="31"/>
       <c r="V90" s="31"/>
       <c r="W90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
       <c r="Z90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AA90" s="31"/>
       <c r="AB90" s="31"/>
       <c r="AC90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD90" s="31"/>
       <c r="AE90" s="31"/>
@@ -29353,102 +29356,102 @@
       <c r="AG90" s="31"/>
       <c r="AH90" s="31"/>
       <c r="AI90" s="104" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AJ90" s="31"/>
       <c r="AK90" s="31"/>
       <c r="AL90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AM90" s="31"/>
       <c r="AN90" s="31"/>
       <c r="AO90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AP90" s="31"/>
       <c r="AQ90" s="31"/>
       <c r="AR90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS90" s="31"/>
       <c r="AT90" s="31"/>
       <c r="AU90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AV90" s="31"/>
       <c r="AW90" s="31"/>
       <c r="AX90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AY90" s="31"/>
       <c r="AZ90" s="31"/>
       <c r="BA90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BB90" s="31"/>
       <c r="BC90" s="31"/>
       <c r="BD90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BE90" s="31"/>
       <c r="BF90" s="31"/>
       <c r="BG90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BH90" s="31"/>
       <c r="BI90" s="31"/>
       <c r="BJ90" s="104" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BK90" s="31"/>
       <c r="BL90" s="31"/>
       <c r="BM90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BN90" s="31"/>
       <c r="BO90" s="31"/>
       <c r="BP90" s="104" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BQ90" s="31"/>
       <c r="BR90" s="31"/>
       <c r="BS90" s="115" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BT90" s="31"/>
       <c r="BU90" s="31"/>
       <c r="BV90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BW90" s="31"/>
       <c r="BX90" s="31"/>
       <c r="BY90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BZ90" s="31"/>
       <c r="CA90" s="31"/>
       <c r="CB90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CC90" s="31"/>
       <c r="CD90" s="31"/>
       <c r="CE90" s="121" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CF90" s="31"/>
       <c r="CG90" s="31"/>
       <c r="CH90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CI90" s="31"/>
       <c r="CJ90" s="31"/>
       <c r="CK90" s="115" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CL90" s="31"/>
       <c r="CM90" s="31"/>
       <c r="CN90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CO90" s="31"/>
       <c r="CP90" s="31"/>
@@ -29458,7 +29461,7 @@
       <c r="CR90" s="31"/>
       <c r="CS90" s="31"/>
       <c r="CT90" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CU90" s="31"/>
       <c r="CV90" s="31"/>
@@ -29466,13 +29469,13 @@
         <v>19</v>
       </c>
       <c r="CZ90" s="115" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="DF90" s="103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:110" x14ac:dyDescent="0.35">
@@ -29492,7 +29495,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29554,7 +29557,7 @@
     </row>
     <row r="93" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D93" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E93" s="103" t="s">
         <v>27</v>
@@ -29610,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29652,7 +29655,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29672,7 +29675,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29696,149 +29699,149 @@
     </row>
     <row r="94" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D94" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="K94" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="N94" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q94" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>114</v>
-      </c>
-      <c r="H94" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="K94" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>118</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI94" s="110" t="s">
         <v>116</v>
-      </c>
-      <c r="AI94" s="110" t="s">
-        <v>120</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D95" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E95" s="103">
         <v>142</v>
@@ -29981,7 +29984,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30029,14 +30032,14 @@
       </c>
       <c r="AP96" s="93"/>
       <c r="AR96" s="95" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AU96" s="95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30077,7 +30080,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30107,7 +30110,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30126,7 +30129,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30470,7 +30473,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36203,11 +36206,11 @@
     <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="str">
         <f>Resultat!E43</f>
-        <v>2A</v>
+        <v>Schweiz</v>
       </c>
       <c r="B38" s="19" t="str">
         <f>Kuponger!D39</f>
-        <v>2B</v>
+        <v>Italen</v>
       </c>
       <c r="C38">
         <f>IF(AND(Resultat!$H43&lt;&gt;"",Kuponger!E39&lt;&gt;""),IF(Resultat!$H43=Kuponger!E39,1,0),0) + IF(AND(Resultat!$I43&lt;&gt;"",Kuponger!F39&lt;&gt;"",Resultat!$K43&lt;&gt;"",Kuponger!G39&lt;&gt;""),IF(AND(Resultat!$I43=Kuponger!F39,Resultat!$K43=Kuponger!G39),3,0),0)</f>
@@ -36227,7 +36230,7 @@
       </c>
       <c r="G38">
         <f ca="1">IF(AND(Resultat!$I43&lt;&gt;"",OFFSET(Kuponger!$F39,0,3*COLUMN(D38))=Resultat!$I43,OFFSET(Kuponger!$G39,0,3*COLUMN(D38))=Resultat!$K43),3,0) + IF(AND(Resultat!$H43&lt;&gt;"",OFFSET(Kuponger!$E39,0,3*COLUMN(D38))=Resultat!$H43),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <f ca="1">IF(AND(Resultat!$I43&lt;&gt;"",OFFSET(Kuponger!$F39,0,3*COLUMN(E38))=Resultat!$I43,OFFSET(Kuponger!$G39,0,3*COLUMN(E38))=Resultat!$K43),3,0) + IF(AND(Resultat!$H43&lt;&gt;"",OFFSET(Kuponger!$E39,0,3*COLUMN(E38))=Resultat!$H43),1,0)</f>
@@ -36279,7 +36282,7 @@
       </c>
       <c r="T38">
         <f ca="1">IF(AND(Resultat!$I43&lt;&gt;"",OFFSET(Kuponger!$F39,0,3*COLUMN(Q38))=Resultat!$I43,OFFSET(Kuponger!$G39,0,3*COLUMN(Q38))=Resultat!$K43),3,0) + IF(AND(Resultat!$H43&lt;&gt;"",OFFSET(Kuponger!$E39,0,3*COLUMN(Q38))=Resultat!$H43),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <f ca="1">IF(AND(Resultat!$I43&lt;&gt;"",OFFSET(Kuponger!$F39,0,3*COLUMN(R38))=Resultat!$I43,OFFSET(Kuponger!$G39,0,3*COLUMN(R38))=Resultat!$K43),3,0) + IF(AND(Resultat!$H43&lt;&gt;"",OFFSET(Kuponger!$E39,0,3*COLUMN(R38))=Resultat!$H43),1,0)</f>
@@ -36291,7 +36294,7 @@
       </c>
       <c r="W38">
         <f ca="1">IF(AND(Resultat!$I43&lt;&gt;"",OFFSET(Kuponger!$F39,0,3*COLUMN(T38))=Resultat!$I43,OFFSET(Kuponger!$G39,0,3*COLUMN(T38))=Resultat!$K43),3,0) + IF(AND(Resultat!$H43&lt;&gt;"",OFFSET(Kuponger!$E39,0,3*COLUMN(T38))=Resultat!$H43),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <f ca="1">IF(AND(Resultat!$I43&lt;&gt;"",OFFSET(Kuponger!$F39,0,3*COLUMN(U38))=Resultat!$I43,OFFSET(Kuponger!$G39,0,3*COLUMN(U38))=Resultat!$K43),3,0) + IF(AND(Resultat!$H43&lt;&gt;"",OFFSET(Kuponger!$E39,0,3*COLUMN(U38))=Resultat!$H43),1,0)</f>
@@ -36331,7 +36334,7 @@
       </c>
       <c r="AG38">
         <f ca="1">IF(AND(Resultat!$I43&lt;&gt;"",OFFSET(Kuponger!$F39,0,3*COLUMN(AD38))=Resultat!$I43,OFFSET(Kuponger!$G39,0,3*COLUMN(AD38))=Resultat!$K43),3,0) + IF(AND(Resultat!$H43&lt;&gt;"",OFFSET(Kuponger!$E39,0,3*COLUMN(AD38))=Resultat!$H43),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38">
         <f ca="1">IF(AND(Resultat!$I43&lt;&gt;"",OFFSET(Kuponger!$F39,0,3*COLUMN(AE38))=Resultat!$I43,OFFSET(Kuponger!$G39,0,3*COLUMN(AE38))=Resultat!$K43),3,0) + IF(AND(Resultat!$H43&lt;&gt;"",OFFSET(Kuponger!$E39,0,3*COLUMN(AE38))=Resultat!$H43),1,0)</f>
@@ -36357,43 +36360,43 @@
     <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="str">
         <f>Resultat!E44</f>
-        <v>1A</v>
+        <v>Tyskland</v>
       </c>
       <c r="B39" s="19" t="str">
         <f>Kuponger!D40</f>
-        <v>2C</v>
+        <v>Danmark</v>
       </c>
       <c r="C39">
         <f>IF(AND(Resultat!$H44&lt;&gt;"",Kuponger!E40&lt;&gt;""),IF(Resultat!$H44=Kuponger!E40,1,0),0) + IF(AND(Resultat!$I44&lt;&gt;"",Kuponger!F40&lt;&gt;"",Resultat!$K44&lt;&gt;"",Kuponger!G40&lt;&gt;""),IF(AND(Resultat!$I44=Kuponger!F40,Resultat!$K44=Kuponger!G40),3,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(A39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(A39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(A39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(B39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(B39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(B39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(C39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(C39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(C39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(D39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(D39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(D39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(E39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(E39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(E39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(F39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(F39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(F39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(G39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(G39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(G39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(H39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(H39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(H39))=Resultat!$H44),1,0)</f>
@@ -36409,11 +36412,11 @@
       </c>
       <c r="N39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(K39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(K39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(K39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(L39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(L39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(L39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(M39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(M39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(M39))=Resultat!$H44),1,0)</f>
@@ -36421,23 +36424,23 @@
       </c>
       <c r="Q39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(N39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(N39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(N39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(O39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(O39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(O39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(P39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(P39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(P39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(Q39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(Q39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(Q39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(R39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(R39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(R39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(S39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(S39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(S39))=Resultat!$H44),1,0)</f>
@@ -36449,43 +36452,43 @@
       </c>
       <c r="X39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(U39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(U39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(U39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(V39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(V39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(V39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(W39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(W39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(W39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(X39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(X39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(X39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(Y39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(Y39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(Y39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(Z39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(Z39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(Z39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AA39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AA39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AA39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AB39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AB39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AB39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AC39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AC39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AC39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AD39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AD39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AD39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AE39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AE39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AE39))=Resultat!$H44),1,0)</f>
@@ -36493,15 +36496,15 @@
       </c>
       <c r="AI39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AF39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AF39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AF39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AG39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AG39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AG39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AH39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AH39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AH39))=Resultat!$H44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39">
         <f ca="1">IF(AND(Resultat!$I44&lt;&gt;"",OFFSET(Kuponger!$F40,0,3*COLUMN(AI39))=Resultat!$I44,OFFSET(Kuponger!$G40,0,3*COLUMN(AI39))=Resultat!$K44),3,0) + IF(AND(Resultat!$H44&lt;&gt;"",OFFSET(Kuponger!$E40,0,3*COLUMN(AI39))=Resultat!$H44),1,0)</f>
@@ -38512,7 +38515,7 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" cm="1">
@@ -38663,7 +38666,7 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" cm="1">
@@ -38814,7 +38817,7 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" cm="1">
@@ -38965,7 +38968,7 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" cm="1">
@@ -39116,7 +39119,7 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" cm="1">
@@ -39267,7 +39270,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" cm="1">
@@ -39418,7 +39421,7 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59">
@@ -39568,7 +39571,7 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60">
@@ -39718,7 +39721,7 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61">
@@ -39868,7 +39871,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40018,39 +40021,39 @@
     </row>
     <row r="63" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40066,11 +40069,11 @@
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40078,23 +40081,23 @@
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40102,47 +40105,47 @@
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40150,15 +40153,15 @@
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E22A93E4-38E8-4AAD-864B-FE6C703A1115}"/>
+  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC30EB31-BFA7-4180-B519-699FD4936045}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kuponger" sheetId="5" r:id="rId1"/>
-    <sheet name="Poäng_matcher" sheetId="4" r:id="rId2"/>
-    <sheet name="Resultat" sheetId="1" r:id="rId3"/>
+    <sheet name="Resultat" sheetId="1" r:id="rId1"/>
+    <sheet name="Kuponger" sheetId="5" r:id="rId2"/>
+    <sheet name="Poäng_matcher" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1707,6 +1707,36 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1739,36 +1769,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2023,112 +2023,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="23">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>59</c:v>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
+                <c:pt idx="25">
+                  <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>39</c:v>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>37</c:v>
+                <c:pt idx="30">
+                  <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="32">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>48</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>55</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,11 +3386,2297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="18.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.453125" customWidth="1"/>
+    <col min="15" max="17" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="24" width="10" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136"/>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="129"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="57">
+        <v>1</v>
+      </c>
+      <c r="B7" s="58">
+        <v>45457</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="62">
+        <v>1</v>
+      </c>
+      <c r="I7" s="88">
+        <v>5</v>
+      </c>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90">
+        <v>1</v>
+      </c>
+      <c r="L7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="57">
+        <v>2</v>
+      </c>
+      <c r="B8" s="58">
+        <v>45458</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="63">
+        <v>2</v>
+      </c>
+      <c r="I8" s="64">
+        <v>1</v>
+      </c>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66">
+        <v>3</v>
+      </c>
+      <c r="L8" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="57">
+        <v>3</v>
+      </c>
+      <c r="B9" s="58">
+        <v>45458</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="63">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64">
+        <v>3</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="66">
+        <v>0</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="57">
+        <v>4</v>
+      </c>
+      <c r="B10" s="58">
+        <v>45458</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="63">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64">
+        <v>2</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="66">
+        <v>1</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="57">
+        <v>5</v>
+      </c>
+      <c r="B11" s="58">
+        <v>45459</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="63">
+        <v>2</v>
+      </c>
+      <c r="I11" s="64">
+        <v>1</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="66">
+        <v>2</v>
+      </c>
+      <c r="L11" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="57">
+        <v>6</v>
+      </c>
+      <c r="B12" s="58">
+        <v>45459</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="64">
+        <v>1</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="57">
+        <v>7</v>
+      </c>
+      <c r="B13" s="58">
+        <v>45459</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="63">
+        <v>2</v>
+      </c>
+      <c r="I13" s="64">
+        <v>0</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="57">
+        <v>8</v>
+      </c>
+      <c r="B14" s="58">
+        <v>45460</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="63">
+        <v>1</v>
+      </c>
+      <c r="I14" s="64">
+        <v>3</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="57">
+        <v>9</v>
+      </c>
+      <c r="B15" s="58">
+        <v>45460</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="63">
+        <v>2</v>
+      </c>
+      <c r="I15" s="64">
+        <v>0</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="57">
+        <v>10</v>
+      </c>
+      <c r="B16" s="58">
+        <v>45460</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="63">
+        <v>2</v>
+      </c>
+      <c r="I16" s="64">
+        <v>0</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="57">
+        <v>11</v>
+      </c>
+      <c r="B17" s="58">
+        <v>45461</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="63">
+        <v>1</v>
+      </c>
+      <c r="I17" s="64">
+        <v>3</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="57">
+        <v>12</v>
+      </c>
+      <c r="B18" s="58">
+        <v>45461</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="63">
+        <v>1</v>
+      </c>
+      <c r="I18" s="64">
+        <v>2</v>
+      </c>
+      <c r="J18" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="57">
+        <v>13</v>
+      </c>
+      <c r="B19" s="58">
+        <v>45462</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="64">
+        <v>2</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="57">
+        <v>14</v>
+      </c>
+      <c r="B20" s="58">
+        <v>45462</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="63">
+        <v>1</v>
+      </c>
+      <c r="I20" s="64">
+        <v>2</v>
+      </c>
+      <c r="J20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="57">
+        <v>15</v>
+      </c>
+      <c r="B21" s="58">
+        <v>45462</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="64">
+        <v>1</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="57">
+        <v>16</v>
+      </c>
+      <c r="B22" s="58">
+        <v>45463</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="64">
+        <v>1</v>
+      </c>
+      <c r="J22" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="57">
+        <v>17</v>
+      </c>
+      <c r="B23" s="58">
+        <v>45463</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="57">
+        <v>18</v>
+      </c>
+      <c r="B24" s="58">
+        <v>45463</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="63">
+        <v>1</v>
+      </c>
+      <c r="I24" s="64">
+        <v>1</v>
+      </c>
+      <c r="J24" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="57">
+        <v>19</v>
+      </c>
+      <c r="B25" s="58">
+        <v>45464</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="63">
+        <v>2</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
+      <c r="J25" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="57">
+        <v>20</v>
+      </c>
+      <c r="B26" s="58">
+        <v>45464</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="63">
+        <v>2</v>
+      </c>
+      <c r="I26" s="64">
+        <v>1</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="57">
+        <v>21</v>
+      </c>
+      <c r="B27" s="58">
+        <v>45464</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="64">
+        <v>0</v>
+      </c>
+      <c r="J27" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="57">
+        <v>22</v>
+      </c>
+      <c r="B28" s="58">
+        <v>45465</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="64">
+        <v>1</v>
+      </c>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="57">
+        <v>23</v>
+      </c>
+      <c r="B29" s="58">
+        <v>45465</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="63">
+        <v>2</v>
+      </c>
+      <c r="I29" s="64">
+        <v>0</v>
+      </c>
+      <c r="J29" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="57">
+        <v>24</v>
+      </c>
+      <c r="B30" s="58">
+        <v>45465</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="63">
+        <v>1</v>
+      </c>
+      <c r="I30" s="64">
+        <v>2</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="57">
+        <v>25</v>
+      </c>
+      <c r="B31" s="58">
+        <v>45466</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="64">
+        <v>1</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="57">
+        <v>26</v>
+      </c>
+      <c r="B32" s="58">
+        <v>45466</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="63">
+        <v>2</v>
+      </c>
+      <c r="I32" s="64">
+        <v>0</v>
+      </c>
+      <c r="J32" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="57">
+        <v>27</v>
+      </c>
+      <c r="B33" s="58">
+        <v>45467</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="64">
+        <v>1</v>
+      </c>
+      <c r="J33" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="57">
+        <v>28</v>
+      </c>
+      <c r="B34" s="58">
+        <v>45467</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="63">
+        <v>2</v>
+      </c>
+      <c r="I34" s="64">
+        <v>0</v>
+      </c>
+      <c r="J34" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="57">
+        <v>29</v>
+      </c>
+      <c r="B35" s="58">
+        <v>45468</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="63">
+        <v>2</v>
+      </c>
+      <c r="I35" s="64">
+        <v>2</v>
+      </c>
+      <c r="J35" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="57">
+        <v>30</v>
+      </c>
+      <c r="B36" s="58">
+        <v>45468</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="64">
+        <v>1</v>
+      </c>
+      <c r="J36" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="57">
+        <v>31</v>
+      </c>
+      <c r="B37" s="58">
+        <v>45468</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E37" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="64">
+        <v>0</v>
+      </c>
+      <c r="J37" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="57">
+        <v>32</v>
+      </c>
+      <c r="B38" s="58">
+        <v>45468</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="64">
+        <v>0</v>
+      </c>
+      <c r="J38" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="57">
+        <v>33</v>
+      </c>
+      <c r="B39" s="58">
+        <v>45469</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="64">
+        <v>1</v>
+      </c>
+      <c r="J39" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="57">
+        <v>34</v>
+      </c>
+      <c r="B40" s="58">
+        <v>45469</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="64">
+        <v>0</v>
+      </c>
+      <c r="J40" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="57">
+        <v>35</v>
+      </c>
+      <c r="B41" s="58">
+        <v>45469</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="63">
+        <v>2</v>
+      </c>
+      <c r="I41" s="64">
+        <v>1</v>
+      </c>
+      <c r="J41" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="57">
+        <v>36</v>
+      </c>
+      <c r="B42" s="58">
+        <v>45469</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="63">
+        <v>1</v>
+      </c>
+      <c r="I42" s="64">
+        <v>2</v>
+      </c>
+      <c r="J42" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="66">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="57">
+        <v>38</v>
+      </c>
+      <c r="B43" s="58">
+        <v>45472</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="H43" s="68">
+        <v>1</v>
+      </c>
+      <c r="I43" s="64">
+        <v>2</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" s="66">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="97"/>
+      <c r="O43" s="98"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="57">
+        <v>37</v>
+      </c>
+      <c r="B44" s="58">
+        <v>45472</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="68">
+        <v>1</v>
+      </c>
+      <c r="I44" s="64">
+        <v>2</v>
+      </c>
+      <c r="K44" s="66">
+        <v>0</v>
+      </c>
+      <c r="M44" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="57">
+        <v>40</v>
+      </c>
+      <c r="B45" s="58">
+        <v>45473</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="64">
+        <v>1</v>
+      </c>
+      <c r="J45" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45" s="66">
+        <v>1</v>
+      </c>
+      <c r="M45" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="N45" s="100"/>
+      <c r="O45" s="101"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="57">
+        <v>39</v>
+      </c>
+      <c r="B46" s="58">
+        <v>45473</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="68">
+        <v>1</v>
+      </c>
+      <c r="I46" s="64">
+        <v>4</v>
+      </c>
+      <c r="J46" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="57">
+        <v>42</v>
+      </c>
+      <c r="B47" s="58">
+        <v>45474</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="68"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47" s="66"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="57">
+        <v>41</v>
+      </c>
+      <c r="B48" s="58">
+        <v>45474</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="68"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48" s="66"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="57">
+        <v>43</v>
+      </c>
+      <c r="B49" s="58">
+        <v>45475</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="68"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K49" s="66"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="57">
+        <v>44</v>
+      </c>
+      <c r="B50" s="58">
+        <v>45475</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="68"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" s="66"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="57">
+        <v>45</v>
+      </c>
+      <c r="B51" s="58">
+        <v>45478</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="69"/>
+      <c r="G51" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="68"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" s="66"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="57">
+        <v>46</v>
+      </c>
+      <c r="B52" s="58">
+        <v>45478</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="69"/>
+      <c r="G52" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="68"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52" s="66"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="57">
+        <v>48</v>
+      </c>
+      <c r="B53" s="58">
+        <v>45479</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="69"/>
+      <c r="G53" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" s="68"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53" s="66"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="57">
+        <v>47</v>
+      </c>
+      <c r="B54" s="58">
+        <v>45479</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="69"/>
+      <c r="G54" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="68"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K54" s="66"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="57">
+        <v>50</v>
+      </c>
+      <c r="B55" s="58">
+        <v>45482</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="69"/>
+      <c r="G55" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="68"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K55" s="66"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="57">
+        <v>49</v>
+      </c>
+      <c r="B56" s="58">
+        <v>45483</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="69"/>
+      <c r="G56" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="68"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="66"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="70">
+        <v>51</v>
+      </c>
+      <c r="B57" s="71">
+        <v>45487</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="72">
+        <v>0.875</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="74"/>
+      <c r="G57" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="75"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="78"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="2"/>
+      <c r="I62" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="I63" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="I64" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J64" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I65" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J65" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I66" s="44"/>
+      <c r="J66" s="48"/>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I67" s="44"/>
+      <c r="J67" s="49"/>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I68" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I69" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K69" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I70" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I71" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J71" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="K71" s="79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I72" s="44"/>
+      <c r="J72" s="48"/>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I73" s="44"/>
+      <c r="J73" s="49"/>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I74" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I75" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J75" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I76" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J76" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="K76" s="79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I77" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J77" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="K77" s="79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I78" s="44"/>
+      <c r="J78" s="48"/>
+    </row>
+    <row r="79" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I79" s="44"/>
+      <c r="J79" s="49"/>
+    </row>
+    <row r="80" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I80" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" s="79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I81" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J81" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I82" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J82" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I83" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J83" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I84" s="44"/>
+      <c r="J84" s="48"/>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I85" s="44"/>
+      <c r="J85" s="49"/>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I86" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J86" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="K86" s="79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I87" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J87" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I88" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J88" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I89" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J89" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I90" s="44"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="91"/>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I91" s="44"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="92"/>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I92" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K92" s="79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I93" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J93" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I94" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J94" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="K94" s="79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I95" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange password="DCE9" sqref="K7:K57" name="Bortaresultat"/>
+    <protectedRange password="DCE9" sqref="I7:I57 J7:J43 J45:J57" name="Hemmaresultat"/>
+    <protectedRange password="DCE9" sqref="H7:H57" name="Tipstecken"/>
+  </protectedRanges>
+  <mergeCells count="4">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K60:K61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$W$4:$X$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J71" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$68:$K$71</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J74:J77" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>$K$74:$K$77</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J80:J83" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>$K$80:$K$83</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J86:J89" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>$K$86:$K$89</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J92:J95" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>$K$92:$K$95</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J62:J65" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>$K$62:$K$65</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AP103" sqref="AP103"/>
     </sheetView>
   </sheetViews>
@@ -3441,191 +5727,191 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="138" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="131" t="s">
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="134" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="131" t="s">
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="131" t="s">
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="132"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="131" t="s">
+      <c r="O1" s="142"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="132"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="134" t="s">
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="131" t="s">
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="135" t="s">
+      <c r="X1" s="142"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="135" t="s">
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="131" t="s">
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="131" t="s">
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="132"/>
-      <c r="AK1" s="133"/>
-      <c r="AL1" s="131" t="s">
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="132"/>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="131" t="s">
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="133"/>
-      <c r="AR1" s="134" t="s">
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="131" t="s">
+      <c r="AS1" s="144"/>
+      <c r="AT1" s="144"/>
+      <c r="AU1" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="133"/>
-      <c r="AX1" s="131" t="s">
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="143"/>
+      <c r="AX1" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="133"/>
-      <c r="BA1" s="131" t="s">
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="143"/>
+      <c r="BA1" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="BB1" s="132"/>
-      <c r="BC1" s="133"/>
-      <c r="BD1" s="131" t="s">
+      <c r="BB1" s="142"/>
+      <c r="BC1" s="143"/>
+      <c r="BD1" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="133"/>
-      <c r="BG1" s="131" t="s">
+      <c r="BE1" s="142"/>
+      <c r="BF1" s="143"/>
+      <c r="BG1" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="BH1" s="132"/>
-      <c r="BI1" s="133"/>
-      <c r="BJ1" s="131" t="s">
+      <c r="BH1" s="142"/>
+      <c r="BI1" s="143"/>
+      <c r="BJ1" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="BK1" s="132"/>
-      <c r="BL1" s="133"/>
-      <c r="BM1" s="131" t="s">
+      <c r="BK1" s="142"/>
+      <c r="BL1" s="143"/>
+      <c r="BM1" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="BN1" s="132"/>
-      <c r="BO1" s="133"/>
-      <c r="BP1" s="129" t="s">
+      <c r="BN1" s="142"/>
+      <c r="BO1" s="143"/>
+      <c r="BP1" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="BQ1" s="129"/>
-      <c r="BR1" s="129"/>
-      <c r="BS1" s="129" t="s">
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="BT1" s="129"/>
-      <c r="BU1" s="129"/>
-      <c r="BV1" s="129" t="s">
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="BW1" s="129"/>
-      <c r="BX1" s="129"/>
-      <c r="BY1" s="129" t="s">
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="BZ1" s="129"/>
-      <c r="CA1" s="129"/>
-      <c r="CB1" s="129" t="s">
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="CC1" s="129"/>
-      <c r="CD1" s="129"/>
-      <c r="CE1" s="129" t="s">
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="CF1" s="129"/>
-      <c r="CG1" s="129"/>
-      <c r="CH1" s="129" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="CI1" s="129"/>
-      <c r="CJ1" s="129"/>
-      <c r="CK1" s="129" t="s">
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="CL1" s="129"/>
-      <c r="CM1" s="129"/>
-      <c r="CN1" s="129" t="s">
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="CO1" s="129"/>
-      <c r="CP1" s="129"/>
-      <c r="CQ1" s="129" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="CR1" s="129"/>
-      <c r="CS1" s="129"/>
-      <c r="CT1" s="129" t="s">
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="CU1" s="129"/>
-      <c r="CV1" s="129"/>
-      <c r="CW1" s="130" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="CX1" s="129"/>
-      <c r="CY1" s="129"/>
-      <c r="CZ1" s="129" t="s">
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="DA1" s="129"/>
-      <c r="DB1" s="129"/>
-      <c r="DC1" s="129" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="DD1" s="129"/>
-      <c r="DE1" s="129"/>
-      <c r="DF1" s="129" t="s">
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="DG1" s="129"/>
-      <c r="DH1" s="129"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -28180,12 +30466,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
@@ -36989,147 +39275,147 @@
       <c r="B58" s="19"/>
       <c r="C58" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,0)))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,0)))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,0)))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="96" cm="1">
         <f t="array" aca="1" ref="D58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(A59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(A59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(A59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="96" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(B59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(B59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(B59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="96" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(C59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(C59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(C59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" s="96" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(D59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(D59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(D59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" s="96" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(E59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(E59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(E59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" s="96" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(F59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(F59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(F59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" s="96" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(G59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(G59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(G59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58" s="96" cm="1">
         <f t="array" aca="1" ref="K58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(H59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(H59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(H59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" s="96" cm="1">
         <f t="array" aca="1" ref="L58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(I59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(I59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(I59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M58" s="96" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(J59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(J59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(J59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N58" s="96" cm="1">
         <f t="array" aca="1" ref="N58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(K59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(K59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(K59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58" s="96" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(L59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(L59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(L59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P58" s="96" cm="1">
         <f t="array" aca="1" ref="P58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(M59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(M59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(M59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="96" cm="1">
         <f t="array" aca="1" ref="Q58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(N59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(N59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(N59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R58" s="96" cm="1">
         <f t="array" aca="1" ref="R58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(O59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(O59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(O59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58" s="96" cm="1">
         <f t="array" aca="1" ref="S58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(P59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(P59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(P59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T58" s="96" cm="1">
         <f t="array" aca="1" ref="T58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Q59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Q59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Q59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U58" s="96" cm="1">
         <f t="array" aca="1" ref="U58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(R59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(R59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(R59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V58" s="96" cm="1">
         <f t="array" aca="1" ref="V58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(S59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(S59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(S59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W58" s="96" cm="1">
         <f t="array" aca="1" ref="W58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(T59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(T59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(T59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="96" cm="1">
         <f t="array" aca="1" ref="X58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(U59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(U59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(U59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="96" cm="1">
         <f t="array" aca="1" ref="Y58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(V59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(V59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(V59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z58" s="96" cm="1">
         <f t="array" aca="1" ref="Z58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(W59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(W59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(W59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA58" s="96" cm="1">
         <f t="array" aca="1" ref="AA58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(X59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(X59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(X59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB58" s="96" cm="1">
         <f t="array" aca="1" ref="AB58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Y59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Y59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Y59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="96" cm="1">
         <f t="array" aca="1" ref="AC58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Z59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Z59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(Z59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD58" s="96" cm="1">
         <f t="array" aca="1" ref="AD58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AA59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AA59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AA59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE58" s="96" cm="1">
         <f t="array" aca="1" ref="AE58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AB59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AB59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AB59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF58" s="96" cm="1">
         <f t="array" aca="1" ref="AF58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AC59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AC59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AC59))))=1,1,0)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG58" s="96" cm="1">
         <f t="array" aca="1" ref="AG58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AD59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AD59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AD59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH58" s="96" cm="1">
         <f t="array" aca="1" ref="AH58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AE59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AE59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AE59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="96" cm="1">
         <f t="array" aca="1" ref="AI58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AF59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AF59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AF59))))=1,1,0)))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ58" s="96" cm="1">
         <f t="array" aca="1" ref="AJ58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AG59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AG59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AG59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="96" cm="1">
         <f t="array" aca="1" ref="AK58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AH59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AH59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AH59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="96" cm="1">
         <f t="array" aca="1" ref="AL58" ca="1">IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AI59))))=4,6,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AI59))))=2,3,IF(SUMPRODUCT(--(Resultat!$J92:$J95=OFFSET(Kuponger!$E87:$E90,0,3*COLUMN(AI59))))=1,1,0)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="96"/>
     </row>
@@ -37739,147 +40025,147 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AM63" s="13"/>
     </row>
@@ -37894,2290 +40180,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y95"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="18.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.453125" customWidth="1"/>
-    <col min="15" max="17" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="24" width="10" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.26953125" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="15.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B1" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="144"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="147"/>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="148" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="140" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="140"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="149" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-    </row>
-    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="57">
-        <v>1</v>
-      </c>
-      <c r="B7" s="58">
-        <v>45457</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="62">
-        <v>1</v>
-      </c>
-      <c r="I7" s="88">
-        <v>5</v>
-      </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90">
-        <v>1</v>
-      </c>
-      <c r="L7" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="57">
-        <v>2</v>
-      </c>
-      <c r="B8" s="58">
-        <v>45458</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="63">
-        <v>2</v>
-      </c>
-      <c r="I8" s="64">
-        <v>1</v>
-      </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66">
-        <v>3</v>
-      </c>
-      <c r="L8" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="57">
-        <v>3</v>
-      </c>
-      <c r="B9" s="58">
-        <v>45458</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="63">
-        <v>1</v>
-      </c>
-      <c r="I9" s="64">
-        <v>3</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="66">
-        <v>0</v>
-      </c>
-      <c r="L9" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="57">
-        <v>4</v>
-      </c>
-      <c r="B10" s="58">
-        <v>45458</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="63">
-        <v>1</v>
-      </c>
-      <c r="I10" s="64">
-        <v>2</v>
-      </c>
-      <c r="J10" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="66">
-        <v>1</v>
-      </c>
-      <c r="L10" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="57">
-        <v>5</v>
-      </c>
-      <c r="B11" s="58">
-        <v>45459</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="63">
-        <v>2</v>
-      </c>
-      <c r="I11" s="64">
-        <v>1</v>
-      </c>
-      <c r="J11" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="66">
-        <v>2</v>
-      </c>
-      <c r="L11" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="57">
-        <v>6</v>
-      </c>
-      <c r="B12" s="58">
-        <v>45459</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="64">
-        <v>1</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="57">
-        <v>7</v>
-      </c>
-      <c r="B13" s="58">
-        <v>45459</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="63">
-        <v>2</v>
-      </c>
-      <c r="I13" s="64">
-        <v>0</v>
-      </c>
-      <c r="J13" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="57">
-        <v>8</v>
-      </c>
-      <c r="B14" s="58">
-        <v>45460</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="63">
-        <v>1</v>
-      </c>
-      <c r="I14" s="64">
-        <v>3</v>
-      </c>
-      <c r="J14" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="57">
-        <v>9</v>
-      </c>
-      <c r="B15" s="58">
-        <v>45460</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="63">
-        <v>2</v>
-      </c>
-      <c r="I15" s="64">
-        <v>0</v>
-      </c>
-      <c r="J15" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="57">
-        <v>10</v>
-      </c>
-      <c r="B16" s="58">
-        <v>45460</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="63">
-        <v>2</v>
-      </c>
-      <c r="I16" s="64">
-        <v>0</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="57">
-        <v>11</v>
-      </c>
-      <c r="B17" s="58">
-        <v>45461</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="63">
-        <v>1</v>
-      </c>
-      <c r="I17" s="64">
-        <v>3</v>
-      </c>
-      <c r="J17" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="57">
-        <v>12</v>
-      </c>
-      <c r="B18" s="58">
-        <v>45461</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="63">
-        <v>1</v>
-      </c>
-      <c r="I18" s="64">
-        <v>2</v>
-      </c>
-      <c r="J18" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="57">
-        <v>13</v>
-      </c>
-      <c r="B19" s="58">
-        <v>45462</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="64">
-        <v>2</v>
-      </c>
-      <c r="J19" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="57">
-        <v>14</v>
-      </c>
-      <c r="B20" s="58">
-        <v>45462</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="63">
-        <v>1</v>
-      </c>
-      <c r="I20" s="64">
-        <v>2</v>
-      </c>
-      <c r="J20" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="57">
-        <v>15</v>
-      </c>
-      <c r="B21" s="58">
-        <v>45462</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="64">
-        <v>1</v>
-      </c>
-      <c r="J21" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="57">
-        <v>16</v>
-      </c>
-      <c r="B22" s="58">
-        <v>45463</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="64">
-        <v>1</v>
-      </c>
-      <c r="J22" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="57">
-        <v>17</v>
-      </c>
-      <c r="B23" s="58">
-        <v>45463</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="64">
-        <v>1</v>
-      </c>
-      <c r="J23" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="57">
-        <v>18</v>
-      </c>
-      <c r="B24" s="58">
-        <v>45463</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="63">
-        <v>1</v>
-      </c>
-      <c r="I24" s="64">
-        <v>1</v>
-      </c>
-      <c r="J24" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="57">
-        <v>19</v>
-      </c>
-      <c r="B25" s="58">
-        <v>45464</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="63">
-        <v>2</v>
-      </c>
-      <c r="I25" s="64">
-        <v>1</v>
-      </c>
-      <c r="J25" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="57">
-        <v>20</v>
-      </c>
-      <c r="B26" s="58">
-        <v>45464</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="63">
-        <v>2</v>
-      </c>
-      <c r="I26" s="64">
-        <v>1</v>
-      </c>
-      <c r="J26" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="57">
-        <v>21</v>
-      </c>
-      <c r="B27" s="58">
-        <v>45464</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="64">
-        <v>0</v>
-      </c>
-      <c r="J27" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="57">
-        <v>22</v>
-      </c>
-      <c r="B28" s="58">
-        <v>45465</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="64">
-        <v>1</v>
-      </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="57">
-        <v>23</v>
-      </c>
-      <c r="B29" s="58">
-        <v>45465</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E29" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="63">
-        <v>2</v>
-      </c>
-      <c r="I29" s="64">
-        <v>0</v>
-      </c>
-      <c r="J29" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="57">
-        <v>24</v>
-      </c>
-      <c r="B30" s="58">
-        <v>45465</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="63">
-        <v>1</v>
-      </c>
-      <c r="I30" s="64">
-        <v>2</v>
-      </c>
-      <c r="J30" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="57">
-        <v>25</v>
-      </c>
-      <c r="B31" s="58">
-        <v>45466</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="64">
-        <v>1</v>
-      </c>
-      <c r="J31" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="57">
-        <v>26</v>
-      </c>
-      <c r="B32" s="58">
-        <v>45466</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="63">
-        <v>2</v>
-      </c>
-      <c r="I32" s="64">
-        <v>0</v>
-      </c>
-      <c r="J32" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="57">
-        <v>27</v>
-      </c>
-      <c r="B33" s="58">
-        <v>45467</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="64">
-        <v>1</v>
-      </c>
-      <c r="J33" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="57">
-        <v>28</v>
-      </c>
-      <c r="B34" s="58">
-        <v>45467</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="63">
-        <v>2</v>
-      </c>
-      <c r="I34" s="64">
-        <v>0</v>
-      </c>
-      <c r="J34" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="57">
-        <v>29</v>
-      </c>
-      <c r="B35" s="58">
-        <v>45468</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E35" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="63">
-        <v>2</v>
-      </c>
-      <c r="I35" s="64">
-        <v>2</v>
-      </c>
-      <c r="J35" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K35" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="57">
-        <v>30</v>
-      </c>
-      <c r="B36" s="58">
-        <v>45468</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="64">
-        <v>1</v>
-      </c>
-      <c r="J36" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K36" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="57">
-        <v>31</v>
-      </c>
-      <c r="B37" s="58">
-        <v>45468</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E37" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="64">
-        <v>0</v>
-      </c>
-      <c r="J37" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="57">
-        <v>32</v>
-      </c>
-      <c r="B38" s="58">
-        <v>45468</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="64">
-        <v>0</v>
-      </c>
-      <c r="J38" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="57">
-        <v>33</v>
-      </c>
-      <c r="B39" s="58">
-        <v>45469</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E39" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="64">
-        <v>1</v>
-      </c>
-      <c r="J39" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="57">
-        <v>34</v>
-      </c>
-      <c r="B40" s="58">
-        <v>45469</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="64">
-        <v>0</v>
-      </c>
-      <c r="J40" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="57">
-        <v>35</v>
-      </c>
-      <c r="B41" s="58">
-        <v>45469</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="63">
-        <v>2</v>
-      </c>
-      <c r="I41" s="64">
-        <v>1</v>
-      </c>
-      <c r="J41" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="57">
-        <v>36</v>
-      </c>
-      <c r="B42" s="58">
-        <v>45469</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="63">
-        <v>1</v>
-      </c>
-      <c r="I42" s="64">
-        <v>2</v>
-      </c>
-      <c r="J42" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K42" s="66">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N42" s="11"/>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="57">
-        <v>38</v>
-      </c>
-      <c r="B43" s="58">
-        <v>45472</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E43" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="H43" s="68">
-        <v>1</v>
-      </c>
-      <c r="I43" s="64">
-        <v>2</v>
-      </c>
-      <c r="J43" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="66">
-        <v>0</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="97"/>
-      <c r="O43" s="98"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="57">
-        <v>37</v>
-      </c>
-      <c r="B44" s="58">
-        <v>45472</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="68">
-        <v>1</v>
-      </c>
-      <c r="I44" s="64">
-        <v>2</v>
-      </c>
-      <c r="K44" s="66">
-        <v>0</v>
-      </c>
-      <c r="M44" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="N44" s="100"/>
-      <c r="O44" s="101"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="57">
-        <v>40</v>
-      </c>
-      <c r="B45" s="58">
-        <v>45473</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E45" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="64">
-        <v>1</v>
-      </c>
-      <c r="J45" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K45" s="66">
-        <v>1</v>
-      </c>
-      <c r="M45" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="N45" s="100"/>
-      <c r="O45" s="101"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="57">
-        <v>39</v>
-      </c>
-      <c r="B46" s="58">
-        <v>45473</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E46" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="H46" s="68">
-        <v>1</v>
-      </c>
-      <c r="I46" s="64">
-        <v>4</v>
-      </c>
-      <c r="J46" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="57">
-        <v>42</v>
-      </c>
-      <c r="B47" s="58">
-        <v>45474</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="68"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K47" s="66"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="57">
-        <v>41</v>
-      </c>
-      <c r="B48" s="58">
-        <v>45474</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="68"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" s="66"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="57">
-        <v>43</v>
-      </c>
-      <c r="B49" s="58">
-        <v>45475</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="68"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K49" s="66"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="57">
-        <v>44</v>
-      </c>
-      <c r="B50" s="58">
-        <v>45475</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="68"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K50" s="66"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="57">
-        <v>45</v>
-      </c>
-      <c r="B51" s="58">
-        <v>45478</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E51" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" s="68"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K51" s="66"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="57">
-        <v>46</v>
-      </c>
-      <c r="B52" s="58">
-        <v>45478</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="69"/>
-      <c r="G52" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="68"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K52" s="66"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="57">
-        <v>48</v>
-      </c>
-      <c r="B53" s="58">
-        <v>45479</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="E53" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="H53" s="68"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K53" s="66"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="57">
-        <v>47</v>
-      </c>
-      <c r="B54" s="58">
-        <v>45479</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="H54" s="68"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K54" s="66"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="57">
-        <v>50</v>
-      </c>
-      <c r="B55" s="58">
-        <v>45482</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E55" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="H55" s="68"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K55" s="66"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="57">
-        <v>49</v>
-      </c>
-      <c r="B56" s="58">
-        <v>45483</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="59">
-        <v>0.875</v>
-      </c>
-      <c r="E56" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="69"/>
-      <c r="G56" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="68"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K56" s="66"/>
-    </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="70">
-        <v>51</v>
-      </c>
-      <c r="B57" s="71">
-        <v>45487</v>
-      </c>
-      <c r="C57" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="72">
-        <v>0.875</v>
-      </c>
-      <c r="E57" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="74"/>
-      <c r="G57" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="K57" s="78"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="I62" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J62" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" s="79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="I63" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="79" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="I64" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J64" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="K64" s="79" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I65" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J65" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I66" s="44"/>
-      <c r="J66" s="48"/>
-    </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I67" s="44"/>
-      <c r="J67" s="49"/>
-    </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I68" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J68" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I69" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J69" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="K69" s="79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I70" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J70" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I71" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J71" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="K71" s="79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I72" s="44"/>
-      <c r="J72" s="48"/>
-    </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I73" s="44"/>
-      <c r="J73" s="49"/>
-    </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I74" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J74" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="K74" s="79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I75" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J75" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="K75" s="79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I76" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J76" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="K76" s="79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I77" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J77" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="K77" s="79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I78" s="44"/>
-      <c r="J78" s="48"/>
-    </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I79" s="44"/>
-      <c r="J79" s="49"/>
-    </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I80" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J80" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="K80" s="79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I81" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J81" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K81" s="79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I82" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J82" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I83" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J83" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" s="79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I84" s="44"/>
-      <c r="J84" s="48"/>
-    </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I85" s="44"/>
-      <c r="J85" s="49"/>
-    </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I86" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J86" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="K86" s="79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I87" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J87" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K87" s="79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I88" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J88" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" s="79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I89" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J89" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" s="79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I90" s="44"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="91"/>
-    </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I91" s="44"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="92"/>
-    </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I92" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J92" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="K92" s="79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I93" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J93" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="K93" s="79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I94" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J94" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I95" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J95" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="K95" s="79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange password="DCE9" sqref="K7:K57" name="Bortaresultat"/>
-    <protectedRange password="DCE9" sqref="I7:I57 J7:J43 J45:J57" name="Hemmaresultat"/>
-    <protectedRange password="DCE9" sqref="H7:H57" name="Tipstecken"/>
-  </protectedRanges>
-  <mergeCells count="4">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K60:K61" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$W$4:$X$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J71" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$68:$K$71</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J74:J77" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$K$74:$K$77</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J80:J83" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$K$80:$K$83</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J86:J89" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>$K$86:$K$89</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J92:J95" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>$K$92:$K$95</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J62:J65" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>$K$62:$K$65</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC30EB31-BFA7-4180-B519-699FD4936045}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4CD6DE5-77E6-4ABB-96D9-59876F68201B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="151">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>Gruppspel</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>2E</t>
   </si>
   <si>
     <t>1F</t>
@@ -2023,43 +2017,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43</c:v>
@@ -2068,16 +2062,16 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>35</c:v>
@@ -2089,46 +2083,46 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView topLeftCell="A14" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3428,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -3457,7 +3451,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>1</v>
@@ -3474,10 +3468,10 @@
       <c r="F6" s="129"/>
       <c r="G6" s="130"/>
       <c r="H6" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="138" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J6" s="129"/>
       <c r="K6" s="130"/>
@@ -3490,7 +3484,7 @@
         <v>45457</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="59">
         <v>0.875</v>
@@ -3541,7 +3535,7 @@
         <v>45458</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="59">
         <v>0.625</v>
@@ -3572,7 +3566,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O8" s="79" t="s">
         <v>22</v>
@@ -3592,7 +3586,7 @@
         <v>45458</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="59">
         <v>0.75</v>
@@ -3613,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="66">
         <v>0</v>
@@ -3634,7 +3628,7 @@
         <v>23</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -3645,7 +3639,7 @@
         <v>45458</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="59">
         <v>0.875</v>
@@ -3657,7 +3651,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" s="63">
         <v>1</v>
@@ -3666,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K10" s="66">
         <v>1</v>
@@ -3678,13 +3672,13 @@
         <v>5</v>
       </c>
       <c r="N10" s="86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>12</v>
       </c>
       <c r="P10" s="86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="80" t="s">
         <v>26</v>
@@ -3698,7 +3692,7 @@
         <v>45459</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="59">
         <v>0.625</v>
@@ -3719,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K11" s="66">
         <v>2</v>
@@ -3728,7 +3722,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N11" s="87" t="s">
         <v>10</v>
@@ -3751,13 +3745,13 @@
         <v>45459</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="59">
         <v>0.75</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>29</v>
@@ -3766,13 +3760,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I12" s="64">
         <v>1</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="66">
         <v>1</v>
@@ -3786,13 +3780,13 @@
         <v>45459</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="59">
         <v>0.875</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>29</v>
@@ -3807,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K13" s="66">
         <v>1</v>
@@ -3821,13 +3815,13 @@
         <v>45460</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="59">
         <v>0.625</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>29</v>
@@ -3842,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14" s="66">
         <v>0</v>
@@ -3856,7 +3850,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="59">
         <v>0.75</v>
@@ -3877,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K15" s="66">
         <v>1</v>
@@ -3891,7 +3885,7 @@
         <v>45460</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="59">
         <v>0.875</v>
@@ -3912,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K16" s="66">
         <v>1</v>
@@ -3926,7 +3920,7 @@
         <v>45461</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="59">
         <v>0.75</v>
@@ -3938,7 +3932,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="63">
         <v>1</v>
@@ -3947,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K17" s="66">
         <v>1</v>
@@ -3961,7 +3955,7 @@
         <v>45461</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="59">
         <v>0.875</v>
@@ -3982,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K18" s="66">
         <v>1</v>
@@ -3996,7 +3990,7 @@
         <v>45462</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="59">
         <v>0.625</v>
@@ -4008,16 +4002,16 @@
         <v>29</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I19" s="64">
         <v>2</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K19" s="66">
         <v>2</v>
@@ -4031,7 +4025,7 @@
         <v>45462</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="59">
         <v>0.75</v>
@@ -4052,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K20" s="66">
         <v>0</v>
@@ -4066,7 +4060,7 @@
         <v>45462</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="59">
         <v>0.875</v>
@@ -4081,13 +4075,13 @@
         <v>7</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I21" s="64">
         <v>1</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K21" s="66">
         <v>1</v>
@@ -4101,28 +4095,28 @@
         <v>45463</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="59">
         <v>0.625</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="64">
         <v>1</v>
       </c>
       <c r="J22" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K22" s="66">
         <v>1</v>
@@ -4136,7 +4130,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="59">
         <v>0.75</v>
@@ -4151,13 +4145,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I23" s="64">
         <v>1</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K23" s="66">
         <v>1</v>
@@ -4171,7 +4165,7 @@
         <v>45463</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="59">
         <v>0.875</v>
@@ -4192,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K24" s="66">
         <v>0</v>
@@ -4206,7 +4200,7 @@
         <v>45464</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="59">
         <v>0.625</v>
@@ -4227,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25" s="66">
         <v>2</v>
@@ -4241,7 +4235,7 @@
         <v>45464</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="59">
         <v>0.75</v>
@@ -4262,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K26" s="66">
         <v>3</v>
@@ -4276,7 +4270,7 @@
         <v>45464</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="59">
         <v>0.875</v>
@@ -4291,13 +4285,13 @@
         <v>27</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I27" s="64">
         <v>0</v>
       </c>
       <c r="J27" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K27" s="66">
         <v>0</v>
@@ -4311,13 +4305,13 @@
         <v>45465</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="59">
         <v>0.625</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28" s="61" t="s">
         <v>29</v>
@@ -4326,7 +4320,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I28" s="64">
         <v>1</v>
@@ -4344,7 +4338,7 @@
         <v>45465</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="59">
         <v>0.75</v>
@@ -4365,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K29" s="66">
         <v>3</v>
@@ -4379,7 +4373,7 @@
         <v>45465</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="59">
         <v>0.875</v>
@@ -4391,7 +4385,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="63">
         <v>1</v>
@@ -4400,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K30" s="66">
         <v>0</v>
@@ -4414,7 +4408,7 @@
         <v>45466</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" s="59">
         <v>0.875</v>
@@ -4429,13 +4423,13 @@
         <v>7</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I31" s="64">
         <v>1</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K31" s="66">
         <v>1</v>
@@ -4449,7 +4443,7 @@
         <v>45466</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="59">
         <v>0.875</v>
@@ -4470,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K32" s="66">
         <v>1</v>
@@ -4484,7 +4478,7 @@
         <v>45467</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="59">
         <v>0.875</v>
@@ -4499,13 +4493,13 @@
         <v>5</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I33" s="64">
         <v>1</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K33" s="66">
         <v>1</v>
@@ -4519,13 +4513,13 @@
         <v>45467</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" s="59">
         <v>0.875</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F34" s="61" t="s">
         <v>29</v>
@@ -4540,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K34" s="66">
         <v>1</v>
@@ -4554,7 +4548,7 @@
         <v>45468</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="59">
         <v>0.75</v>
@@ -4575,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K35" s="66">
         <v>3</v>
@@ -4589,7 +4583,7 @@
         <v>45468</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="59">
         <v>0.75</v>
@@ -4604,13 +4598,13 @@
         <v>22</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I36" s="64">
         <v>1</v>
       </c>
       <c r="J36" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K36" s="66">
         <v>1</v>
@@ -4624,7 +4618,7 @@
         <v>45468</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" s="59">
         <v>0.875</v>
@@ -4636,16 +4630,16 @@
         <v>29</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I37" s="64">
         <v>0</v>
       </c>
       <c r="J37" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K37" s="66">
         <v>0</v>
@@ -4659,7 +4653,7 @@
         <v>45468</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="59">
         <v>0.875</v>
@@ -4671,16 +4665,16 @@
         <v>29</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I38" s="64">
         <v>0</v>
       </c>
       <c r="J38" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K38" s="66">
         <v>0</v>
@@ -4694,7 +4688,7 @@
         <v>45469</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="59">
         <v>0.75</v>
@@ -4706,16 +4700,16 @@
         <v>29</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I39" s="64">
         <v>1</v>
       </c>
       <c r="J39" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K39" s="66">
         <v>1</v>
@@ -4729,7 +4723,7 @@
         <v>45469</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="59">
         <v>0.75</v>
@@ -4744,13 +4738,13 @@
         <v>9</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I40" s="64">
         <v>0</v>
       </c>
       <c r="J40" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K40" s="66">
         <v>0</v>
@@ -4764,7 +4758,7 @@
         <v>45469</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="59">
         <v>0.875</v>
@@ -4785,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K41" s="66">
         <v>2</v>
@@ -4799,13 +4793,13 @@
         <v>45469</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" s="59">
         <v>0.875</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F42" s="61" t="s">
         <v>29</v>
@@ -4820,13 +4814,13 @@
         <v>2</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K42" s="66">
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="12"/>
@@ -4839,7 +4833,7 @@
         <v>45472</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" s="59">
         <v>0.75</v>
@@ -4851,7 +4845,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
@@ -4860,13 +4854,13 @@
         <v>2</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K43" s="66">
         <v>0</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N43" s="97"/>
       <c r="O43" s="98"/>
@@ -4879,7 +4873,7 @@
         <v>45472</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="59">
         <v>0.875</v>
@@ -4903,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N44" s="100"/>
       <c r="O44" s="101"/>
@@ -4916,7 +4910,7 @@
         <v>45473</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D45" s="59">
         <v>0.75</v>
@@ -4931,19 +4925,19 @@
         <v>23</v>
       </c>
       <c r="H45" s="68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I45" s="64">
         <v>1</v>
       </c>
       <c r="J45" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K45" s="66">
         <v>1</v>
       </c>
       <c r="M45" s="99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -4956,7 +4950,7 @@
         <v>45473</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D46" s="59">
         <v>0.875</v>
@@ -4968,7 +4962,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H46" s="68">
         <v>1</v>
@@ -4977,7 +4971,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K46" s="66">
         <v>1</v>
@@ -4991,26 +4985,32 @@
         <v>45474</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47" s="59">
         <v>0.75</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F47" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="68"/>
-      <c r="I47" s="64"/>
+        <v>9</v>
+      </c>
+      <c r="H47" s="68">
+        <v>1</v>
+      </c>
+      <c r="I47" s="64">
+        <v>1</v>
+      </c>
       <c r="J47" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="K47" s="66"/>
+        <v>78</v>
+      </c>
+      <c r="K47" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="57">
@@ -5020,24 +5020,24 @@
         <v>45474</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D48" s="59">
         <v>0.875</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48" s="68"/>
       <c r="I48" s="64"/>
       <c r="J48" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K48" s="66"/>
     </row>
@@ -5049,24 +5049,24 @@
         <v>45475</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D49" s="59">
         <v>0.75</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H49" s="68"/>
       <c r="I49" s="64"/>
       <c r="J49" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K49" s="66"/>
     </row>
@@ -5078,24 +5078,24 @@
         <v>45475</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" s="59">
         <v>0.875</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G50" s="60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H50" s="68"/>
       <c r="I50" s="64"/>
       <c r="J50" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K50" s="66"/>
     </row>
@@ -5107,22 +5107,22 @@
         <v>45478</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D51" s="59">
         <v>0.75</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F51" s="69"/>
       <c r="G51" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="64"/>
       <c r="J51" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K51" s="66"/>
     </row>
@@ -5134,22 +5134,22 @@
         <v>45478</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D52" s="59">
         <v>0.875</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="64"/>
       <c r="J52" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K52" s="66"/>
     </row>
@@ -5161,22 +5161,22 @@
         <v>45479</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D53" s="59">
         <v>0.75</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F53" s="69"/>
       <c r="G53" s="60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="64"/>
       <c r="J53" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K53" s="66"/>
     </row>
@@ -5188,22 +5188,22 @@
         <v>45479</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D54" s="59">
         <v>0.875</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F54" s="69"/>
       <c r="G54" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="64"/>
       <c r="J54" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K54" s="66"/>
     </row>
@@ -5215,22 +5215,22 @@
         <v>45482</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D55" s="59">
         <v>0.875</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="64"/>
       <c r="J55" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K55" s="66"/>
     </row>
@@ -5242,22 +5242,22 @@
         <v>45483</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D56" s="59">
         <v>0.875</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" s="69"/>
       <c r="G56" s="60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="64"/>
       <c r="J56" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K56" s="66"/>
     </row>
@@ -5269,22 +5269,22 @@
         <v>45487</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57" s="72">
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
       <c r="J57" s="77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K57" s="78"/>
     </row>
@@ -5305,7 +5305,7 @@
       <c r="D60" s="2"/>
       <c r="I60" s="44"/>
       <c r="J60" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -5313,7 +5313,7 @@
       <c r="C61" s="1"/>
       <c r="I61" s="44"/>
       <c r="J61" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -5321,7 +5321,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="I62" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J62" s="46" t="s">
         <v>25</v>
@@ -5334,7 +5334,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="I63" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J63" s="46" t="s">
         <v>7</v>
@@ -5347,7 +5347,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="I64" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J64" s="47" t="s">
         <v>28</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I65" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J65" s="47" t="s">
         <v>18</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I68" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J68" s="46" t="s">
         <v>21</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I69" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J69" s="46" t="s">
         <v>5</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I70" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J70" s="47" t="s">
         <v>11</v>
@@ -5410,13 +5410,13 @@
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I71" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K71" s="79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.35">
@@ -5429,18 +5429,18 @@
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I74" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J74" s="47" t="s">
         <v>10</v>
       </c>
       <c r="K74" s="79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I75" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J75" s="47" t="s">
         <v>8</v>
@@ -5451,21 +5451,21 @@
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I76" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K76" s="79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I77" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J77" s="47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K77" s="79" t="s">
         <v>10</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I80" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J80" s="47" t="s">
         <v>12</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I81" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J81" s="47" t="s">
         <v>27</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="82" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I82" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J82" s="47" t="s">
         <v>30</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="83" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I83" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J83" s="47" t="s">
         <v>22</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I86" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J86" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K86" s="79" t="s">
         <v>9</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I87" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J87" s="47" t="s">
         <v>9</v>
@@ -5555,18 +5555,18 @@
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I88" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J88" s="47" t="s">
         <v>23</v>
       </c>
       <c r="K88" s="79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I89" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J89" s="47" t="s">
         <v>16</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I92" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J92" s="47" t="s">
         <v>26</v>
@@ -5598,21 +5598,21 @@
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I93" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J93" s="47" t="s">
         <v>4</v>
       </c>
       <c r="K93" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I94" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J94" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K94" s="79" t="s">
         <v>26</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="95" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I95" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J95" s="47" t="s">
         <v>19</v>
@@ -5676,7 +5676,7 @@
   <dimension ref="A1:DM98"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AP103" sqref="AP103"/>
     </sheetView>
   </sheetViews>
@@ -5733,182 +5733,182 @@
       <c r="C1" s="148"/>
       <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="142"/>
       <c r="G1" s="143"/>
       <c r="H1" s="144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
       <c r="N1" s="141" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O1" s="142"/>
       <c r="P1" s="143"/>
       <c r="Q1" s="141" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R1" s="142"/>
       <c r="S1" s="143"/>
       <c r="T1" s="144" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U1" s="144"/>
       <c r="V1" s="144"/>
       <c r="W1" s="141" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
       <c r="AF1" s="141" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG1" s="142"/>
       <c r="AH1" s="143"/>
       <c r="AI1" s="141" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AJ1" s="142"/>
       <c r="AK1" s="143"/>
       <c r="AL1" s="141" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
       <c r="AU1" s="141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
       <c r="BP1" s="139" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BQ1" s="139"/>
       <c r="BR1" s="139"/>
       <c r="BS1" s="139" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BT1" s="139"/>
       <c r="BU1" s="139"/>
       <c r="BV1" s="139" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BW1" s="139"/>
       <c r="BX1" s="139"/>
       <c r="BY1" s="139" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BZ1" s="139"/>
       <c r="CA1" s="139"/>
       <c r="CB1" s="139" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CC1" s="139"/>
       <c r="CD1" s="139"/>
       <c r="CE1" s="139" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="CF1" s="139"/>
       <c r="CG1" s="139"/>
       <c r="CH1" s="139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CI1" s="139"/>
       <c r="CJ1" s="139"/>
       <c r="CK1" s="139" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="CL1" s="139"/>
       <c r="CM1" s="139"/>
       <c r="CN1" s="139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CO1" s="139"/>
       <c r="CP1" s="139"/>
       <c r="CQ1" s="139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="CR1" s="139"/>
       <c r="CS1" s="139"/>
       <c r="CT1" s="139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="CU1" s="139"/>
       <c r="CV1" s="139"/>
       <c r="CW1" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="CX1" s="139"/>
       <c r="CY1" s="139"/>
       <c r="CZ1" s="139" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="DA1" s="139"/>
       <c r="DB1" s="139"/>
       <c r="DC1" s="139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="DD1" s="139"/>
       <c r="DE1" s="139"/>
       <c r="DF1" s="139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="DG1" s="139"/>
       <c r="DH1" s="139"/>
@@ -5919,337 +5919,337 @@
       <c r="C2" s="6"/>
       <c r="D2" s="16"/>
       <c r="E2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="K2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="N2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="Q2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="T2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="W2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="Z2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="AC2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="AF2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="AI2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="AL2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AM2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="AO2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AP2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="AR2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AS2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT2" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="AU2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AV2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="AX2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AY2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BA2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BD2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BG2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BH2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BJ2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BK2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BL2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BM2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BN2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BO2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BP2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BR2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BQ2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BR2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BS2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BT2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BU2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BT2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BU2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BV2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BX2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BW2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BX2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="BY2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BZ2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CA2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BZ2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CA2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CB2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CD2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="CC2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CD2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CE2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CF2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CG2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="CF2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CG2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CH2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CI2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CJ2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="CI2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CJ2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CK2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CL2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CM2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="CL2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CM2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CN2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CO2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CP2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="CO2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CP2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CQ2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CR2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CS2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="CR2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CS2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CT2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CU2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CV2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="CU2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CV2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CW2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CX2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="CY2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="CX2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CY2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="CZ2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="DA2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="DB2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="DA2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="DB2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="DC2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="DD2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="DE2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="DD2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="DE2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="DF2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="DG2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="DH2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="DG2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="DH2" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="DI2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="DJ2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK2" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="DJ2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="DK2" s="29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:117" x14ac:dyDescent="0.35">
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="BJ3" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK3" s="22">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U4" s="17">
         <v>0</v>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="AL4" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM4" s="22">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="BJ4" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK4" s="22">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN4" s="22">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="BV4" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW4" s="22">
         <v>1</v>
@@ -6849,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="CE4" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF4" s="22">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="CH4" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI4" s="22">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="CK4" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL4" s="22">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="CN4" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO4" s="22">
         <v>1</v>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="22">
         <v>1</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O5" s="23">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U5" s="17">
         <v>1</v>
@@ -7033,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD5" s="22">
         <v>2</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS5" s="22">
         <v>1</v>
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="AU5" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV5" s="22">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="AX5" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY5" s="22">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="BD5" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE5" s="22">
         <v>1</v>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="BG5" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH5" s="22">
         <v>1</v>
@@ -7132,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="BJ5" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK5" s="22">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ5" s="22">
         <v>1</v>
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="BS5" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BT5" s="22">
         <v>2</v>
@@ -7195,7 +7195,7 @@
         <v>2</v>
       </c>
       <c r="CE5" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF5" s="22">
         <v>2</v>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="CT5" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU5" s="22">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="CW5" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX5" s="22">
         <v>1</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="22">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV6" s="22">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK6" s="22">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM7" s="22">
         <v>1</v>
@@ -7824,7 +7824,7 @@
         <v>2</v>
       </c>
       <c r="BJ7" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK7" s="22">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="CT7" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU7" s="22">
         <v>1</v>
@@ -8170,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="BJ8" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK8" s="22">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="BY8" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BZ8" s="22">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="CB8" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CC8" s="22">
         <v>2</v>
@@ -8296,7 +8296,7 @@
         <v>2</v>
       </c>
       <c r="CZ8" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA8" s="22">
         <v>1</v>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="DC8" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD8" s="22">
         <v>1</v>
@@ -8516,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="BJ9" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK9" s="22">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN9" s="22">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I10" s="22">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="22">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U10" s="17">
         <v>1</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="22">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ10" s="20">
         <v>1</v>
@@ -8790,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM10" s="22">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV10" s="22">
         <v>1</v>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="AX10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY10" s="22">
         <v>1</v>
@@ -8835,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="BA10" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BB10" s="20">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE10" s="22">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH10" s="22">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK10" s="22">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN10" s="22">
         <v>1</v>
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="BP10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ10" s="22">
         <v>1</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="BS10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BT10" s="22">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="CB10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CC10" s="22">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="CE10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF10" s="22">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="CH10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI10" s="22">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="CK10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL10" s="22">
         <v>0</v>
@@ -8961,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="CQ10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CR10" s="22">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="CT10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU10" s="22">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="CW10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX10" s="22">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="DC10" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD10" s="22">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="DF10" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="DG10" s="22">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK11" s="22">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="BJ12" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK12" s="22">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN12" s="22">
         <v>1</v>
@@ -9662,7 +9662,7 @@
         <v>2</v>
       </c>
       <c r="CT12" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU12" s="22">
         <v>2</v>
@@ -9671,7 +9671,7 @@
         <v>2</v>
       </c>
       <c r="CW12" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX12" s="22">
         <v>1</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD13" s="22">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ13" s="20">
         <v>1</v>
@@ -9891,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH13" s="22">
         <v>1</v>
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="BJ13" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK13" s="22">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="CW13" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX13" s="22">
         <v>2</v>
@@ -10026,7 +10026,7 @@
         <v>2</v>
       </c>
       <c r="CZ13" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA13" s="22">
         <v>0</v>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM14" s="22">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK14" s="22">
         <v>0</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV15" s="22">
         <v>2</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK15" s="22">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK16" s="22">
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>Schweiz</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="22">
         <v>1</v>
@@ -11140,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="23">
         <v>1</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U17" s="17">
         <v>1</v>
@@ -11185,7 +11185,7 @@
         <v>2</v>
       </c>
       <c r="AC17" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD17" s="22">
         <v>2</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV17" s="22">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="BA17" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BB17" s="20">
         <v>1</v>
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="BD17" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE17" s="22">
         <v>2</v>
@@ -11284,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="BJ17" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK17" s="22">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN17" s="22">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="BP17" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ17" s="22">
         <v>0</v>
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="CH17" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI17" s="22">
         <v>2</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="CK17" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL17" s="22">
         <v>2</v>
@@ -11410,7 +11410,7 @@
         <v>2</v>
       </c>
       <c r="CZ17" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA17" s="22">
         <v>1</v>
@@ -11419,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="DC17" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD17" s="22">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>Serbien</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="22">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L18" s="22">
         <v>2</v>
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD18" s="22">
         <v>1</v>
@@ -11549,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="AI18" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ18" s="20">
         <v>1</v>
@@ -11567,7 +11567,7 @@
         <v>2</v>
       </c>
       <c r="AO18" s="43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP18" s="18">
         <v>1</v>
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="AR18" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS18" s="22">
         <v>1</v>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="AU18" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV18" s="22">
         <v>1</v>
@@ -11621,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="BG18" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH18" s="22">
         <v>1</v>
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="BJ18" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK18" s="22">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN18" s="22">
         <v>0</v>
@@ -11675,7 +11675,7 @@
         <v>2</v>
       </c>
       <c r="BY18" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BZ18" s="22">
         <v>2</v>
@@ -11702,7 +11702,7 @@
         <v>2</v>
       </c>
       <c r="CH18" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI18" s="22">
         <v>2</v>
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="CK18" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL18" s="22">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>2</v>
       </c>
       <c r="CQ18" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CR18" s="22">
         <v>1</v>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="CW18" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX18" s="22">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="DC18" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD18" s="22">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="DF18" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="DG18" s="22">
         <v>2</v>
@@ -11805,7 +11805,7 @@
         <v>England</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="22">
         <v>1</v>
@@ -11823,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L19" s="22">
         <v>1</v>
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O19" s="23">
         <v>2</v>
@@ -11877,7 +11877,7 @@
         <v>3</v>
       </c>
       <c r="AC19" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD19" s="22">
         <v>2</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM19" s="22">
         <v>2</v>
@@ -11922,7 +11922,7 @@
         <v>2</v>
       </c>
       <c r="AR19" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS19" s="22">
         <v>1</v>
@@ -11958,7 +11958,7 @@
         <v>2</v>
       </c>
       <c r="BD19" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE19" s="22">
         <v>1</v>
@@ -11976,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="BJ19" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK19" s="22">
         <v>0</v>
@@ -12012,7 +12012,7 @@
         <v>3</v>
       </c>
       <c r="BV19" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW19" s="22">
         <v>2</v>
@@ -12039,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="CE19" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF19" s="22">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="CQ19" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CR19" s="22">
         <v>1</v>
@@ -12084,7 +12084,7 @@
         <v>2</v>
       </c>
       <c r="CT19" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU19" s="22">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="CW19" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX19" s="22">
         <v>2</v>
@@ -12151,7 +12151,7 @@
         <v>Italien</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="22">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O20" s="23">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X20" s="22">
         <v>1</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AG20" s="22">
         <v>2</v>
@@ -12259,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="AO20" s="43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP20" s="18">
         <v>2</v>
@@ -12295,7 +12295,7 @@
         <v>2</v>
       </c>
       <c r="BA20" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BB20" s="20">
         <v>2</v>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH20" s="22">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK20" s="22">
         <v>0</v>
@@ -12340,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="BP20" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ20" s="22">
         <v>1</v>
@@ -12358,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="BV20" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW20" s="22">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="CE20" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF20" s="22">
         <v>3</v>
@@ -12412,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="CN20" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO20" s="22">
         <v>1</v>
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="CZ20" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA20" s="22">
         <v>1</v>
@@ -12497,7 +12497,7 @@
         <v>Ukraina</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="22">
         <v>1</v>
@@ -12587,7 +12587,7 @@
         <v>2</v>
       </c>
       <c r="AI21" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ21" s="20">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="AO21" s="43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP21" s="18">
         <v>1</v>
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS21" s="22">
         <v>1</v>
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="AU21" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV21" s="22">
         <v>1</v>
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="AX21" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY21" s="22">
         <v>1</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE21" s="22">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="BG21" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH21" s="22">
         <v>2</v>
@@ -12668,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="BJ21" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK21" s="22">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN21" s="22">
         <v>1</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="BS21" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BT21" s="22">
         <v>1</v>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="BV21" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW21" s="22">
         <v>0</v>
@@ -12767,7 +12767,7 @@
         <v>2</v>
       </c>
       <c r="CQ21" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CR21" s="22">
         <v>1</v>
@@ -12794,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA21" s="22">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>2</v>
       </c>
       <c r="DF21" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="DG21" s="22">
         <v>0</v>
@@ -12852,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="22">
         <v>1</v>
@@ -12879,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R22" s="22">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD22" s="22">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>2</v>
       </c>
       <c r="AR22" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS22" s="22">
         <v>2</v>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="BJ22" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK22" s="22">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN22" s="22">
         <v>1</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="BV22" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW22" s="22">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="BY22" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BZ22" s="22">
         <v>1</v>
@@ -13104,7 +13104,7 @@
         <v>3</v>
       </c>
       <c r="CN22" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO22" s="22">
         <v>1</v>
@@ -13131,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="CW22" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX22" s="22">
         <v>1</v>
@@ -13140,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="CZ22" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA22" s="22">
         <v>2</v>
@@ -13149,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="DC22" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD22" s="22">
         <v>1</v>
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U23" s="17">
         <v>2</v>
@@ -13306,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="AR23" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS23" s="22">
         <v>1</v>
@@ -13315,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="AU23" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV23" s="22">
         <v>1</v>
@@ -13324,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="AX23" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY23" s="22">
         <v>2</v>
@@ -13333,7 +13333,7 @@
         <v>2</v>
       </c>
       <c r="BA23" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BB23" s="20">
         <v>3</v>
@@ -13360,7 +13360,7 @@
         <v>3</v>
       </c>
       <c r="BJ23" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK23" s="22">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>3</v>
       </c>
       <c r="CH23" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI23" s="22">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="CZ23" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA23" s="22">
         <v>2</v>
@@ -13598,7 +13598,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA24" s="22">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM24" s="22">
         <v>1</v>
@@ -13706,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="BJ24" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK24" s="22">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>2</v>
       </c>
       <c r="CB24" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CC24" s="22">
         <v>2</v>
@@ -13769,7 +13769,7 @@
         <v>2</v>
       </c>
       <c r="CE24" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF24" s="22">
         <v>1</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="CH24" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI24" s="22">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="CK24" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL24" s="22">
         <v>1</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA24" s="22">
         <v>1</v>
@@ -13980,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM25" s="22">
         <v>1</v>
@@ -14043,7 +14043,7 @@
         <v>2</v>
       </c>
       <c r="BG25" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH25" s="22">
         <v>2</v>
@@ -14052,7 +14052,7 @@
         <v>2</v>
       </c>
       <c r="BJ25" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK25" s="22">
         <v>0</v>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV26" s="22">
         <v>1</v>
@@ -14398,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK26" s="22">
         <v>0</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I27" s="22">
         <v>1</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O27" s="23">
         <v>2</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM27" s="22">
         <v>1</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK27" s="22">
         <v>0</v>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="CB27" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CC27" s="22">
         <v>2</v>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="CQ27" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CR27" s="22">
         <v>2</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="CT27" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU27" s="22">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="CW27" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX27" s="22">
         <v>1</v>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I28" s="22">
         <v>1</v>
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U28" s="17">
         <v>1</v>
@@ -15009,7 +15009,7 @@
         <v>3</v>
       </c>
       <c r="AI28" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ28" s="20">
         <v>1</v>
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV28" s="22">
         <v>1</v>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BB28" s="20">
         <v>1</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK28" s="22">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN28" s="22">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="BV28" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW28" s="22">
         <v>2</v>
@@ -15135,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="BY28" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BZ28" s="22">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="CE28" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF28" s="22">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="CH28" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI28" s="22">
         <v>1</v>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="CK28" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL28" s="22">
         <v>2</v>
@@ -15180,7 +15180,7 @@
         <v>2</v>
       </c>
       <c r="CN28" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO28" s="22">
         <v>1</v>
@@ -15265,7 +15265,7 @@
         <v>Italien</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F29" s="22">
         <v>0</v>
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I29" s="22">
         <v>1</v>
@@ -15292,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O29" s="23">
         <v>1</v>
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U29" s="17">
         <v>2</v>
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA29" s="22">
         <v>0</v>
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="AO29" s="43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP29" s="18">
         <v>1</v>
@@ -15382,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="AR29" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS29" s="22">
         <v>1</v>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="AX29" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY29" s="22">
         <v>1</v>
@@ -15418,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="BD29" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE29" s="22">
         <v>0</v>
@@ -15436,7 +15436,7 @@
         <v>2</v>
       </c>
       <c r="BJ29" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK29" s="22">
         <v>0</v>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ29" s="22">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="BV29" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW29" s="22">
         <v>0</v>
@@ -15499,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="CE29" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF29" s="22">
         <v>1</v>
@@ -15544,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="CT29" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU29" s="22">
         <v>1</v>
@@ -15562,7 +15562,7 @@
         <v>2</v>
       </c>
       <c r="CZ29" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA29" s="22">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="DF29" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="DG29" s="22">
         <v>2</v>
@@ -15782,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="BJ30" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK30" s="22">
         <v>0</v>
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O31" s="23">
         <v>1</v>
@@ -16083,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV31" s="22">
         <v>0</v>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE31" s="22">
         <v>2</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK31" s="22">
         <v>0</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN31" s="22">
         <v>1</v>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="BV31" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW31" s="22">
         <v>1</v>
@@ -16236,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="CT31" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU31" s="22">
         <v>2</v>
@@ -16474,7 +16474,7 @@
         <v>1</v>
       </c>
       <c r="BJ32" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK32" s="22">
         <v>0</v>
@@ -16483,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN32" s="22">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK33" s="22">
         <v>0</v>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="CB33" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CC33" s="22">
         <v>2</v>
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA34" s="22">
         <v>2</v>
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ34" s="20">
         <v>1</v>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM34" s="22">
         <v>1</v>
@@ -17112,7 +17112,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS34" s="22">
         <v>1</v>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY34" s="22">
         <v>2</v>
@@ -17139,7 +17139,7 @@
         <v>2</v>
       </c>
       <c r="BA34" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BB34" s="20">
         <v>1</v>
@@ -17166,7 +17166,7 @@
         <v>2</v>
       </c>
       <c r="BJ34" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK34" s="22">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="BS34" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BT34" s="22">
         <v>1</v>
@@ -17220,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="CB34" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CC34" s="22">
         <v>1</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="CN34" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO34" s="22">
         <v>1</v>
@@ -17292,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="CZ34" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA34" s="22">
         <v>1</v>
@@ -17377,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R35" s="22">
         <v>1</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U35" s="17">
         <v>0</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD35" s="22">
         <v>1</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV35" s="22">
         <v>2</v>
@@ -17476,7 +17476,7 @@
         <v>2</v>
       </c>
       <c r="AX35" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY35" s="22">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BB35" s="20">
         <v>2</v>
@@ -17512,7 +17512,7 @@
         <v>2</v>
       </c>
       <c r="BJ35" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK35" s="22">
         <v>0</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ35" s="22">
         <v>1</v>
@@ -17539,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="BS35" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BT35" s="22">
         <v>1</v>
@@ -17557,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="BY35" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BZ35" s="22">
         <v>1</v>
@@ -17575,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="CE35" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF35" s="22">
         <v>0</v>
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="CK35" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL35" s="22">
         <v>0</v>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="CN35" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO35" s="22">
         <v>1</v>
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="CT35" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU35" s="22">
         <v>1</v>
@@ -17629,7 +17629,7 @@
         <v>1</v>
       </c>
       <c r="CW35" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX35" s="22">
         <v>1</v>
@@ -17638,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="CZ35" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA35" s="22">
         <v>2</v>
@@ -17849,7 +17849,7 @@
         <v>5</v>
       </c>
       <c r="BG36" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH36" s="22">
         <v>2</v>
@@ -17858,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="BJ36" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK36" s="22">
         <v>0</v>
@@ -17984,7 +17984,7 @@
         <v>3</v>
       </c>
       <c r="CZ36" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA36" s="22">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>Turkiet</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F37" s="22">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>2</v>
       </c>
       <c r="AC37" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD37" s="22">
         <v>1</v>
@@ -18150,7 +18150,7 @@
         <v>2</v>
       </c>
       <c r="AR37" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS37" s="22">
         <v>1</v>
@@ -18177,7 +18177,7 @@
         <v>2</v>
       </c>
       <c r="BA37" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BB37" s="20">
         <v>0</v>
@@ -18204,7 +18204,7 @@
         <v>2</v>
       </c>
       <c r="BJ37" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK37" s="22">
         <v>0</v>
@@ -18231,7 +18231,7 @@
         <v>0</v>
       </c>
       <c r="BS37" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BT37" s="22">
         <v>2</v>
@@ -18240,7 +18240,7 @@
         <v>2</v>
       </c>
       <c r="BV37" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW37" s="22">
         <v>1</v>
@@ -18276,7 +18276,7 @@
         <v>3</v>
       </c>
       <c r="CH37" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI37" s="22">
         <v>1</v>
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="CN37" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO37" s="22">
         <v>1</v>
@@ -18321,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="CW37" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX37" s="22">
         <v>1</v>
@@ -18339,7 +18339,7 @@
         <v>2</v>
       </c>
       <c r="DC37" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD37" s="22">
         <v>2</v>
@@ -18348,7 +18348,7 @@
         <v>2</v>
       </c>
       <c r="DF37" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="DG37" s="22">
         <v>1</v>
@@ -18550,7 +18550,7 @@
         <v>3</v>
       </c>
       <c r="BJ38" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK38" s="22">
         <v>0</v>
@@ -18734,7 +18734,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I39" s="22">
         <v>1</v>
@@ -18896,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="BJ39" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK39" s="22">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ39" s="22">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>2</v>
       </c>
       <c r="CT39" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU39" s="22">
         <v>1</v>
@@ -19161,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ40" s="20">
         <v>1</v>
@@ -19188,7 +19188,7 @@
         <v>1</v>
       </c>
       <c r="AR40" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS40" s="22">
         <v>1</v>
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK40" s="22">
         <v>0</v>
@@ -19251,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN40" s="22">
         <v>1</v>
@@ -19350,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="CT40" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU40" s="22">
         <v>1</v>
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV41" s="22">
         <v>1</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="BJ41" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK41" s="22">
         <v>0</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="CZ41" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA41" s="22">
         <v>1</v>
@@ -19934,7 +19934,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK42" s="22">
         <v>0</v>
@@ -20099,14 +20099,14 @@
       </c>
       <c r="B43" s="60" t="str">
         <f>Resultat!E47</f>
-        <v>2D</v>
+        <v>Frankrike</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="60" t="str">
         <f>Resultat!G47</f>
-        <v>2E</v>
+        <v>Belgien</v>
       </c>
       <c r="E43" s="33">
         <v>1</v>
@@ -20136,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O43" s="23">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS43" s="22">
         <v>1</v>
@@ -20280,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="BJ43" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK43" s="22">
         <v>0</v>
@@ -20289,7 +20289,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN43" s="22">
         <v>1</v>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="BP43" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ43" s="22">
         <v>1</v>
@@ -20325,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="BY43" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BZ43" s="22">
         <v>1</v>
@@ -20397,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="CW43" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX43" s="22">
         <v>1</v>
@@ -20554,7 +20554,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM44" s="22">
         <v>1</v>
@@ -20617,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="BG44" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH44" s="22">
         <v>1</v>
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="BJ44" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK44" s="22">
         <v>0</v>
@@ -20662,7 +20662,7 @@
         <v>1</v>
       </c>
       <c r="BV44" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW44" s="22">
         <v>1</v>
@@ -20731,7 +20731,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -20873,7 +20873,7 @@
         <v>2</v>
       </c>
       <c r="AC45" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD45" s="22">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV45" s="22">
         <v>0</v>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY45" s="22">
         <v>1</v>
@@ -20954,7 +20954,7 @@
         <v>1</v>
       </c>
       <c r="BD45" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE45" s="22">
         <v>2</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="BJ45" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK45" s="22">
         <v>0</v>
@@ -20999,7 +20999,7 @@
         <v>1</v>
       </c>
       <c r="BS45" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BT45" s="22">
         <v>1</v>
@@ -21053,7 +21053,7 @@
         <v>2</v>
       </c>
       <c r="CK45" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL45" s="22">
         <v>2</v>
@@ -21089,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="CW45" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX45" s="22">
         <v>1</v>
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="CZ45" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA45" s="22">
         <v>1</v>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK46" s="22">
         <v>0</v>
@@ -21327,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN46" s="22">
         <v>1</v>
@@ -21444,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="CZ46" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA46" s="22">
         <v>1</v>
@@ -21493,7 +21493,7 @@
         <v>V37</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="22">
         <v>1</v>
@@ -21502,7 +21502,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I47" s="22">
         <v>1</v>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD47" s="22">
         <v>1</v>
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ47" s="20">
         <v>1</v>
@@ -21610,7 +21610,7 @@
         <v>3</v>
       </c>
       <c r="AR47" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS47" s="22">
         <v>2</v>
@@ -21619,7 +21619,7 @@
         <v>2</v>
       </c>
       <c r="AU47" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV47" s="22">
         <v>2</v>
@@ -21655,7 +21655,7 @@
         <v>1</v>
       </c>
       <c r="BG47" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH47" s="22">
         <v>2</v>
@@ -21664,7 +21664,7 @@
         <v>2</v>
       </c>
       <c r="BJ47" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK47" s="22">
         <v>0</v>
@@ -21700,7 +21700,7 @@
         <v>2</v>
       </c>
       <c r="BV47" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW47" s="22">
         <v>2</v>
@@ -21709,7 +21709,7 @@
         <v>2</v>
       </c>
       <c r="BY47" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BZ47" s="22">
         <v>2</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="CT47" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU47" s="22">
         <v>1</v>
@@ -21839,7 +21839,7 @@
         <v>V42</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="22">
         <v>1</v>
@@ -21848,7 +21848,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I48" s="22">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD48" s="22">
         <v>1</v>
@@ -21956,7 +21956,7 @@
         <v>1</v>
       </c>
       <c r="AR48" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS48" s="22">
         <v>1</v>
@@ -21992,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="BD48" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE48" s="22">
         <v>1</v>
@@ -22010,7 +22010,7 @@
         <v>2</v>
       </c>
       <c r="BJ48" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK48" s="22">
         <v>0</v>
@@ -22028,7 +22028,7 @@
         <v>1</v>
       </c>
       <c r="BP48" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ48" s="22">
         <v>1</v>
@@ -22091,7 +22091,7 @@
         <v>3</v>
       </c>
       <c r="CK48" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL48" s="22">
         <v>2</v>
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="CZ48" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA48" s="22">
         <v>1</v>
@@ -22185,7 +22185,7 @@
         <v>V38</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="22">
         <v>1</v>
@@ -22194,7 +22194,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I49" s="22">
         <v>1</v>
@@ -22275,7 +22275,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ49" s="20">
         <v>1</v>
@@ -22302,7 +22302,7 @@
         <v>1</v>
       </c>
       <c r="AR49" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS49" s="22">
         <v>1</v>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY49" s="22">
         <v>0</v>
@@ -22356,7 +22356,7 @@
         <v>2</v>
       </c>
       <c r="BJ49" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK49" s="22">
         <v>0</v>
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN49" s="22">
         <v>1</v>
@@ -22383,7 +22383,7 @@
         <v>0</v>
       </c>
       <c r="BS49" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BT49" s="22">
         <v>0</v>
@@ -22410,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="CB49" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CC49" s="22">
         <v>2</v>
@@ -22473,7 +22473,7 @@
         <v>1</v>
       </c>
       <c r="CW49" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX49" s="22">
         <v>2</v>
@@ -22482,7 +22482,7 @@
         <v>2</v>
       </c>
       <c r="CZ49" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA49" s="22">
         <v>0</v>
@@ -22540,7 +22540,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I50" s="22">
         <v>1</v>
@@ -22648,7 +22648,7 @@
         <v>2</v>
       </c>
       <c r="AR50" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS50" s="22">
         <v>1</v>
@@ -22702,7 +22702,7 @@
         <v>3</v>
       </c>
       <c r="BJ50" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK50" s="22">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         <v>4</v>
       </c>
       <c r="CK50" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL50" s="22">
         <v>1</v>
@@ -22901,7 +22901,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O51" s="23">
         <v>2</v>
@@ -22964,7 +22964,7 @@
         <v>1</v>
       </c>
       <c r="AI51" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ51" s="20">
         <v>1</v>
@@ -22973,7 +22973,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM51" s="22">
         <v>1</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS51" s="22">
         <v>1</v>
@@ -23000,7 +23000,7 @@
         <v>1</v>
       </c>
       <c r="AU51" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV51" s="22">
         <v>1</v>
@@ -23009,7 +23009,7 @@
         <v>1</v>
       </c>
       <c r="AX51" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY51" s="22">
         <v>2</v>
@@ -23045,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="BJ51" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK51" s="22">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="CW51" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX51" s="22">
         <v>1</v>
@@ -23217,7 +23217,7 @@
         <v>V46</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F52" s="22">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD52" s="22">
         <v>2</v>
@@ -23307,7 +23307,7 @@
         <v>1</v>
       </c>
       <c r="AI52" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ52" s="20">
         <v>1</v>
@@ -23316,7 +23316,7 @@
         <v>1</v>
       </c>
       <c r="AL52" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM52" s="22">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="AR52" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS52" s="22">
         <v>1</v>
@@ -23379,7 +23379,7 @@
         <v>1</v>
       </c>
       <c r="BG52" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH52" s="22">
         <v>2</v>
@@ -23388,7 +23388,7 @@
         <v>2</v>
       </c>
       <c r="BJ52" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK52" s="22">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN52" s="22">
         <v>1</v>
@@ -23469,7 +23469,7 @@
         <v>3</v>
       </c>
       <c r="CK52" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL52" s="22">
         <v>1</v>
@@ -23496,7 +23496,7 @@
         <v>3</v>
       </c>
       <c r="CT52" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU52" s="22">
         <v>1</v>
@@ -23514,7 +23514,7 @@
         <v>2</v>
       </c>
       <c r="CZ52" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA52" s="22">
         <v>1</v>
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="AI53" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ53" s="20">
         <v>2</v>
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="AR53" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AS53" s="22">
         <v>1</v>
@@ -23696,7 +23696,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY53" s="22">
         <v>1</v>
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="BD53" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE53" s="22">
         <v>1</v>
@@ -23732,7 +23732,7 @@
         <v>3</v>
       </c>
       <c r="BJ53" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BK53" s="22">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="CB53" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CC53" s="22">
         <v>2</v>
@@ -23840,7 +23840,7 @@
         <v>2</v>
       </c>
       <c r="CT53" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CU53" s="22">
         <v>1</v>
@@ -24057,7 +24057,7 @@
     </row>
     <row r="57" spans="1:117" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>25</v>
@@ -24866,142 +24866,142 @@
       <c r="A62"/>
       <c r="D62"/>
       <c r="E62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q62" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF62" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AI62" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AL62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AO62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AR62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AX62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BA62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BD62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BG62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BJ62" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BM62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN62" s="31"/>
       <c r="BO62" s="31"/>
       <c r="BP62" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BQ62" s="31"/>
       <c r="BR62" s="31"/>
       <c r="BS62" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT62" s="31"/>
       <c r="BU62" s="31"/>
       <c r="BV62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BW62" s="31"/>
       <c r="BX62" s="31"/>
       <c r="BY62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ62" s="31"/>
       <c r="CA62" s="31"/>
       <c r="CB62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC62" s="31"/>
       <c r="CD62" s="31"/>
       <c r="CE62" s="123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CF62" s="31"/>
       <c r="CG62" s="31"/>
       <c r="CH62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CI62" s="31"/>
       <c r="CJ62" s="31"/>
       <c r="CK62" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CL62" s="31"/>
       <c r="CM62" s="31"/>
       <c r="CN62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CO62" s="31"/>
       <c r="CP62" s="31"/>
       <c r="CQ62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CR62" s="31"/>
       <c r="CS62" s="31"/>
       <c r="CT62" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU62" s="31"/>
       <c r="CV62" s="31"/>
       <c r="CW62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CZ62" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DC62" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DF62" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:117" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>21</v>
@@ -25449,7 +25449,7 @@
       <c r="BH65" s="31"/>
       <c r="BI65" s="31"/>
       <c r="BJ65" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BK65" s="31"/>
       <c r="BL65" s="31"/>
@@ -25530,97 +25530,97 @@
       <c r="A66"/>
       <c r="D66"/>
       <c r="E66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
       <c r="N66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O66" s="31"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
       <c r="T66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U66" s="31"/>
       <c r="V66" s="31"/>
       <c r="W66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA66" s="31"/>
       <c r="AB66" s="31"/>
       <c r="AC66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AD66" s="31"/>
       <c r="AE66" s="31"/>
       <c r="AF66" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AG66" s="31"/>
       <c r="AH66" s="31"/>
       <c r="AI66" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AJ66" s="31"/>
       <c r="AK66" s="31"/>
       <c r="AL66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AM66" s="31"/>
       <c r="AN66" s="31"/>
       <c r="AO66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="31"/>
       <c r="AR66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AS66" s="31"/>
       <c r="AT66" s="31"/>
       <c r="AU66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AV66" s="31"/>
       <c r="AW66" s="31"/>
       <c r="AX66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AY66" s="31"/>
       <c r="AZ66" s="31"/>
       <c r="BA66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BB66" s="31"/>
       <c r="BC66" s="31"/>
       <c r="BD66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BE66" s="31"/>
       <c r="BF66" s="31"/>
       <c r="BG66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BH66" s="31"/>
       <c r="BI66" s="31"/>
@@ -25630,76 +25630,76 @@
       <c r="BK66" s="31"/>
       <c r="BL66" s="31"/>
       <c r="BM66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BN66" s="31"/>
       <c r="BO66" s="31"/>
       <c r="BP66" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BQ66" s="31"/>
       <c r="BR66" s="31"/>
       <c r="BS66" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BT66" s="31"/>
       <c r="BU66" s="31"/>
       <c r="BV66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BW66" s="31"/>
       <c r="BX66" s="31"/>
       <c r="BY66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BZ66" s="31"/>
       <c r="CA66" s="31"/>
       <c r="CB66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CC66" s="31"/>
       <c r="CD66" s="31"/>
       <c r="CE66" s="121" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CF66" s="31"/>
       <c r="CG66" s="31"/>
       <c r="CH66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CI66" s="31"/>
       <c r="CJ66" s="31"/>
       <c r="CK66" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CL66" s="31"/>
       <c r="CM66" s="31"/>
       <c r="CN66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CO66" s="31"/>
       <c r="CP66" s="31"/>
       <c r="CQ66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CR66" s="31"/>
       <c r="CS66" s="31"/>
       <c r="CT66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CU66" s="31"/>
       <c r="CV66" s="31"/>
       <c r="CW66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CZ66" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="DC66" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="DF66" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:110" x14ac:dyDescent="0.35">
@@ -25810,142 +25810,142 @@
       <c r="A68"/>
       <c r="D68"/>
       <c r="E68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q68" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF68" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI68" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AR68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AU68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BA68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BD68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BG68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BJ68" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BM68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BN68" s="31"/>
       <c r="BO68" s="31"/>
       <c r="BP68" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ68" s="31"/>
       <c r="BR68" s="31"/>
       <c r="BS68" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BT68" s="31"/>
       <c r="BU68" s="31"/>
       <c r="BV68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW68" s="31"/>
       <c r="BX68" s="31"/>
       <c r="BY68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BZ68" s="31"/>
       <c r="CA68" s="31"/>
       <c r="CB68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CC68" s="31"/>
       <c r="CD68" s="31"/>
       <c r="CE68" s="123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF68" s="31"/>
       <c r="CG68" s="31"/>
       <c r="CH68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI68" s="31"/>
       <c r="CJ68" s="31"/>
       <c r="CK68" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL68" s="31"/>
       <c r="CM68" s="31"/>
       <c r="CN68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO68" s="31"/>
       <c r="CP68" s="31"/>
       <c r="CQ68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CR68" s="31"/>
       <c r="CS68" s="31"/>
       <c r="CT68" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CU68" s="31"/>
       <c r="CV68" s="31"/>
       <c r="CW68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CZ68" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DC68" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DF68" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>10</v>
@@ -26177,7 +26177,7 @@
       <c r="AJ70" s="31"/>
       <c r="AK70" s="31"/>
       <c r="AL70" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AM70" s="31"/>
       <c r="AN70" s="31"/>
@@ -26212,7 +26212,7 @@
       <c r="BE70" s="31"/>
       <c r="BF70" s="31"/>
       <c r="BG70" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BH70" s="31"/>
       <c r="BI70" s="31"/>
@@ -26222,7 +26222,7 @@
       <c r="BK70" s="31"/>
       <c r="BL70" s="31"/>
       <c r="BM70" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BN70" s="31"/>
       <c r="BO70" s="31"/>
@@ -26237,7 +26237,7 @@
       <c r="BT70" s="31"/>
       <c r="BU70" s="31"/>
       <c r="BV70" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BW70" s="31"/>
       <c r="BX70" s="31"/>
@@ -26247,12 +26247,12 @@
       <c r="BZ70" s="31"/>
       <c r="CA70" s="31"/>
       <c r="CB70" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CC70" s="31"/>
       <c r="CD70" s="31"/>
       <c r="CE70" s="121" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CF70" s="31"/>
       <c r="CG70" s="31"/>
@@ -26285,10 +26285,10 @@
         <v>8</v>
       </c>
       <c r="CZ70" s="115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="DC70" s="115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="DF70" s="103" t="s">
         <v>8</v>
@@ -26298,57 +26298,57 @@
       <c r="A71"/>
       <c r="D71"/>
       <c r="E71" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
       <c r="H71" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I71" s="31"/>
       <c r="J71" s="31"/>
       <c r="K71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
       <c r="N71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
       <c r="T71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U71" s="31"/>
       <c r="V71" s="31"/>
       <c r="W71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="Z71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA71" s="31"/>
       <c r="AB71" s="31"/>
       <c r="AC71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD71" s="31"/>
       <c r="AE71" s="31"/>
       <c r="AF71" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG71" s="31"/>
       <c r="AH71" s="31"/>
       <c r="AI71" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ71" s="31"/>
       <c r="AK71" s="31"/>
@@ -26358,32 +26358,32 @@
       <c r="AM71" s="31"/>
       <c r="AN71" s="31"/>
       <c r="AO71" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AP71" s="31"/>
       <c r="AQ71" s="31"/>
       <c r="AR71" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AS71" s="31"/>
       <c r="AT71" s="31"/>
       <c r="AU71" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AV71" s="31"/>
       <c r="AW71" s="31"/>
       <c r="AX71" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AY71" s="31"/>
       <c r="AZ71" s="31"/>
       <c r="BA71" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BB71" s="31"/>
       <c r="BC71" s="31"/>
       <c r="BD71" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BE71" s="31"/>
       <c r="BF71" s="31"/>
@@ -26393,7 +26393,7 @@
       <c r="BH71" s="31"/>
       <c r="BI71" s="31"/>
       <c r="BJ71" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BK71" s="31"/>
       <c r="BL71" s="31"/>
@@ -26403,12 +26403,12 @@
       <c r="BN71" s="31"/>
       <c r="BO71" s="31"/>
       <c r="BP71" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BQ71" s="31"/>
       <c r="BR71" s="31"/>
       <c r="BS71" s="115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BT71" s="31"/>
       <c r="BU71" s="31"/>
@@ -26418,7 +26418,7 @@
       <c r="BW71" s="31"/>
       <c r="BX71" s="31"/>
       <c r="BY71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BZ71" s="31"/>
       <c r="CA71" s="31"/>
@@ -26433,32 +26433,32 @@
       <c r="CF71" s="31"/>
       <c r="CG71" s="31"/>
       <c r="CH71" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CI71" s="31"/>
       <c r="CJ71" s="31"/>
       <c r="CK71" s="115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CL71" s="31"/>
       <c r="CM71" s="31"/>
       <c r="CN71" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CO71" s="31"/>
       <c r="CP71" s="31"/>
       <c r="CQ71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CR71" s="31"/>
       <c r="CS71" s="31"/>
       <c r="CT71" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CU71" s="31"/>
       <c r="CV71" s="31"/>
       <c r="CW71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CZ71" s="115" t="s">
         <v>8</v>
@@ -26467,183 +26467,183 @@
         <v>8</v>
       </c>
       <c r="DF71" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="D72"/>
       <c r="E72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
       <c r="H72" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
       <c r="K72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
       <c r="N72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
       <c r="Q72" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
       <c r="T72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U72" s="31"/>
       <c r="V72" s="31"/>
       <c r="W72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X72" s="31"/>
       <c r="Y72" s="31"/>
       <c r="Z72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA72" s="31"/>
       <c r="AB72" s="31"/>
       <c r="AC72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD72" s="31"/>
       <c r="AE72" s="31"/>
       <c r="AF72" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG72" s="31"/>
       <c r="AH72" s="31"/>
       <c r="AI72" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ72" s="31"/>
       <c r="AK72" s="31"/>
       <c r="AL72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM72" s="31"/>
       <c r="AN72" s="31"/>
       <c r="AO72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP72" s="31"/>
       <c r="AQ72" s="31"/>
       <c r="AR72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AS72" s="31"/>
       <c r="AT72" s="31"/>
       <c r="AU72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AV72" s="31"/>
       <c r="AW72" s="31"/>
       <c r="AX72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY72" s="31"/>
       <c r="AZ72" s="31"/>
       <c r="BA72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BB72" s="31"/>
       <c r="BC72" s="31"/>
       <c r="BD72" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BE72" s="31"/>
       <c r="BF72" s="31"/>
       <c r="BG72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BH72" s="31"/>
       <c r="BI72" s="31"/>
       <c r="BJ72" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BK72" s="31"/>
       <c r="BL72" s="31"/>
       <c r="BM72" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BN72" s="31"/>
       <c r="BO72" s="31"/>
       <c r="BP72" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BQ72" s="31"/>
       <c r="BR72" s="31"/>
       <c r="BS72" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BT72" s="31"/>
       <c r="BU72" s="31"/>
       <c r="BV72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BW72" s="31"/>
       <c r="BX72" s="31"/>
       <c r="BY72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BZ72" s="31"/>
       <c r="CA72" s="31"/>
       <c r="CB72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CC72" s="31"/>
       <c r="CD72" s="31"/>
       <c r="CE72" s="121" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CF72" s="31"/>
       <c r="CG72" s="31"/>
       <c r="CH72" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CI72" s="31"/>
       <c r="CJ72" s="31"/>
       <c r="CK72" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CL72" s="31"/>
       <c r="CM72" s="31"/>
       <c r="CN72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CO72" s="31"/>
       <c r="CP72" s="31"/>
       <c r="CQ72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CR72" s="31"/>
       <c r="CS72" s="31"/>
       <c r="CT72" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CU72" s="31"/>
       <c r="CV72" s="31"/>
       <c r="CW72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CZ72" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="DC72" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="DF72" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:110" x14ac:dyDescent="0.35">
@@ -26754,142 +26754,142 @@
       <c r="A74"/>
       <c r="D74"/>
       <c r="E74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q74" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF74" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AI74" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AL74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AO74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AR74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AU74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AX74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BA74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BD74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BG74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BJ74" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BM74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN74" s="31"/>
       <c r="BO74" s="31"/>
       <c r="BP74" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BQ74" s="31"/>
       <c r="BR74" s="31"/>
       <c r="BS74" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT74" s="31"/>
       <c r="BU74" s="31"/>
       <c r="BV74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BW74" s="31"/>
       <c r="BX74" s="31"/>
       <c r="BY74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ74" s="31"/>
       <c r="CA74" s="31"/>
       <c r="CB74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC74" s="31"/>
       <c r="CD74" s="31"/>
       <c r="CE74" s="123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CF74" s="31"/>
       <c r="CG74" s="31"/>
       <c r="CH74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CI74" s="31"/>
       <c r="CJ74" s="31"/>
       <c r="CK74" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CL74" s="31"/>
       <c r="CM74" s="31"/>
       <c r="CN74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CO74" s="31"/>
       <c r="CP74" s="31"/>
       <c r="CQ74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CR74" s="31"/>
       <c r="CS74" s="31"/>
       <c r="CT74" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU74" s="31"/>
       <c r="CV74" s="31"/>
       <c r="CW74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CZ74" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DC74" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DF74" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>27</v>
@@ -27698,142 +27698,142 @@
       <c r="A80"/>
       <c r="D80"/>
       <c r="E80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q80" s="106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF80" s="106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI80" s="106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AR80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AU80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AX80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BA80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BD80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BG80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BJ80" s="106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BM80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BN80" s="31"/>
       <c r="BO80" s="31"/>
       <c r="BP80" s="106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ80" s="31"/>
       <c r="BR80" s="31"/>
       <c r="BS80" s="117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BT80" s="31"/>
       <c r="BU80" s="31"/>
       <c r="BV80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW80" s="31"/>
       <c r="BX80" s="31"/>
       <c r="BY80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BZ80" s="31"/>
       <c r="CA80" s="31"/>
       <c r="CB80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CC80" s="31"/>
       <c r="CD80" s="31"/>
       <c r="CE80" s="123" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF80" s="31"/>
       <c r="CG80" s="31"/>
       <c r="CH80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI80" s="31"/>
       <c r="CJ80" s="31"/>
       <c r="CK80" s="117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL80" s="31"/>
       <c r="CM80" s="31"/>
       <c r="CN80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CO80" s="31"/>
       <c r="CP80" s="31"/>
       <c r="CQ80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CR80" s="31"/>
       <c r="CS80" s="31"/>
       <c r="CT80" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CU80" s="31"/>
       <c r="CV80" s="31"/>
       <c r="CW80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CZ80" s="117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DC80" s="117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DF80" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E81" s="50" t="s">
         <v>9</v>
@@ -27906,7 +27906,7 @@
       <c r="AS81" s="31"/>
       <c r="AT81" s="31"/>
       <c r="AU81" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AV81" s="31"/>
       <c r="AW81" s="31"/>
@@ -27931,7 +27931,7 @@
       <c r="BH81" s="31"/>
       <c r="BI81" s="31"/>
       <c r="BJ81" s="104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BK81" s="31"/>
       <c r="BL81" s="31"/>
@@ -28179,7 +28179,7 @@
         <v>16</v>
       </c>
       <c r="DF82" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:110" x14ac:dyDescent="0.35">
@@ -28206,7 +28206,7 @@
       <c r="O83" s="31"/>
       <c r="P83" s="31"/>
       <c r="Q83" s="104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
@@ -28231,12 +28231,12 @@
       <c r="AD83" s="31"/>
       <c r="AE83" s="31"/>
       <c r="AF83" s="104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG83" s="31"/>
       <c r="AH83" s="31"/>
       <c r="AI83" s="104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AJ83" s="31"/>
       <c r="AK83" s="31"/>
@@ -28251,7 +28251,7 @@
       <c r="AP83" s="31"/>
       <c r="AQ83" s="31"/>
       <c r="AR83" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AS83" s="31"/>
       <c r="AT83" s="31"/>
@@ -28261,27 +28261,27 @@
       <c r="AV83" s="31"/>
       <c r="AW83" s="31"/>
       <c r="AX83" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY83" s="31"/>
       <c r="AZ83" s="31"/>
       <c r="BA83" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BB83" s="31"/>
       <c r="BC83" s="31"/>
       <c r="BD83" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BE83" s="31"/>
       <c r="BF83" s="31"/>
       <c r="BG83" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BH83" s="31"/>
       <c r="BI83" s="31"/>
       <c r="BJ83" s="104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BK83" s="31"/>
       <c r="BL83" s="31"/>
@@ -28291,7 +28291,7 @@
       <c r="BN83" s="31"/>
       <c r="BO83" s="31"/>
       <c r="BP83" s="104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BQ83" s="31"/>
       <c r="BR83" s="31"/>
@@ -28321,17 +28321,17 @@
       <c r="CF83" s="31"/>
       <c r="CG83" s="31"/>
       <c r="CH83" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CI83" s="31"/>
       <c r="CJ83" s="31"/>
       <c r="CK83" s="115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CL83" s="31"/>
       <c r="CM83" s="31"/>
       <c r="CN83" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CO83" s="31"/>
       <c r="CP83" s="31"/>
@@ -28362,22 +28362,22 @@
       <c r="A84"/>
       <c r="D84"/>
       <c r="E84" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
       <c r="K84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
       <c r="N84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O84" s="31"/>
       <c r="P84" s="31"/>
@@ -28387,22 +28387,22 @@
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
       <c r="T84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U84" s="31"/>
       <c r="V84" s="31"/>
       <c r="W84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA84" s="31"/>
       <c r="AB84" s="31"/>
       <c r="AC84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD84" s="31"/>
       <c r="AE84" s="31"/>
@@ -28417,12 +28417,12 @@
       <c r="AJ84" s="31"/>
       <c r="AK84" s="31"/>
       <c r="AL84" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AM84" s="31"/>
       <c r="AN84" s="31"/>
       <c r="AO84" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AP84" s="31"/>
       <c r="AQ84" s="31"/>
@@ -28462,7 +28462,7 @@
       <c r="BK84" s="31"/>
       <c r="BL84" s="31"/>
       <c r="BM84" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BN84" s="31"/>
       <c r="BO84" s="31"/>
@@ -28472,27 +28472,27 @@
       <c r="BQ84" s="31"/>
       <c r="BR84" s="31"/>
       <c r="BS84" s="115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BT84" s="31"/>
       <c r="BU84" s="31"/>
       <c r="BV84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BW84" s="31"/>
       <c r="BX84" s="31"/>
       <c r="BY84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BZ84" s="31"/>
       <c r="CA84" s="31"/>
       <c r="CB84" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CC84" s="31"/>
       <c r="CD84" s="31"/>
       <c r="CE84" s="121" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CF84" s="31"/>
       <c r="CG84" s="31"/>
@@ -28512,23 +28512,23 @@
       <c r="CO84" s="31"/>
       <c r="CP84" s="31"/>
       <c r="CQ84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CR84" s="31"/>
       <c r="CS84" s="31"/>
       <c r="CT84" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CU84" s="31"/>
       <c r="CV84" s="31"/>
       <c r="CW84" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CZ84" s="115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="DC84" s="115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="DF84" s="103" t="s">
         <v>23</v>
@@ -28642,142 +28642,142 @@
       <c r="A86"/>
       <c r="D86"/>
       <c r="E86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q86" s="106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AF86" s="106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AI86" s="106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AL86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AO86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AR86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AU86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AX86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BA86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BD86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BG86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BJ86" s="106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BM86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN86" s="31"/>
       <c r="BO86" s="31"/>
       <c r="BP86" s="106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BQ86" s="31"/>
       <c r="BR86" s="31"/>
       <c r="BS86" s="117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT86" s="31"/>
       <c r="BU86" s="31"/>
       <c r="BV86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BW86" s="31"/>
       <c r="BX86" s="31"/>
       <c r="BY86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BZ86" s="31"/>
       <c r="CA86" s="31"/>
       <c r="CB86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC86" s="31"/>
       <c r="CD86" s="31"/>
       <c r="CE86" s="123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CF86" s="31"/>
       <c r="CG86" s="31"/>
       <c r="CH86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CI86" s="31"/>
       <c r="CJ86" s="31"/>
       <c r="CK86" s="117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CL86" s="31"/>
       <c r="CM86" s="31"/>
       <c r="CN86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CO86" s="31"/>
       <c r="CP86" s="31"/>
       <c r="CQ86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CR86" s="31"/>
       <c r="CS86" s="31"/>
       <c r="CT86" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU86" s="31"/>
       <c r="CV86" s="31"/>
       <c r="CW86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CZ86" s="117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="DC86" s="117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="DF86" s="92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>26</v>
@@ -29114,13 +29114,13 @@
       <c r="CU88" s="31"/>
       <c r="CV88" s="31"/>
       <c r="CW88" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CZ88" s="115" t="s">
         <v>19</v>
       </c>
       <c r="DC88" s="115" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="DF88" s="103" t="s">
         <v>19</v>
@@ -29280,7 +29280,7 @@
       <c r="CO89" s="31"/>
       <c r="CP89" s="31"/>
       <c r="CQ89" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CR89" s="31"/>
       <c r="CS89" s="31"/>
@@ -29296,7 +29296,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29306,47 +29306,47 @@
       <c r="A90"/>
       <c r="D90"/>
       <c r="E90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
       <c r="H90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I90" s="31"/>
       <c r="J90" s="31"/>
       <c r="K90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L90" s="31"/>
       <c r="M90" s="31"/>
       <c r="N90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O90" s="31"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="104" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R90" s="31"/>
       <c r="S90" s="31"/>
       <c r="T90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U90" s="31"/>
       <c r="V90" s="31"/>
       <c r="W90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
       <c r="Z90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA90" s="31"/>
       <c r="AB90" s="31"/>
       <c r="AC90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AD90" s="31"/>
       <c r="AE90" s="31"/>
@@ -29356,102 +29356,102 @@
       <c r="AG90" s="31"/>
       <c r="AH90" s="31"/>
       <c r="AI90" s="104" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AJ90" s="31"/>
       <c r="AK90" s="31"/>
       <c r="AL90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AM90" s="31"/>
       <c r="AN90" s="31"/>
       <c r="AO90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AP90" s="31"/>
       <c r="AQ90" s="31"/>
       <c r="AR90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AS90" s="31"/>
       <c r="AT90" s="31"/>
       <c r="AU90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AV90" s="31"/>
       <c r="AW90" s="31"/>
       <c r="AX90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AY90" s="31"/>
       <c r="AZ90" s="31"/>
       <c r="BA90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BB90" s="31"/>
       <c r="BC90" s="31"/>
       <c r="BD90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BE90" s="31"/>
       <c r="BF90" s="31"/>
       <c r="BG90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BH90" s="31"/>
       <c r="BI90" s="31"/>
       <c r="BJ90" s="104" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BK90" s="31"/>
       <c r="BL90" s="31"/>
       <c r="BM90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BN90" s="31"/>
       <c r="BO90" s="31"/>
       <c r="BP90" s="104" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BQ90" s="31"/>
       <c r="BR90" s="31"/>
       <c r="BS90" s="115" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BT90" s="31"/>
       <c r="BU90" s="31"/>
       <c r="BV90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BW90" s="31"/>
       <c r="BX90" s="31"/>
       <c r="BY90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BZ90" s="31"/>
       <c r="CA90" s="31"/>
       <c r="CB90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CC90" s="31"/>
       <c r="CD90" s="31"/>
       <c r="CE90" s="121" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CF90" s="31"/>
       <c r="CG90" s="31"/>
       <c r="CH90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CI90" s="31"/>
       <c r="CJ90" s="31"/>
       <c r="CK90" s="115" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CL90" s="31"/>
       <c r="CM90" s="31"/>
       <c r="CN90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CO90" s="31"/>
       <c r="CP90" s="31"/>
@@ -29461,7 +29461,7 @@
       <c r="CR90" s="31"/>
       <c r="CS90" s="31"/>
       <c r="CT90" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CU90" s="31"/>
       <c r="CV90" s="31"/>
@@ -29469,13 +29469,13 @@
         <v>19</v>
       </c>
       <c r="CZ90" s="115" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DF90" s="103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:110" x14ac:dyDescent="0.35">
@@ -29495,7 +29495,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29557,7 +29557,7 @@
     </row>
     <row r="93" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D93" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E93" s="103" t="s">
         <v>27</v>
@@ -29613,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29655,7 +29655,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29675,7 +29675,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29699,149 +29699,149 @@
     </row>
     <row r="94" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D94" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="K94" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="H94" s="103" t="s">
+      <c r="N94" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="K94" s="107" t="s">
+      <c r="Q94" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>108</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>110</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AI94" s="110" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D95" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E95" s="103">
         <v>142</v>
@@ -29984,7 +29984,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30032,14 +30032,14 @@
       </c>
       <c r="AP96" s="93"/>
       <c r="AR96" s="95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AU96" s="95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30080,7 +30080,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30110,7 +30110,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30129,7 +30129,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30470,10 +30470,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36822,23 +36822,23 @@
     <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="str">
         <f>Resultat!E47</f>
-        <v>2D</v>
+        <v>Frankrike</v>
       </c>
       <c r="B42" s="19" t="str">
         <f>Kuponger!D43</f>
-        <v>2E</v>
+        <v>Belgien</v>
       </c>
       <c r="C42">
         <f>IF(AND(Resultat!$H47&lt;&gt;"",Kuponger!E43&lt;&gt;""),IF(Resultat!$H47=Kuponger!E43,1,0),0) + IF(AND(Resultat!$I47&lt;&gt;"",Kuponger!F43&lt;&gt;"",Resultat!$K47&lt;&gt;"",Kuponger!G43&lt;&gt;""),IF(AND(Resultat!$I47=Kuponger!F43,Resultat!$K47=Kuponger!G43),3,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(A42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(A42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(A42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(B42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(B42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(B42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(C42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(C42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(C42))=Resultat!$H47),1,0)</f>
@@ -36846,23 +36846,23 @@
       </c>
       <c r="G42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(D42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(D42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(D42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(E42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(E42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(E42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(F42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(F42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(F42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(G42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(G42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(G42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(H42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(H42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(H42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(I42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(I42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(I42))=Resultat!$H47),1,0)</f>
@@ -36870,15 +36870,15 @@
       </c>
       <c r="M42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(J42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(J42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(J42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(K42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(K42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(K42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(L42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(L42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(L42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(M42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(M42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(M42))=Resultat!$H47),1,0)</f>
@@ -36890,19 +36890,19 @@
       </c>
       <c r="R42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(O42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(O42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(O42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(P42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(P42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(P42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(Q42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(Q42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(Q42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(R42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(R42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(R42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(S42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(S42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(S42))=Resultat!$H47),1,0)</f>
@@ -36918,11 +36918,11 @@
       </c>
       <c r="Y42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(V42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(V42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(V42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(W42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(W42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(W42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(X42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(X42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(X42))=Resultat!$H47),1,0)</f>
@@ -36930,31 +36930,31 @@
       </c>
       <c r="AB42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(Y42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(Y42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(Y42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(Z42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(Z42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(Z42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AA42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AA42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AA42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AB42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AB42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AB42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AC42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AC42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AC42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AD42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AD42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AD42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AE42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AE42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AE42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AF42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AF42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AF42))=Resultat!$H47),1,0)</f>
@@ -36962,15 +36962,15 @@
       </c>
       <c r="AJ42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AG42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AG42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AG42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AH42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AH42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AH42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42">
         <f ca="1">IF(AND(Resultat!$I47&lt;&gt;"",OFFSET(Kuponger!$F43,0,3*COLUMN(AI42))=Resultat!$I47,OFFSET(Kuponger!$G43,0,3*COLUMN(AI42))=Resultat!$K47),3,0) + IF(AND(Resultat!$H47&lt;&gt;"",OFFSET(Kuponger!$E43,0,3*COLUMN(AI42))=Resultat!$H47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.35">
@@ -38515,7 +38515,7 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" cm="1">
@@ -38666,7 +38666,7 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" cm="1">
@@ -38817,7 +38817,7 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" cm="1">
@@ -38968,7 +38968,7 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" cm="1">
@@ -39119,7 +39119,7 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" cm="1">
@@ -39270,7 +39270,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" cm="1">
@@ -39421,7 +39421,7 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59">
@@ -39571,7 +39571,7 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60">
@@ -39721,7 +39721,7 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61">
@@ -39871,7 +39871,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40021,19 +40021,19 @@
     </row>
     <row r="63" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40041,23 +40041,23 @@
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40065,15 +40065,15 @@
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40085,19 +40085,19 @@
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40113,11 +40113,11 @@
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40125,31 +40125,31 @@
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40157,15 +40157,15 @@
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4CD6DE5-77E6-4ABB-96D9-59876F68201B}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{573BCB24-9FC4-4691-B23C-2A26C89FD924}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="149">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>Gruppspel</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>3A/B/C</t>
   </si>
   <si>
     <t>1D</t>
@@ -2050,7 +2044,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>58</c:v>
@@ -2071,10 +2065,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>38</c:v>
@@ -2086,7 +2080,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>40</c:v>
@@ -3383,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A13" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3422,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -3451,7 +3445,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>1</v>
@@ -3468,10 +3462,10 @@
       <c r="F6" s="129"/>
       <c r="G6" s="130"/>
       <c r="H6" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="138" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J6" s="129"/>
       <c r="K6" s="130"/>
@@ -3484,7 +3478,7 @@
         <v>45457</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="59">
         <v>0.875</v>
@@ -3535,7 +3529,7 @@
         <v>45458</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="59">
         <v>0.625</v>
@@ -3566,7 +3560,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O8" s="79" t="s">
         <v>22</v>
@@ -3586,7 +3580,7 @@
         <v>45458</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="59">
         <v>0.75</v>
@@ -3607,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K9" s="66">
         <v>0</v>
@@ -3628,7 +3622,7 @@
         <v>23</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -3639,7 +3633,7 @@
         <v>45458</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="59">
         <v>0.875</v>
@@ -3651,7 +3645,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="63">
         <v>1</v>
@@ -3660,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K10" s="66">
         <v>1</v>
@@ -3672,13 +3666,13 @@
         <v>5</v>
       </c>
       <c r="N10" s="86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>12</v>
       </c>
       <c r="P10" s="86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="80" t="s">
         <v>26</v>
@@ -3692,7 +3686,7 @@
         <v>45459</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="59">
         <v>0.625</v>
@@ -3713,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K11" s="66">
         <v>2</v>
@@ -3722,7 +3716,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N11" s="87" t="s">
         <v>10</v>
@@ -3745,13 +3739,13 @@
         <v>45459</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="59">
         <v>0.75</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>29</v>
@@ -3760,13 +3754,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" s="64">
         <v>1</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K12" s="66">
         <v>1</v>
@@ -3780,13 +3774,13 @@
         <v>45459</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="59">
         <v>0.875</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>29</v>
@@ -3801,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K13" s="66">
         <v>1</v>
@@ -3815,13 +3809,13 @@
         <v>45460</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="59">
         <v>0.625</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>29</v>
@@ -3836,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K14" s="66">
         <v>0</v>
@@ -3850,7 +3844,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="59">
         <v>0.75</v>
@@ -3871,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K15" s="66">
         <v>1</v>
@@ -3885,7 +3879,7 @@
         <v>45460</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="59">
         <v>0.875</v>
@@ -3906,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K16" s="66">
         <v>1</v>
@@ -3920,7 +3914,7 @@
         <v>45461</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="59">
         <v>0.75</v>
@@ -3932,7 +3926,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H17" s="63">
         <v>1</v>
@@ -3941,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K17" s="66">
         <v>1</v>
@@ -3955,7 +3949,7 @@
         <v>45461</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="59">
         <v>0.875</v>
@@ -3976,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K18" s="66">
         <v>1</v>
@@ -3990,7 +3984,7 @@
         <v>45462</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="59">
         <v>0.625</v>
@@ -4002,16 +3996,16 @@
         <v>29</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I19" s="64">
         <v>2</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K19" s="66">
         <v>2</v>
@@ -4025,7 +4019,7 @@
         <v>45462</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="59">
         <v>0.75</v>
@@ -4046,7 +4040,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K20" s="66">
         <v>0</v>
@@ -4060,7 +4054,7 @@
         <v>45462</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="59">
         <v>0.875</v>
@@ -4075,13 +4069,13 @@
         <v>7</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I21" s="64">
         <v>1</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K21" s="66">
         <v>1</v>
@@ -4095,28 +4089,28 @@
         <v>45463</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="59">
         <v>0.625</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I22" s="64">
         <v>1</v>
       </c>
       <c r="J22" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K22" s="66">
         <v>1</v>
@@ -4130,7 +4124,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="59">
         <v>0.75</v>
@@ -4145,13 +4139,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I23" s="64">
         <v>1</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K23" s="66">
         <v>1</v>
@@ -4165,7 +4159,7 @@
         <v>45463</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="59">
         <v>0.875</v>
@@ -4186,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K24" s="66">
         <v>0</v>
@@ -4200,7 +4194,7 @@
         <v>45464</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="59">
         <v>0.625</v>
@@ -4221,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K25" s="66">
         <v>2</v>
@@ -4235,7 +4229,7 @@
         <v>45464</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="59">
         <v>0.75</v>
@@ -4256,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K26" s="66">
         <v>3</v>
@@ -4270,7 +4264,7 @@
         <v>45464</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="59">
         <v>0.875</v>
@@ -4285,13 +4279,13 @@
         <v>27</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I27" s="64">
         <v>0</v>
       </c>
       <c r="J27" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K27" s="66">
         <v>0</v>
@@ -4305,13 +4299,13 @@
         <v>45465</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="59">
         <v>0.625</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" s="61" t="s">
         <v>29</v>
@@ -4320,7 +4314,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I28" s="64">
         <v>1</v>
@@ -4338,7 +4332,7 @@
         <v>45465</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="59">
         <v>0.75</v>
@@ -4359,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K29" s="66">
         <v>3</v>
@@ -4373,7 +4367,7 @@
         <v>45465</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="59">
         <v>0.875</v>
@@ -4385,7 +4379,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="63">
         <v>1</v>
@@ -4394,7 +4388,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K30" s="66">
         <v>0</v>
@@ -4408,7 +4402,7 @@
         <v>45466</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="59">
         <v>0.875</v>
@@ -4423,13 +4417,13 @@
         <v>7</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I31" s="64">
         <v>1</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K31" s="66">
         <v>1</v>
@@ -4443,7 +4437,7 @@
         <v>45466</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" s="59">
         <v>0.875</v>
@@ -4464,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K32" s="66">
         <v>1</v>
@@ -4478,7 +4472,7 @@
         <v>45467</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="59">
         <v>0.875</v>
@@ -4493,13 +4487,13 @@
         <v>5</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I33" s="64">
         <v>1</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K33" s="66">
         <v>1</v>
@@ -4513,13 +4507,13 @@
         <v>45467</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="59">
         <v>0.875</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F34" s="61" t="s">
         <v>29</v>
@@ -4534,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K34" s="66">
         <v>1</v>
@@ -4548,7 +4542,7 @@
         <v>45468</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="59">
         <v>0.75</v>
@@ -4569,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K35" s="66">
         <v>3</v>
@@ -4583,7 +4577,7 @@
         <v>45468</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D36" s="59">
         <v>0.75</v>
@@ -4598,13 +4592,13 @@
         <v>22</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I36" s="64">
         <v>1</v>
       </c>
       <c r="J36" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K36" s="66">
         <v>1</v>
@@ -4618,7 +4612,7 @@
         <v>45468</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" s="59">
         <v>0.875</v>
@@ -4630,16 +4624,16 @@
         <v>29</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I37" s="64">
         <v>0</v>
       </c>
       <c r="J37" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K37" s="66">
         <v>0</v>
@@ -4653,7 +4647,7 @@
         <v>45468</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" s="59">
         <v>0.875</v>
@@ -4665,16 +4659,16 @@
         <v>29</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I38" s="64">
         <v>0</v>
       </c>
       <c r="J38" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K38" s="66">
         <v>0</v>
@@ -4688,7 +4682,7 @@
         <v>45469</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="59">
         <v>0.75</v>
@@ -4700,16 +4694,16 @@
         <v>29</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H39" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I39" s="64">
         <v>1</v>
       </c>
       <c r="J39" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K39" s="66">
         <v>1</v>
@@ -4723,7 +4717,7 @@
         <v>45469</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="59">
         <v>0.75</v>
@@ -4738,13 +4732,13 @@
         <v>9</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I40" s="64">
         <v>0</v>
       </c>
       <c r="J40" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K40" s="66">
         <v>0</v>
@@ -4758,7 +4752,7 @@
         <v>45469</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="59">
         <v>0.875</v>
@@ -4779,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K41" s="66">
         <v>2</v>
@@ -4793,13 +4787,13 @@
         <v>45469</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="59">
         <v>0.875</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" s="61" t="s">
         <v>29</v>
@@ -4814,13 +4808,13 @@
         <v>2</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K42" s="66">
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="12"/>
@@ -4833,7 +4827,7 @@
         <v>45472</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43" s="59">
         <v>0.75</v>
@@ -4845,7 +4839,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
@@ -4854,13 +4848,13 @@
         <v>2</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K43" s="66">
         <v>0</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N43" s="97"/>
       <c r="O43" s="98"/>
@@ -4873,7 +4867,7 @@
         <v>45472</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" s="59">
         <v>0.875</v>
@@ -4897,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N44" s="100"/>
       <c r="O44" s="101"/>
@@ -4910,7 +4904,7 @@
         <v>45473</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" s="59">
         <v>0.75</v>
@@ -4925,19 +4919,19 @@
         <v>23</v>
       </c>
       <c r="H45" s="68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I45" s="64">
         <v>1</v>
       </c>
       <c r="J45" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K45" s="66">
         <v>1</v>
       </c>
       <c r="M45" s="99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -4950,7 +4944,7 @@
         <v>45473</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="59">
         <v>0.875</v>
@@ -4962,7 +4956,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H46" s="68">
         <v>1</v>
@@ -4971,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K46" s="66">
         <v>1</v>
@@ -4985,7 +4979,7 @@
         <v>45474</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D47" s="59">
         <v>0.75</v>
@@ -5006,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K47" s="66">
         <v>0</v>
@@ -5020,26 +5014,32 @@
         <v>45474</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D48" s="59">
         <v>0.875</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F48" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="68"/>
-      <c r="I48" s="64"/>
+        <v>78</v>
+      </c>
+      <c r="H48" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="64">
+        <v>0</v>
+      </c>
       <c r="J48" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="K48" s="66"/>
+        <v>76</v>
+      </c>
+      <c r="K48" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="57">
@@ -5049,24 +5049,24 @@
         <v>45475</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" s="59">
         <v>0.75</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H49" s="68"/>
       <c r="I49" s="64"/>
       <c r="J49" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K49" s="66"/>
     </row>
@@ -5078,24 +5078,24 @@
         <v>45475</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" s="59">
         <v>0.875</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G50" s="60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50" s="68"/>
       <c r="I50" s="64"/>
       <c r="J50" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K50" s="66"/>
     </row>
@@ -5107,22 +5107,22 @@
         <v>45478</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D51" s="59">
         <v>0.75</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F51" s="69"/>
       <c r="G51" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="64"/>
       <c r="J51" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K51" s="66"/>
     </row>
@@ -5134,22 +5134,22 @@
         <v>45478</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D52" s="59">
         <v>0.875</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="64"/>
       <c r="J52" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K52" s="66"/>
     </row>
@@ -5161,22 +5161,22 @@
         <v>45479</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D53" s="59">
         <v>0.75</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F53" s="69"/>
       <c r="G53" s="60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="64"/>
       <c r="J53" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K53" s="66"/>
     </row>
@@ -5188,22 +5188,22 @@
         <v>45479</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D54" s="59">
         <v>0.875</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F54" s="69"/>
       <c r="G54" s="60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="64"/>
       <c r="J54" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K54" s="66"/>
     </row>
@@ -5215,22 +5215,22 @@
         <v>45482</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D55" s="59">
         <v>0.875</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="64"/>
       <c r="J55" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K55" s="66"/>
     </row>
@@ -5242,22 +5242,22 @@
         <v>45483</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D56" s="59">
         <v>0.875</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F56" s="69"/>
       <c r="G56" s="60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="64"/>
       <c r="J56" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K56" s="66"/>
     </row>
@@ -5269,22 +5269,22 @@
         <v>45487</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D57" s="72">
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
       <c r="J57" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K57" s="78"/>
     </row>
@@ -5305,7 +5305,7 @@
       <c r="D60" s="2"/>
       <c r="I60" s="44"/>
       <c r="J60" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -5313,7 +5313,7 @@
       <c r="C61" s="1"/>
       <c r="I61" s="44"/>
       <c r="J61" s="45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -5321,7 +5321,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="I62" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J62" s="46" t="s">
         <v>25</v>
@@ -5334,7 +5334,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="I63" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J63" s="46" t="s">
         <v>7</v>
@@ -5347,7 +5347,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="I64" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J64" s="47" t="s">
         <v>28</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I65" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J65" s="47" t="s">
         <v>18</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I68" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J68" s="46" t="s">
         <v>21</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I69" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J69" s="46" t="s">
         <v>5</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I70" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J70" s="47" t="s">
         <v>11</v>
@@ -5410,13 +5410,13 @@
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I71" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K71" s="79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.35">
@@ -5429,18 +5429,18 @@
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I74" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J74" s="47" t="s">
         <v>10</v>
       </c>
       <c r="K74" s="79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I75" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J75" s="47" t="s">
         <v>8</v>
@@ -5451,21 +5451,21 @@
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I76" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K76" s="79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I77" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J77" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K77" s="79" t="s">
         <v>10</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I80" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J80" s="47" t="s">
         <v>12</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I81" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J81" s="47" t="s">
         <v>27</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="82" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I82" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J82" s="47" t="s">
         <v>30</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="83" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I83" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J83" s="47" t="s">
         <v>22</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I86" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J86" s="47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K86" s="79" t="s">
         <v>9</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I87" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J87" s="47" t="s">
         <v>9</v>
@@ -5555,18 +5555,18 @@
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I88" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J88" s="47" t="s">
         <v>23</v>
       </c>
       <c r="K88" s="79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I89" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J89" s="47" t="s">
         <v>16</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I92" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J92" s="47" t="s">
         <v>26</v>
@@ -5598,21 +5598,21 @@
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I93" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J93" s="47" t="s">
         <v>4</v>
       </c>
       <c r="K93" s="79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I94" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J94" s="47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K94" s="79" t="s">
         <v>26</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="95" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I95" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J95" s="47" t="s">
         <v>19</v>
@@ -5676,7 +5676,7 @@
   <dimension ref="A1:DM98"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AP103" sqref="AP103"/>
     </sheetView>
   </sheetViews>
@@ -5733,182 +5733,182 @@
       <c r="C1" s="148"/>
       <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" s="142"/>
       <c r="G1" s="143"/>
       <c r="H1" s="144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
       <c r="N1" s="141" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O1" s="142"/>
       <c r="P1" s="143"/>
       <c r="Q1" s="141" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R1" s="142"/>
       <c r="S1" s="143"/>
       <c r="T1" s="144" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U1" s="144"/>
       <c r="V1" s="144"/>
       <c r="W1" s="141" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
       <c r="AF1" s="141" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="142"/>
       <c r="AH1" s="143"/>
       <c r="AI1" s="141" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AJ1" s="142"/>
       <c r="AK1" s="143"/>
       <c r="AL1" s="141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
       <c r="AU1" s="141" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
       <c r="BP1" s="139" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BQ1" s="139"/>
       <c r="BR1" s="139"/>
       <c r="BS1" s="139" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BT1" s="139"/>
       <c r="BU1" s="139"/>
       <c r="BV1" s="139" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BW1" s="139"/>
       <c r="BX1" s="139"/>
       <c r="BY1" s="139" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BZ1" s="139"/>
       <c r="CA1" s="139"/>
       <c r="CB1" s="139" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CC1" s="139"/>
       <c r="CD1" s="139"/>
       <c r="CE1" s="139" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="CF1" s="139"/>
       <c r="CG1" s="139"/>
       <c r="CH1" s="139" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="CI1" s="139"/>
       <c r="CJ1" s="139"/>
       <c r="CK1" s="139" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CL1" s="139"/>
       <c r="CM1" s="139"/>
       <c r="CN1" s="139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CO1" s="139"/>
       <c r="CP1" s="139"/>
       <c r="CQ1" s="139" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="CR1" s="139"/>
       <c r="CS1" s="139"/>
       <c r="CT1" s="139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="CU1" s="139"/>
       <c r="CV1" s="139"/>
       <c r="CW1" s="140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="CX1" s="139"/>
       <c r="CY1" s="139"/>
       <c r="CZ1" s="139" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="DA1" s="139"/>
       <c r="DB1" s="139"/>
       <c r="DC1" s="139" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="DD1" s="139"/>
       <c r="DE1" s="139"/>
       <c r="DF1" s="139" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="DG1" s="139"/>
       <c r="DH1" s="139"/>
@@ -5919,337 +5919,337 @@
       <c r="C2" s="6"/>
       <c r="D2" s="16"/>
       <c r="E2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="K2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="N2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="Q2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="T2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="W2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="Z2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="AC2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="AF2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="AI2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="AL2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AM2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="AO2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AP2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="AR2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT2" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="AU2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="AX2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AY2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BA2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BD2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BE2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BG2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BH2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BJ2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BK2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BL2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BM2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BN2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BO2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BP2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BQ2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BQ2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BR2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BS2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BT2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BT2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BU2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BV2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BW2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BW2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BX2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="BY2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BZ2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CA2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BZ2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CA2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CB2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="CC2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CD2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CC2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CD2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CE2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="CF2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CG2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CF2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CG2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CH2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJ2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CI2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CJ2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CK2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="CL2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CM2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CL2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CM2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CN2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="CO2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CP2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CO2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CP2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CQ2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="CR2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CR2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CS2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CT2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="CU2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CV2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CU2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CV2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CW2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="CX2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CY2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CX2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="CY2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="CZ2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="DA2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="DB2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="DA2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="DB2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="DC2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="DD2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="DE2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="DD2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="DE2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="DF2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="DG2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="DH2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="DG2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="DH2" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="DI2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="DJ2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="DK2" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="DJ2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="DK2" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:117" x14ac:dyDescent="0.35">
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="BJ3" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK3" s="22">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U4" s="17">
         <v>0</v>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="AL4" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM4" s="22">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="BJ4" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK4" s="22">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN4" s="22">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="BV4" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW4" s="22">
         <v>1</v>
@@ -6849,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="CE4" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF4" s="22">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="CH4" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI4" s="22">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="CK4" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL4" s="22">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="CN4" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CO4" s="22">
         <v>1</v>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="22">
         <v>1</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O5" s="23">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U5" s="17">
         <v>1</v>
@@ -7033,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD5" s="22">
         <v>2</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS5" s="22">
         <v>1</v>
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="AU5" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV5" s="22">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="AX5" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY5" s="22">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="BD5" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE5" s="22">
         <v>1</v>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="BG5" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH5" s="22">
         <v>1</v>
@@ -7132,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="BJ5" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK5" s="22">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ5" s="22">
         <v>1</v>
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="BS5" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT5" s="22">
         <v>2</v>
@@ -7195,7 +7195,7 @@
         <v>2</v>
       </c>
       <c r="CE5" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF5" s="22">
         <v>2</v>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="CT5" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU5" s="22">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="CW5" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX5" s="22">
         <v>1</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA6" s="22">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV6" s="22">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK6" s="22">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM7" s="22">
         <v>1</v>
@@ -7824,7 +7824,7 @@
         <v>2</v>
       </c>
       <c r="BJ7" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK7" s="22">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="CT7" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU7" s="22">
         <v>1</v>
@@ -8170,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="BJ8" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK8" s="22">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="BY8" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BZ8" s="22">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="CB8" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC8" s="22">
         <v>2</v>
@@ -8296,7 +8296,7 @@
         <v>2</v>
       </c>
       <c r="CZ8" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA8" s="22">
         <v>1</v>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="DC8" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DD8" s="22">
         <v>1</v>
@@ -8516,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="BJ9" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK9" s="22">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN9" s="22">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" s="22">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L10" s="22">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U10" s="17">
         <v>1</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA10" s="22">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ10" s="20">
         <v>1</v>
@@ -8790,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM10" s="22">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV10" s="22">
         <v>1</v>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="AX10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY10" s="22">
         <v>1</v>
@@ -8835,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="BA10" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB10" s="20">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE10" s="22">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH10" s="22">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK10" s="22">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN10" s="22">
         <v>1</v>
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="BP10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ10" s="22">
         <v>1</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="BS10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT10" s="22">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="CB10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC10" s="22">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="CE10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF10" s="22">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="CH10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI10" s="22">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="CK10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL10" s="22">
         <v>0</v>
@@ -8961,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="CQ10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CR10" s="22">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="CT10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU10" s="22">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="CW10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX10" s="22">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="DC10" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DD10" s="22">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="DF10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="DG10" s="22">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK11" s="22">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="BJ12" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK12" s="22">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN12" s="22">
         <v>1</v>
@@ -9662,7 +9662,7 @@
         <v>2</v>
       </c>
       <c r="CT12" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU12" s="22">
         <v>2</v>
@@ -9671,7 +9671,7 @@
         <v>2</v>
       </c>
       <c r="CW12" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX12" s="22">
         <v>1</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD13" s="22">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ13" s="20">
         <v>1</v>
@@ -9891,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH13" s="22">
         <v>1</v>
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="BJ13" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK13" s="22">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="CW13" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX13" s="22">
         <v>2</v>
@@ -10026,7 +10026,7 @@
         <v>2</v>
       </c>
       <c r="CZ13" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA13" s="22">
         <v>0</v>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM14" s="22">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK14" s="22">
         <v>0</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV15" s="22">
         <v>2</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK15" s="22">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK16" s="22">
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>Schweiz</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="22">
         <v>1</v>
@@ -11140,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O17" s="23">
         <v>1</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U17" s="17">
         <v>1</v>
@@ -11185,7 +11185,7 @@
         <v>2</v>
       </c>
       <c r="AC17" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD17" s="22">
         <v>2</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV17" s="22">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="BA17" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB17" s="20">
         <v>1</v>
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="BD17" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE17" s="22">
         <v>2</v>
@@ -11284,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="BJ17" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK17" s="22">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN17" s="22">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="BP17" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ17" s="22">
         <v>0</v>
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="CH17" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI17" s="22">
         <v>2</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="CK17" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL17" s="22">
         <v>2</v>
@@ -11410,7 +11410,7 @@
         <v>2</v>
       </c>
       <c r="CZ17" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA17" s="22">
         <v>1</v>
@@ -11419,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="DC17" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DD17" s="22">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>Serbien</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="22">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L18" s="22">
         <v>2</v>
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD18" s="22">
         <v>1</v>
@@ -11549,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="AI18" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ18" s="20">
         <v>1</v>
@@ -11567,7 +11567,7 @@
         <v>2</v>
       </c>
       <c r="AO18" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AP18" s="18">
         <v>1</v>
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="AR18" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS18" s="22">
         <v>1</v>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="AU18" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV18" s="22">
         <v>1</v>
@@ -11621,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="BG18" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH18" s="22">
         <v>1</v>
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="BJ18" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK18" s="22">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN18" s="22">
         <v>0</v>
@@ -11675,7 +11675,7 @@
         <v>2</v>
       </c>
       <c r="BY18" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BZ18" s="22">
         <v>2</v>
@@ -11702,7 +11702,7 @@
         <v>2</v>
       </c>
       <c r="CH18" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI18" s="22">
         <v>2</v>
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="CK18" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL18" s="22">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>2</v>
       </c>
       <c r="CQ18" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CR18" s="22">
         <v>1</v>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="CW18" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX18" s="22">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="DC18" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DD18" s="22">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="DF18" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="DG18" s="22">
         <v>2</v>
@@ -11805,7 +11805,7 @@
         <v>England</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="22">
         <v>1</v>
@@ -11823,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L19" s="22">
         <v>1</v>
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O19" s="23">
         <v>2</v>
@@ -11877,7 +11877,7 @@
         <v>3</v>
       </c>
       <c r="AC19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD19" s="22">
         <v>2</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM19" s="22">
         <v>2</v>
@@ -11922,7 +11922,7 @@
         <v>2</v>
       </c>
       <c r="AR19" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS19" s="22">
         <v>1</v>
@@ -11958,7 +11958,7 @@
         <v>2</v>
       </c>
       <c r="BD19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE19" s="22">
         <v>1</v>
@@ -11976,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="BJ19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK19" s="22">
         <v>0</v>
@@ -12012,7 +12012,7 @@
         <v>3</v>
       </c>
       <c r="BV19" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW19" s="22">
         <v>2</v>
@@ -12039,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="CE19" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF19" s="22">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="CQ19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CR19" s="22">
         <v>1</v>
@@ -12084,7 +12084,7 @@
         <v>2</v>
       </c>
       <c r="CT19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU19" s="22">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="CW19" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX19" s="22">
         <v>2</v>
@@ -12151,7 +12151,7 @@
         <v>Italien</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="22">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O20" s="23">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X20" s="22">
         <v>1</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AG20" s="22">
         <v>2</v>
@@ -12259,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="AO20" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AP20" s="18">
         <v>2</v>
@@ -12295,7 +12295,7 @@
         <v>2</v>
       </c>
       <c r="BA20" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB20" s="20">
         <v>2</v>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH20" s="22">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK20" s="22">
         <v>0</v>
@@ -12340,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="BP20" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ20" s="22">
         <v>1</v>
@@ -12358,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="BV20" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW20" s="22">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="CE20" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF20" s="22">
         <v>3</v>
@@ -12412,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="CN20" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CO20" s="22">
         <v>1</v>
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="CZ20" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA20" s="22">
         <v>1</v>
@@ -12497,7 +12497,7 @@
         <v>Ukraina</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="22">
         <v>1</v>
@@ -12587,7 +12587,7 @@
         <v>2</v>
       </c>
       <c r="AI21" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ21" s="20">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="AO21" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AP21" s="18">
         <v>1</v>
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS21" s="22">
         <v>1</v>
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="AU21" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV21" s="22">
         <v>1</v>
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="AX21" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY21" s="22">
         <v>1</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE21" s="22">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="BG21" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH21" s="22">
         <v>2</v>
@@ -12668,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="BJ21" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK21" s="22">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN21" s="22">
         <v>1</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="BS21" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT21" s="22">
         <v>1</v>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="BV21" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW21" s="22">
         <v>0</v>
@@ -12767,7 +12767,7 @@
         <v>2</v>
       </c>
       <c r="CQ21" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CR21" s="22">
         <v>1</v>
@@ -12794,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA21" s="22">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>2</v>
       </c>
       <c r="DF21" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="DG21" s="22">
         <v>0</v>
@@ -12852,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I22" s="22">
         <v>1</v>
@@ -12879,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R22" s="22">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD22" s="22">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>2</v>
       </c>
       <c r="AR22" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS22" s="22">
         <v>2</v>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="BJ22" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK22" s="22">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN22" s="22">
         <v>1</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="BV22" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW22" s="22">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="BY22" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BZ22" s="22">
         <v>1</v>
@@ -13104,7 +13104,7 @@
         <v>3</v>
       </c>
       <c r="CN22" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CO22" s="22">
         <v>1</v>
@@ -13131,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="CW22" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX22" s="22">
         <v>1</v>
@@ -13140,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="CZ22" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA22" s="22">
         <v>2</v>
@@ -13149,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="DC22" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DD22" s="22">
         <v>1</v>
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U23" s="17">
         <v>2</v>
@@ -13306,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="AR23" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS23" s="22">
         <v>1</v>
@@ -13315,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="AU23" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV23" s="22">
         <v>1</v>
@@ -13324,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="AX23" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY23" s="22">
         <v>2</v>
@@ -13333,7 +13333,7 @@
         <v>2</v>
       </c>
       <c r="BA23" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB23" s="20">
         <v>3</v>
@@ -13360,7 +13360,7 @@
         <v>3</v>
       </c>
       <c r="BJ23" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK23" s="22">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>3</v>
       </c>
       <c r="CH23" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI23" s="22">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="CZ23" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA23" s="22">
         <v>2</v>
@@ -13598,7 +13598,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA24" s="22">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM24" s="22">
         <v>1</v>
@@ -13706,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="BJ24" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK24" s="22">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>2</v>
       </c>
       <c r="CB24" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC24" s="22">
         <v>2</v>
@@ -13769,7 +13769,7 @@
         <v>2</v>
       </c>
       <c r="CE24" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF24" s="22">
         <v>1</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="CH24" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI24" s="22">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="CK24" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL24" s="22">
         <v>1</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA24" s="22">
         <v>1</v>
@@ -13980,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM25" s="22">
         <v>1</v>
@@ -14043,7 +14043,7 @@
         <v>2</v>
       </c>
       <c r="BG25" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH25" s="22">
         <v>2</v>
@@ -14052,7 +14052,7 @@
         <v>2</v>
       </c>
       <c r="BJ25" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK25" s="22">
         <v>0</v>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV26" s="22">
         <v>1</v>
@@ -14398,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK26" s="22">
         <v>0</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I27" s="22">
         <v>1</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O27" s="23">
         <v>2</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM27" s="22">
         <v>1</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK27" s="22">
         <v>0</v>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="CB27" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC27" s="22">
         <v>2</v>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="CQ27" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CR27" s="22">
         <v>2</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="CT27" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU27" s="22">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="CW27" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX27" s="22">
         <v>1</v>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I28" s="22">
         <v>1</v>
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U28" s="17">
         <v>1</v>
@@ -15009,7 +15009,7 @@
         <v>3</v>
       </c>
       <c r="AI28" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ28" s="20">
         <v>1</v>
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV28" s="22">
         <v>1</v>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB28" s="20">
         <v>1</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK28" s="22">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN28" s="22">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="BV28" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW28" s="22">
         <v>2</v>
@@ -15135,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="BY28" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BZ28" s="22">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="CE28" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF28" s="22">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="CH28" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI28" s="22">
         <v>1</v>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="CK28" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL28" s="22">
         <v>2</v>
@@ -15180,7 +15180,7 @@
         <v>2</v>
       </c>
       <c r="CN28" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CO28" s="22">
         <v>1</v>
@@ -15265,7 +15265,7 @@
         <v>Italien</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" s="22">
         <v>0</v>
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I29" s="22">
         <v>1</v>
@@ -15292,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O29" s="23">
         <v>1</v>
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U29" s="17">
         <v>2</v>
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA29" s="22">
         <v>0</v>
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="AO29" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AP29" s="18">
         <v>1</v>
@@ -15382,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="AR29" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS29" s="22">
         <v>1</v>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="AX29" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY29" s="22">
         <v>1</v>
@@ -15418,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="BD29" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE29" s="22">
         <v>0</v>
@@ -15436,7 +15436,7 @@
         <v>2</v>
       </c>
       <c r="BJ29" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK29" s="22">
         <v>0</v>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ29" s="22">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="BV29" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW29" s="22">
         <v>0</v>
@@ -15499,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="CE29" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF29" s="22">
         <v>1</v>
@@ -15544,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="CT29" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU29" s="22">
         <v>1</v>
@@ -15562,7 +15562,7 @@
         <v>2</v>
       </c>
       <c r="CZ29" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA29" s="22">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="DF29" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="DG29" s="22">
         <v>2</v>
@@ -15782,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="BJ30" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK30" s="22">
         <v>0</v>
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O31" s="23">
         <v>1</v>
@@ -16083,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV31" s="22">
         <v>0</v>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE31" s="22">
         <v>2</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK31" s="22">
         <v>0</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN31" s="22">
         <v>1</v>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="BV31" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW31" s="22">
         <v>1</v>
@@ -16236,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="CT31" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU31" s="22">
         <v>2</v>
@@ -16474,7 +16474,7 @@
         <v>1</v>
       </c>
       <c r="BJ32" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK32" s="22">
         <v>0</v>
@@ -16483,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN32" s="22">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK33" s="22">
         <v>0</v>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="CB33" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC33" s="22">
         <v>2</v>
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA34" s="22">
         <v>2</v>
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ34" s="20">
         <v>1</v>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM34" s="22">
         <v>1</v>
@@ -17112,7 +17112,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS34" s="22">
         <v>1</v>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY34" s="22">
         <v>2</v>
@@ -17139,7 +17139,7 @@
         <v>2</v>
       </c>
       <c r="BA34" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB34" s="20">
         <v>1</v>
@@ -17166,7 +17166,7 @@
         <v>2</v>
       </c>
       <c r="BJ34" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK34" s="22">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="BS34" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT34" s="22">
         <v>1</v>
@@ -17220,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="CB34" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC34" s="22">
         <v>1</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="CN34" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CO34" s="22">
         <v>1</v>
@@ -17292,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="CZ34" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA34" s="22">
         <v>1</v>
@@ -17377,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R35" s="22">
         <v>1</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U35" s="17">
         <v>0</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD35" s="22">
         <v>1</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV35" s="22">
         <v>2</v>
@@ -17476,7 +17476,7 @@
         <v>2</v>
       </c>
       <c r="AX35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY35" s="22">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB35" s="20">
         <v>2</v>
@@ -17512,7 +17512,7 @@
         <v>2</v>
       </c>
       <c r="BJ35" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK35" s="22">
         <v>0</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ35" s="22">
         <v>1</v>
@@ -17539,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="BS35" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT35" s="22">
         <v>1</v>
@@ -17557,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="BY35" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BZ35" s="22">
         <v>1</v>
@@ -17575,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="CE35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CF35" s="22">
         <v>0</v>
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="CK35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL35" s="22">
         <v>0</v>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="CN35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CO35" s="22">
         <v>1</v>
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="CT35" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU35" s="22">
         <v>1</v>
@@ -17629,7 +17629,7 @@
         <v>1</v>
       </c>
       <c r="CW35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX35" s="22">
         <v>1</v>
@@ -17638,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="CZ35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA35" s="22">
         <v>2</v>
@@ -17849,7 +17849,7 @@
         <v>5</v>
       </c>
       <c r="BG36" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH36" s="22">
         <v>2</v>
@@ -17858,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="BJ36" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK36" s="22">
         <v>0</v>
@@ -17984,7 +17984,7 @@
         <v>3</v>
       </c>
       <c r="CZ36" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA36" s="22">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>Turkiet</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F37" s="22">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>2</v>
       </c>
       <c r="AC37" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD37" s="22">
         <v>1</v>
@@ -18150,7 +18150,7 @@
         <v>2</v>
       </c>
       <c r="AR37" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS37" s="22">
         <v>1</v>
@@ -18177,7 +18177,7 @@
         <v>2</v>
       </c>
       <c r="BA37" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB37" s="20">
         <v>0</v>
@@ -18204,7 +18204,7 @@
         <v>2</v>
       </c>
       <c r="BJ37" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK37" s="22">
         <v>0</v>
@@ -18231,7 +18231,7 @@
         <v>0</v>
       </c>
       <c r="BS37" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT37" s="22">
         <v>2</v>
@@ -18240,7 +18240,7 @@
         <v>2</v>
       </c>
       <c r="BV37" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW37" s="22">
         <v>1</v>
@@ -18276,7 +18276,7 @@
         <v>3</v>
       </c>
       <c r="CH37" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CI37" s="22">
         <v>1</v>
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="CN37" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CO37" s="22">
         <v>1</v>
@@ -18321,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="CW37" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX37" s="22">
         <v>1</v>
@@ -18339,7 +18339,7 @@
         <v>2</v>
       </c>
       <c r="DC37" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DD37" s="22">
         <v>2</v>
@@ -18348,7 +18348,7 @@
         <v>2</v>
       </c>
       <c r="DF37" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="DG37" s="22">
         <v>1</v>
@@ -18550,7 +18550,7 @@
         <v>3</v>
       </c>
       <c r="BJ38" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK38" s="22">
         <v>0</v>
@@ -18734,7 +18734,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I39" s="22">
         <v>1</v>
@@ -18896,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="BJ39" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK39" s="22">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ39" s="22">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>2</v>
       </c>
       <c r="CT39" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU39" s="22">
         <v>1</v>
@@ -19161,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ40" s="20">
         <v>1</v>
@@ -19188,7 +19188,7 @@
         <v>1</v>
       </c>
       <c r="AR40" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS40" s="22">
         <v>1</v>
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK40" s="22">
         <v>0</v>
@@ -19251,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN40" s="22">
         <v>1</v>
@@ -19350,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="CT40" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU40" s="22">
         <v>1</v>
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV41" s="22">
         <v>1</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="BJ41" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK41" s="22">
         <v>0</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="CZ41" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA41" s="22">
         <v>1</v>
@@ -19934,7 +19934,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK42" s="22">
         <v>0</v>
@@ -20136,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O43" s="23">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS43" s="22">
         <v>1</v>
@@ -20280,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="BJ43" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK43" s="22">
         <v>0</v>
@@ -20289,7 +20289,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN43" s="22">
         <v>1</v>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="BP43" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ43" s="22">
         <v>1</v>
@@ -20325,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="BY43" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BZ43" s="22">
         <v>1</v>
@@ -20397,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="CW43" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX43" s="22">
         <v>1</v>
@@ -20445,14 +20445,14 @@
       </c>
       <c r="B44" s="60" t="str">
         <f>Resultat!E48</f>
-        <v>1F</v>
+        <v>Portugal</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="60" t="str">
         <f>Resultat!G48</f>
-        <v>3A/B/C</v>
+        <v>Slovenien</v>
       </c>
       <c r="E44" s="33">
         <v>1</v>
@@ -20554,7 +20554,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM44" s="22">
         <v>1</v>
@@ -20617,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="BG44" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH44" s="22">
         <v>1</v>
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="BJ44" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK44" s="22">
         <v>0</v>
@@ -20662,7 +20662,7 @@
         <v>1</v>
       </c>
       <c r="BV44" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW44" s="22">
         <v>1</v>
@@ -20731,7 +20731,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -20873,7 +20873,7 @@
         <v>2</v>
       </c>
       <c r="AC45" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD45" s="22">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV45" s="22">
         <v>0</v>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY45" s="22">
         <v>1</v>
@@ -20954,7 +20954,7 @@
         <v>1</v>
       </c>
       <c r="BD45" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE45" s="22">
         <v>2</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="BJ45" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK45" s="22">
         <v>0</v>
@@ -20999,7 +20999,7 @@
         <v>1</v>
       </c>
       <c r="BS45" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT45" s="22">
         <v>1</v>
@@ -21053,7 +21053,7 @@
         <v>2</v>
       </c>
       <c r="CK45" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL45" s="22">
         <v>2</v>
@@ -21089,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="CW45" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX45" s="22">
         <v>1</v>
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="CZ45" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA45" s="22">
         <v>1</v>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK46" s="22">
         <v>0</v>
@@ -21327,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN46" s="22">
         <v>1</v>
@@ -21444,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="CZ46" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA46" s="22">
         <v>1</v>
@@ -21493,7 +21493,7 @@
         <v>V37</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="22">
         <v>1</v>
@@ -21502,7 +21502,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I47" s="22">
         <v>1</v>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD47" s="22">
         <v>1</v>
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ47" s="20">
         <v>1</v>
@@ -21610,7 +21610,7 @@
         <v>3</v>
       </c>
       <c r="AR47" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS47" s="22">
         <v>2</v>
@@ -21619,7 +21619,7 @@
         <v>2</v>
       </c>
       <c r="AU47" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV47" s="22">
         <v>2</v>
@@ -21655,7 +21655,7 @@
         <v>1</v>
       </c>
       <c r="BG47" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH47" s="22">
         <v>2</v>
@@ -21664,7 +21664,7 @@
         <v>2</v>
       </c>
       <c r="BJ47" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK47" s="22">
         <v>0</v>
@@ -21700,7 +21700,7 @@
         <v>2</v>
       </c>
       <c r="BV47" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BW47" s="22">
         <v>2</v>
@@ -21709,7 +21709,7 @@
         <v>2</v>
       </c>
       <c r="BY47" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BZ47" s="22">
         <v>2</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="CT47" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU47" s="22">
         <v>1</v>
@@ -21839,7 +21839,7 @@
         <v>V42</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="22">
         <v>1</v>
@@ -21848,7 +21848,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I48" s="22">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD48" s="22">
         <v>1</v>
@@ -21956,7 +21956,7 @@
         <v>1</v>
       </c>
       <c r="AR48" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS48" s="22">
         <v>1</v>
@@ -21992,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="BD48" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE48" s="22">
         <v>1</v>
@@ -22010,7 +22010,7 @@
         <v>2</v>
       </c>
       <c r="BJ48" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK48" s="22">
         <v>0</v>
@@ -22028,7 +22028,7 @@
         <v>1</v>
       </c>
       <c r="BP48" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ48" s="22">
         <v>1</v>
@@ -22091,7 +22091,7 @@
         <v>3</v>
       </c>
       <c r="CK48" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL48" s="22">
         <v>2</v>
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="CZ48" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA48" s="22">
         <v>1</v>
@@ -22185,7 +22185,7 @@
         <v>V38</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="22">
         <v>1</v>
@@ -22194,7 +22194,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I49" s="22">
         <v>1</v>
@@ -22275,7 +22275,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ49" s="20">
         <v>1</v>
@@ -22302,7 +22302,7 @@
         <v>1</v>
       </c>
       <c r="AR49" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS49" s="22">
         <v>1</v>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY49" s="22">
         <v>0</v>
@@ -22356,7 +22356,7 @@
         <v>2</v>
       </c>
       <c r="BJ49" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK49" s="22">
         <v>0</v>
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN49" s="22">
         <v>1</v>
@@ -22383,7 +22383,7 @@
         <v>0</v>
       </c>
       <c r="BS49" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BT49" s="22">
         <v>0</v>
@@ -22410,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="CB49" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC49" s="22">
         <v>2</v>
@@ -22473,7 +22473,7 @@
         <v>1</v>
       </c>
       <c r="CW49" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX49" s="22">
         <v>2</v>
@@ -22482,7 +22482,7 @@
         <v>2</v>
       </c>
       <c r="CZ49" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA49" s="22">
         <v>0</v>
@@ -22540,7 +22540,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I50" s="22">
         <v>1</v>
@@ -22648,7 +22648,7 @@
         <v>2</v>
       </c>
       <c r="AR50" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS50" s="22">
         <v>1</v>
@@ -22702,7 +22702,7 @@
         <v>3</v>
       </c>
       <c r="BJ50" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK50" s="22">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         <v>4</v>
       </c>
       <c r="CK50" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL50" s="22">
         <v>1</v>
@@ -22901,7 +22901,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O51" s="23">
         <v>2</v>
@@ -22964,7 +22964,7 @@
         <v>1</v>
       </c>
       <c r="AI51" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ51" s="20">
         <v>1</v>
@@ -22973,7 +22973,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM51" s="22">
         <v>1</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS51" s="22">
         <v>1</v>
@@ -23000,7 +23000,7 @@
         <v>1</v>
       </c>
       <c r="AU51" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV51" s="22">
         <v>1</v>
@@ -23009,7 +23009,7 @@
         <v>1</v>
       </c>
       <c r="AX51" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY51" s="22">
         <v>2</v>
@@ -23045,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="BJ51" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK51" s="22">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="CW51" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CX51" s="22">
         <v>1</v>
@@ -23217,7 +23217,7 @@
         <v>V46</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F52" s="22">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD52" s="22">
         <v>2</v>
@@ -23307,7 +23307,7 @@
         <v>1</v>
       </c>
       <c r="AI52" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ52" s="20">
         <v>1</v>
@@ -23316,7 +23316,7 @@
         <v>1</v>
       </c>
       <c r="AL52" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM52" s="22">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="AR52" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS52" s="22">
         <v>1</v>
@@ -23379,7 +23379,7 @@
         <v>1</v>
       </c>
       <c r="BG52" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BH52" s="22">
         <v>2</v>
@@ -23388,7 +23388,7 @@
         <v>2</v>
       </c>
       <c r="BJ52" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK52" s="22">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN52" s="22">
         <v>1</v>
@@ -23469,7 +23469,7 @@
         <v>3</v>
       </c>
       <c r="CK52" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CL52" s="22">
         <v>1</v>
@@ -23496,7 +23496,7 @@
         <v>3</v>
       </c>
       <c r="CT52" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU52" s="22">
         <v>1</v>
@@ -23514,7 +23514,7 @@
         <v>2</v>
       </c>
       <c r="CZ52" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DA52" s="22">
         <v>1</v>
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="AI53" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ53" s="20">
         <v>2</v>
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="AR53" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AS53" s="22">
         <v>1</v>
@@ -23696,7 +23696,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY53" s="22">
         <v>1</v>
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="BD53" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BE53" s="22">
         <v>1</v>
@@ -23732,7 +23732,7 @@
         <v>3</v>
       </c>
       <c r="BJ53" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BK53" s="22">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="CB53" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CC53" s="22">
         <v>2</v>
@@ -23840,7 +23840,7 @@
         <v>2</v>
       </c>
       <c r="CT53" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CU53" s="22">
         <v>1</v>
@@ -24057,7 +24057,7 @@
     </row>
     <row r="57" spans="1:117" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>25</v>
@@ -24866,142 +24866,142 @@
       <c r="A62"/>
       <c r="D62"/>
       <c r="E62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q62" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF62" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI62" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AL62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AR62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AU62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AX62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BA62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BD62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BG62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BJ62" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BM62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BN62" s="31"/>
       <c r="BO62" s="31"/>
       <c r="BP62" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BQ62" s="31"/>
       <c r="BR62" s="31"/>
       <c r="BS62" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BT62" s="31"/>
       <c r="BU62" s="31"/>
       <c r="BV62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BW62" s="31"/>
       <c r="BX62" s="31"/>
       <c r="BY62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BZ62" s="31"/>
       <c r="CA62" s="31"/>
       <c r="CB62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CC62" s="31"/>
       <c r="CD62" s="31"/>
       <c r="CE62" s="123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CF62" s="31"/>
       <c r="CG62" s="31"/>
       <c r="CH62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CI62" s="31"/>
       <c r="CJ62" s="31"/>
       <c r="CK62" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CL62" s="31"/>
       <c r="CM62" s="31"/>
       <c r="CN62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CO62" s="31"/>
       <c r="CP62" s="31"/>
       <c r="CQ62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CR62" s="31"/>
       <c r="CS62" s="31"/>
       <c r="CT62" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CU62" s="31"/>
       <c r="CV62" s="31"/>
       <c r="CW62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CZ62" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DC62" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DF62" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:117" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>21</v>
@@ -25449,7 +25449,7 @@
       <c r="BH65" s="31"/>
       <c r="BI65" s="31"/>
       <c r="BJ65" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BK65" s="31"/>
       <c r="BL65" s="31"/>
@@ -25530,97 +25530,97 @@
       <c r="A66"/>
       <c r="D66"/>
       <c r="E66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
       <c r="N66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O66" s="31"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
       <c r="T66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U66" s="31"/>
       <c r="V66" s="31"/>
       <c r="W66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA66" s="31"/>
       <c r="AB66" s="31"/>
       <c r="AC66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AD66" s="31"/>
       <c r="AE66" s="31"/>
       <c r="AF66" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AG66" s="31"/>
       <c r="AH66" s="31"/>
       <c r="AI66" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AJ66" s="31"/>
       <c r="AK66" s="31"/>
       <c r="AL66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AM66" s="31"/>
       <c r="AN66" s="31"/>
       <c r="AO66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="31"/>
       <c r="AR66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AS66" s="31"/>
       <c r="AT66" s="31"/>
       <c r="AU66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV66" s="31"/>
       <c r="AW66" s="31"/>
       <c r="AX66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AY66" s="31"/>
       <c r="AZ66" s="31"/>
       <c r="BA66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB66" s="31"/>
       <c r="BC66" s="31"/>
       <c r="BD66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BE66" s="31"/>
       <c r="BF66" s="31"/>
       <c r="BG66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BH66" s="31"/>
       <c r="BI66" s="31"/>
@@ -25630,76 +25630,76 @@
       <c r="BK66" s="31"/>
       <c r="BL66" s="31"/>
       <c r="BM66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BN66" s="31"/>
       <c r="BO66" s="31"/>
       <c r="BP66" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BQ66" s="31"/>
       <c r="BR66" s="31"/>
       <c r="BS66" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BT66" s="31"/>
       <c r="BU66" s="31"/>
       <c r="BV66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BW66" s="31"/>
       <c r="BX66" s="31"/>
       <c r="BY66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BZ66" s="31"/>
       <c r="CA66" s="31"/>
       <c r="CB66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CC66" s="31"/>
       <c r="CD66" s="31"/>
       <c r="CE66" s="121" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CF66" s="31"/>
       <c r="CG66" s="31"/>
       <c r="CH66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CI66" s="31"/>
       <c r="CJ66" s="31"/>
       <c r="CK66" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CL66" s="31"/>
       <c r="CM66" s="31"/>
       <c r="CN66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CO66" s="31"/>
       <c r="CP66" s="31"/>
       <c r="CQ66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CR66" s="31"/>
       <c r="CS66" s="31"/>
       <c r="CT66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CU66" s="31"/>
       <c r="CV66" s="31"/>
       <c r="CW66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CZ66" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="DC66" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="DF66" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:110" x14ac:dyDescent="0.35">
@@ -25810,142 +25810,142 @@
       <c r="A68"/>
       <c r="D68"/>
       <c r="E68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q68" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF68" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI68" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AR68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AU68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BA68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BD68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BG68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BJ68" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BM68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BN68" s="31"/>
       <c r="BO68" s="31"/>
       <c r="BP68" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ68" s="31"/>
       <c r="BR68" s="31"/>
       <c r="BS68" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BT68" s="31"/>
       <c r="BU68" s="31"/>
       <c r="BV68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW68" s="31"/>
       <c r="BX68" s="31"/>
       <c r="BY68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BZ68" s="31"/>
       <c r="CA68" s="31"/>
       <c r="CB68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CC68" s="31"/>
       <c r="CD68" s="31"/>
       <c r="CE68" s="123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF68" s="31"/>
       <c r="CG68" s="31"/>
       <c r="CH68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI68" s="31"/>
       <c r="CJ68" s="31"/>
       <c r="CK68" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL68" s="31"/>
       <c r="CM68" s="31"/>
       <c r="CN68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO68" s="31"/>
       <c r="CP68" s="31"/>
       <c r="CQ68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CR68" s="31"/>
       <c r="CS68" s="31"/>
       <c r="CT68" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CU68" s="31"/>
       <c r="CV68" s="31"/>
       <c r="CW68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CZ68" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DC68" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DF68" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>10</v>
@@ -26177,7 +26177,7 @@
       <c r="AJ70" s="31"/>
       <c r="AK70" s="31"/>
       <c r="AL70" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AM70" s="31"/>
       <c r="AN70" s="31"/>
@@ -26212,7 +26212,7 @@
       <c r="BE70" s="31"/>
       <c r="BF70" s="31"/>
       <c r="BG70" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BH70" s="31"/>
       <c r="BI70" s="31"/>
@@ -26222,7 +26222,7 @@
       <c r="BK70" s="31"/>
       <c r="BL70" s="31"/>
       <c r="BM70" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BN70" s="31"/>
       <c r="BO70" s="31"/>
@@ -26237,7 +26237,7 @@
       <c r="BT70" s="31"/>
       <c r="BU70" s="31"/>
       <c r="BV70" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BW70" s="31"/>
       <c r="BX70" s="31"/>
@@ -26247,12 +26247,12 @@
       <c r="BZ70" s="31"/>
       <c r="CA70" s="31"/>
       <c r="CB70" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CC70" s="31"/>
       <c r="CD70" s="31"/>
       <c r="CE70" s="121" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CF70" s="31"/>
       <c r="CG70" s="31"/>
@@ -26285,10 +26285,10 @@
         <v>8</v>
       </c>
       <c r="CZ70" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="DC70" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="DF70" s="103" t="s">
         <v>8</v>
@@ -26298,57 +26298,57 @@
       <c r="A71"/>
       <c r="D71"/>
       <c r="E71" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
       <c r="H71" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I71" s="31"/>
       <c r="J71" s="31"/>
       <c r="K71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
       <c r="N71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
       <c r="T71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U71" s="31"/>
       <c r="V71" s="31"/>
       <c r="W71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="Z71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA71" s="31"/>
       <c r="AB71" s="31"/>
       <c r="AC71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AD71" s="31"/>
       <c r="AE71" s="31"/>
       <c r="AF71" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AG71" s="31"/>
       <c r="AH71" s="31"/>
       <c r="AI71" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AJ71" s="31"/>
       <c r="AK71" s="31"/>
@@ -26358,32 +26358,32 @@
       <c r="AM71" s="31"/>
       <c r="AN71" s="31"/>
       <c r="AO71" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AP71" s="31"/>
       <c r="AQ71" s="31"/>
       <c r="AR71" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AS71" s="31"/>
       <c r="AT71" s="31"/>
       <c r="AU71" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AV71" s="31"/>
       <c r="AW71" s="31"/>
       <c r="AX71" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AY71" s="31"/>
       <c r="AZ71" s="31"/>
       <c r="BA71" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BB71" s="31"/>
       <c r="BC71" s="31"/>
       <c r="BD71" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE71" s="31"/>
       <c r="BF71" s="31"/>
@@ -26393,7 +26393,7 @@
       <c r="BH71" s="31"/>
       <c r="BI71" s="31"/>
       <c r="BJ71" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BK71" s="31"/>
       <c r="BL71" s="31"/>
@@ -26403,12 +26403,12 @@
       <c r="BN71" s="31"/>
       <c r="BO71" s="31"/>
       <c r="BP71" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BQ71" s="31"/>
       <c r="BR71" s="31"/>
       <c r="BS71" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BT71" s="31"/>
       <c r="BU71" s="31"/>
@@ -26418,7 +26418,7 @@
       <c r="BW71" s="31"/>
       <c r="BX71" s="31"/>
       <c r="BY71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BZ71" s="31"/>
       <c r="CA71" s="31"/>
@@ -26433,32 +26433,32 @@
       <c r="CF71" s="31"/>
       <c r="CG71" s="31"/>
       <c r="CH71" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CI71" s="31"/>
       <c r="CJ71" s="31"/>
       <c r="CK71" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CL71" s="31"/>
       <c r="CM71" s="31"/>
       <c r="CN71" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CO71" s="31"/>
       <c r="CP71" s="31"/>
       <c r="CQ71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CR71" s="31"/>
       <c r="CS71" s="31"/>
       <c r="CT71" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CU71" s="31"/>
       <c r="CV71" s="31"/>
       <c r="CW71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CZ71" s="115" t="s">
         <v>8</v>
@@ -26467,183 +26467,183 @@
         <v>8</v>
       </c>
       <c r="DF71" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="D72"/>
       <c r="E72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
       <c r="H72" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
       <c r="K72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
       <c r="N72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
       <c r="Q72" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
       <c r="T72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U72" s="31"/>
       <c r="V72" s="31"/>
       <c r="W72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X72" s="31"/>
       <c r="Y72" s="31"/>
       <c r="Z72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA72" s="31"/>
       <c r="AB72" s="31"/>
       <c r="AC72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD72" s="31"/>
       <c r="AE72" s="31"/>
       <c r="AF72" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG72" s="31"/>
       <c r="AH72" s="31"/>
       <c r="AI72" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AJ72" s="31"/>
       <c r="AK72" s="31"/>
       <c r="AL72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AM72" s="31"/>
       <c r="AN72" s="31"/>
       <c r="AO72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AP72" s="31"/>
       <c r="AQ72" s="31"/>
       <c r="AR72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AS72" s="31"/>
       <c r="AT72" s="31"/>
       <c r="AU72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AV72" s="31"/>
       <c r="AW72" s="31"/>
       <c r="AX72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AY72" s="31"/>
       <c r="AZ72" s="31"/>
       <c r="BA72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BB72" s="31"/>
       <c r="BC72" s="31"/>
       <c r="BD72" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BE72" s="31"/>
       <c r="BF72" s="31"/>
       <c r="BG72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BH72" s="31"/>
       <c r="BI72" s="31"/>
       <c r="BJ72" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BK72" s="31"/>
       <c r="BL72" s="31"/>
       <c r="BM72" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BN72" s="31"/>
       <c r="BO72" s="31"/>
       <c r="BP72" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BQ72" s="31"/>
       <c r="BR72" s="31"/>
       <c r="BS72" s="115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BT72" s="31"/>
       <c r="BU72" s="31"/>
       <c r="BV72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BW72" s="31"/>
       <c r="BX72" s="31"/>
       <c r="BY72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BZ72" s="31"/>
       <c r="CA72" s="31"/>
       <c r="CB72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CC72" s="31"/>
       <c r="CD72" s="31"/>
       <c r="CE72" s="121" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CF72" s="31"/>
       <c r="CG72" s="31"/>
       <c r="CH72" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CI72" s="31"/>
       <c r="CJ72" s="31"/>
       <c r="CK72" s="115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CL72" s="31"/>
       <c r="CM72" s="31"/>
       <c r="CN72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CO72" s="31"/>
       <c r="CP72" s="31"/>
       <c r="CQ72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CR72" s="31"/>
       <c r="CS72" s="31"/>
       <c r="CT72" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CU72" s="31"/>
       <c r="CV72" s="31"/>
       <c r="CW72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CZ72" s="115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="DC72" s="115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="DF72" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:110" x14ac:dyDescent="0.35">
@@ -26754,142 +26754,142 @@
       <c r="A74"/>
       <c r="D74"/>
       <c r="E74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q74" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF74" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AI74" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AL74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AO74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AR74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AX74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BA74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BD74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BG74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BJ74" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BM74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN74" s="31"/>
       <c r="BO74" s="31"/>
       <c r="BP74" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BQ74" s="31"/>
       <c r="BR74" s="31"/>
       <c r="BS74" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT74" s="31"/>
       <c r="BU74" s="31"/>
       <c r="BV74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BW74" s="31"/>
       <c r="BX74" s="31"/>
       <c r="BY74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ74" s="31"/>
       <c r="CA74" s="31"/>
       <c r="CB74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC74" s="31"/>
       <c r="CD74" s="31"/>
       <c r="CE74" s="123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CF74" s="31"/>
       <c r="CG74" s="31"/>
       <c r="CH74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CI74" s="31"/>
       <c r="CJ74" s="31"/>
       <c r="CK74" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CL74" s="31"/>
       <c r="CM74" s="31"/>
       <c r="CN74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CO74" s="31"/>
       <c r="CP74" s="31"/>
       <c r="CQ74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CR74" s="31"/>
       <c r="CS74" s="31"/>
       <c r="CT74" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU74" s="31"/>
       <c r="CV74" s="31"/>
       <c r="CW74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CZ74" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DC74" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DF74" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>27</v>
@@ -27698,142 +27698,142 @@
       <c r="A80"/>
       <c r="D80"/>
       <c r="E80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q80" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF80" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI80" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AR80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AU80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BA80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BD80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BG80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BJ80" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BM80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BN80" s="31"/>
       <c r="BO80" s="31"/>
       <c r="BP80" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ80" s="31"/>
       <c r="BR80" s="31"/>
       <c r="BS80" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BT80" s="31"/>
       <c r="BU80" s="31"/>
       <c r="BV80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW80" s="31"/>
       <c r="BX80" s="31"/>
       <c r="BY80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BZ80" s="31"/>
       <c r="CA80" s="31"/>
       <c r="CB80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CC80" s="31"/>
       <c r="CD80" s="31"/>
       <c r="CE80" s="123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF80" s="31"/>
       <c r="CG80" s="31"/>
       <c r="CH80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI80" s="31"/>
       <c r="CJ80" s="31"/>
       <c r="CK80" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL80" s="31"/>
       <c r="CM80" s="31"/>
       <c r="CN80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO80" s="31"/>
       <c r="CP80" s="31"/>
       <c r="CQ80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CR80" s="31"/>
       <c r="CS80" s="31"/>
       <c r="CT80" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CU80" s="31"/>
       <c r="CV80" s="31"/>
       <c r="CW80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CZ80" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DC80" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DF80" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E81" s="50" t="s">
         <v>9</v>
@@ -27906,7 +27906,7 @@
       <c r="AS81" s="31"/>
       <c r="AT81" s="31"/>
       <c r="AU81" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AV81" s="31"/>
       <c r="AW81" s="31"/>
@@ -27931,7 +27931,7 @@
       <c r="BH81" s="31"/>
       <c r="BI81" s="31"/>
       <c r="BJ81" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BK81" s="31"/>
       <c r="BL81" s="31"/>
@@ -28179,7 +28179,7 @@
         <v>16</v>
       </c>
       <c r="DF82" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:110" x14ac:dyDescent="0.35">
@@ -28206,7 +28206,7 @@
       <c r="O83" s="31"/>
       <c r="P83" s="31"/>
       <c r="Q83" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
@@ -28231,12 +28231,12 @@
       <c r="AD83" s="31"/>
       <c r="AE83" s="31"/>
       <c r="AF83" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG83" s="31"/>
       <c r="AH83" s="31"/>
       <c r="AI83" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ83" s="31"/>
       <c r="AK83" s="31"/>
@@ -28251,7 +28251,7 @@
       <c r="AP83" s="31"/>
       <c r="AQ83" s="31"/>
       <c r="AR83" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AS83" s="31"/>
       <c r="AT83" s="31"/>
@@ -28261,27 +28261,27 @@
       <c r="AV83" s="31"/>
       <c r="AW83" s="31"/>
       <c r="AX83" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY83" s="31"/>
       <c r="AZ83" s="31"/>
       <c r="BA83" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BB83" s="31"/>
       <c r="BC83" s="31"/>
       <c r="BD83" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BE83" s="31"/>
       <c r="BF83" s="31"/>
       <c r="BG83" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BH83" s="31"/>
       <c r="BI83" s="31"/>
       <c r="BJ83" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BK83" s="31"/>
       <c r="BL83" s="31"/>
@@ -28291,7 +28291,7 @@
       <c r="BN83" s="31"/>
       <c r="BO83" s="31"/>
       <c r="BP83" s="104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BQ83" s="31"/>
       <c r="BR83" s="31"/>
@@ -28321,17 +28321,17 @@
       <c r="CF83" s="31"/>
       <c r="CG83" s="31"/>
       <c r="CH83" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CI83" s="31"/>
       <c r="CJ83" s="31"/>
       <c r="CK83" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CL83" s="31"/>
       <c r="CM83" s="31"/>
       <c r="CN83" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CO83" s="31"/>
       <c r="CP83" s="31"/>
@@ -28362,22 +28362,22 @@
       <c r="A84"/>
       <c r="D84"/>
       <c r="E84" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
       <c r="K84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
       <c r="N84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O84" s="31"/>
       <c r="P84" s="31"/>
@@ -28387,22 +28387,22 @@
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
       <c r="T84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U84" s="31"/>
       <c r="V84" s="31"/>
       <c r="W84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA84" s="31"/>
       <c r="AB84" s="31"/>
       <c r="AC84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD84" s="31"/>
       <c r="AE84" s="31"/>
@@ -28417,12 +28417,12 @@
       <c r="AJ84" s="31"/>
       <c r="AK84" s="31"/>
       <c r="AL84" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM84" s="31"/>
       <c r="AN84" s="31"/>
       <c r="AO84" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP84" s="31"/>
       <c r="AQ84" s="31"/>
@@ -28462,7 +28462,7 @@
       <c r="BK84" s="31"/>
       <c r="BL84" s="31"/>
       <c r="BM84" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BN84" s="31"/>
       <c r="BO84" s="31"/>
@@ -28472,27 +28472,27 @@
       <c r="BQ84" s="31"/>
       <c r="BR84" s="31"/>
       <c r="BS84" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BT84" s="31"/>
       <c r="BU84" s="31"/>
       <c r="BV84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BW84" s="31"/>
       <c r="BX84" s="31"/>
       <c r="BY84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BZ84" s="31"/>
       <c r="CA84" s="31"/>
       <c r="CB84" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CC84" s="31"/>
       <c r="CD84" s="31"/>
       <c r="CE84" s="121" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CF84" s="31"/>
       <c r="CG84" s="31"/>
@@ -28512,23 +28512,23 @@
       <c r="CO84" s="31"/>
       <c r="CP84" s="31"/>
       <c r="CQ84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CR84" s="31"/>
       <c r="CS84" s="31"/>
       <c r="CT84" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CU84" s="31"/>
       <c r="CV84" s="31"/>
       <c r="CW84" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CZ84" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="DC84" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="DF84" s="103" t="s">
         <v>23</v>
@@ -28642,142 +28642,142 @@
       <c r="A86"/>
       <c r="D86"/>
       <c r="E86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q86" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF86" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AI86" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AL86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AO86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AR86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AU86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AX86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BA86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BD86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BG86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BJ86" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BM86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN86" s="31"/>
       <c r="BO86" s="31"/>
       <c r="BP86" s="106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BQ86" s="31"/>
       <c r="BR86" s="31"/>
       <c r="BS86" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT86" s="31"/>
       <c r="BU86" s="31"/>
       <c r="BV86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BW86" s="31"/>
       <c r="BX86" s="31"/>
       <c r="BY86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ86" s="31"/>
       <c r="CA86" s="31"/>
       <c r="CB86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC86" s="31"/>
       <c r="CD86" s="31"/>
       <c r="CE86" s="123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CF86" s="31"/>
       <c r="CG86" s="31"/>
       <c r="CH86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CI86" s="31"/>
       <c r="CJ86" s="31"/>
       <c r="CK86" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CL86" s="31"/>
       <c r="CM86" s="31"/>
       <c r="CN86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CO86" s="31"/>
       <c r="CP86" s="31"/>
       <c r="CQ86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CR86" s="31"/>
       <c r="CS86" s="31"/>
       <c r="CT86" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU86" s="31"/>
       <c r="CV86" s="31"/>
       <c r="CW86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CZ86" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DC86" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DF86" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>26</v>
@@ -29114,13 +29114,13 @@
       <c r="CU88" s="31"/>
       <c r="CV88" s="31"/>
       <c r="CW88" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CZ88" s="115" t="s">
         <v>19</v>
       </c>
       <c r="DC88" s="115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="DF88" s="103" t="s">
         <v>19</v>
@@ -29280,7 +29280,7 @@
       <c r="CO89" s="31"/>
       <c r="CP89" s="31"/>
       <c r="CQ89" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CR89" s="31"/>
       <c r="CS89" s="31"/>
@@ -29296,7 +29296,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29306,47 +29306,47 @@
       <c r="A90"/>
       <c r="D90"/>
       <c r="E90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
       <c r="H90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I90" s="31"/>
       <c r="J90" s="31"/>
       <c r="K90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L90" s="31"/>
       <c r="M90" s="31"/>
       <c r="N90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O90" s="31"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R90" s="31"/>
       <c r="S90" s="31"/>
       <c r="T90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U90" s="31"/>
       <c r="V90" s="31"/>
       <c r="W90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
       <c r="Z90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA90" s="31"/>
       <c r="AB90" s="31"/>
       <c r="AC90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD90" s="31"/>
       <c r="AE90" s="31"/>
@@ -29356,102 +29356,102 @@
       <c r="AG90" s="31"/>
       <c r="AH90" s="31"/>
       <c r="AI90" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ90" s="31"/>
       <c r="AK90" s="31"/>
       <c r="AL90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AM90" s="31"/>
       <c r="AN90" s="31"/>
       <c r="AO90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AP90" s="31"/>
       <c r="AQ90" s="31"/>
       <c r="AR90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AS90" s="31"/>
       <c r="AT90" s="31"/>
       <c r="AU90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AV90" s="31"/>
       <c r="AW90" s="31"/>
       <c r="AX90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AY90" s="31"/>
       <c r="AZ90" s="31"/>
       <c r="BA90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BB90" s="31"/>
       <c r="BC90" s="31"/>
       <c r="BD90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BE90" s="31"/>
       <c r="BF90" s="31"/>
       <c r="BG90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BH90" s="31"/>
       <c r="BI90" s="31"/>
       <c r="BJ90" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BK90" s="31"/>
       <c r="BL90" s="31"/>
       <c r="BM90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BN90" s="31"/>
       <c r="BO90" s="31"/>
       <c r="BP90" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BQ90" s="31"/>
       <c r="BR90" s="31"/>
       <c r="BS90" s="115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BT90" s="31"/>
       <c r="BU90" s="31"/>
       <c r="BV90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BW90" s="31"/>
       <c r="BX90" s="31"/>
       <c r="BY90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BZ90" s="31"/>
       <c r="CA90" s="31"/>
       <c r="CB90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CC90" s="31"/>
       <c r="CD90" s="31"/>
       <c r="CE90" s="121" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CF90" s="31"/>
       <c r="CG90" s="31"/>
       <c r="CH90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CI90" s="31"/>
       <c r="CJ90" s="31"/>
       <c r="CK90" s="115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CL90" s="31"/>
       <c r="CM90" s="31"/>
       <c r="CN90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CO90" s="31"/>
       <c r="CP90" s="31"/>
@@ -29461,7 +29461,7 @@
       <c r="CR90" s="31"/>
       <c r="CS90" s="31"/>
       <c r="CT90" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CU90" s="31"/>
       <c r="CV90" s="31"/>
@@ -29469,13 +29469,13 @@
         <v>19</v>
       </c>
       <c r="CZ90" s="115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="DF90" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:110" x14ac:dyDescent="0.35">
@@ -29495,7 +29495,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29557,7 +29557,7 @@
     </row>
     <row r="93" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D93" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E93" s="103" t="s">
         <v>27</v>
@@ -29613,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29655,7 +29655,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29675,7 +29675,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29699,149 +29699,149 @@
     </row>
     <row r="94" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D94" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="K94" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="H94" s="103" t="s">
+      <c r="N94" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="K94" s="107" t="s">
+      <c r="Q94" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>106</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>108</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AI94" s="110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D95" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E95" s="103">
         <v>142</v>
@@ -29984,7 +29984,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30032,14 +30032,14 @@
       </c>
       <c r="AP96" s="93"/>
       <c r="AR96" s="95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AU96" s="95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30080,7 +30080,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30110,7 +30110,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30129,7 +30129,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30471,9 +30471,9 @@
   <dimension ref="A1:AV64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36976,11 +36976,11 @@
     <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="str">
         <f>Resultat!E48</f>
-        <v>1F</v>
+        <v>Portugal</v>
       </c>
       <c r="B43" s="19" t="str">
         <f>Kuponger!D44</f>
-        <v>3A/B/C</v>
+        <v>Slovenien</v>
       </c>
       <c r="C43">
         <f>IF(AND(Resultat!$H48&lt;&gt;"",Kuponger!E44&lt;&gt;""),IF(Resultat!$H48=Kuponger!E44,1,0),0) + IF(AND(Resultat!$I48&lt;&gt;"",Kuponger!F44&lt;&gt;"",Resultat!$K48&lt;&gt;"",Kuponger!G44&lt;&gt;""),IF(AND(Resultat!$I48=Kuponger!F44,Resultat!$K48=Kuponger!G44),3,0),0)</f>
@@ -37028,7 +37028,7 @@
       </c>
       <c r="N43">
         <f ca="1">IF(AND(Resultat!$I48&lt;&gt;"",OFFSET(Kuponger!$F44,0,3*COLUMN(K43))=Resultat!$I48,OFFSET(Kuponger!$G44,0,3*COLUMN(K43))=Resultat!$K48),3,0) + IF(AND(Resultat!$H48&lt;&gt;"",OFFSET(Kuponger!$E44,0,3*COLUMN(K43))=Resultat!$H48),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <f ca="1">IF(AND(Resultat!$I48&lt;&gt;"",OFFSET(Kuponger!$F44,0,3*COLUMN(L43))=Resultat!$I48,OFFSET(Kuponger!$G44,0,3*COLUMN(L43))=Resultat!$K48),3,0) + IF(AND(Resultat!$H48&lt;&gt;"",OFFSET(Kuponger!$E44,0,3*COLUMN(L43))=Resultat!$H48),1,0)</f>
@@ -37056,11 +37056,11 @@
       </c>
       <c r="U43">
         <f ca="1">IF(AND(Resultat!$I48&lt;&gt;"",OFFSET(Kuponger!$F44,0,3*COLUMN(R43))=Resultat!$I48,OFFSET(Kuponger!$G44,0,3*COLUMN(R43))=Resultat!$K48),3,0) + IF(AND(Resultat!$H48&lt;&gt;"",OFFSET(Kuponger!$E44,0,3*COLUMN(R43))=Resultat!$H48),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <f ca="1">IF(AND(Resultat!$I48&lt;&gt;"",OFFSET(Kuponger!$F44,0,3*COLUMN(S43))=Resultat!$I48,OFFSET(Kuponger!$G44,0,3*COLUMN(S43))=Resultat!$K48),3,0) + IF(AND(Resultat!$H48&lt;&gt;"",OFFSET(Kuponger!$E44,0,3*COLUMN(S43))=Resultat!$H48),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W43">
         <f ca="1">IF(AND(Resultat!$I48&lt;&gt;"",OFFSET(Kuponger!$F44,0,3*COLUMN(T43))=Resultat!$I48,OFFSET(Kuponger!$G44,0,3*COLUMN(T43))=Resultat!$K48),3,0) + IF(AND(Resultat!$H48&lt;&gt;"",OFFSET(Kuponger!$E44,0,3*COLUMN(T43))=Resultat!$H48),1,0)</f>
@@ -37076,7 +37076,7 @@
       </c>
       <c r="Z43">
         <f ca="1">IF(AND(Resultat!$I48&lt;&gt;"",OFFSET(Kuponger!$F44,0,3*COLUMN(W43))=Resultat!$I48,OFFSET(Kuponger!$G44,0,3*COLUMN(W43))=Resultat!$K48),3,0) + IF(AND(Resultat!$H48&lt;&gt;"",OFFSET(Kuponger!$E44,0,3*COLUMN(W43))=Resultat!$H48),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
         <f ca="1">IF(AND(Resultat!$I48&lt;&gt;"",OFFSET(Kuponger!$F44,0,3*COLUMN(X43))=Resultat!$I48,OFFSET(Kuponger!$G44,0,3*COLUMN(X43))=Resultat!$K48),3,0) + IF(AND(Resultat!$H48&lt;&gt;"",OFFSET(Kuponger!$E44,0,3*COLUMN(X43))=Resultat!$H48),1,0)</f>
@@ -38515,7 +38515,7 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" cm="1">
@@ -38666,7 +38666,7 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" cm="1">
@@ -38817,7 +38817,7 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" cm="1">
@@ -38968,7 +38968,7 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" cm="1">
@@ -39119,7 +39119,7 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" cm="1">
@@ -39270,7 +39270,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" cm="1">
@@ -39421,7 +39421,7 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59">
@@ -39571,7 +39571,7 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60">
@@ -39721,7 +39721,7 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61">
@@ -39871,7 +39871,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40021,7 +40021,7 @@
     </row>
     <row r="63" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
@@ -40069,7 +40069,7 @@
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40097,11 +40097,11 @@
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40117,7 +40117,7 @@
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{573BCB24-9FC4-4691-B23C-2A26C89FD924}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A37DA6ED-0401-4CBC-9B82-F727E20FD9FE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="147">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -160,12 +160,6 @@
   </si>
   <si>
     <t>2F</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>3A/B/C/D</t>
   </si>
   <si>
     <t>Final</t>
@@ -1725,11 +1719,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1752,11 +1746,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2020,7 +2014,7 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>58</c:v>
@@ -2032,19 +2026,19 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>58</c:v>
@@ -2059,7 +2053,7 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45</c:v>
@@ -2071,7 +2065,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43</c:v>
@@ -2089,7 +2083,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>36</c:v>
@@ -3377,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView topLeftCell="A18" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3416,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -3445,7 +3439,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>1</v>
@@ -3462,10 +3456,10 @@
       <c r="F6" s="129"/>
       <c r="G6" s="130"/>
       <c r="H6" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6" s="138" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="129"/>
       <c r="K6" s="130"/>
@@ -3478,7 +3472,7 @@
         <v>45457</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="59">
         <v>0.875</v>
@@ -3529,7 +3523,7 @@
         <v>45458</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="59">
         <v>0.625</v>
@@ -3560,7 +3554,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" s="79" t="s">
         <v>22</v>
@@ -3580,7 +3574,7 @@
         <v>45458</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="59">
         <v>0.75</v>
@@ -3601,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K9" s="66">
         <v>0</v>
@@ -3622,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -3633,7 +3627,7 @@
         <v>45458</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="59">
         <v>0.875</v>
@@ -3645,7 +3639,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H10" s="63">
         <v>1</v>
@@ -3654,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K10" s="66">
         <v>1</v>
@@ -3666,13 +3660,13 @@
         <v>5</v>
       </c>
       <c r="N10" s="86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>12</v>
       </c>
       <c r="P10" s="86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="80" t="s">
         <v>26</v>
@@ -3686,7 +3680,7 @@
         <v>45459</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="59">
         <v>0.625</v>
@@ -3707,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K11" s="66">
         <v>2</v>
@@ -3716,7 +3710,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N11" s="87" t="s">
         <v>10</v>
@@ -3739,13 +3733,13 @@
         <v>45459</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="59">
         <v>0.75</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>29</v>
@@ -3754,13 +3748,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="64">
         <v>1</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K12" s="66">
         <v>1</v>
@@ -3774,13 +3768,13 @@
         <v>45459</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="59">
         <v>0.875</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>29</v>
@@ -3795,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="66">
         <v>1</v>
@@ -3809,13 +3803,13 @@
         <v>45460</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="59">
         <v>0.625</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>29</v>
@@ -3830,7 +3824,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="66">
         <v>0</v>
@@ -3844,7 +3838,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="59">
         <v>0.75</v>
@@ -3865,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K15" s="66">
         <v>1</v>
@@ -3879,7 +3873,7 @@
         <v>45460</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="59">
         <v>0.875</v>
@@ -3900,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K16" s="66">
         <v>1</v>
@@ -3914,7 +3908,7 @@
         <v>45461</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="59">
         <v>0.75</v>
@@ -3926,7 +3920,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" s="63">
         <v>1</v>
@@ -3935,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K17" s="66">
         <v>1</v>
@@ -3949,7 +3943,7 @@
         <v>45461</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="59">
         <v>0.875</v>
@@ -3970,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K18" s="66">
         <v>1</v>
@@ -3984,7 +3978,7 @@
         <v>45462</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="59">
         <v>0.625</v>
@@ -3996,16 +3990,16 @@
         <v>29</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I19" s="64">
         <v>2</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19" s="66">
         <v>2</v>
@@ -4019,7 +4013,7 @@
         <v>45462</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="59">
         <v>0.75</v>
@@ -4040,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K20" s="66">
         <v>0</v>
@@ -4054,7 +4048,7 @@
         <v>45462</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="59">
         <v>0.875</v>
@@ -4069,13 +4063,13 @@
         <v>7</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I21" s="64">
         <v>1</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K21" s="66">
         <v>1</v>
@@ -4089,28 +4083,28 @@
         <v>45463</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="59">
         <v>0.625</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I22" s="64">
         <v>1</v>
       </c>
       <c r="J22" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K22" s="66">
         <v>1</v>
@@ -4124,7 +4118,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="59">
         <v>0.75</v>
@@ -4139,13 +4133,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I23" s="64">
         <v>1</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K23" s="66">
         <v>1</v>
@@ -4159,7 +4153,7 @@
         <v>45463</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="59">
         <v>0.875</v>
@@ -4180,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K24" s="66">
         <v>0</v>
@@ -4194,7 +4188,7 @@
         <v>45464</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="59">
         <v>0.625</v>
@@ -4215,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K25" s="66">
         <v>2</v>
@@ -4229,7 +4223,7 @@
         <v>45464</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="59">
         <v>0.75</v>
@@ -4250,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K26" s="66">
         <v>3</v>
@@ -4264,7 +4258,7 @@
         <v>45464</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="59">
         <v>0.875</v>
@@ -4279,13 +4273,13 @@
         <v>27</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I27" s="64">
         <v>0</v>
       </c>
       <c r="J27" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K27" s="66">
         <v>0</v>
@@ -4299,13 +4293,13 @@
         <v>45465</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="59">
         <v>0.625</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="61" t="s">
         <v>29</v>
@@ -4314,7 +4308,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I28" s="64">
         <v>1</v>
@@ -4332,7 +4326,7 @@
         <v>45465</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="59">
         <v>0.75</v>
@@ -4353,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K29" s="66">
         <v>3</v>
@@ -4367,7 +4361,7 @@
         <v>45465</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="59">
         <v>0.875</v>
@@ -4379,7 +4373,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H30" s="63">
         <v>1</v>
@@ -4388,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K30" s="66">
         <v>0</v>
@@ -4402,7 +4396,7 @@
         <v>45466</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="59">
         <v>0.875</v>
@@ -4417,13 +4411,13 @@
         <v>7</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I31" s="64">
         <v>1</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K31" s="66">
         <v>1</v>
@@ -4437,7 +4431,7 @@
         <v>45466</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="59">
         <v>0.875</v>
@@ -4458,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K32" s="66">
         <v>1</v>
@@ -4472,7 +4466,7 @@
         <v>45467</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="59">
         <v>0.875</v>
@@ -4487,13 +4481,13 @@
         <v>5</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I33" s="64">
         <v>1</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K33" s="66">
         <v>1</v>
@@ -4507,13 +4501,13 @@
         <v>45467</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="59">
         <v>0.875</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" s="61" t="s">
         <v>29</v>
@@ -4528,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K34" s="66">
         <v>1</v>
@@ -4542,7 +4536,7 @@
         <v>45468</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" s="59">
         <v>0.75</v>
@@ -4563,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K35" s="66">
         <v>3</v>
@@ -4577,7 +4571,7 @@
         <v>45468</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="59">
         <v>0.75</v>
@@ -4592,13 +4586,13 @@
         <v>22</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I36" s="64">
         <v>1</v>
       </c>
       <c r="J36" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K36" s="66">
         <v>1</v>
@@ -4612,7 +4606,7 @@
         <v>45468</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37" s="59">
         <v>0.875</v>
@@ -4624,16 +4618,16 @@
         <v>29</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I37" s="64">
         <v>0</v>
       </c>
       <c r="J37" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K37" s="66">
         <v>0</v>
@@ -4647,7 +4641,7 @@
         <v>45468</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="59">
         <v>0.875</v>
@@ -4659,16 +4653,16 @@
         <v>29</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H38" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I38" s="64">
         <v>0</v>
       </c>
       <c r="J38" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K38" s="66">
         <v>0</v>
@@ -4682,7 +4676,7 @@
         <v>45469</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" s="59">
         <v>0.75</v>
@@ -4694,16 +4688,16 @@
         <v>29</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H39" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I39" s="64">
         <v>1</v>
       </c>
       <c r="J39" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K39" s="66">
         <v>1</v>
@@ -4717,7 +4711,7 @@
         <v>45469</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="59">
         <v>0.75</v>
@@ -4732,13 +4726,13 @@
         <v>9</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I40" s="64">
         <v>0</v>
       </c>
       <c r="J40" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K40" s="66">
         <v>0</v>
@@ -4752,7 +4746,7 @@
         <v>45469</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="59">
         <v>0.875</v>
@@ -4773,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K41" s="66">
         <v>2</v>
@@ -4787,13 +4781,13 @@
         <v>45469</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D42" s="59">
         <v>0.875</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" s="61" t="s">
         <v>29</v>
@@ -4808,13 +4802,13 @@
         <v>2</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K42" s="66">
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="12"/>
@@ -4827,7 +4821,7 @@
         <v>45472</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D43" s="59">
         <v>0.75</v>
@@ -4839,7 +4833,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
@@ -4848,13 +4842,13 @@
         <v>2</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K43" s="66">
         <v>0</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N43" s="97"/>
       <c r="O43" s="98"/>
@@ -4867,7 +4861,7 @@
         <v>45472</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44" s="59">
         <v>0.875</v>
@@ -4891,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N44" s="100"/>
       <c r="O44" s="101"/>
@@ -4904,7 +4898,7 @@
         <v>45473</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D45" s="59">
         <v>0.75</v>
@@ -4919,19 +4913,19 @@
         <v>23</v>
       </c>
       <c r="H45" s="68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I45" s="64">
         <v>1</v>
       </c>
       <c r="J45" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K45" s="66">
         <v>1</v>
       </c>
       <c r="M45" s="99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -4944,7 +4938,7 @@
         <v>45473</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D46" s="59">
         <v>0.875</v>
@@ -4956,7 +4950,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" s="68">
         <v>1</v>
@@ -4965,7 +4959,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K46" s="66">
         <v>1</v>
@@ -4979,7 +4973,7 @@
         <v>45474</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47" s="59">
         <v>0.75</v>
@@ -5000,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K47" s="66">
         <v>0</v>
@@ -5014,7 +5008,7 @@
         <v>45474</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" s="59">
         <v>0.875</v>
@@ -5026,16 +5020,16 @@
         <v>29</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H48" s="68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I48" s="64">
         <v>0</v>
       </c>
       <c r="J48" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K48" s="66">
         <v>0</v>
@@ -5049,26 +5043,32 @@
         <v>45475</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="59">
         <v>0.75</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="68"/>
-      <c r="I49" s="64"/>
+        <v>30</v>
+      </c>
+      <c r="H49" s="68">
+        <v>2</v>
+      </c>
+      <c r="I49" s="64">
+        <v>0</v>
+      </c>
       <c r="J49" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="K49" s="66"/>
+        <v>74</v>
+      </c>
+      <c r="K49" s="66">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="57">
@@ -5078,7 +5078,7 @@
         <v>45475</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="59">
         <v>0.875</v>
@@ -5095,7 +5095,7 @@
       <c r="H50" s="68"/>
       <c r="I50" s="64"/>
       <c r="J50" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K50" s="66"/>
     </row>
@@ -5107,22 +5107,22 @@
         <v>45478</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" s="59">
         <v>0.75</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F51" s="69"/>
       <c r="G51" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="64"/>
       <c r="J51" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K51" s="66"/>
     </row>
@@ -5134,22 +5134,22 @@
         <v>45478</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D52" s="59">
         <v>0.875</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="64"/>
       <c r="J52" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K52" s="66"/>
     </row>
@@ -5161,22 +5161,22 @@
         <v>45479</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D53" s="59">
         <v>0.75</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" s="69"/>
       <c r="G53" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="64"/>
       <c r="J53" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K53" s="66"/>
     </row>
@@ -5188,22 +5188,22 @@
         <v>45479</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D54" s="59">
         <v>0.875</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F54" s="69"/>
       <c r="G54" s="60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="64"/>
       <c r="J54" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K54" s="66"/>
     </row>
@@ -5215,22 +5215,22 @@
         <v>45482</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D55" s="59">
         <v>0.875</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="64"/>
       <c r="J55" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K55" s="66"/>
     </row>
@@ -5242,22 +5242,22 @@
         <v>45483</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D56" s="59">
         <v>0.875</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F56" s="69"/>
       <c r="G56" s="60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="64"/>
       <c r="J56" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K56" s="66"/>
     </row>
@@ -5269,22 +5269,22 @@
         <v>45487</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57" s="72">
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
       <c r="J57" s="77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K57" s="78"/>
     </row>
@@ -5305,7 +5305,7 @@
       <c r="D60" s="2"/>
       <c r="I60" s="44"/>
       <c r="J60" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -5313,7 +5313,7 @@
       <c r="C61" s="1"/>
       <c r="I61" s="44"/>
       <c r="J61" s="45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -5321,7 +5321,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="I62" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J62" s="46" t="s">
         <v>25</v>
@@ -5334,7 +5334,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="I63" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J63" s="46" t="s">
         <v>7</v>
@@ -5347,7 +5347,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="I64" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J64" s="47" t="s">
         <v>28</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I65" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J65" s="47" t="s">
         <v>18</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I68" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J68" s="46" t="s">
         <v>21</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I69" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J69" s="46" t="s">
         <v>5</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I70" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J70" s="47" t="s">
         <v>11</v>
@@ -5410,13 +5410,13 @@
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I71" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K71" s="79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.35">
@@ -5429,18 +5429,18 @@
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I74" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J74" s="47" t="s">
         <v>10</v>
       </c>
       <c r="K74" s="79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I75" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J75" s="47" t="s">
         <v>8</v>
@@ -5451,21 +5451,21 @@
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I76" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K76" s="79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I77" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J77" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K77" s="79" t="s">
         <v>10</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I80" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J80" s="47" t="s">
         <v>12</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I81" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J81" s="47" t="s">
         <v>27</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="82" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I82" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J82" s="47" t="s">
         <v>30</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="83" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I83" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J83" s="47" t="s">
         <v>22</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I86" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J86" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K86" s="79" t="s">
         <v>9</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I87" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J87" s="47" t="s">
         <v>9</v>
@@ -5555,18 +5555,18 @@
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I88" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J88" s="47" t="s">
         <v>23</v>
       </c>
       <c r="K88" s="79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I89" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J89" s="47" t="s">
         <v>16</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I92" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J92" s="47" t="s">
         <v>26</v>
@@ -5598,21 +5598,21 @@
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I93" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J93" s="47" t="s">
         <v>4</v>
       </c>
       <c r="K93" s="79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I94" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J94" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K94" s="79" t="s">
         <v>26</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="95" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I95" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J95" s="47" t="s">
         <v>19</v>
@@ -5727,191 +5727,191 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="142"/>
       <c r="G1" s="143"/>
       <c r="H1" s="144" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
       <c r="N1" s="141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O1" s="142"/>
       <c r="P1" s="143"/>
       <c r="Q1" s="141" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R1" s="142"/>
       <c r="S1" s="143"/>
       <c r="T1" s="144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U1" s="144"/>
       <c r="V1" s="144"/>
       <c r="W1" s="141" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
       <c r="AF1" s="141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG1" s="142"/>
       <c r="AH1" s="143"/>
       <c r="AI1" s="141" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AJ1" s="142"/>
       <c r="AK1" s="143"/>
       <c r="AL1" s="141" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
       <c r="AU1" s="141" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
-        <v>124</v>
-      </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
-        <v>132</v>
-      </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
-        <v>135</v>
-      </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
+        <v>137</v>
+      </c>
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
-        <v>142</v>
-      </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -5919,337 +5919,337 @@
       <c r="C2" s="6"/>
       <c r="D2" s="16"/>
       <c r="E2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="K2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="N2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="Q2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="T2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="W2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="Z2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="AC2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="AF2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="AI2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="AL2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AM2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="AO2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AP2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="AR2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AS2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT2" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="AU2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="AX2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BA2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BB2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BD2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BE2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BG2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BH2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BJ2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BK2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BM2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BN2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BO2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BP2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BQ2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BR2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BS2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BT2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BT2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BU2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BV2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BW2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BX2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="BY2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BZ2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CA2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CB2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CC2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CC2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CD2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CE2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CG2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CF2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CG2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CH2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CJ2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CI2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CJ2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CK2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CM2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CL2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CM2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CN2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CO2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CP2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CO2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CP2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CQ2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CR2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CR2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CS2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CT2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CU2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CV2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CU2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CV2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CW2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CX2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CY2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CX2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CY2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="CZ2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="DA2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="DB2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="DA2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="DB2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="DC2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="DD2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="DE2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="DD2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="DE2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="DF2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="DG2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="DH2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="DG2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="DH2" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="DI2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="DK2" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="DJ2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="DK2" s="29" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:117" x14ac:dyDescent="0.35">
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="BJ3" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK3" s="22">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U4" s="17">
         <v>0</v>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="AL4" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM4" s="22">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="BJ4" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK4" s="22">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN4" s="22">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="BV4" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW4" s="22">
         <v>1</v>
@@ -6849,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="CE4" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF4" s="22">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="CH4" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI4" s="22">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="CK4" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL4" s="22">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="CN4" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO4" s="22">
         <v>1</v>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="22">
         <v>1</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" s="23">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U5" s="17">
         <v>1</v>
@@ -7033,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD5" s="22">
         <v>2</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS5" s="22">
         <v>1</v>
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="AU5" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV5" s="22">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="AX5" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY5" s="22">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="BD5" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE5" s="22">
         <v>1</v>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="BG5" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH5" s="22">
         <v>1</v>
@@ -7132,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="BJ5" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK5" s="22">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ5" s="22">
         <v>1</v>
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="BS5" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT5" s="22">
         <v>2</v>
@@ -7195,7 +7195,7 @@
         <v>2</v>
       </c>
       <c r="CE5" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF5" s="22">
         <v>2</v>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="CT5" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU5" s="22">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="CW5" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX5" s="22">
         <v>1</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="22">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV6" s="22">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK6" s="22">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM7" s="22">
         <v>1</v>
@@ -7824,7 +7824,7 @@
         <v>2</v>
       </c>
       <c r="BJ7" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK7" s="22">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="CT7" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU7" s="22">
         <v>1</v>
@@ -8170,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="BJ8" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK8" s="22">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="BY8" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ8" s="22">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="CB8" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC8" s="22">
         <v>2</v>
@@ -8296,7 +8296,7 @@
         <v>2</v>
       </c>
       <c r="CZ8" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA8" s="22">
         <v>1</v>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="DC8" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DD8" s="22">
         <v>1</v>
@@ -8516,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="BJ9" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK9" s="22">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN9" s="22">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" s="22">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L10" s="22">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U10" s="17">
         <v>1</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA10" s="22">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ10" s="20">
         <v>1</v>
@@ -8790,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM10" s="22">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV10" s="22">
         <v>1</v>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="AX10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY10" s="22">
         <v>1</v>
@@ -8835,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="BA10" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BB10" s="20">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE10" s="22">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH10" s="22">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK10" s="22">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN10" s="22">
         <v>1</v>
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="BP10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ10" s="22">
         <v>1</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="BS10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT10" s="22">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="CB10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC10" s="22">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="CE10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF10" s="22">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="CH10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI10" s="22">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="CK10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL10" s="22">
         <v>0</v>
@@ -8961,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="CQ10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CR10" s="22">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="CT10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU10" s="22">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="CW10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX10" s="22">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="DC10" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DD10" s="22">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="DF10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DG10" s="22">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK11" s="22">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="BJ12" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK12" s="22">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN12" s="22">
         <v>1</v>
@@ -9662,7 +9662,7 @@
         <v>2</v>
       </c>
       <c r="CT12" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU12" s="22">
         <v>2</v>
@@ -9671,7 +9671,7 @@
         <v>2</v>
       </c>
       <c r="CW12" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX12" s="22">
         <v>1</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD13" s="22">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ13" s="20">
         <v>1</v>
@@ -9891,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH13" s="22">
         <v>1</v>
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="BJ13" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK13" s="22">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="CW13" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX13" s="22">
         <v>2</v>
@@ -10026,7 +10026,7 @@
         <v>2</v>
       </c>
       <c r="CZ13" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA13" s="22">
         <v>0</v>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM14" s="22">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK14" s="22">
         <v>0</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV15" s="22">
         <v>2</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK15" s="22">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK16" s="22">
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>Schweiz</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="22">
         <v>1</v>
@@ -11140,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O17" s="23">
         <v>1</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U17" s="17">
         <v>1</v>
@@ -11185,7 +11185,7 @@
         <v>2</v>
       </c>
       <c r="AC17" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD17" s="22">
         <v>2</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV17" s="22">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="BA17" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BB17" s="20">
         <v>1</v>
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="BD17" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE17" s="22">
         <v>2</v>
@@ -11284,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="BJ17" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK17" s="22">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN17" s="22">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="BP17" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ17" s="22">
         <v>0</v>
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="CH17" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI17" s="22">
         <v>2</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="CK17" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL17" s="22">
         <v>2</v>
@@ -11410,7 +11410,7 @@
         <v>2</v>
       </c>
       <c r="CZ17" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA17" s="22">
         <v>1</v>
@@ -11419,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="DC17" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DD17" s="22">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>Serbien</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="22">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L18" s="22">
         <v>2</v>
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD18" s="22">
         <v>1</v>
@@ -11549,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="AI18" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ18" s="20">
         <v>1</v>
@@ -11567,7 +11567,7 @@
         <v>2</v>
       </c>
       <c r="AO18" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AP18" s="18">
         <v>1</v>
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="AR18" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS18" s="22">
         <v>1</v>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="AU18" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV18" s="22">
         <v>1</v>
@@ -11621,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="BG18" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH18" s="22">
         <v>1</v>
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="BJ18" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK18" s="22">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN18" s="22">
         <v>0</v>
@@ -11675,7 +11675,7 @@
         <v>2</v>
       </c>
       <c r="BY18" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ18" s="22">
         <v>2</v>
@@ -11702,7 +11702,7 @@
         <v>2</v>
       </c>
       <c r="CH18" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI18" s="22">
         <v>2</v>
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="CK18" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL18" s="22">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>2</v>
       </c>
       <c r="CQ18" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CR18" s="22">
         <v>1</v>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="CW18" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX18" s="22">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="DC18" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DD18" s="22">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="DF18" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DG18" s="22">
         <v>2</v>
@@ -11805,7 +11805,7 @@
         <v>England</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="22">
         <v>1</v>
@@ -11823,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L19" s="22">
         <v>1</v>
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O19" s="23">
         <v>2</v>
@@ -11877,7 +11877,7 @@
         <v>3</v>
       </c>
       <c r="AC19" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD19" s="22">
         <v>2</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM19" s="22">
         <v>2</v>
@@ -11922,7 +11922,7 @@
         <v>2</v>
       </c>
       <c r="AR19" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS19" s="22">
         <v>1</v>
@@ -11958,7 +11958,7 @@
         <v>2</v>
       </c>
       <c r="BD19" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE19" s="22">
         <v>1</v>
@@ -11976,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="BJ19" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK19" s="22">
         <v>0</v>
@@ -12012,7 +12012,7 @@
         <v>3</v>
       </c>
       <c r="BV19" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW19" s="22">
         <v>2</v>
@@ -12039,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="CE19" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF19" s="22">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="CQ19" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CR19" s="22">
         <v>1</v>
@@ -12084,7 +12084,7 @@
         <v>2</v>
       </c>
       <c r="CT19" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU19" s="22">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="CW19" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX19" s="22">
         <v>2</v>
@@ -12151,7 +12151,7 @@
         <v>Italien</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="22">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O20" s="23">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X20" s="22">
         <v>1</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG20" s="22">
         <v>2</v>
@@ -12259,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="AO20" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AP20" s="18">
         <v>2</v>
@@ -12295,7 +12295,7 @@
         <v>2</v>
       </c>
       <c r="BA20" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BB20" s="20">
         <v>2</v>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH20" s="22">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK20" s="22">
         <v>0</v>
@@ -12340,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="BP20" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ20" s="22">
         <v>1</v>
@@ -12358,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="BV20" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW20" s="22">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="CE20" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF20" s="22">
         <v>3</v>
@@ -12412,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="CN20" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO20" s="22">
         <v>1</v>
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="CZ20" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA20" s="22">
         <v>1</v>
@@ -12497,7 +12497,7 @@
         <v>Ukraina</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="22">
         <v>1</v>
@@ -12587,7 +12587,7 @@
         <v>2</v>
       </c>
       <c r="AI21" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ21" s="20">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="AO21" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AP21" s="18">
         <v>1</v>
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS21" s="22">
         <v>1</v>
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="AU21" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV21" s="22">
         <v>1</v>
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="AX21" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY21" s="22">
         <v>1</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE21" s="22">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="BG21" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH21" s="22">
         <v>2</v>
@@ -12668,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="BJ21" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK21" s="22">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN21" s="22">
         <v>1</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="BS21" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT21" s="22">
         <v>1</v>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="BV21" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW21" s="22">
         <v>0</v>
@@ -12767,7 +12767,7 @@
         <v>2</v>
       </c>
       <c r="CQ21" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CR21" s="22">
         <v>1</v>
@@ -12794,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA21" s="22">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>2</v>
       </c>
       <c r="DF21" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DG21" s="22">
         <v>0</v>
@@ -12852,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I22" s="22">
         <v>1</v>
@@ -12879,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R22" s="22">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD22" s="22">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>2</v>
       </c>
       <c r="AR22" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS22" s="22">
         <v>2</v>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="BJ22" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK22" s="22">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN22" s="22">
         <v>1</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="BV22" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW22" s="22">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="BY22" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ22" s="22">
         <v>1</v>
@@ -13104,7 +13104,7 @@
         <v>3</v>
       </c>
       <c r="CN22" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO22" s="22">
         <v>1</v>
@@ -13131,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="CW22" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX22" s="22">
         <v>1</v>
@@ -13140,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="CZ22" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA22" s="22">
         <v>2</v>
@@ -13149,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="DC22" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DD22" s="22">
         <v>1</v>
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U23" s="17">
         <v>2</v>
@@ -13306,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="AR23" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS23" s="22">
         <v>1</v>
@@ -13315,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="AU23" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV23" s="22">
         <v>1</v>
@@ -13324,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="AX23" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY23" s="22">
         <v>2</v>
@@ -13333,7 +13333,7 @@
         <v>2</v>
       </c>
       <c r="BA23" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BB23" s="20">
         <v>3</v>
@@ -13360,7 +13360,7 @@
         <v>3</v>
       </c>
       <c r="BJ23" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK23" s="22">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>3</v>
       </c>
       <c r="CH23" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI23" s="22">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="CZ23" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA23" s="22">
         <v>2</v>
@@ -13598,7 +13598,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA24" s="22">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM24" s="22">
         <v>1</v>
@@ -13706,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="BJ24" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK24" s="22">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>2</v>
       </c>
       <c r="CB24" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC24" s="22">
         <v>2</v>
@@ -13769,7 +13769,7 @@
         <v>2</v>
       </c>
       <c r="CE24" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF24" s="22">
         <v>1</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="CH24" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI24" s="22">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="CK24" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL24" s="22">
         <v>1</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA24" s="22">
         <v>1</v>
@@ -13980,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM25" s="22">
         <v>1</v>
@@ -14043,7 +14043,7 @@
         <v>2</v>
       </c>
       <c r="BG25" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH25" s="22">
         <v>2</v>
@@ -14052,7 +14052,7 @@
         <v>2</v>
       </c>
       <c r="BJ25" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK25" s="22">
         <v>0</v>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV26" s="22">
         <v>1</v>
@@ -14398,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK26" s="22">
         <v>0</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I27" s="22">
         <v>1</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O27" s="23">
         <v>2</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM27" s="22">
         <v>1</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK27" s="22">
         <v>0</v>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="CB27" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC27" s="22">
         <v>2</v>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="CQ27" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CR27" s="22">
         <v>2</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="CT27" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU27" s="22">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="CW27" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX27" s="22">
         <v>1</v>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I28" s="22">
         <v>1</v>
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U28" s="17">
         <v>1</v>
@@ -15009,7 +15009,7 @@
         <v>3</v>
       </c>
       <c r="AI28" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ28" s="20">
         <v>1</v>
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV28" s="22">
         <v>1</v>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BB28" s="20">
         <v>1</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK28" s="22">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN28" s="22">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="BV28" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW28" s="22">
         <v>2</v>
@@ -15135,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="BY28" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ28" s="22">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="CE28" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF28" s="22">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="CH28" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI28" s="22">
         <v>1</v>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="CK28" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL28" s="22">
         <v>2</v>
@@ -15180,7 +15180,7 @@
         <v>2</v>
       </c>
       <c r="CN28" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO28" s="22">
         <v>1</v>
@@ -15265,7 +15265,7 @@
         <v>Italien</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" s="22">
         <v>0</v>
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I29" s="22">
         <v>1</v>
@@ -15292,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O29" s="23">
         <v>1</v>
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U29" s="17">
         <v>2</v>
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA29" s="22">
         <v>0</v>
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="AO29" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AP29" s="18">
         <v>1</v>
@@ -15382,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="AR29" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS29" s="22">
         <v>1</v>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="AX29" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY29" s="22">
         <v>1</v>
@@ -15418,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="BD29" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE29" s="22">
         <v>0</v>
@@ -15436,7 +15436,7 @@
         <v>2</v>
       </c>
       <c r="BJ29" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK29" s="22">
         <v>0</v>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ29" s="22">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="BV29" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW29" s="22">
         <v>0</v>
@@ -15499,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="CE29" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF29" s="22">
         <v>1</v>
@@ -15544,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="CT29" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU29" s="22">
         <v>1</v>
@@ -15562,7 +15562,7 @@
         <v>2</v>
       </c>
       <c r="CZ29" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA29" s="22">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="DF29" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DG29" s="22">
         <v>2</v>
@@ -15782,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="BJ30" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK30" s="22">
         <v>0</v>
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O31" s="23">
         <v>1</v>
@@ -16083,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV31" s="22">
         <v>0</v>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE31" s="22">
         <v>2</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK31" s="22">
         <v>0</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN31" s="22">
         <v>1</v>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="BV31" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW31" s="22">
         <v>1</v>
@@ -16236,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="CT31" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU31" s="22">
         <v>2</v>
@@ -16474,7 +16474,7 @@
         <v>1</v>
       </c>
       <c r="BJ32" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK32" s="22">
         <v>0</v>
@@ -16483,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN32" s="22">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK33" s="22">
         <v>0</v>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="CB33" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC33" s="22">
         <v>2</v>
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA34" s="22">
         <v>2</v>
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ34" s="20">
         <v>1</v>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM34" s="22">
         <v>1</v>
@@ -17112,7 +17112,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS34" s="22">
         <v>1</v>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY34" s="22">
         <v>2</v>
@@ -17139,7 +17139,7 @@
         <v>2</v>
       </c>
       <c r="BA34" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BB34" s="20">
         <v>1</v>
@@ -17166,7 +17166,7 @@
         <v>2</v>
       </c>
       <c r="BJ34" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK34" s="22">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="BS34" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT34" s="22">
         <v>1</v>
@@ -17220,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="CB34" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC34" s="22">
         <v>1</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="CN34" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO34" s="22">
         <v>1</v>
@@ -17292,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="CZ34" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA34" s="22">
         <v>1</v>
@@ -17377,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R35" s="22">
         <v>1</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U35" s="17">
         <v>0</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD35" s="22">
         <v>1</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV35" s="22">
         <v>2</v>
@@ -17476,7 +17476,7 @@
         <v>2</v>
       </c>
       <c r="AX35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY35" s="22">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BB35" s="20">
         <v>2</v>
@@ -17512,7 +17512,7 @@
         <v>2</v>
       </c>
       <c r="BJ35" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK35" s="22">
         <v>0</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ35" s="22">
         <v>1</v>
@@ -17539,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="BS35" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT35" s="22">
         <v>1</v>
@@ -17557,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="BY35" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ35" s="22">
         <v>1</v>
@@ -17575,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="CE35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CF35" s="22">
         <v>0</v>
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="CK35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL35" s="22">
         <v>0</v>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="CN35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO35" s="22">
         <v>1</v>
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="CT35" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU35" s="22">
         <v>1</v>
@@ -17629,7 +17629,7 @@
         <v>1</v>
       </c>
       <c r="CW35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX35" s="22">
         <v>1</v>
@@ -17638,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="CZ35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA35" s="22">
         <v>2</v>
@@ -17849,7 +17849,7 @@
         <v>5</v>
       </c>
       <c r="BG36" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH36" s="22">
         <v>2</v>
@@ -17858,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="BJ36" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK36" s="22">
         <v>0</v>
@@ -17984,7 +17984,7 @@
         <v>3</v>
       </c>
       <c r="CZ36" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA36" s="22">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>Turkiet</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F37" s="22">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>2</v>
       </c>
       <c r="AC37" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD37" s="22">
         <v>1</v>
@@ -18150,7 +18150,7 @@
         <v>2</v>
       </c>
       <c r="AR37" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS37" s="22">
         <v>1</v>
@@ -18177,7 +18177,7 @@
         <v>2</v>
       </c>
       <c r="BA37" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BB37" s="20">
         <v>0</v>
@@ -18204,7 +18204,7 @@
         <v>2</v>
       </c>
       <c r="BJ37" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK37" s="22">
         <v>0</v>
@@ -18231,7 +18231,7 @@
         <v>0</v>
       </c>
       <c r="BS37" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT37" s="22">
         <v>2</v>
@@ -18240,7 +18240,7 @@
         <v>2</v>
       </c>
       <c r="BV37" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW37" s="22">
         <v>1</v>
@@ -18276,7 +18276,7 @@
         <v>3</v>
       </c>
       <c r="CH37" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CI37" s="22">
         <v>1</v>
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="CN37" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO37" s="22">
         <v>1</v>
@@ -18321,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="CW37" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX37" s="22">
         <v>1</v>
@@ -18339,7 +18339,7 @@
         <v>2</v>
       </c>
       <c r="DC37" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DD37" s="22">
         <v>2</v>
@@ -18348,7 +18348,7 @@
         <v>2</v>
       </c>
       <c r="DF37" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DG37" s="22">
         <v>1</v>
@@ -18550,7 +18550,7 @@
         <v>3</v>
       </c>
       <c r="BJ38" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK38" s="22">
         <v>0</v>
@@ -18734,7 +18734,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I39" s="22">
         <v>1</v>
@@ -18896,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="BJ39" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK39" s="22">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ39" s="22">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>2</v>
       </c>
       <c r="CT39" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU39" s="22">
         <v>1</v>
@@ -19161,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ40" s="20">
         <v>1</v>
@@ -19188,7 +19188,7 @@
         <v>1</v>
       </c>
       <c r="AR40" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS40" s="22">
         <v>1</v>
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK40" s="22">
         <v>0</v>
@@ -19251,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN40" s="22">
         <v>1</v>
@@ -19350,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="CT40" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU40" s="22">
         <v>1</v>
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV41" s="22">
         <v>1</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="BJ41" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK41" s="22">
         <v>0</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="CZ41" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA41" s="22">
         <v>1</v>
@@ -19934,7 +19934,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK42" s="22">
         <v>0</v>
@@ -20136,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O43" s="23">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS43" s="22">
         <v>1</v>
@@ -20280,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="BJ43" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK43" s="22">
         <v>0</v>
@@ -20289,7 +20289,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN43" s="22">
         <v>1</v>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="BP43" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ43" s="22">
         <v>1</v>
@@ -20325,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="BY43" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ43" s="22">
         <v>1</v>
@@ -20397,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="CW43" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX43" s="22">
         <v>1</v>
@@ -20554,7 +20554,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM44" s="22">
         <v>1</v>
@@ -20617,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="BG44" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH44" s="22">
         <v>1</v>
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="BJ44" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK44" s="22">
         <v>0</v>
@@ -20662,7 +20662,7 @@
         <v>1</v>
       </c>
       <c r="BV44" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW44" s="22">
         <v>1</v>
@@ -20731,7 +20731,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -20791,14 +20791,14 @@
       </c>
       <c r="B45" s="60" t="str">
         <f>Resultat!E49</f>
-        <v>1E</v>
+        <v>Rumänien</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="60" t="str">
         <f>Resultat!G49</f>
-        <v>3A/B/C/D</v>
+        <v>Nederländerna</v>
       </c>
       <c r="E45" s="33">
         <v>1</v>
@@ -20873,7 +20873,7 @@
         <v>2</v>
       </c>
       <c r="AC45" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD45" s="22">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV45" s="22">
         <v>0</v>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY45" s="22">
         <v>1</v>
@@ -20954,7 +20954,7 @@
         <v>1</v>
       </c>
       <c r="BD45" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE45" s="22">
         <v>2</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="BJ45" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK45" s="22">
         <v>0</v>
@@ -20999,7 +20999,7 @@
         <v>1</v>
       </c>
       <c r="BS45" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT45" s="22">
         <v>1</v>
@@ -21053,7 +21053,7 @@
         <v>2</v>
       </c>
       <c r="CK45" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL45" s="22">
         <v>2</v>
@@ -21089,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="CW45" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX45" s="22">
         <v>1</v>
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="CZ45" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA45" s="22">
         <v>1</v>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK46" s="22">
         <v>0</v>
@@ -21327,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN46" s="22">
         <v>1</v>
@@ -21444,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="CZ46" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA46" s="22">
         <v>1</v>
@@ -21493,7 +21493,7 @@
         <v>V37</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="22">
         <v>1</v>
@@ -21502,7 +21502,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I47" s="22">
         <v>1</v>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD47" s="22">
         <v>1</v>
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ47" s="20">
         <v>1</v>
@@ -21610,7 +21610,7 @@
         <v>3</v>
       </c>
       <c r="AR47" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS47" s="22">
         <v>2</v>
@@ -21619,7 +21619,7 @@
         <v>2</v>
       </c>
       <c r="AU47" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV47" s="22">
         <v>2</v>
@@ -21655,7 +21655,7 @@
         <v>1</v>
       </c>
       <c r="BG47" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH47" s="22">
         <v>2</v>
@@ -21664,7 +21664,7 @@
         <v>2</v>
       </c>
       <c r="BJ47" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK47" s="22">
         <v>0</v>
@@ -21700,7 +21700,7 @@
         <v>2</v>
       </c>
       <c r="BV47" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BW47" s="22">
         <v>2</v>
@@ -21709,7 +21709,7 @@
         <v>2</v>
       </c>
       <c r="BY47" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ47" s="22">
         <v>2</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="CT47" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU47" s="22">
         <v>1</v>
@@ -21839,7 +21839,7 @@
         <v>V42</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="22">
         <v>1</v>
@@ -21848,7 +21848,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I48" s="22">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD48" s="22">
         <v>1</v>
@@ -21956,7 +21956,7 @@
         <v>1</v>
       </c>
       <c r="AR48" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS48" s="22">
         <v>1</v>
@@ -21992,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="BD48" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE48" s="22">
         <v>1</v>
@@ -22010,7 +22010,7 @@
         <v>2</v>
       </c>
       <c r="BJ48" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK48" s="22">
         <v>0</v>
@@ -22028,7 +22028,7 @@
         <v>1</v>
       </c>
       <c r="BP48" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ48" s="22">
         <v>1</v>
@@ -22091,7 +22091,7 @@
         <v>3</v>
       </c>
       <c r="CK48" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL48" s="22">
         <v>2</v>
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="CZ48" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA48" s="22">
         <v>1</v>
@@ -22185,7 +22185,7 @@
         <v>V38</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" s="22">
         <v>1</v>
@@ -22194,7 +22194,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I49" s="22">
         <v>1</v>
@@ -22275,7 +22275,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ49" s="20">
         <v>1</v>
@@ -22302,7 +22302,7 @@
         <v>1</v>
       </c>
       <c r="AR49" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS49" s="22">
         <v>1</v>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY49" s="22">
         <v>0</v>
@@ -22356,7 +22356,7 @@
         <v>2</v>
       </c>
       <c r="BJ49" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK49" s="22">
         <v>0</v>
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN49" s="22">
         <v>1</v>
@@ -22383,7 +22383,7 @@
         <v>0</v>
       </c>
       <c r="BS49" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BT49" s="22">
         <v>0</v>
@@ -22410,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="CB49" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC49" s="22">
         <v>2</v>
@@ -22473,7 +22473,7 @@
         <v>1</v>
       </c>
       <c r="CW49" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX49" s="22">
         <v>2</v>
@@ -22482,7 +22482,7 @@
         <v>2</v>
       </c>
       <c r="CZ49" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA49" s="22">
         <v>0</v>
@@ -22540,7 +22540,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I50" s="22">
         <v>1</v>
@@ -22648,7 +22648,7 @@
         <v>2</v>
       </c>
       <c r="AR50" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS50" s="22">
         <v>1</v>
@@ -22702,7 +22702,7 @@
         <v>3</v>
       </c>
       <c r="BJ50" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK50" s="22">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         <v>4</v>
       </c>
       <c r="CK50" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL50" s="22">
         <v>1</v>
@@ -22901,7 +22901,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O51" s="23">
         <v>2</v>
@@ -22964,7 +22964,7 @@
         <v>1</v>
       </c>
       <c r="AI51" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ51" s="20">
         <v>1</v>
@@ -22973,7 +22973,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM51" s="22">
         <v>1</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS51" s="22">
         <v>1</v>
@@ -23000,7 +23000,7 @@
         <v>1</v>
       </c>
       <c r="AU51" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV51" s="22">
         <v>1</v>
@@ -23009,7 +23009,7 @@
         <v>1</v>
       </c>
       <c r="AX51" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY51" s="22">
         <v>2</v>
@@ -23045,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="BJ51" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK51" s="22">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="CW51" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CX51" s="22">
         <v>1</v>
@@ -23217,7 +23217,7 @@
         <v>V46</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F52" s="22">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD52" s="22">
         <v>2</v>
@@ -23307,7 +23307,7 @@
         <v>1</v>
       </c>
       <c r="AI52" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ52" s="20">
         <v>1</v>
@@ -23316,7 +23316,7 @@
         <v>1</v>
       </c>
       <c r="AL52" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM52" s="22">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="AR52" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS52" s="22">
         <v>1</v>
@@ -23379,7 +23379,7 @@
         <v>1</v>
       </c>
       <c r="BG52" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH52" s="22">
         <v>2</v>
@@ -23388,7 +23388,7 @@
         <v>2</v>
       </c>
       <c r="BJ52" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK52" s="22">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN52" s="22">
         <v>1</v>
@@ -23469,7 +23469,7 @@
         <v>3</v>
       </c>
       <c r="CK52" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CL52" s="22">
         <v>1</v>
@@ -23496,7 +23496,7 @@
         <v>3</v>
       </c>
       <c r="CT52" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU52" s="22">
         <v>1</v>
@@ -23514,7 +23514,7 @@
         <v>2</v>
       </c>
       <c r="CZ52" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DA52" s="22">
         <v>1</v>
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="AI53" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ53" s="20">
         <v>2</v>
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="AR53" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AS53" s="22">
         <v>1</v>
@@ -23696,7 +23696,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY53" s="22">
         <v>1</v>
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="BD53" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BE53" s="22">
         <v>1</v>
@@ -23732,7 +23732,7 @@
         <v>3</v>
       </c>
       <c r="BJ53" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BK53" s="22">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="CB53" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC53" s="22">
         <v>2</v>
@@ -23840,7 +23840,7 @@
         <v>2</v>
       </c>
       <c r="CT53" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CU53" s="22">
         <v>1</v>
@@ -24057,7 +24057,7 @@
     </row>
     <row r="57" spans="1:117" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>25</v>
@@ -24866,142 +24866,142 @@
       <c r="A62"/>
       <c r="D62"/>
       <c r="E62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q62" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF62" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI62" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AL62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AR62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AU62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AX62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BA62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BD62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BG62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BJ62" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BM62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BN62" s="31"/>
       <c r="BO62" s="31"/>
       <c r="BP62" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BQ62" s="31"/>
       <c r="BR62" s="31"/>
       <c r="BS62" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BT62" s="31"/>
       <c r="BU62" s="31"/>
       <c r="BV62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BW62" s="31"/>
       <c r="BX62" s="31"/>
       <c r="BY62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BZ62" s="31"/>
       <c r="CA62" s="31"/>
       <c r="CB62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CC62" s="31"/>
       <c r="CD62" s="31"/>
       <c r="CE62" s="123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CF62" s="31"/>
       <c r="CG62" s="31"/>
       <c r="CH62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CI62" s="31"/>
       <c r="CJ62" s="31"/>
       <c r="CK62" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CL62" s="31"/>
       <c r="CM62" s="31"/>
       <c r="CN62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CO62" s="31"/>
       <c r="CP62" s="31"/>
       <c r="CQ62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CR62" s="31"/>
       <c r="CS62" s="31"/>
       <c r="CT62" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CU62" s="31"/>
       <c r="CV62" s="31"/>
       <c r="CW62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CZ62" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="DC62" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="DF62" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:117" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>21</v>
@@ -25449,7 +25449,7 @@
       <c r="BH65" s="31"/>
       <c r="BI65" s="31"/>
       <c r="BJ65" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BK65" s="31"/>
       <c r="BL65" s="31"/>
@@ -25530,97 +25530,97 @@
       <c r="A66"/>
       <c r="D66"/>
       <c r="E66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
       <c r="N66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O66" s="31"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
       <c r="T66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U66" s="31"/>
       <c r="V66" s="31"/>
       <c r="W66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA66" s="31"/>
       <c r="AB66" s="31"/>
       <c r="AC66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD66" s="31"/>
       <c r="AE66" s="31"/>
       <c r="AF66" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG66" s="31"/>
       <c r="AH66" s="31"/>
       <c r="AI66" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AJ66" s="31"/>
       <c r="AK66" s="31"/>
       <c r="AL66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AM66" s="31"/>
       <c r="AN66" s="31"/>
       <c r="AO66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="31"/>
       <c r="AR66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AS66" s="31"/>
       <c r="AT66" s="31"/>
       <c r="AU66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AV66" s="31"/>
       <c r="AW66" s="31"/>
       <c r="AX66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY66" s="31"/>
       <c r="AZ66" s="31"/>
       <c r="BA66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BB66" s="31"/>
       <c r="BC66" s="31"/>
       <c r="BD66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BE66" s="31"/>
       <c r="BF66" s="31"/>
       <c r="BG66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BH66" s="31"/>
       <c r="BI66" s="31"/>
@@ -25630,76 +25630,76 @@
       <c r="BK66" s="31"/>
       <c r="BL66" s="31"/>
       <c r="BM66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BN66" s="31"/>
       <c r="BO66" s="31"/>
       <c r="BP66" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BQ66" s="31"/>
       <c r="BR66" s="31"/>
       <c r="BS66" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BT66" s="31"/>
       <c r="BU66" s="31"/>
       <c r="BV66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BW66" s="31"/>
       <c r="BX66" s="31"/>
       <c r="BY66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BZ66" s="31"/>
       <c r="CA66" s="31"/>
       <c r="CB66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CC66" s="31"/>
       <c r="CD66" s="31"/>
       <c r="CE66" s="121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CF66" s="31"/>
       <c r="CG66" s="31"/>
       <c r="CH66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CI66" s="31"/>
       <c r="CJ66" s="31"/>
       <c r="CK66" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CL66" s="31"/>
       <c r="CM66" s="31"/>
       <c r="CN66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CO66" s="31"/>
       <c r="CP66" s="31"/>
       <c r="CQ66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CR66" s="31"/>
       <c r="CS66" s="31"/>
       <c r="CT66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CU66" s="31"/>
       <c r="CV66" s="31"/>
       <c r="CW66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CZ66" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="DC66" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="DF66" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:110" x14ac:dyDescent="0.35">
@@ -25810,142 +25810,142 @@
       <c r="A68"/>
       <c r="D68"/>
       <c r="E68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q68" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF68" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI68" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AU68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BA68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BG68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BJ68" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BM68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BN68" s="31"/>
       <c r="BO68" s="31"/>
       <c r="BP68" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BQ68" s="31"/>
       <c r="BR68" s="31"/>
       <c r="BS68" s="117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BT68" s="31"/>
       <c r="BU68" s="31"/>
       <c r="BV68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BW68" s="31"/>
       <c r="BX68" s="31"/>
       <c r="BY68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BZ68" s="31"/>
       <c r="CA68" s="31"/>
       <c r="CB68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CC68" s="31"/>
       <c r="CD68" s="31"/>
       <c r="CE68" s="123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CF68" s="31"/>
       <c r="CG68" s="31"/>
       <c r="CH68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CI68" s="31"/>
       <c r="CJ68" s="31"/>
       <c r="CK68" s="117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CL68" s="31"/>
       <c r="CM68" s="31"/>
       <c r="CN68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CO68" s="31"/>
       <c r="CP68" s="31"/>
       <c r="CQ68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CR68" s="31"/>
       <c r="CS68" s="31"/>
       <c r="CT68" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CU68" s="31"/>
       <c r="CV68" s="31"/>
       <c r="CW68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CZ68" s="117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="DC68" s="117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="DF68" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>10</v>
@@ -26177,7 +26177,7 @@
       <c r="AJ70" s="31"/>
       <c r="AK70" s="31"/>
       <c r="AL70" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AM70" s="31"/>
       <c r="AN70" s="31"/>
@@ -26212,7 +26212,7 @@
       <c r="BE70" s="31"/>
       <c r="BF70" s="31"/>
       <c r="BG70" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BH70" s="31"/>
       <c r="BI70" s="31"/>
@@ -26222,7 +26222,7 @@
       <c r="BK70" s="31"/>
       <c r="BL70" s="31"/>
       <c r="BM70" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BN70" s="31"/>
       <c r="BO70" s="31"/>
@@ -26237,7 +26237,7 @@
       <c r="BT70" s="31"/>
       <c r="BU70" s="31"/>
       <c r="BV70" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BW70" s="31"/>
       <c r="BX70" s="31"/>
@@ -26247,12 +26247,12 @@
       <c r="BZ70" s="31"/>
       <c r="CA70" s="31"/>
       <c r="CB70" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CC70" s="31"/>
       <c r="CD70" s="31"/>
       <c r="CE70" s="121" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CF70" s="31"/>
       <c r="CG70" s="31"/>
@@ -26285,10 +26285,10 @@
         <v>8</v>
       </c>
       <c r="CZ70" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="DC70" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="DF70" s="103" t="s">
         <v>8</v>
@@ -26298,57 +26298,57 @@
       <c r="A71"/>
       <c r="D71"/>
       <c r="E71" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
       <c r="H71" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I71" s="31"/>
       <c r="J71" s="31"/>
       <c r="K71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
       <c r="N71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
       <c r="T71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U71" s="31"/>
       <c r="V71" s="31"/>
       <c r="W71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="Z71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA71" s="31"/>
       <c r="AB71" s="31"/>
       <c r="AC71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AD71" s="31"/>
       <c r="AE71" s="31"/>
       <c r="AF71" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AG71" s="31"/>
       <c r="AH71" s="31"/>
       <c r="AI71" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AJ71" s="31"/>
       <c r="AK71" s="31"/>
@@ -26358,32 +26358,32 @@
       <c r="AM71" s="31"/>
       <c r="AN71" s="31"/>
       <c r="AO71" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AP71" s="31"/>
       <c r="AQ71" s="31"/>
       <c r="AR71" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AS71" s="31"/>
       <c r="AT71" s="31"/>
       <c r="AU71" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV71" s="31"/>
       <c r="AW71" s="31"/>
       <c r="AX71" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AY71" s="31"/>
       <c r="AZ71" s="31"/>
       <c r="BA71" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB71" s="31"/>
       <c r="BC71" s="31"/>
       <c r="BD71" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BE71" s="31"/>
       <c r="BF71" s="31"/>
@@ -26393,7 +26393,7 @@
       <c r="BH71" s="31"/>
       <c r="BI71" s="31"/>
       <c r="BJ71" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BK71" s="31"/>
       <c r="BL71" s="31"/>
@@ -26403,12 +26403,12 @@
       <c r="BN71" s="31"/>
       <c r="BO71" s="31"/>
       <c r="BP71" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BQ71" s="31"/>
       <c r="BR71" s="31"/>
       <c r="BS71" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BT71" s="31"/>
       <c r="BU71" s="31"/>
@@ -26418,7 +26418,7 @@
       <c r="BW71" s="31"/>
       <c r="BX71" s="31"/>
       <c r="BY71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BZ71" s="31"/>
       <c r="CA71" s="31"/>
@@ -26433,32 +26433,32 @@
       <c r="CF71" s="31"/>
       <c r="CG71" s="31"/>
       <c r="CH71" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CI71" s="31"/>
       <c r="CJ71" s="31"/>
       <c r="CK71" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CL71" s="31"/>
       <c r="CM71" s="31"/>
       <c r="CN71" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CO71" s="31"/>
       <c r="CP71" s="31"/>
       <c r="CQ71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CR71" s="31"/>
       <c r="CS71" s="31"/>
       <c r="CT71" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CU71" s="31"/>
       <c r="CV71" s="31"/>
       <c r="CW71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CZ71" s="115" t="s">
         <v>8</v>
@@ -26467,183 +26467,183 @@
         <v>8</v>
       </c>
       <c r="DF71" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="D72"/>
       <c r="E72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
       <c r="H72" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
       <c r="K72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
       <c r="N72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
       <c r="Q72" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
       <c r="T72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U72" s="31"/>
       <c r="V72" s="31"/>
       <c r="W72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X72" s="31"/>
       <c r="Y72" s="31"/>
       <c r="Z72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA72" s="31"/>
       <c r="AB72" s="31"/>
       <c r="AC72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD72" s="31"/>
       <c r="AE72" s="31"/>
       <c r="AF72" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG72" s="31"/>
       <c r="AH72" s="31"/>
       <c r="AI72" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ72" s="31"/>
       <c r="AK72" s="31"/>
       <c r="AL72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AM72" s="31"/>
       <c r="AN72" s="31"/>
       <c r="AO72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AP72" s="31"/>
       <c r="AQ72" s="31"/>
       <c r="AR72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AS72" s="31"/>
       <c r="AT72" s="31"/>
       <c r="AU72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV72" s="31"/>
       <c r="AW72" s="31"/>
       <c r="AX72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY72" s="31"/>
       <c r="AZ72" s="31"/>
       <c r="BA72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB72" s="31"/>
       <c r="BC72" s="31"/>
       <c r="BD72" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BE72" s="31"/>
       <c r="BF72" s="31"/>
       <c r="BG72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BH72" s="31"/>
       <c r="BI72" s="31"/>
       <c r="BJ72" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BK72" s="31"/>
       <c r="BL72" s="31"/>
       <c r="BM72" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BN72" s="31"/>
       <c r="BO72" s="31"/>
       <c r="BP72" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BQ72" s="31"/>
       <c r="BR72" s="31"/>
       <c r="BS72" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BT72" s="31"/>
       <c r="BU72" s="31"/>
       <c r="BV72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BW72" s="31"/>
       <c r="BX72" s="31"/>
       <c r="BY72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BZ72" s="31"/>
       <c r="CA72" s="31"/>
       <c r="CB72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CC72" s="31"/>
       <c r="CD72" s="31"/>
       <c r="CE72" s="121" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CF72" s="31"/>
       <c r="CG72" s="31"/>
       <c r="CH72" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CI72" s="31"/>
       <c r="CJ72" s="31"/>
       <c r="CK72" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CL72" s="31"/>
       <c r="CM72" s="31"/>
       <c r="CN72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CO72" s="31"/>
       <c r="CP72" s="31"/>
       <c r="CQ72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CR72" s="31"/>
       <c r="CS72" s="31"/>
       <c r="CT72" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CU72" s="31"/>
       <c r="CV72" s="31"/>
       <c r="CW72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CZ72" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DC72" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DF72" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:110" x14ac:dyDescent="0.35">
@@ -26754,142 +26754,142 @@
       <c r="A74"/>
       <c r="D74"/>
       <c r="E74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q74" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF74" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI74" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AL74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AR74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AU74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AX74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BA74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BD74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BG74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BJ74" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BM74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BN74" s="31"/>
       <c r="BO74" s="31"/>
       <c r="BP74" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BQ74" s="31"/>
       <c r="BR74" s="31"/>
       <c r="BS74" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BT74" s="31"/>
       <c r="BU74" s="31"/>
       <c r="BV74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BW74" s="31"/>
       <c r="BX74" s="31"/>
       <c r="BY74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BZ74" s="31"/>
       <c r="CA74" s="31"/>
       <c r="CB74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CC74" s="31"/>
       <c r="CD74" s="31"/>
       <c r="CE74" s="123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CF74" s="31"/>
       <c r="CG74" s="31"/>
       <c r="CH74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CI74" s="31"/>
       <c r="CJ74" s="31"/>
       <c r="CK74" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CL74" s="31"/>
       <c r="CM74" s="31"/>
       <c r="CN74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CO74" s="31"/>
       <c r="CP74" s="31"/>
       <c r="CQ74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CR74" s="31"/>
       <c r="CS74" s="31"/>
       <c r="CT74" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CU74" s="31"/>
       <c r="CV74" s="31"/>
       <c r="CW74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CZ74" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DC74" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DF74" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>27</v>
@@ -27698,142 +27698,142 @@
       <c r="A80"/>
       <c r="D80"/>
       <c r="E80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q80" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF80" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI80" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AR80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AU80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BA80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BD80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BG80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BJ80" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BM80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BN80" s="31"/>
       <c r="BO80" s="31"/>
       <c r="BP80" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ80" s="31"/>
       <c r="BR80" s="31"/>
       <c r="BS80" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BT80" s="31"/>
       <c r="BU80" s="31"/>
       <c r="BV80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW80" s="31"/>
       <c r="BX80" s="31"/>
       <c r="BY80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BZ80" s="31"/>
       <c r="CA80" s="31"/>
       <c r="CB80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CC80" s="31"/>
       <c r="CD80" s="31"/>
       <c r="CE80" s="123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF80" s="31"/>
       <c r="CG80" s="31"/>
       <c r="CH80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI80" s="31"/>
       <c r="CJ80" s="31"/>
       <c r="CK80" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL80" s="31"/>
       <c r="CM80" s="31"/>
       <c r="CN80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO80" s="31"/>
       <c r="CP80" s="31"/>
       <c r="CQ80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CR80" s="31"/>
       <c r="CS80" s="31"/>
       <c r="CT80" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CU80" s="31"/>
       <c r="CV80" s="31"/>
       <c r="CW80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CZ80" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DC80" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DF80" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E81" s="50" t="s">
         <v>9</v>
@@ -27906,7 +27906,7 @@
       <c r="AS81" s="31"/>
       <c r="AT81" s="31"/>
       <c r="AU81" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AV81" s="31"/>
       <c r="AW81" s="31"/>
@@ -27931,7 +27931,7 @@
       <c r="BH81" s="31"/>
       <c r="BI81" s="31"/>
       <c r="BJ81" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BK81" s="31"/>
       <c r="BL81" s="31"/>
@@ -28179,7 +28179,7 @@
         <v>16</v>
       </c>
       <c r="DF82" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:110" x14ac:dyDescent="0.35">
@@ -28206,7 +28206,7 @@
       <c r="O83" s="31"/>
       <c r="P83" s="31"/>
       <c r="Q83" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
@@ -28231,12 +28231,12 @@
       <c r="AD83" s="31"/>
       <c r="AE83" s="31"/>
       <c r="AF83" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG83" s="31"/>
       <c r="AH83" s="31"/>
       <c r="AI83" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AJ83" s="31"/>
       <c r="AK83" s="31"/>
@@ -28251,7 +28251,7 @@
       <c r="AP83" s="31"/>
       <c r="AQ83" s="31"/>
       <c r="AR83" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AS83" s="31"/>
       <c r="AT83" s="31"/>
@@ -28261,27 +28261,27 @@
       <c r="AV83" s="31"/>
       <c r="AW83" s="31"/>
       <c r="AX83" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AY83" s="31"/>
       <c r="AZ83" s="31"/>
       <c r="BA83" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BB83" s="31"/>
       <c r="BC83" s="31"/>
       <c r="BD83" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE83" s="31"/>
       <c r="BF83" s="31"/>
       <c r="BG83" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BH83" s="31"/>
       <c r="BI83" s="31"/>
       <c r="BJ83" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BK83" s="31"/>
       <c r="BL83" s="31"/>
@@ -28291,7 +28291,7 @@
       <c r="BN83" s="31"/>
       <c r="BO83" s="31"/>
       <c r="BP83" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BQ83" s="31"/>
       <c r="BR83" s="31"/>
@@ -28321,17 +28321,17 @@
       <c r="CF83" s="31"/>
       <c r="CG83" s="31"/>
       <c r="CH83" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CI83" s="31"/>
       <c r="CJ83" s="31"/>
       <c r="CK83" s="115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CL83" s="31"/>
       <c r="CM83" s="31"/>
       <c r="CN83" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CO83" s="31"/>
       <c r="CP83" s="31"/>
@@ -28362,22 +28362,22 @@
       <c r="A84"/>
       <c r="D84"/>
       <c r="E84" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
       <c r="K84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
       <c r="N84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O84" s="31"/>
       <c r="P84" s="31"/>
@@ -28387,22 +28387,22 @@
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
       <c r="T84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U84" s="31"/>
       <c r="V84" s="31"/>
       <c r="W84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA84" s="31"/>
       <c r="AB84" s="31"/>
       <c r="AC84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD84" s="31"/>
       <c r="AE84" s="31"/>
@@ -28417,12 +28417,12 @@
       <c r="AJ84" s="31"/>
       <c r="AK84" s="31"/>
       <c r="AL84" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AM84" s="31"/>
       <c r="AN84" s="31"/>
       <c r="AO84" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AP84" s="31"/>
       <c r="AQ84" s="31"/>
@@ -28462,7 +28462,7 @@
       <c r="BK84" s="31"/>
       <c r="BL84" s="31"/>
       <c r="BM84" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BN84" s="31"/>
       <c r="BO84" s="31"/>
@@ -28472,27 +28472,27 @@
       <c r="BQ84" s="31"/>
       <c r="BR84" s="31"/>
       <c r="BS84" s="115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BT84" s="31"/>
       <c r="BU84" s="31"/>
       <c r="BV84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BW84" s="31"/>
       <c r="BX84" s="31"/>
       <c r="BY84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BZ84" s="31"/>
       <c r="CA84" s="31"/>
       <c r="CB84" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CC84" s="31"/>
       <c r="CD84" s="31"/>
       <c r="CE84" s="121" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CF84" s="31"/>
       <c r="CG84" s="31"/>
@@ -28512,23 +28512,23 @@
       <c r="CO84" s="31"/>
       <c r="CP84" s="31"/>
       <c r="CQ84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CR84" s="31"/>
       <c r="CS84" s="31"/>
       <c r="CT84" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CU84" s="31"/>
       <c r="CV84" s="31"/>
       <c r="CW84" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CZ84" s="115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="DC84" s="115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="DF84" s="103" t="s">
         <v>23</v>
@@ -28642,142 +28642,142 @@
       <c r="A86"/>
       <c r="D86"/>
       <c r="E86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q86" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF86" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AI86" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AL86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AO86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AR86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AX86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BA86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BD86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BG86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BJ86" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BM86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN86" s="31"/>
       <c r="BO86" s="31"/>
       <c r="BP86" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BQ86" s="31"/>
       <c r="BR86" s="31"/>
       <c r="BS86" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT86" s="31"/>
       <c r="BU86" s="31"/>
       <c r="BV86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BW86" s="31"/>
       <c r="BX86" s="31"/>
       <c r="BY86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ86" s="31"/>
       <c r="CA86" s="31"/>
       <c r="CB86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC86" s="31"/>
       <c r="CD86" s="31"/>
       <c r="CE86" s="123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CF86" s="31"/>
       <c r="CG86" s="31"/>
       <c r="CH86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CI86" s="31"/>
       <c r="CJ86" s="31"/>
       <c r="CK86" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CL86" s="31"/>
       <c r="CM86" s="31"/>
       <c r="CN86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CO86" s="31"/>
       <c r="CP86" s="31"/>
       <c r="CQ86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CR86" s="31"/>
       <c r="CS86" s="31"/>
       <c r="CT86" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU86" s="31"/>
       <c r="CV86" s="31"/>
       <c r="CW86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CZ86" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DC86" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DF86" s="92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>26</v>
@@ -29114,13 +29114,13 @@
       <c r="CU88" s="31"/>
       <c r="CV88" s="31"/>
       <c r="CW88" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CZ88" s="115" t="s">
         <v>19</v>
       </c>
       <c r="DC88" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="DF88" s="103" t="s">
         <v>19</v>
@@ -29280,7 +29280,7 @@
       <c r="CO89" s="31"/>
       <c r="CP89" s="31"/>
       <c r="CQ89" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CR89" s="31"/>
       <c r="CS89" s="31"/>
@@ -29296,7 +29296,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29306,47 +29306,47 @@
       <c r="A90"/>
       <c r="D90"/>
       <c r="E90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
       <c r="H90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I90" s="31"/>
       <c r="J90" s="31"/>
       <c r="K90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L90" s="31"/>
       <c r="M90" s="31"/>
       <c r="N90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O90" s="31"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R90" s="31"/>
       <c r="S90" s="31"/>
       <c r="T90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U90" s="31"/>
       <c r="V90" s="31"/>
       <c r="W90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
       <c r="Z90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA90" s="31"/>
       <c r="AB90" s="31"/>
       <c r="AC90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AD90" s="31"/>
       <c r="AE90" s="31"/>
@@ -29356,102 +29356,102 @@
       <c r="AG90" s="31"/>
       <c r="AH90" s="31"/>
       <c r="AI90" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AJ90" s="31"/>
       <c r="AK90" s="31"/>
       <c r="AL90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AM90" s="31"/>
       <c r="AN90" s="31"/>
       <c r="AO90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AP90" s="31"/>
       <c r="AQ90" s="31"/>
       <c r="AR90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AS90" s="31"/>
       <c r="AT90" s="31"/>
       <c r="AU90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AV90" s="31"/>
       <c r="AW90" s="31"/>
       <c r="AX90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AY90" s="31"/>
       <c r="AZ90" s="31"/>
       <c r="BA90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BB90" s="31"/>
       <c r="BC90" s="31"/>
       <c r="BD90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BE90" s="31"/>
       <c r="BF90" s="31"/>
       <c r="BG90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BH90" s="31"/>
       <c r="BI90" s="31"/>
       <c r="BJ90" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BK90" s="31"/>
       <c r="BL90" s="31"/>
       <c r="BM90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BN90" s="31"/>
       <c r="BO90" s="31"/>
       <c r="BP90" s="104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BQ90" s="31"/>
       <c r="BR90" s="31"/>
       <c r="BS90" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BT90" s="31"/>
       <c r="BU90" s="31"/>
       <c r="BV90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BW90" s="31"/>
       <c r="BX90" s="31"/>
       <c r="BY90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BZ90" s="31"/>
       <c r="CA90" s="31"/>
       <c r="CB90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CC90" s="31"/>
       <c r="CD90" s="31"/>
       <c r="CE90" s="121" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CF90" s="31"/>
       <c r="CG90" s="31"/>
       <c r="CH90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CI90" s="31"/>
       <c r="CJ90" s="31"/>
       <c r="CK90" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CL90" s="31"/>
       <c r="CM90" s="31"/>
       <c r="CN90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CO90" s="31"/>
       <c r="CP90" s="31"/>
@@ -29461,7 +29461,7 @@
       <c r="CR90" s="31"/>
       <c r="CS90" s="31"/>
       <c r="CT90" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CU90" s="31"/>
       <c r="CV90" s="31"/>
@@ -29469,13 +29469,13 @@
         <v>19</v>
       </c>
       <c r="CZ90" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="DF90" s="103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:110" x14ac:dyDescent="0.35">
@@ -29495,7 +29495,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29557,7 +29557,7 @@
     </row>
     <row r="93" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D93" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E93" s="103" t="s">
         <v>27</v>
@@ -29613,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29655,7 +29655,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29675,7 +29675,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29699,149 +29699,149 @@
     </row>
     <row r="94" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D94" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="K94" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="H94" s="103" t="s">
+      <c r="N94" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="K94" s="107" t="s">
+      <c r="Q94" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>104</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>106</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AI94" s="110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D95" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E95" s="103">
         <v>142</v>
@@ -29984,7 +29984,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30032,14 +30032,14 @@
       </c>
       <c r="AP96" s="93"/>
       <c r="AR96" s="95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AU96" s="95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30080,7 +30080,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30110,7 +30110,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30129,7 +30129,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30324,11 +30324,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30344,23 +30356,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -30470,10 +30470,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="AG52" sqref="AG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37130,11 +37130,11 @@
     <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="str">
         <f>Resultat!E49</f>
-        <v>1E</v>
+        <v>Rumänien</v>
       </c>
       <c r="B44" s="19" t="str">
         <f>Kuponger!D45</f>
-        <v>3A/B/C/D</v>
+        <v>Nederländerna</v>
       </c>
       <c r="C44">
         <f>IF(AND(Resultat!$H49&lt;&gt;"",Kuponger!E45&lt;&gt;""),IF(Resultat!$H49=Kuponger!E45,1,0),0) + IF(AND(Resultat!$I49&lt;&gt;"",Kuponger!F45&lt;&gt;"",Resultat!$K49&lt;&gt;"",Kuponger!G45&lt;&gt;""),IF(AND(Resultat!$I49=Kuponger!F45,Resultat!$K49=Kuponger!G45),3,0),0)</f>
@@ -37150,7 +37150,7 @@
       </c>
       <c r="F44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(C44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(C44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(C44))=Resultat!$H49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(D44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(D44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(D44))=Resultat!$H49),1,0)</f>
@@ -37166,7 +37166,7 @@
       </c>
       <c r="J44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(G44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(G44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(G44))=Resultat!$H49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(H44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(H44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(H44))=Resultat!$H49),1,0)</f>
@@ -37174,7 +37174,7 @@
       </c>
       <c r="L44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(I44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(I44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(I44))=Resultat!$H49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(J44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(J44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(J44))=Resultat!$H49),1,0)</f>
@@ -37182,7 +37182,7 @@
       </c>
       <c r="N44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(K44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(K44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(K44))=Resultat!$H49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(L44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(L44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(L44))=Resultat!$H49),1,0)</f>
@@ -37202,7 +37202,7 @@
       </c>
       <c r="S44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(P44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(P44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(P44))=Resultat!$H49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(Q44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(Q44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(Q44))=Resultat!$H49),1,0)</f>
@@ -37218,7 +37218,7 @@
       </c>
       <c r="W44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(T44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(T44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(T44))=Resultat!$H49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(U44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(U44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(U44))=Resultat!$H49),1,0)</f>
@@ -37242,7 +37242,7 @@
       </c>
       <c r="AC44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(Z44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(Z44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(Z44))=Resultat!$H49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
         <f ca="1">IF(AND(Resultat!$I49&lt;&gt;"",OFFSET(Kuponger!$F45,0,3*COLUMN(AA44))=Resultat!$I49,OFFSET(Kuponger!$G45,0,3*COLUMN(AA44))=Resultat!$K49),3,0) + IF(AND(Resultat!$H49&lt;&gt;"",OFFSET(Kuponger!$E45,0,3*COLUMN(AA44))=Resultat!$H49),1,0)</f>
@@ -38515,7 +38515,7 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" cm="1">
@@ -38666,7 +38666,7 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" cm="1">
@@ -38817,7 +38817,7 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" cm="1">
@@ -38968,7 +38968,7 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" cm="1">
@@ -39119,7 +39119,7 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" cm="1">
@@ -39270,7 +39270,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" cm="1">
@@ -39421,7 +39421,7 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59">
@@ -39571,7 +39571,7 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60">
@@ -39721,7 +39721,7 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61">
@@ -39871,7 +39871,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40021,7 +40021,7 @@
     </row>
     <row r="63" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
@@ -40037,7 +40037,7 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40053,7 +40053,7 @@
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40061,7 +40061,7 @@
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40069,7 +40069,7 @@
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40089,7 +40089,7 @@
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40105,7 +40105,7 @@
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40129,7 +40129,7 @@
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A37DA6ED-0401-4CBC-9B82-F727E20FD9FE}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEBF407A-6C1B-4776-84C8-F52F613FD233}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="143">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>Gruppspel</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>2F</t>
   </si>
   <si>
     <t>Final</t>
@@ -304,12 +298,6 @@
   </si>
   <si>
     <t>Kvart</t>
-  </si>
-  <si>
-    <t>V39</t>
-  </si>
-  <si>
-    <t>V37</t>
   </si>
   <si>
     <t>V41</t>
@@ -1719,11 +1707,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1746,11 +1734,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2005,10 +1993,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48</c:v>
@@ -2017,7 +2005,7 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>38</c:v>
@@ -2029,13 +2017,13 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>36</c:v>
@@ -2044,10 +2032,10 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>47</c:v>
@@ -2059,10 +2047,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>39</c:v>
@@ -2074,10 +2062,10 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>39</c:v>
@@ -2098,7 +2086,7 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45</c:v>
@@ -3371,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3410,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -3439,7 +3427,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>1</v>
@@ -3456,10 +3444,10 @@
       <c r="F6" s="129"/>
       <c r="G6" s="130"/>
       <c r="H6" s="56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I6" s="138" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J6" s="129"/>
       <c r="K6" s="130"/>
@@ -3472,7 +3460,7 @@
         <v>45457</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="59">
         <v>0.875</v>
@@ -3523,7 +3511,7 @@
         <v>45458</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="59">
         <v>0.625</v>
@@ -3554,7 +3542,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O8" s="79" t="s">
         <v>22</v>
@@ -3574,7 +3562,7 @@
         <v>45458</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="59">
         <v>0.75</v>
@@ -3595,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K9" s="66">
         <v>0</v>
@@ -3616,7 +3604,7 @@
         <v>23</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -3627,7 +3615,7 @@
         <v>45458</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="59">
         <v>0.875</v>
@@ -3639,7 +3627,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10" s="63">
         <v>1</v>
@@ -3648,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10" s="66">
         <v>1</v>
@@ -3660,13 +3648,13 @@
         <v>5</v>
       </c>
       <c r="N10" s="86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>12</v>
       </c>
       <c r="P10" s="86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="80" t="s">
         <v>26</v>
@@ -3680,7 +3668,7 @@
         <v>45459</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="59">
         <v>0.625</v>
@@ -3701,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K11" s="66">
         <v>2</v>
@@ -3710,7 +3698,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N11" s="87" t="s">
         <v>10</v>
@@ -3733,13 +3721,13 @@
         <v>45459</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="59">
         <v>0.75</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>29</v>
@@ -3748,13 +3736,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="64">
         <v>1</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K12" s="66">
         <v>1</v>
@@ -3768,13 +3756,13 @@
         <v>45459</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="59">
         <v>0.875</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>29</v>
@@ -3789,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K13" s="66">
         <v>1</v>
@@ -3803,13 +3791,13 @@
         <v>45460</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="59">
         <v>0.625</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>29</v>
@@ -3824,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K14" s="66">
         <v>0</v>
@@ -3838,7 +3826,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="59">
         <v>0.75</v>
@@ -3859,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K15" s="66">
         <v>1</v>
@@ -3873,7 +3861,7 @@
         <v>45460</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="59">
         <v>0.875</v>
@@ -3894,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K16" s="66">
         <v>1</v>
@@ -3908,7 +3896,7 @@
         <v>45461</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="59">
         <v>0.75</v>
@@ -3920,7 +3908,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" s="63">
         <v>1</v>
@@ -3929,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="66">
         <v>1</v>
@@ -3943,7 +3931,7 @@
         <v>45461</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="59">
         <v>0.875</v>
@@ -3964,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K18" s="66">
         <v>1</v>
@@ -3978,7 +3966,7 @@
         <v>45462</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="59">
         <v>0.625</v>
@@ -3990,16 +3978,16 @@
         <v>29</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" s="64">
         <v>2</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K19" s="66">
         <v>2</v>
@@ -4013,7 +4001,7 @@
         <v>45462</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="59">
         <v>0.75</v>
@@ -4034,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="66">
         <v>0</v>
@@ -4048,7 +4036,7 @@
         <v>45462</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="59">
         <v>0.875</v>
@@ -4063,13 +4051,13 @@
         <v>7</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21" s="64">
         <v>1</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K21" s="66">
         <v>1</v>
@@ -4083,28 +4071,28 @@
         <v>45463</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="59">
         <v>0.625</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I22" s="64">
         <v>1</v>
       </c>
       <c r="J22" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K22" s="66">
         <v>1</v>
@@ -4118,7 +4106,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="59">
         <v>0.75</v>
@@ -4133,13 +4121,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I23" s="64">
         <v>1</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K23" s="66">
         <v>1</v>
@@ -4153,7 +4141,7 @@
         <v>45463</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="59">
         <v>0.875</v>
@@ -4174,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K24" s="66">
         <v>0</v>
@@ -4188,7 +4176,7 @@
         <v>45464</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" s="59">
         <v>0.625</v>
@@ -4209,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K25" s="66">
         <v>2</v>
@@ -4223,7 +4211,7 @@
         <v>45464</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="59">
         <v>0.75</v>
@@ -4244,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K26" s="66">
         <v>3</v>
@@ -4258,7 +4246,7 @@
         <v>45464</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="59">
         <v>0.875</v>
@@ -4273,13 +4261,13 @@
         <v>27</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I27" s="64">
         <v>0</v>
       </c>
       <c r="J27" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K27" s="66">
         <v>0</v>
@@ -4293,13 +4281,13 @@
         <v>45465</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="59">
         <v>0.625</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28" s="61" t="s">
         <v>29</v>
@@ -4308,7 +4296,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I28" s="64">
         <v>1</v>
@@ -4326,7 +4314,7 @@
         <v>45465</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="59">
         <v>0.75</v>
@@ -4347,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K29" s="66">
         <v>3</v>
@@ -4361,7 +4349,7 @@
         <v>45465</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="59">
         <v>0.875</v>
@@ -4373,7 +4361,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" s="63">
         <v>1</v>
@@ -4382,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K30" s="66">
         <v>0</v>
@@ -4396,7 +4384,7 @@
         <v>45466</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="59">
         <v>0.875</v>
@@ -4411,13 +4399,13 @@
         <v>7</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I31" s="64">
         <v>1</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K31" s="66">
         <v>1</v>
@@ -4431,7 +4419,7 @@
         <v>45466</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="59">
         <v>0.875</v>
@@ -4452,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K32" s="66">
         <v>1</v>
@@ -4466,7 +4454,7 @@
         <v>45467</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="59">
         <v>0.875</v>
@@ -4481,13 +4469,13 @@
         <v>5</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I33" s="64">
         <v>1</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K33" s="66">
         <v>1</v>
@@ -4501,13 +4489,13 @@
         <v>45467</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="59">
         <v>0.875</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F34" s="61" t="s">
         <v>29</v>
@@ -4522,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K34" s="66">
         <v>1</v>
@@ -4536,7 +4524,7 @@
         <v>45468</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="59">
         <v>0.75</v>
@@ -4557,7 +4545,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K35" s="66">
         <v>3</v>
@@ -4571,7 +4559,7 @@
         <v>45468</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="59">
         <v>0.75</v>
@@ -4586,13 +4574,13 @@
         <v>22</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I36" s="64">
         <v>1</v>
       </c>
       <c r="J36" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K36" s="66">
         <v>1</v>
@@ -4606,7 +4594,7 @@
         <v>45468</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="59">
         <v>0.875</v>
@@ -4618,16 +4606,16 @@
         <v>29</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I37" s="64">
         <v>0</v>
       </c>
       <c r="J37" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K37" s="66">
         <v>0</v>
@@ -4641,7 +4629,7 @@
         <v>45468</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="59">
         <v>0.875</v>
@@ -4653,16 +4641,16 @@
         <v>29</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H38" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I38" s="64">
         <v>0</v>
       </c>
       <c r="J38" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K38" s="66">
         <v>0</v>
@@ -4676,7 +4664,7 @@
         <v>45469</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="59">
         <v>0.75</v>
@@ -4688,16 +4676,16 @@
         <v>29</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H39" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I39" s="64">
         <v>1</v>
       </c>
       <c r="J39" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K39" s="66">
         <v>1</v>
@@ -4711,7 +4699,7 @@
         <v>45469</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="59">
         <v>0.75</v>
@@ -4726,13 +4714,13 @@
         <v>9</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I40" s="64">
         <v>0</v>
       </c>
       <c r="J40" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K40" s="66">
         <v>0</v>
@@ -4746,7 +4734,7 @@
         <v>45469</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" s="59">
         <v>0.875</v>
@@ -4767,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K41" s="66">
         <v>2</v>
@@ -4781,13 +4769,13 @@
         <v>45469</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="59">
         <v>0.875</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" s="61" t="s">
         <v>29</v>
@@ -4802,13 +4790,13 @@
         <v>2</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K42" s="66">
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="12"/>
@@ -4821,7 +4809,7 @@
         <v>45472</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="59">
         <v>0.75</v>
@@ -4833,7 +4821,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
@@ -4842,13 +4830,13 @@
         <v>2</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K43" s="66">
         <v>0</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N43" s="97"/>
       <c r="O43" s="98"/>
@@ -4861,7 +4849,7 @@
         <v>45472</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44" s="59">
         <v>0.875</v>
@@ -4885,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N44" s="100"/>
       <c r="O44" s="101"/>
@@ -4898,7 +4886,7 @@
         <v>45473</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D45" s="59">
         <v>0.75</v>
@@ -4913,19 +4901,19 @@
         <v>23</v>
       </c>
       <c r="H45" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I45" s="64">
         <v>1</v>
       </c>
       <c r="J45" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K45" s="66">
         <v>1</v>
       </c>
       <c r="M45" s="99" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -4938,7 +4926,7 @@
         <v>45473</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" s="59">
         <v>0.875</v>
@@ -4950,7 +4938,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H46" s="68">
         <v>1</v>
@@ -4959,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K46" s="66">
         <v>1</v>
@@ -4973,7 +4961,7 @@
         <v>45474</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" s="59">
         <v>0.75</v>
@@ -4994,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K47" s="66">
         <v>0</v>
@@ -5008,7 +4996,7 @@
         <v>45474</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="59">
         <v>0.875</v>
@@ -5020,16 +5008,16 @@
         <v>29</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H48" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I48" s="64">
         <v>0</v>
       </c>
       <c r="J48" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K48" s="66">
         <v>0</v>
@@ -5043,13 +5031,13 @@
         <v>45475</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49" s="59">
         <v>0.75</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>29</v>
@@ -5064,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K49" s="66">
         <v>3</v>
@@ -5078,26 +5066,32 @@
         <v>45475</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" s="59">
         <v>0.875</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G50" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" s="68"/>
-      <c r="I50" s="64"/>
+        <v>4</v>
+      </c>
+      <c r="H50" s="68">
+        <v>2</v>
+      </c>
+      <c r="I50" s="64">
+        <v>1</v>
+      </c>
       <c r="J50" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50" s="66"/>
+        <v>72</v>
+      </c>
+      <c r="K50" s="66">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="57">
@@ -5107,24 +5101,30 @@
         <v>45478</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="59">
         <v>0.75</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F51" s="69"/>
       <c r="G51" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" s="68"/>
-      <c r="I51" s="64"/>
+        <v>25</v>
+      </c>
+      <c r="H51" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="64">
+        <v>1</v>
+      </c>
       <c r="J51" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="K51" s="66"/>
+        <v>72</v>
+      </c>
+      <c r="K51" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="57">
@@ -5134,22 +5134,22 @@
         <v>45478</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" s="59">
         <v>0.875</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="60" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="64"/>
       <c r="J52" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K52" s="66"/>
     </row>
@@ -5161,22 +5161,22 @@
         <v>45479</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D53" s="59">
         <v>0.75</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F53" s="69"/>
       <c r="G53" s="60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="64"/>
       <c r="J53" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K53" s="66"/>
     </row>
@@ -5188,22 +5188,22 @@
         <v>45479</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D54" s="59">
         <v>0.875</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F54" s="69"/>
       <c r="G54" s="60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="64"/>
       <c r="J54" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K54" s="66"/>
     </row>
@@ -5215,22 +5215,22 @@
         <v>45482</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D55" s="59">
         <v>0.875</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="64"/>
       <c r="J55" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K55" s="66"/>
     </row>
@@ -5242,22 +5242,22 @@
         <v>45483</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D56" s="59">
         <v>0.875</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F56" s="69"/>
       <c r="G56" s="60" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="64"/>
       <c r="J56" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K56" s="66"/>
     </row>
@@ -5269,22 +5269,22 @@
         <v>45487</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" s="72">
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
       <c r="J57" s="77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K57" s="78"/>
     </row>
@@ -5305,7 +5305,7 @@
       <c r="D60" s="2"/>
       <c r="I60" s="44"/>
       <c r="J60" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -5313,7 +5313,7 @@
       <c r="C61" s="1"/>
       <c r="I61" s="44"/>
       <c r="J61" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -5321,7 +5321,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="I62" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J62" s="46" t="s">
         <v>25</v>
@@ -5334,7 +5334,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="I63" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J63" s="46" t="s">
         <v>7</v>
@@ -5347,7 +5347,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="I64" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J64" s="47" t="s">
         <v>28</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I65" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J65" s="47" t="s">
         <v>18</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I68" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J68" s="46" t="s">
         <v>21</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I69" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J69" s="46" t="s">
         <v>5</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I70" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J70" s="47" t="s">
         <v>11</v>
@@ -5410,13 +5410,13 @@
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I71" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K71" s="79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.35">
@@ -5429,18 +5429,18 @@
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I74" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J74" s="47" t="s">
         <v>10</v>
       </c>
       <c r="K74" s="79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I75" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J75" s="47" t="s">
         <v>8</v>
@@ -5451,21 +5451,21 @@
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I76" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K76" s="79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I77" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J77" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K77" s="79" t="s">
         <v>10</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I80" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J80" s="47" t="s">
         <v>12</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I81" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J81" s="47" t="s">
         <v>27</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="82" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I82" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J82" s="47" t="s">
         <v>30</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="83" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I83" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J83" s="47" t="s">
         <v>22</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I86" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J86" s="47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K86" s="79" t="s">
         <v>9</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I87" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J87" s="47" t="s">
         <v>9</v>
@@ -5555,18 +5555,18 @@
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I88" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J88" s="47" t="s">
         <v>23</v>
       </c>
       <c r="K88" s="79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I89" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J89" s="47" t="s">
         <v>16</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I92" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J92" s="47" t="s">
         <v>26</v>
@@ -5598,21 +5598,21 @@
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I93" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J93" s="47" t="s">
         <v>4</v>
       </c>
       <c r="K93" s="79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I94" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J94" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K94" s="79" t="s">
         <v>26</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="95" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I95" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J95" s="47" t="s">
         <v>19</v>
@@ -5727,191 +5727,191 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="142"/>
       <c r="G1" s="143"/>
       <c r="H1" s="144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
       <c r="N1" s="141" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O1" s="142"/>
       <c r="P1" s="143"/>
       <c r="Q1" s="141" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R1" s="142"/>
       <c r="S1" s="143"/>
       <c r="T1" s="144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U1" s="144"/>
       <c r="V1" s="144"/>
       <c r="W1" s="141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
       <c r="AF1" s="141" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AG1" s="142"/>
       <c r="AH1" s="143"/>
       <c r="AI1" s="141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="142"/>
       <c r="AK1" s="143"/>
       <c r="AL1" s="141" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
       <c r="AU1" s="141" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
-        <v>145</v>
-      </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
+        <v>118</v>
+      </c>
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
-        <v>130</v>
-      </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
-        <v>131</v>
-      </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
+        <v>132</v>
+      </c>
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
-        <v>137</v>
-      </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
-        <v>139</v>
-      </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -5919,337 +5919,337 @@
       <c r="C2" s="6"/>
       <c r="D2" s="16"/>
       <c r="E2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="H2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="K2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="N2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="Q2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="T2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="W2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="Z2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="AC2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="AF2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="AI2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="AL2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AM2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="AO2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="AR2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT2" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="AU2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="AX2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AY2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BA2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BB2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BD2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BE2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BG2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BH2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="BI2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BJ2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BK2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BM2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BN2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="BO2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BP2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BQ2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BS2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BT2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="BU2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BV2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BW2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BW2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="BX2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="BY2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BZ2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CA2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BZ2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CA2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CB2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CC2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CD2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CC2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CD2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CE2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CF2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CF2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CG2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CH2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CI2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CI2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CJ2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CK2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CL2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CM2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CN2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CO2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CP2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CO2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CP2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CQ2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CR2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CR2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CS2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CT2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CU2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CV2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CU2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CV2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CW2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CX2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CY2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CX2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CY2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="CZ2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="DA2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="DB2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="DA2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="DB2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="DC2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="DD2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="DE2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="DD2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="DE2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="DF2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="DG2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="DG2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="DH2" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="DI2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="DJ2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="DK2" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="DJ2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="DK2" s="29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:117" x14ac:dyDescent="0.35">
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="BJ3" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK3" s="22">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U4" s="17">
         <v>0</v>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="AL4" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM4" s="22">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="BJ4" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK4" s="22">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN4" s="22">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="BV4" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW4" s="22">
         <v>1</v>
@@ -6849,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="CE4" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF4" s="22">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="CH4" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI4" s="22">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="CK4" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL4" s="22">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="CN4" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO4" s="22">
         <v>1</v>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="22">
         <v>1</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O5" s="23">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U5" s="17">
         <v>1</v>
@@ -7033,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD5" s="22">
         <v>2</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS5" s="22">
         <v>1</v>
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="AU5" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV5" s="22">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="AX5" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY5" s="22">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="BD5" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE5" s="22">
         <v>1</v>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="BG5" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH5" s="22">
         <v>1</v>
@@ -7132,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="BJ5" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK5" s="22">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ5" s="22">
         <v>1</v>
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="BS5" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT5" s="22">
         <v>2</v>
@@ -7195,7 +7195,7 @@
         <v>2</v>
       </c>
       <c r="CE5" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF5" s="22">
         <v>2</v>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="CT5" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU5" s="22">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="CW5" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX5" s="22">
         <v>1</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="22">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV6" s="22">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK6" s="22">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM7" s="22">
         <v>1</v>
@@ -7824,7 +7824,7 @@
         <v>2</v>
       </c>
       <c r="BJ7" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK7" s="22">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="CT7" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU7" s="22">
         <v>1</v>
@@ -8170,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="BJ8" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK8" s="22">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="BY8" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ8" s="22">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="CB8" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC8" s="22">
         <v>2</v>
@@ -8296,7 +8296,7 @@
         <v>2</v>
       </c>
       <c r="CZ8" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA8" s="22">
         <v>1</v>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="DC8" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DD8" s="22">
         <v>1</v>
@@ -8516,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="BJ9" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK9" s="22">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN9" s="22">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="22">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L10" s="22">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U10" s="17">
         <v>1</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="22">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ10" s="20">
         <v>1</v>
@@ -8790,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM10" s="22">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV10" s="22">
         <v>1</v>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="AX10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY10" s="22">
         <v>1</v>
@@ -8835,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="BA10" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB10" s="20">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE10" s="22">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH10" s="22">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK10" s="22">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN10" s="22">
         <v>1</v>
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="BP10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ10" s="22">
         <v>1</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="BS10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT10" s="22">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="CB10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC10" s="22">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="CE10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF10" s="22">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="CH10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI10" s="22">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="CK10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL10" s="22">
         <v>0</v>
@@ -8961,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="CQ10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CR10" s="22">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="CT10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU10" s="22">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="CW10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX10" s="22">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="DC10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DD10" s="22">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="DF10" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DG10" s="22">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK11" s="22">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="BJ12" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK12" s="22">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN12" s="22">
         <v>1</v>
@@ -9662,7 +9662,7 @@
         <v>2</v>
       </c>
       <c r="CT12" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU12" s="22">
         <v>2</v>
@@ -9671,7 +9671,7 @@
         <v>2</v>
       </c>
       <c r="CW12" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX12" s="22">
         <v>1</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD13" s="22">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ13" s="20">
         <v>1</v>
@@ -9891,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH13" s="22">
         <v>1</v>
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="BJ13" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK13" s="22">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="CW13" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX13" s="22">
         <v>2</v>
@@ -10026,7 +10026,7 @@
         <v>2</v>
       </c>
       <c r="CZ13" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA13" s="22">
         <v>0</v>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM14" s="22">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK14" s="22">
         <v>0</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV15" s="22">
         <v>2</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK15" s="22">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK16" s="22">
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>Schweiz</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="22">
         <v>1</v>
@@ -11140,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O17" s="23">
         <v>1</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U17" s="17">
         <v>1</v>
@@ -11185,7 +11185,7 @@
         <v>2</v>
       </c>
       <c r="AC17" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD17" s="22">
         <v>2</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV17" s="22">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="BA17" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB17" s="20">
         <v>1</v>
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="BD17" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE17" s="22">
         <v>2</v>
@@ -11284,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="BJ17" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK17" s="22">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN17" s="22">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="BP17" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ17" s="22">
         <v>0</v>
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="CH17" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI17" s="22">
         <v>2</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="CK17" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL17" s="22">
         <v>2</v>
@@ -11410,7 +11410,7 @@
         <v>2</v>
       </c>
       <c r="CZ17" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA17" s="22">
         <v>1</v>
@@ -11419,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="DC17" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DD17" s="22">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>Serbien</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="22">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L18" s="22">
         <v>2</v>
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD18" s="22">
         <v>1</v>
@@ -11549,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="AI18" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ18" s="20">
         <v>1</v>
@@ -11567,7 +11567,7 @@
         <v>2</v>
       </c>
       <c r="AO18" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP18" s="18">
         <v>1</v>
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="AR18" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS18" s="22">
         <v>1</v>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="AU18" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV18" s="22">
         <v>1</v>
@@ -11621,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="BG18" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH18" s="22">
         <v>1</v>
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="BJ18" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK18" s="22">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN18" s="22">
         <v>0</v>
@@ -11675,7 +11675,7 @@
         <v>2</v>
       </c>
       <c r="BY18" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ18" s="22">
         <v>2</v>
@@ -11702,7 +11702,7 @@
         <v>2</v>
       </c>
       <c r="CH18" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI18" s="22">
         <v>2</v>
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="CK18" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL18" s="22">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>2</v>
       </c>
       <c r="CQ18" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CR18" s="22">
         <v>1</v>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="CW18" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX18" s="22">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="DC18" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DD18" s="22">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="DF18" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DG18" s="22">
         <v>2</v>
@@ -11805,7 +11805,7 @@
         <v>England</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="22">
         <v>1</v>
@@ -11823,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="22">
         <v>1</v>
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O19" s="23">
         <v>2</v>
@@ -11877,7 +11877,7 @@
         <v>3</v>
       </c>
       <c r="AC19" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD19" s="22">
         <v>2</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM19" s="22">
         <v>2</v>
@@ -11922,7 +11922,7 @@
         <v>2</v>
       </c>
       <c r="AR19" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS19" s="22">
         <v>1</v>
@@ -11958,7 +11958,7 @@
         <v>2</v>
       </c>
       <c r="BD19" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE19" s="22">
         <v>1</v>
@@ -11976,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="BJ19" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK19" s="22">
         <v>0</v>
@@ -12012,7 +12012,7 @@
         <v>3</v>
       </c>
       <c r="BV19" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW19" s="22">
         <v>2</v>
@@ -12039,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="CE19" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF19" s="22">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="CQ19" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CR19" s="22">
         <v>1</v>
@@ -12084,7 +12084,7 @@
         <v>2</v>
       </c>
       <c r="CT19" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU19" s="22">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="CW19" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX19" s="22">
         <v>2</v>
@@ -12151,7 +12151,7 @@
         <v>Italien</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="22">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O20" s="23">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X20" s="22">
         <v>1</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG20" s="22">
         <v>2</v>
@@ -12259,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="AO20" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP20" s="18">
         <v>2</v>
@@ -12295,7 +12295,7 @@
         <v>2</v>
       </c>
       <c r="BA20" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB20" s="20">
         <v>2</v>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH20" s="22">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK20" s="22">
         <v>0</v>
@@ -12340,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="BP20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ20" s="22">
         <v>1</v>
@@ -12358,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="BV20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW20" s="22">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="CE20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF20" s="22">
         <v>3</v>
@@ -12412,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="CN20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO20" s="22">
         <v>1</v>
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="CZ20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA20" s="22">
         <v>1</v>
@@ -12497,7 +12497,7 @@
         <v>Ukraina</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="22">
         <v>1</v>
@@ -12587,7 +12587,7 @@
         <v>2</v>
       </c>
       <c r="AI21" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ21" s="20">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="AO21" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP21" s="18">
         <v>1</v>
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS21" s="22">
         <v>1</v>
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="AU21" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV21" s="22">
         <v>1</v>
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="AX21" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY21" s="22">
         <v>1</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE21" s="22">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="BG21" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH21" s="22">
         <v>2</v>
@@ -12668,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="BJ21" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK21" s="22">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN21" s="22">
         <v>1</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="BS21" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT21" s="22">
         <v>1</v>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="BV21" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW21" s="22">
         <v>0</v>
@@ -12767,7 +12767,7 @@
         <v>2</v>
       </c>
       <c r="CQ21" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CR21" s="22">
         <v>1</v>
@@ -12794,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA21" s="22">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>2</v>
       </c>
       <c r="DF21" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DG21" s="22">
         <v>0</v>
@@ -12852,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I22" s="22">
         <v>1</v>
@@ -12879,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R22" s="22">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD22" s="22">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>2</v>
       </c>
       <c r="AR22" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS22" s="22">
         <v>2</v>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="BJ22" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK22" s="22">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN22" s="22">
         <v>1</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="BV22" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW22" s="22">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="BY22" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ22" s="22">
         <v>1</v>
@@ -13104,7 +13104,7 @@
         <v>3</v>
       </c>
       <c r="CN22" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO22" s="22">
         <v>1</v>
@@ -13131,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="CW22" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX22" s="22">
         <v>1</v>
@@ -13140,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="CZ22" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA22" s="22">
         <v>2</v>
@@ -13149,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="DC22" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DD22" s="22">
         <v>1</v>
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U23" s="17">
         <v>2</v>
@@ -13306,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="AR23" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS23" s="22">
         <v>1</v>
@@ -13315,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="AU23" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV23" s="22">
         <v>1</v>
@@ -13324,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="AX23" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY23" s="22">
         <v>2</v>
@@ -13333,7 +13333,7 @@
         <v>2</v>
       </c>
       <c r="BA23" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB23" s="20">
         <v>3</v>
@@ -13360,7 +13360,7 @@
         <v>3</v>
       </c>
       <c r="BJ23" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK23" s="22">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>3</v>
       </c>
       <c r="CH23" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI23" s="22">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="CZ23" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA23" s="22">
         <v>2</v>
@@ -13598,7 +13598,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA24" s="22">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM24" s="22">
         <v>1</v>
@@ -13706,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="BJ24" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK24" s="22">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>2</v>
       </c>
       <c r="CB24" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC24" s="22">
         <v>2</v>
@@ -13769,7 +13769,7 @@
         <v>2</v>
       </c>
       <c r="CE24" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF24" s="22">
         <v>1</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="CH24" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI24" s="22">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="CK24" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL24" s="22">
         <v>1</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA24" s="22">
         <v>1</v>
@@ -13980,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM25" s="22">
         <v>1</v>
@@ -14043,7 +14043,7 @@
         <v>2</v>
       </c>
       <c r="BG25" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH25" s="22">
         <v>2</v>
@@ -14052,7 +14052,7 @@
         <v>2</v>
       </c>
       <c r="BJ25" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK25" s="22">
         <v>0</v>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV26" s="22">
         <v>1</v>
@@ -14398,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK26" s="22">
         <v>0</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I27" s="22">
         <v>1</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O27" s="23">
         <v>2</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM27" s="22">
         <v>1</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK27" s="22">
         <v>0</v>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="CB27" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC27" s="22">
         <v>2</v>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="CQ27" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CR27" s="22">
         <v>2</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="CT27" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU27" s="22">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="CW27" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX27" s="22">
         <v>1</v>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I28" s="22">
         <v>1</v>
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U28" s="17">
         <v>1</v>
@@ -15009,7 +15009,7 @@
         <v>3</v>
       </c>
       <c r="AI28" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ28" s="20">
         <v>1</v>
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV28" s="22">
         <v>1</v>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB28" s="20">
         <v>1</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK28" s="22">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN28" s="22">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="BV28" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW28" s="22">
         <v>2</v>
@@ -15135,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="BY28" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ28" s="22">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="CE28" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF28" s="22">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="CH28" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI28" s="22">
         <v>1</v>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="CK28" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL28" s="22">
         <v>2</v>
@@ -15180,7 +15180,7 @@
         <v>2</v>
       </c>
       <c r="CN28" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO28" s="22">
         <v>1</v>
@@ -15265,7 +15265,7 @@
         <v>Italien</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" s="22">
         <v>0</v>
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I29" s="22">
         <v>1</v>
@@ -15292,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O29" s="23">
         <v>1</v>
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U29" s="17">
         <v>2</v>
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA29" s="22">
         <v>0</v>
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="AO29" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP29" s="18">
         <v>1</v>
@@ -15382,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="AR29" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS29" s="22">
         <v>1</v>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="AX29" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY29" s="22">
         <v>1</v>
@@ -15418,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="BD29" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE29" s="22">
         <v>0</v>
@@ -15436,7 +15436,7 @@
         <v>2</v>
       </c>
       <c r="BJ29" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK29" s="22">
         <v>0</v>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ29" s="22">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="BV29" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW29" s="22">
         <v>0</v>
@@ -15499,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="CE29" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF29" s="22">
         <v>1</v>
@@ -15544,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="CT29" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU29" s="22">
         <v>1</v>
@@ -15562,7 +15562,7 @@
         <v>2</v>
       </c>
       <c r="CZ29" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA29" s="22">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="DF29" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DG29" s="22">
         <v>2</v>
@@ -15782,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="BJ30" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK30" s="22">
         <v>0</v>
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O31" s="23">
         <v>1</v>
@@ -16083,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV31" s="22">
         <v>0</v>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE31" s="22">
         <v>2</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK31" s="22">
         <v>0</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN31" s="22">
         <v>1</v>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="BV31" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW31" s="22">
         <v>1</v>
@@ -16236,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="CT31" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU31" s="22">
         <v>2</v>
@@ -16474,7 +16474,7 @@
         <v>1</v>
       </c>
       <c r="BJ32" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK32" s="22">
         <v>0</v>
@@ -16483,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN32" s="22">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK33" s="22">
         <v>0</v>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="CB33" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC33" s="22">
         <v>2</v>
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA34" s="22">
         <v>2</v>
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ34" s="20">
         <v>1</v>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM34" s="22">
         <v>1</v>
@@ -17112,7 +17112,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS34" s="22">
         <v>1</v>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY34" s="22">
         <v>2</v>
@@ -17139,7 +17139,7 @@
         <v>2</v>
       </c>
       <c r="BA34" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB34" s="20">
         <v>1</v>
@@ -17166,7 +17166,7 @@
         <v>2</v>
       </c>
       <c r="BJ34" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK34" s="22">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="BS34" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT34" s="22">
         <v>1</v>
@@ -17220,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="CB34" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC34" s="22">
         <v>1</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="CN34" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO34" s="22">
         <v>1</v>
@@ -17292,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="CZ34" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA34" s="22">
         <v>1</v>
@@ -17377,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R35" s="22">
         <v>1</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U35" s="17">
         <v>0</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD35" s="22">
         <v>1</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV35" s="22">
         <v>2</v>
@@ -17476,7 +17476,7 @@
         <v>2</v>
       </c>
       <c r="AX35" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY35" s="22">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB35" s="20">
         <v>2</v>
@@ -17512,7 +17512,7 @@
         <v>2</v>
       </c>
       <c r="BJ35" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK35" s="22">
         <v>0</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ35" s="22">
         <v>1</v>
@@ -17539,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="BS35" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT35" s="22">
         <v>1</v>
@@ -17557,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="BY35" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ35" s="22">
         <v>1</v>
@@ -17575,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="CE35" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CF35" s="22">
         <v>0</v>
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="CK35" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL35" s="22">
         <v>0</v>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="CN35" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO35" s="22">
         <v>1</v>
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="CT35" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU35" s="22">
         <v>1</v>
@@ -17629,7 +17629,7 @@
         <v>1</v>
       </c>
       <c r="CW35" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX35" s="22">
         <v>1</v>
@@ -17638,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="CZ35" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA35" s="22">
         <v>2</v>
@@ -17849,7 +17849,7 @@
         <v>5</v>
       </c>
       <c r="BG36" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH36" s="22">
         <v>2</v>
@@ -17858,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="BJ36" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK36" s="22">
         <v>0</v>
@@ -17984,7 +17984,7 @@
         <v>3</v>
       </c>
       <c r="CZ36" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA36" s="22">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>Turkiet</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F37" s="22">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>2</v>
       </c>
       <c r="AC37" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD37" s="22">
         <v>1</v>
@@ -18150,7 +18150,7 @@
         <v>2</v>
       </c>
       <c r="AR37" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS37" s="22">
         <v>1</v>
@@ -18177,7 +18177,7 @@
         <v>2</v>
       </c>
       <c r="BA37" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB37" s="20">
         <v>0</v>
@@ -18204,7 +18204,7 @@
         <v>2</v>
       </c>
       <c r="BJ37" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK37" s="22">
         <v>0</v>
@@ -18231,7 +18231,7 @@
         <v>0</v>
       </c>
       <c r="BS37" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT37" s="22">
         <v>2</v>
@@ -18240,7 +18240,7 @@
         <v>2</v>
       </c>
       <c r="BV37" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW37" s="22">
         <v>1</v>
@@ -18276,7 +18276,7 @@
         <v>3</v>
       </c>
       <c r="CH37" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CI37" s="22">
         <v>1</v>
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="CN37" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CO37" s="22">
         <v>1</v>
@@ -18321,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="CW37" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX37" s="22">
         <v>1</v>
@@ -18339,7 +18339,7 @@
         <v>2</v>
       </c>
       <c r="DC37" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DD37" s="22">
         <v>2</v>
@@ -18348,7 +18348,7 @@
         <v>2</v>
       </c>
       <c r="DF37" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DG37" s="22">
         <v>1</v>
@@ -18550,7 +18550,7 @@
         <v>3</v>
       </c>
       <c r="BJ38" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK38" s="22">
         <v>0</v>
@@ -18734,7 +18734,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I39" s="22">
         <v>1</v>
@@ -18896,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="BJ39" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK39" s="22">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ39" s="22">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>2</v>
       </c>
       <c r="CT39" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU39" s="22">
         <v>1</v>
@@ -19161,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ40" s="20">
         <v>1</v>
@@ -19188,7 +19188,7 @@
         <v>1</v>
       </c>
       <c r="AR40" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS40" s="22">
         <v>1</v>
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK40" s="22">
         <v>0</v>
@@ -19251,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN40" s="22">
         <v>1</v>
@@ -19350,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="CT40" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU40" s="22">
         <v>1</v>
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV41" s="22">
         <v>1</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="BJ41" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK41" s="22">
         <v>0</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="CZ41" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA41" s="22">
         <v>1</v>
@@ -19934,7 +19934,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK42" s="22">
         <v>0</v>
@@ -20136,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O43" s="23">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS43" s="22">
         <v>1</v>
@@ -20280,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="BJ43" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK43" s="22">
         <v>0</v>
@@ -20289,7 +20289,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN43" s="22">
         <v>1</v>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="BP43" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ43" s="22">
         <v>1</v>
@@ -20325,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="BY43" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ43" s="22">
         <v>1</v>
@@ -20397,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="CW43" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX43" s="22">
         <v>1</v>
@@ -20554,7 +20554,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM44" s="22">
         <v>1</v>
@@ -20617,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="BG44" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH44" s="22">
         <v>1</v>
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="BJ44" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK44" s="22">
         <v>0</v>
@@ -20662,7 +20662,7 @@
         <v>1</v>
       </c>
       <c r="BV44" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW44" s="22">
         <v>1</v>
@@ -20731,7 +20731,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -20873,7 +20873,7 @@
         <v>2</v>
       </c>
       <c r="AC45" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD45" s="22">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV45" s="22">
         <v>0</v>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY45" s="22">
         <v>1</v>
@@ -20954,7 +20954,7 @@
         <v>1</v>
       </c>
       <c r="BD45" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE45" s="22">
         <v>2</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="BJ45" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK45" s="22">
         <v>0</v>
@@ -20999,7 +20999,7 @@
         <v>1</v>
       </c>
       <c r="BS45" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT45" s="22">
         <v>1</v>
@@ -21053,7 +21053,7 @@
         <v>2</v>
       </c>
       <c r="CK45" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL45" s="22">
         <v>2</v>
@@ -21089,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="CW45" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX45" s="22">
         <v>1</v>
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="CZ45" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA45" s="22">
         <v>1</v>
@@ -21137,14 +21137,14 @@
       </c>
       <c r="B46" s="60" t="str">
         <f>Resultat!E50</f>
-        <v>1D</v>
+        <v>Österrike</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="60" t="str">
         <f>Resultat!G50</f>
-        <v>2F</v>
+        <v>Turkiet</v>
       </c>
       <c r="E46" s="33">
         <v>1</v>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK46" s="22">
         <v>0</v>
@@ -21327,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN46" s="22">
         <v>1</v>
@@ -21444,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="CZ46" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA46" s="22">
         <v>1</v>
@@ -21483,17 +21483,17 @@
       </c>
       <c r="B47" s="60" t="str">
         <f>Resultat!E51</f>
-        <v>V39</v>
+        <v>Spanien</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="60" t="str">
         <f>Resultat!G51</f>
-        <v>V37</v>
+        <v>Tyskland</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="22">
         <v>1</v>
@@ -21502,7 +21502,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I47" s="22">
         <v>1</v>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD47" s="22">
         <v>1</v>
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ47" s="20">
         <v>1</v>
@@ -21610,7 +21610,7 @@
         <v>3</v>
       </c>
       <c r="AR47" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS47" s="22">
         <v>2</v>
@@ -21619,7 +21619,7 @@
         <v>2</v>
       </c>
       <c r="AU47" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV47" s="22">
         <v>2</v>
@@ -21655,7 +21655,7 @@
         <v>1</v>
       </c>
       <c r="BG47" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH47" s="22">
         <v>2</v>
@@ -21664,7 +21664,7 @@
         <v>2</v>
       </c>
       <c r="BJ47" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK47" s="22">
         <v>0</v>
@@ -21700,7 +21700,7 @@
         <v>2</v>
       </c>
       <c r="BV47" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BW47" s="22">
         <v>2</v>
@@ -21709,7 +21709,7 @@
         <v>2</v>
       </c>
       <c r="BY47" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BZ47" s="22">
         <v>2</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="CT47" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU47" s="22">
         <v>1</v>
@@ -21839,7 +21839,7 @@
         <v>V42</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="22">
         <v>1</v>
@@ -21848,7 +21848,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I48" s="22">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD48" s="22">
         <v>1</v>
@@ -21956,7 +21956,7 @@
         <v>1</v>
       </c>
       <c r="AR48" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS48" s="22">
         <v>1</v>
@@ -21992,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="BD48" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE48" s="22">
         <v>1</v>
@@ -22010,7 +22010,7 @@
         <v>2</v>
       </c>
       <c r="BJ48" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK48" s="22">
         <v>0</v>
@@ -22028,7 +22028,7 @@
         <v>1</v>
       </c>
       <c r="BP48" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BQ48" s="22">
         <v>1</v>
@@ -22091,7 +22091,7 @@
         <v>3</v>
       </c>
       <c r="CK48" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL48" s="22">
         <v>2</v>
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="CZ48" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA48" s="22">
         <v>1</v>
@@ -22185,7 +22185,7 @@
         <v>V38</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F49" s="22">
         <v>1</v>
@@ -22194,7 +22194,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I49" s="22">
         <v>1</v>
@@ -22275,7 +22275,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ49" s="20">
         <v>1</v>
@@ -22302,7 +22302,7 @@
         <v>1</v>
       </c>
       <c r="AR49" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS49" s="22">
         <v>1</v>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY49" s="22">
         <v>0</v>
@@ -22356,7 +22356,7 @@
         <v>2</v>
       </c>
       <c r="BJ49" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK49" s="22">
         <v>0</v>
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN49" s="22">
         <v>1</v>
@@ -22383,7 +22383,7 @@
         <v>0</v>
       </c>
       <c r="BS49" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BT49" s="22">
         <v>0</v>
@@ -22410,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="CB49" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC49" s="22">
         <v>2</v>
@@ -22473,7 +22473,7 @@
         <v>1</v>
       </c>
       <c r="CW49" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX49" s="22">
         <v>2</v>
@@ -22482,7 +22482,7 @@
         <v>2</v>
       </c>
       <c r="CZ49" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA49" s="22">
         <v>0</v>
@@ -22540,7 +22540,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I50" s="22">
         <v>1</v>
@@ -22648,7 +22648,7 @@
         <v>2</v>
       </c>
       <c r="AR50" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS50" s="22">
         <v>1</v>
@@ -22702,7 +22702,7 @@
         <v>3</v>
       </c>
       <c r="BJ50" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK50" s="22">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         <v>4</v>
       </c>
       <c r="CK50" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL50" s="22">
         <v>1</v>
@@ -22901,7 +22901,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O51" s="23">
         <v>2</v>
@@ -22964,7 +22964,7 @@
         <v>1</v>
       </c>
       <c r="AI51" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ51" s="20">
         <v>1</v>
@@ -22973,7 +22973,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM51" s="22">
         <v>1</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS51" s="22">
         <v>1</v>
@@ -23000,7 +23000,7 @@
         <v>1</v>
       </c>
       <c r="AU51" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV51" s="22">
         <v>1</v>
@@ -23009,7 +23009,7 @@
         <v>1</v>
       </c>
       <c r="AX51" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY51" s="22">
         <v>2</v>
@@ -23045,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="BJ51" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK51" s="22">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="CW51" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CX51" s="22">
         <v>1</v>
@@ -23217,7 +23217,7 @@
         <v>V46</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F52" s="22">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD52" s="22">
         <v>2</v>
@@ -23307,7 +23307,7 @@
         <v>1</v>
       </c>
       <c r="AI52" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ52" s="20">
         <v>1</v>
@@ -23316,7 +23316,7 @@
         <v>1</v>
       </c>
       <c r="AL52" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM52" s="22">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="AR52" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS52" s="22">
         <v>1</v>
@@ -23379,7 +23379,7 @@
         <v>1</v>
       </c>
       <c r="BG52" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH52" s="22">
         <v>2</v>
@@ -23388,7 +23388,7 @@
         <v>2</v>
       </c>
       <c r="BJ52" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK52" s="22">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BN52" s="22">
         <v>1</v>
@@ -23469,7 +23469,7 @@
         <v>3</v>
       </c>
       <c r="CK52" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CL52" s="22">
         <v>1</v>
@@ -23496,7 +23496,7 @@
         <v>3</v>
       </c>
       <c r="CT52" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU52" s="22">
         <v>1</v>
@@ -23514,7 +23514,7 @@
         <v>2</v>
       </c>
       <c r="CZ52" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DA52" s="22">
         <v>1</v>
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="AI53" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ53" s="20">
         <v>2</v>
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="AR53" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS53" s="22">
         <v>1</v>
@@ -23696,7 +23696,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY53" s="22">
         <v>1</v>
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="BD53" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE53" s="22">
         <v>1</v>
@@ -23732,7 +23732,7 @@
         <v>3</v>
       </c>
       <c r="BJ53" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BK53" s="22">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="CB53" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC53" s="22">
         <v>2</v>
@@ -23840,7 +23840,7 @@
         <v>2</v>
       </c>
       <c r="CT53" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CU53" s="22">
         <v>1</v>
@@ -24057,7 +24057,7 @@
     </row>
     <row r="57" spans="1:117" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>25</v>
@@ -24866,142 +24866,142 @@
       <c r="A62"/>
       <c r="D62"/>
       <c r="E62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q62" s="106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AF62" s="106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AI62" s="106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AL62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AO62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AR62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AU62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AX62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BA62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BD62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BG62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BJ62" s="106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BM62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BN62" s="31"/>
       <c r="BO62" s="31"/>
       <c r="BP62" s="106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BQ62" s="31"/>
       <c r="BR62" s="31"/>
       <c r="BS62" s="117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BT62" s="31"/>
       <c r="BU62" s="31"/>
       <c r="BV62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BW62" s="31"/>
       <c r="BX62" s="31"/>
       <c r="BY62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BZ62" s="31"/>
       <c r="CA62" s="31"/>
       <c r="CB62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CC62" s="31"/>
       <c r="CD62" s="31"/>
       <c r="CE62" s="123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CF62" s="31"/>
       <c r="CG62" s="31"/>
       <c r="CH62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CI62" s="31"/>
       <c r="CJ62" s="31"/>
       <c r="CK62" s="117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CL62" s="31"/>
       <c r="CM62" s="31"/>
       <c r="CN62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CO62" s="31"/>
       <c r="CP62" s="31"/>
       <c r="CQ62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CR62" s="31"/>
       <c r="CS62" s="31"/>
       <c r="CT62" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CU62" s="31"/>
       <c r="CV62" s="31"/>
       <c r="CW62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CZ62" s="117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="DC62" s="117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="DF62" s="92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:117" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>21</v>
@@ -25449,7 +25449,7 @@
       <c r="BH65" s="31"/>
       <c r="BI65" s="31"/>
       <c r="BJ65" s="104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BK65" s="31"/>
       <c r="BL65" s="31"/>
@@ -25530,97 +25530,97 @@
       <c r="A66"/>
       <c r="D66"/>
       <c r="E66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
       <c r="N66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O66" s="31"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
       <c r="T66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U66" s="31"/>
       <c r="V66" s="31"/>
       <c r="W66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA66" s="31"/>
       <c r="AB66" s="31"/>
       <c r="AC66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD66" s="31"/>
       <c r="AE66" s="31"/>
       <c r="AF66" s="104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AG66" s="31"/>
       <c r="AH66" s="31"/>
       <c r="AI66" s="104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AJ66" s="31"/>
       <c r="AK66" s="31"/>
       <c r="AL66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AM66" s="31"/>
       <c r="AN66" s="31"/>
       <c r="AO66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="31"/>
       <c r="AR66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AS66" s="31"/>
       <c r="AT66" s="31"/>
       <c r="AU66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AV66" s="31"/>
       <c r="AW66" s="31"/>
       <c r="AX66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AY66" s="31"/>
       <c r="AZ66" s="31"/>
       <c r="BA66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BB66" s="31"/>
       <c r="BC66" s="31"/>
       <c r="BD66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BE66" s="31"/>
       <c r="BF66" s="31"/>
       <c r="BG66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH66" s="31"/>
       <c r="BI66" s="31"/>
@@ -25630,76 +25630,76 @@
       <c r="BK66" s="31"/>
       <c r="BL66" s="31"/>
       <c r="BM66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BN66" s="31"/>
       <c r="BO66" s="31"/>
       <c r="BP66" s="104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BQ66" s="31"/>
       <c r="BR66" s="31"/>
       <c r="BS66" s="115" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BT66" s="31"/>
       <c r="BU66" s="31"/>
       <c r="BV66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BW66" s="31"/>
       <c r="BX66" s="31"/>
       <c r="BY66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BZ66" s="31"/>
       <c r="CA66" s="31"/>
       <c r="CB66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CC66" s="31"/>
       <c r="CD66" s="31"/>
       <c r="CE66" s="121" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CF66" s="31"/>
       <c r="CG66" s="31"/>
       <c r="CH66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CI66" s="31"/>
       <c r="CJ66" s="31"/>
       <c r="CK66" s="115" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CL66" s="31"/>
       <c r="CM66" s="31"/>
       <c r="CN66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CO66" s="31"/>
       <c r="CP66" s="31"/>
       <c r="CQ66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CR66" s="31"/>
       <c r="CS66" s="31"/>
       <c r="CT66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CU66" s="31"/>
       <c r="CV66" s="31"/>
       <c r="CW66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CZ66" s="115" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="DC66" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="DF66" s="103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:110" x14ac:dyDescent="0.35">
@@ -25810,142 +25810,142 @@
       <c r="A68"/>
       <c r="D68"/>
       <c r="E68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q68" s="106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF68" s="106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI68" s="106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AR68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AU68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AX68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BA68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BG68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BJ68" s="106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BM68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BN68" s="31"/>
       <c r="BO68" s="31"/>
       <c r="BP68" s="106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BQ68" s="31"/>
       <c r="BR68" s="31"/>
       <c r="BS68" s="117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BT68" s="31"/>
       <c r="BU68" s="31"/>
       <c r="BV68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BW68" s="31"/>
       <c r="BX68" s="31"/>
       <c r="BY68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BZ68" s="31"/>
       <c r="CA68" s="31"/>
       <c r="CB68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CC68" s="31"/>
       <c r="CD68" s="31"/>
       <c r="CE68" s="123" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CF68" s="31"/>
       <c r="CG68" s="31"/>
       <c r="CH68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CI68" s="31"/>
       <c r="CJ68" s="31"/>
       <c r="CK68" s="117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CL68" s="31"/>
       <c r="CM68" s="31"/>
       <c r="CN68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CO68" s="31"/>
       <c r="CP68" s="31"/>
       <c r="CQ68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CR68" s="31"/>
       <c r="CS68" s="31"/>
       <c r="CT68" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CU68" s="31"/>
       <c r="CV68" s="31"/>
       <c r="CW68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CZ68" s="117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="DC68" s="117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="DF68" s="92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>10</v>
@@ -26177,7 +26177,7 @@
       <c r="AJ70" s="31"/>
       <c r="AK70" s="31"/>
       <c r="AL70" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AM70" s="31"/>
       <c r="AN70" s="31"/>
@@ -26212,7 +26212,7 @@
       <c r="BE70" s="31"/>
       <c r="BF70" s="31"/>
       <c r="BG70" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BH70" s="31"/>
       <c r="BI70" s="31"/>
@@ -26222,7 +26222,7 @@
       <c r="BK70" s="31"/>
       <c r="BL70" s="31"/>
       <c r="BM70" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BN70" s="31"/>
       <c r="BO70" s="31"/>
@@ -26237,7 +26237,7 @@
       <c r="BT70" s="31"/>
       <c r="BU70" s="31"/>
       <c r="BV70" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BW70" s="31"/>
       <c r="BX70" s="31"/>
@@ -26247,12 +26247,12 @@
       <c r="BZ70" s="31"/>
       <c r="CA70" s="31"/>
       <c r="CB70" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CC70" s="31"/>
       <c r="CD70" s="31"/>
       <c r="CE70" s="121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CF70" s="31"/>
       <c r="CG70" s="31"/>
@@ -26285,10 +26285,10 @@
         <v>8</v>
       </c>
       <c r="CZ70" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="DC70" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="DF70" s="103" t="s">
         <v>8</v>
@@ -26298,57 +26298,57 @@
       <c r="A71"/>
       <c r="D71"/>
       <c r="E71" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
       <c r="H71" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I71" s="31"/>
       <c r="J71" s="31"/>
       <c r="K71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
       <c r="N71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
       <c r="T71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U71" s="31"/>
       <c r="V71" s="31"/>
       <c r="W71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="Z71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA71" s="31"/>
       <c r="AB71" s="31"/>
       <c r="AC71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD71" s="31"/>
       <c r="AE71" s="31"/>
       <c r="AF71" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG71" s="31"/>
       <c r="AH71" s="31"/>
       <c r="AI71" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AJ71" s="31"/>
       <c r="AK71" s="31"/>
@@ -26358,32 +26358,32 @@
       <c r="AM71" s="31"/>
       <c r="AN71" s="31"/>
       <c r="AO71" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AP71" s="31"/>
       <c r="AQ71" s="31"/>
       <c r="AR71" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AS71" s="31"/>
       <c r="AT71" s="31"/>
       <c r="AU71" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AV71" s="31"/>
       <c r="AW71" s="31"/>
       <c r="AX71" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY71" s="31"/>
       <c r="AZ71" s="31"/>
       <c r="BA71" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BB71" s="31"/>
       <c r="BC71" s="31"/>
       <c r="BD71" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BE71" s="31"/>
       <c r="BF71" s="31"/>
@@ -26393,7 +26393,7 @@
       <c r="BH71" s="31"/>
       <c r="BI71" s="31"/>
       <c r="BJ71" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BK71" s="31"/>
       <c r="BL71" s="31"/>
@@ -26403,12 +26403,12 @@
       <c r="BN71" s="31"/>
       <c r="BO71" s="31"/>
       <c r="BP71" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BQ71" s="31"/>
       <c r="BR71" s="31"/>
       <c r="BS71" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BT71" s="31"/>
       <c r="BU71" s="31"/>
@@ -26418,7 +26418,7 @@
       <c r="BW71" s="31"/>
       <c r="BX71" s="31"/>
       <c r="BY71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BZ71" s="31"/>
       <c r="CA71" s="31"/>
@@ -26433,32 +26433,32 @@
       <c r="CF71" s="31"/>
       <c r="CG71" s="31"/>
       <c r="CH71" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CI71" s="31"/>
       <c r="CJ71" s="31"/>
       <c r="CK71" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CL71" s="31"/>
       <c r="CM71" s="31"/>
       <c r="CN71" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CO71" s="31"/>
       <c r="CP71" s="31"/>
       <c r="CQ71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CR71" s="31"/>
       <c r="CS71" s="31"/>
       <c r="CT71" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CU71" s="31"/>
       <c r="CV71" s="31"/>
       <c r="CW71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CZ71" s="115" t="s">
         <v>8</v>
@@ -26467,183 +26467,183 @@
         <v>8</v>
       </c>
       <c r="DF71" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="D72"/>
       <c r="E72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
       <c r="H72" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
       <c r="K72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
       <c r="N72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
       <c r="Q72" s="104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
       <c r="T72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U72" s="31"/>
       <c r="V72" s="31"/>
       <c r="W72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X72" s="31"/>
       <c r="Y72" s="31"/>
       <c r="Z72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA72" s="31"/>
       <c r="AB72" s="31"/>
       <c r="AC72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD72" s="31"/>
       <c r="AE72" s="31"/>
       <c r="AF72" s="104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG72" s="31"/>
       <c r="AH72" s="31"/>
       <c r="AI72" s="104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ72" s="31"/>
       <c r="AK72" s="31"/>
       <c r="AL72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AM72" s="31"/>
       <c r="AN72" s="31"/>
       <c r="AO72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AP72" s="31"/>
       <c r="AQ72" s="31"/>
       <c r="AR72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS72" s="31"/>
       <c r="AT72" s="31"/>
       <c r="AU72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AV72" s="31"/>
       <c r="AW72" s="31"/>
       <c r="AX72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AY72" s="31"/>
       <c r="AZ72" s="31"/>
       <c r="BA72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BB72" s="31"/>
       <c r="BC72" s="31"/>
       <c r="BD72" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BE72" s="31"/>
       <c r="BF72" s="31"/>
       <c r="BG72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BH72" s="31"/>
       <c r="BI72" s="31"/>
       <c r="BJ72" s="104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BK72" s="31"/>
       <c r="BL72" s="31"/>
       <c r="BM72" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BN72" s="31"/>
       <c r="BO72" s="31"/>
       <c r="BP72" s="104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BQ72" s="31"/>
       <c r="BR72" s="31"/>
       <c r="BS72" s="115" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BT72" s="31"/>
       <c r="BU72" s="31"/>
       <c r="BV72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BW72" s="31"/>
       <c r="BX72" s="31"/>
       <c r="BY72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BZ72" s="31"/>
       <c r="CA72" s="31"/>
       <c r="CB72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CC72" s="31"/>
       <c r="CD72" s="31"/>
       <c r="CE72" s="121" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CF72" s="31"/>
       <c r="CG72" s="31"/>
       <c r="CH72" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CI72" s="31"/>
       <c r="CJ72" s="31"/>
       <c r="CK72" s="115" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CL72" s="31"/>
       <c r="CM72" s="31"/>
       <c r="CN72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CO72" s="31"/>
       <c r="CP72" s="31"/>
       <c r="CQ72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CR72" s="31"/>
       <c r="CS72" s="31"/>
       <c r="CT72" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CU72" s="31"/>
       <c r="CV72" s="31"/>
       <c r="CW72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CZ72" s="115" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="DC72" s="115" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="DF72" s="103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:110" x14ac:dyDescent="0.35">
@@ -26754,142 +26754,142 @@
       <c r="A74"/>
       <c r="D74"/>
       <c r="E74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q74" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF74" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI74" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AL74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AR74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AU74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AX74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BA74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BD74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BG74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BJ74" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BM74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BN74" s="31"/>
       <c r="BO74" s="31"/>
       <c r="BP74" s="106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BQ74" s="31"/>
       <c r="BR74" s="31"/>
       <c r="BS74" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BT74" s="31"/>
       <c r="BU74" s="31"/>
       <c r="BV74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BW74" s="31"/>
       <c r="BX74" s="31"/>
       <c r="BY74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BZ74" s="31"/>
       <c r="CA74" s="31"/>
       <c r="CB74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CC74" s="31"/>
       <c r="CD74" s="31"/>
       <c r="CE74" s="123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CF74" s="31"/>
       <c r="CG74" s="31"/>
       <c r="CH74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CI74" s="31"/>
       <c r="CJ74" s="31"/>
       <c r="CK74" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CL74" s="31"/>
       <c r="CM74" s="31"/>
       <c r="CN74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CO74" s="31"/>
       <c r="CP74" s="31"/>
       <c r="CQ74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CR74" s="31"/>
       <c r="CS74" s="31"/>
       <c r="CT74" s="52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CU74" s="31"/>
       <c r="CV74" s="31"/>
       <c r="CW74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CZ74" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="DC74" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="DF74" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>27</v>
@@ -27698,142 +27698,142 @@
       <c r="A80"/>
       <c r="D80"/>
       <c r="E80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q80" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF80" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI80" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AU80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BA80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BG80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BJ80" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BM80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BN80" s="31"/>
       <c r="BO80" s="31"/>
       <c r="BP80" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BQ80" s="31"/>
       <c r="BR80" s="31"/>
       <c r="BS80" s="117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BT80" s="31"/>
       <c r="BU80" s="31"/>
       <c r="BV80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BW80" s="31"/>
       <c r="BX80" s="31"/>
       <c r="BY80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BZ80" s="31"/>
       <c r="CA80" s="31"/>
       <c r="CB80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CC80" s="31"/>
       <c r="CD80" s="31"/>
       <c r="CE80" s="123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CF80" s="31"/>
       <c r="CG80" s="31"/>
       <c r="CH80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CI80" s="31"/>
       <c r="CJ80" s="31"/>
       <c r="CK80" s="117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CL80" s="31"/>
       <c r="CM80" s="31"/>
       <c r="CN80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CO80" s="31"/>
       <c r="CP80" s="31"/>
       <c r="CQ80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CR80" s="31"/>
       <c r="CS80" s="31"/>
       <c r="CT80" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CU80" s="31"/>
       <c r="CV80" s="31"/>
       <c r="CW80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CZ80" s="117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="DC80" s="117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="DF80" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E81" s="50" t="s">
         <v>9</v>
@@ -27906,7 +27906,7 @@
       <c r="AS81" s="31"/>
       <c r="AT81" s="31"/>
       <c r="AU81" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV81" s="31"/>
       <c r="AW81" s="31"/>
@@ -27931,7 +27931,7 @@
       <c r="BH81" s="31"/>
       <c r="BI81" s="31"/>
       <c r="BJ81" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BK81" s="31"/>
       <c r="BL81" s="31"/>
@@ -28179,7 +28179,7 @@
         <v>16</v>
       </c>
       <c r="DF82" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:110" x14ac:dyDescent="0.35">
@@ -28206,7 +28206,7 @@
       <c r="O83" s="31"/>
       <c r="P83" s="31"/>
       <c r="Q83" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
@@ -28231,12 +28231,12 @@
       <c r="AD83" s="31"/>
       <c r="AE83" s="31"/>
       <c r="AF83" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG83" s="31"/>
       <c r="AH83" s="31"/>
       <c r="AI83" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ83" s="31"/>
       <c r="AK83" s="31"/>
@@ -28251,7 +28251,7 @@
       <c r="AP83" s="31"/>
       <c r="AQ83" s="31"/>
       <c r="AR83" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AS83" s="31"/>
       <c r="AT83" s="31"/>
@@ -28261,27 +28261,27 @@
       <c r="AV83" s="31"/>
       <c r="AW83" s="31"/>
       <c r="AX83" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY83" s="31"/>
       <c r="AZ83" s="31"/>
       <c r="BA83" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB83" s="31"/>
       <c r="BC83" s="31"/>
       <c r="BD83" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BE83" s="31"/>
       <c r="BF83" s="31"/>
       <c r="BG83" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BH83" s="31"/>
       <c r="BI83" s="31"/>
       <c r="BJ83" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BK83" s="31"/>
       <c r="BL83" s="31"/>
@@ -28291,7 +28291,7 @@
       <c r="BN83" s="31"/>
       <c r="BO83" s="31"/>
       <c r="BP83" s="104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BQ83" s="31"/>
       <c r="BR83" s="31"/>
@@ -28321,17 +28321,17 @@
       <c r="CF83" s="31"/>
       <c r="CG83" s="31"/>
       <c r="CH83" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CI83" s="31"/>
       <c r="CJ83" s="31"/>
       <c r="CK83" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CL83" s="31"/>
       <c r="CM83" s="31"/>
       <c r="CN83" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CO83" s="31"/>
       <c r="CP83" s="31"/>
@@ -28362,22 +28362,22 @@
       <c r="A84"/>
       <c r="D84"/>
       <c r="E84" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
       <c r="K84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
       <c r="N84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O84" s="31"/>
       <c r="P84" s="31"/>
@@ -28387,22 +28387,22 @@
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
       <c r="T84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U84" s="31"/>
       <c r="V84" s="31"/>
       <c r="W84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA84" s="31"/>
       <c r="AB84" s="31"/>
       <c r="AC84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD84" s="31"/>
       <c r="AE84" s="31"/>
@@ -28417,12 +28417,12 @@
       <c r="AJ84" s="31"/>
       <c r="AK84" s="31"/>
       <c r="AL84" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AM84" s="31"/>
       <c r="AN84" s="31"/>
       <c r="AO84" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AP84" s="31"/>
       <c r="AQ84" s="31"/>
@@ -28462,7 +28462,7 @@
       <c r="BK84" s="31"/>
       <c r="BL84" s="31"/>
       <c r="BM84" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BN84" s="31"/>
       <c r="BO84" s="31"/>
@@ -28472,27 +28472,27 @@
       <c r="BQ84" s="31"/>
       <c r="BR84" s="31"/>
       <c r="BS84" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BT84" s="31"/>
       <c r="BU84" s="31"/>
       <c r="BV84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BW84" s="31"/>
       <c r="BX84" s="31"/>
       <c r="BY84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BZ84" s="31"/>
       <c r="CA84" s="31"/>
       <c r="CB84" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CC84" s="31"/>
       <c r="CD84" s="31"/>
       <c r="CE84" s="121" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CF84" s="31"/>
       <c r="CG84" s="31"/>
@@ -28512,23 +28512,23 @@
       <c r="CO84" s="31"/>
       <c r="CP84" s="31"/>
       <c r="CQ84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CR84" s="31"/>
       <c r="CS84" s="31"/>
       <c r="CT84" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CU84" s="31"/>
       <c r="CV84" s="31"/>
       <c r="CW84" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CZ84" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DC84" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DF84" s="103" t="s">
         <v>23</v>
@@ -28642,142 +28642,142 @@
       <c r="A86"/>
       <c r="D86"/>
       <c r="E86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q86" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF86" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI86" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AL86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AR86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AU86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AX86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BA86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BD86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BG86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BJ86" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BM86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BN86" s="31"/>
       <c r="BO86" s="31"/>
       <c r="BP86" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BQ86" s="31"/>
       <c r="BR86" s="31"/>
       <c r="BS86" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BT86" s="31"/>
       <c r="BU86" s="31"/>
       <c r="BV86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BW86" s="31"/>
       <c r="BX86" s="31"/>
       <c r="BY86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BZ86" s="31"/>
       <c r="CA86" s="31"/>
       <c r="CB86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CC86" s="31"/>
       <c r="CD86" s="31"/>
       <c r="CE86" s="123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CF86" s="31"/>
       <c r="CG86" s="31"/>
       <c r="CH86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CI86" s="31"/>
       <c r="CJ86" s="31"/>
       <c r="CK86" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CL86" s="31"/>
       <c r="CM86" s="31"/>
       <c r="CN86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CO86" s="31"/>
       <c r="CP86" s="31"/>
       <c r="CQ86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CR86" s="31"/>
       <c r="CS86" s="31"/>
       <c r="CT86" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CU86" s="31"/>
       <c r="CV86" s="31"/>
       <c r="CW86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CZ86" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DC86" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DF86" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>26</v>
@@ -29114,13 +29114,13 @@
       <c r="CU88" s="31"/>
       <c r="CV88" s="31"/>
       <c r="CW88" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CZ88" s="115" t="s">
         <v>19</v>
       </c>
       <c r="DC88" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="DF88" s="103" t="s">
         <v>19</v>
@@ -29280,7 +29280,7 @@
       <c r="CO89" s="31"/>
       <c r="CP89" s="31"/>
       <c r="CQ89" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CR89" s="31"/>
       <c r="CS89" s="31"/>
@@ -29296,7 +29296,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29306,47 +29306,47 @@
       <c r="A90"/>
       <c r="D90"/>
       <c r="E90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
       <c r="H90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I90" s="31"/>
       <c r="J90" s="31"/>
       <c r="K90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L90" s="31"/>
       <c r="M90" s="31"/>
       <c r="N90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O90" s="31"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R90" s="31"/>
       <c r="S90" s="31"/>
       <c r="T90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U90" s="31"/>
       <c r="V90" s="31"/>
       <c r="W90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
       <c r="Z90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA90" s="31"/>
       <c r="AB90" s="31"/>
       <c r="AC90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AD90" s="31"/>
       <c r="AE90" s="31"/>
@@ -29356,102 +29356,102 @@
       <c r="AG90" s="31"/>
       <c r="AH90" s="31"/>
       <c r="AI90" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AJ90" s="31"/>
       <c r="AK90" s="31"/>
       <c r="AL90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AM90" s="31"/>
       <c r="AN90" s="31"/>
       <c r="AO90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AP90" s="31"/>
       <c r="AQ90" s="31"/>
       <c r="AR90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AS90" s="31"/>
       <c r="AT90" s="31"/>
       <c r="AU90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV90" s="31"/>
       <c r="AW90" s="31"/>
       <c r="AX90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AY90" s="31"/>
       <c r="AZ90" s="31"/>
       <c r="BA90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB90" s="31"/>
       <c r="BC90" s="31"/>
       <c r="BD90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BE90" s="31"/>
       <c r="BF90" s="31"/>
       <c r="BG90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BH90" s="31"/>
       <c r="BI90" s="31"/>
       <c r="BJ90" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BK90" s="31"/>
       <c r="BL90" s="31"/>
       <c r="BM90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BN90" s="31"/>
       <c r="BO90" s="31"/>
       <c r="BP90" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BQ90" s="31"/>
       <c r="BR90" s="31"/>
       <c r="BS90" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BT90" s="31"/>
       <c r="BU90" s="31"/>
       <c r="BV90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BW90" s="31"/>
       <c r="BX90" s="31"/>
       <c r="BY90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BZ90" s="31"/>
       <c r="CA90" s="31"/>
       <c r="CB90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CC90" s="31"/>
       <c r="CD90" s="31"/>
       <c r="CE90" s="121" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CF90" s="31"/>
       <c r="CG90" s="31"/>
       <c r="CH90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CI90" s="31"/>
       <c r="CJ90" s="31"/>
       <c r="CK90" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CL90" s="31"/>
       <c r="CM90" s="31"/>
       <c r="CN90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CO90" s="31"/>
       <c r="CP90" s="31"/>
@@ -29461,7 +29461,7 @@
       <c r="CR90" s="31"/>
       <c r="CS90" s="31"/>
       <c r="CT90" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CU90" s="31"/>
       <c r="CV90" s="31"/>
@@ -29469,13 +29469,13 @@
         <v>19</v>
       </c>
       <c r="CZ90" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="DF90" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:110" x14ac:dyDescent="0.35">
@@ -29495,7 +29495,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29557,7 +29557,7 @@
     </row>
     <row r="93" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D93" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E93" s="103" t="s">
         <v>27</v>
@@ -29613,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29655,7 +29655,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29675,7 +29675,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29699,149 +29699,149 @@
     </row>
     <row r="94" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D94" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="K94" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="N94" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q94" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>100</v>
-      </c>
-      <c r="H94" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="K94" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>104</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI94" s="110" t="s">
         <v>102</v>
-      </c>
-      <c r="AI94" s="110" t="s">
-        <v>106</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D95" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E95" s="103">
         <v>142</v>
@@ -29984,7 +29984,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30032,14 +30032,14 @@
       </c>
       <c r="AP96" s="93"/>
       <c r="AR96" s="95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AU96" s="95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30080,7 +30080,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30110,7 +30110,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30129,7 +30129,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30324,23 +30324,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30356,11 +30344,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -30470,7 +30470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="AG52" sqref="AG52"/>
@@ -37284,11 +37284,11 @@
     <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="str">
         <f>Resultat!E50</f>
-        <v>1D</v>
+        <v>Österrike</v>
       </c>
       <c r="B45" s="19" t="str">
         <f>Kuponger!D46</f>
-        <v>2F</v>
+        <v>Turkiet</v>
       </c>
       <c r="C45">
         <f>IF(AND(Resultat!$H50&lt;&gt;"",Kuponger!E46&lt;&gt;""),IF(Resultat!$H50=Kuponger!E46,1,0),0) + IF(AND(Resultat!$I50&lt;&gt;"",Kuponger!F46&lt;&gt;"",Resultat!$K50&lt;&gt;"",Kuponger!G46&lt;&gt;""),IF(AND(Resultat!$I50=Kuponger!F46,Resultat!$K50=Kuponger!G46),3,0),0)</f>
@@ -37328,7 +37328,7 @@
       </c>
       <c r="L45">
         <f ca="1">IF(AND(Resultat!$I50&lt;&gt;"",OFFSET(Kuponger!$F46,0,3*COLUMN(I45))=Resultat!$I50,OFFSET(Kuponger!$G46,0,3*COLUMN(I45))=Resultat!$K50),3,0) + IF(AND(Resultat!$H50&lt;&gt;"",OFFSET(Kuponger!$E46,0,3*COLUMN(I45))=Resultat!$H50),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <f ca="1">IF(AND(Resultat!$I50&lt;&gt;"",OFFSET(Kuponger!$F46,0,3*COLUMN(J45))=Resultat!$I50,OFFSET(Kuponger!$G46,0,3*COLUMN(J45))=Resultat!$K50),3,0) + IF(AND(Resultat!$H50&lt;&gt;"",OFFSET(Kuponger!$E46,0,3*COLUMN(J45))=Resultat!$H50),1,0)</f>
@@ -37344,7 +37344,7 @@
       </c>
       <c r="P45">
         <f ca="1">IF(AND(Resultat!$I50&lt;&gt;"",OFFSET(Kuponger!$F46,0,3*COLUMN(M45))=Resultat!$I50,OFFSET(Kuponger!$G46,0,3*COLUMN(M45))=Resultat!$K50),3,0) + IF(AND(Resultat!$H50&lt;&gt;"",OFFSET(Kuponger!$E46,0,3*COLUMN(M45))=Resultat!$H50),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <f ca="1">IF(AND(Resultat!$I50&lt;&gt;"",OFFSET(Kuponger!$F46,0,3*COLUMN(N45))=Resultat!$I50,OFFSET(Kuponger!$G46,0,3*COLUMN(N45))=Resultat!$K50),3,0) + IF(AND(Resultat!$H50&lt;&gt;"",OFFSET(Kuponger!$E46,0,3*COLUMN(N45))=Resultat!$H50),1,0)</f>
@@ -37438,19 +37438,19 @@
     <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="str">
         <f>Resultat!E51</f>
-        <v>V39</v>
+        <v>Spanien</v>
       </c>
       <c r="B46" s="19" t="str">
         <f>Kuponger!D47</f>
-        <v>V37</v>
+        <v>Tyskland</v>
       </c>
       <c r="C46">
         <f>IF(AND(Resultat!$H51&lt;&gt;"",Kuponger!E47&lt;&gt;""),IF(Resultat!$H51=Kuponger!E47,1,0),0) + IF(AND(Resultat!$I51&lt;&gt;"",Kuponger!F47&lt;&gt;"",Resultat!$K51&lt;&gt;"",Kuponger!G47&lt;&gt;""),IF(AND(Resultat!$I51=Kuponger!F47,Resultat!$K51=Kuponger!G47),3,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(A46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(A46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(A46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(B46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(B46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(B46))=Resultat!$H51),1,0)</f>
@@ -37462,7 +37462,7 @@
       </c>
       <c r="G46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(D46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(D46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(D46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(E46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(E46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(E46))=Resultat!$H51),1,0)</f>
@@ -37478,7 +37478,7 @@
       </c>
       <c r="K46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(H46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(H46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(H46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(I46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(I46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(I46))=Resultat!$H51),1,0)</f>
@@ -37486,7 +37486,7 @@
       </c>
       <c r="M46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(J46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(J46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(J46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(K46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(K46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(K46))=Resultat!$H51),1,0)</f>
@@ -37498,11 +37498,11 @@
       </c>
       <c r="P46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(M46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(M46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(M46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(N46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(N46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(N46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(O46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(O46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(O46))=Resultat!$H51),1,0)</f>
@@ -37518,11 +37518,11 @@
       </c>
       <c r="U46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(R46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(R46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(R46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(S46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(S46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(S46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(T46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(T46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(T46))=Resultat!$H51),1,0)</f>
@@ -37538,11 +37538,11 @@
       </c>
       <c r="Z46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(W46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(W46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(W46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(X46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(X46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(X46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(Y46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(Y46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(Y46))=Resultat!$H51),1,0)</f>
@@ -37570,7 +37570,7 @@
       </c>
       <c r="AH46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(AE46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(AE46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(AE46))=Resultat!$H51),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI46">
         <f ca="1">IF(AND(Resultat!$I51&lt;&gt;"",OFFSET(Kuponger!$F47,0,3*COLUMN(AF46))=Resultat!$I51,OFFSET(Kuponger!$G47,0,3*COLUMN(AF46))=Resultat!$K51),3,0) + IF(AND(Resultat!$H51&lt;&gt;"",OFFSET(Kuponger!$E47,0,3*COLUMN(AF46))=Resultat!$H51),1,0)</f>
@@ -38515,7 +38515,7 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" cm="1">
@@ -38666,7 +38666,7 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" cm="1">
@@ -38817,7 +38817,7 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" cm="1">
@@ -38968,7 +38968,7 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" cm="1">
@@ -39119,7 +39119,7 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" cm="1">
@@ -39270,7 +39270,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" cm="1">
@@ -39421,7 +39421,7 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59">
@@ -39571,7 +39571,7 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60">
@@ -39721,7 +39721,7 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61">
@@ -39871,7 +39871,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40021,15 +40021,15 @@
     </row>
     <row r="63" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40041,7 +40041,7 @@
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40057,15 +40057,15 @@
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40077,11 +40077,11 @@
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40097,11 +40097,11 @@
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40117,11 +40117,11 @@
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40149,7 +40149,7 @@
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEBF407A-6C1B-4776-84C8-F52F613FD233}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A16D9BB-89A8-4643-83E0-F62D6382BC00}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="141">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -298,12 +298,6 @@
   </si>
   <si>
     <t>Kvart</t>
-  </si>
-  <si>
-    <t>V41</t>
-  </si>
-  <si>
-    <t>V42</t>
   </si>
   <si>
     <t>V40</t>
@@ -1707,11 +1701,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1734,11 +1728,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1993,10 +1987,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48</c:v>
@@ -2017,7 +2011,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>37</c:v>
@@ -2032,7 +2026,7 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>51</c:v>
@@ -2044,19 +2038,19 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>40</c:v>
@@ -2077,7 +2071,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>51</c:v>
@@ -2092,7 +2086,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>55</c:v>
@@ -3359,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4821,7 +4815,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
@@ -4913,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="99" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -5140,18 +5134,24 @@
         <v>0.875</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="68"/>
-      <c r="I52" s="64"/>
+        <v>27</v>
+      </c>
+      <c r="H52" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="64">
+        <v>0</v>
+      </c>
       <c r="J52" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="K52" s="66"/>
+      <c r="K52" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="57">
@@ -5167,11 +5167,11 @@
         <v>0.75</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F53" s="69"/>
       <c r="G53" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="64"/>
@@ -5194,11 +5194,11 @@
         <v>0.875</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F54" s="69"/>
       <c r="G54" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="64"/>
@@ -5215,17 +5215,17 @@
         <v>45482</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D55" s="59">
         <v>0.875</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="64"/>
@@ -5242,17 +5242,17 @@
         <v>45483</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D56" s="59">
         <v>0.875</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F56" s="69"/>
       <c r="G56" s="60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="64"/>
@@ -5275,11 +5275,11 @@
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
@@ -5676,7 +5676,7 @@
   <dimension ref="A1:DM98"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AP103" sqref="AP103"/>
     </sheetView>
   </sheetViews>
@@ -5727,11 +5727,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>50</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
@@ -5768,12 +5768,12 @@
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
@@ -5793,12 +5793,12 @@
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
@@ -5808,110 +5808,110 @@
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
+        <v>114</v>
+      </c>
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
-        <v>118</v>
-      </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
-        <v>119</v>
-      </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
-        <v>129</v>
-      </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
-        <v>132</v>
-      </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
-        <v>135</v>
-      </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
-        <v>136</v>
-      </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -20731,7 +20731,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -21829,14 +21829,14 @@
       </c>
       <c r="B48" s="60" t="str">
         <f>Resultat!E52</f>
-        <v>V41</v>
+        <v>Portugal</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="60" t="str">
         <f>Resultat!G52</f>
-        <v>V42</v>
+        <v>Frankrike</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>43</v>
@@ -29296,7 +29296,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29472,7 +29472,7 @@
         <v>77</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="DF90" s="103" t="s">
         <v>77</v>
@@ -29495,7 +29495,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29613,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29655,7 +29655,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29675,7 +29675,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29702,141 +29702,141 @@
         <v>34</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="K94" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H94" s="103" t="s">
+      <c r="N94" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="K94" s="107" t="s">
+      <c r="Q94" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>98</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>97</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>100</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AI94" s="110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
@@ -29984,7 +29984,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30039,7 +30039,7 @@
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30080,7 +30080,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30110,7 +30110,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30129,7 +30129,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30324,11 +30324,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30344,23 +30356,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -30470,10 +30470,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="AG52" sqref="AG52"/>
+      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37592,19 +37592,19 @@
     <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="str">
         <f>Resultat!E52</f>
-        <v>V41</v>
+        <v>Portugal</v>
       </c>
       <c r="B47" s="19" t="str">
         <f>Kuponger!D48</f>
-        <v>V42</v>
+        <v>Frankrike</v>
       </c>
       <c r="C47">
         <f>IF(AND(Resultat!$H52&lt;&gt;"",Kuponger!E48&lt;&gt;""),IF(Resultat!$H52=Kuponger!E48,1,0),0) + IF(AND(Resultat!$I52&lt;&gt;"",Kuponger!F48&lt;&gt;"",Resultat!$K52&lt;&gt;"",Kuponger!G48&lt;&gt;""),IF(AND(Resultat!$I52=Kuponger!F48,Resultat!$K52=Kuponger!G48),3,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(A47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(A47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(A47))=Resultat!$H52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(B47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(B47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(B47))=Resultat!$H52),1,0)</f>
@@ -37632,7 +37632,7 @@
       </c>
       <c r="K47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(H47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(H47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(H47))=Resultat!$H52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(I47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(I47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(I47))=Resultat!$H52),1,0)</f>
@@ -37652,7 +37652,7 @@
       </c>
       <c r="P47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(M47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(M47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(M47))=Resultat!$H52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(N47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(N47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(N47))=Resultat!$H52),1,0)</f>
@@ -37668,7 +37668,7 @@
       </c>
       <c r="T47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(Q47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(Q47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(Q47))=Resultat!$H52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(R47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(R47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(R47))=Resultat!$H52),1,0)</f>
@@ -37676,7 +37676,7 @@
       </c>
       <c r="V47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(S47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(S47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(S47))=Resultat!$H52),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(T47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(T47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(T47))=Resultat!$H52),1,0)</f>
@@ -37684,7 +37684,7 @@
       </c>
       <c r="X47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(U47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(U47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(U47))=Resultat!$H52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(V47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(V47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(V47))=Resultat!$H52),1,0)</f>
@@ -37712,7 +37712,7 @@
       </c>
       <c r="AE47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(AB47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(AB47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(AB47))=Resultat!$H52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(AC47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(AC47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(AC47))=Resultat!$H52),1,0)</f>
@@ -37732,7 +37732,7 @@
       </c>
       <c r="AJ47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(AG47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(AG47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(AG47))=Resultat!$H52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47">
         <f ca="1">IF(AND(Resultat!$I52&lt;&gt;"",OFFSET(Kuponger!$F48,0,3*COLUMN(AH47))=Resultat!$I52,OFFSET(Kuponger!$G48,0,3*COLUMN(AH47))=Resultat!$K52),3,0) + IF(AND(Resultat!$H52&lt;&gt;"",OFFSET(Kuponger!$E48,0,3*COLUMN(AH47))=Resultat!$H52),1,0)</f>
@@ -39871,7 +39871,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40025,11 +40025,11 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40057,7 +40057,7 @@
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40077,7 +40077,7 @@
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40101,7 +40101,7 @@
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40109,7 +40109,7 @@
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40137,7 +40137,7 @@
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40157,7 +40157,7 @@
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A16D9BB-89A8-4643-83E0-F62D6382BC00}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA93A3DE-3D41-46F6-9665-8E6AC5C3CD6C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="137">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -298,18 +298,6 @@
   </si>
   <si>
     <t>Kvart</t>
-  </si>
-  <si>
-    <t>V40</t>
-  </si>
-  <si>
-    <t>V38</t>
-  </si>
-  <si>
-    <t>V43</t>
-  </si>
-  <si>
-    <t>V44</t>
   </si>
   <si>
     <t>Semi</t>
@@ -1701,11 +1689,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,11 +1716,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1987,10 +1975,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48</c:v>
@@ -1999,7 +1987,7 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>38</c:v>
@@ -2014,10 +2002,10 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>36</c:v>
@@ -2026,49 +2014,49 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45</c:v>
@@ -2077,16 +2065,16 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>51</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>55</c:v>
@@ -3353,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4815,7 +4803,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
@@ -4907,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="99" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -5016,8 +5004,11 @@
       <c r="K48" s="66">
         <v>0</v>
       </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="57">
         <v>43</v>
       </c>
@@ -5052,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="57">
         <v>44</v>
       </c>
@@ -5087,7 +5078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="57">
         <v>45</v>
       </c>
@@ -5120,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="57">
         <v>46</v>
       </c>
@@ -5152,8 +5143,11 @@
       <c r="K52" s="66">
         <v>0</v>
       </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="57">
         <v>48</v>
       </c>
@@ -5167,20 +5161,29 @@
         <v>0.75</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F53" s="69"/>
       <c r="G53" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H53" s="68"/>
-      <c r="I53" s="64"/>
+        <v>7</v>
+      </c>
+      <c r="H53" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" s="64">
+        <v>1</v>
+      </c>
       <c r="J53" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="K53" s="66"/>
+      <c r="K53" s="66">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>9</v>
+      </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="57">
         <v>47</v>
       </c>
@@ -5194,20 +5197,26 @@
         <v>0.875</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F54" s="69"/>
       <c r="G54" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" s="68"/>
-      <c r="I54" s="64"/>
+        <v>4</v>
+      </c>
+      <c r="H54" s="68">
+        <v>1</v>
+      </c>
+      <c r="I54" s="64">
+        <v>2</v>
+      </c>
       <c r="J54" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="K54" s="66"/>
+      <c r="K54" s="66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="57">
         <v>50</v>
       </c>
@@ -5215,17 +5224,17 @@
         <v>45482</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D55" s="59">
         <v>0.875</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="60" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="64"/>
@@ -5234,7 +5243,7 @@
       </c>
       <c r="K55" s="66"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="57">
         <v>49</v>
       </c>
@@ -5242,17 +5251,17 @@
         <v>45483</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D56" s="59">
         <v>0.875</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F56" s="69"/>
       <c r="G56" s="60" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="64"/>
@@ -5261,7 +5270,7 @@
       </c>
       <c r="K56" s="66"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="70">
         <v>51</v>
       </c>
@@ -5275,11 +5284,11 @@
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
@@ -5288,18 +5297,18 @@
       </c>
       <c r="K57" s="78"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="D58" s="2"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -5308,7 +5317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="I61" s="44"/>
@@ -5316,7 +5325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -5330,7 +5339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="I63" s="44" t="s">
@@ -5343,7 +5352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="I64" s="44" t="s">
@@ -5727,11 +5736,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="141" t="s">
         <v>50</v>
       </c>
@@ -5743,7 +5752,7 @@
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
@@ -5768,12 +5777,12 @@
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
@@ -5793,12 +5802,12 @@
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
@@ -5808,110 +5817,110 @@
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="148" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148" t="s">
-        <v>115</v>
-      </c>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148" t="s">
+      <c r="BP1" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="139"/>
+      <c r="BS1" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="CC1" s="139"/>
+      <c r="CD1" s="139"/>
+      <c r="CE1" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148" t="s">
-        <v>117</v>
-      </c>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148" t="s">
+      <c r="CF1" s="139"/>
+      <c r="CG1" s="139"/>
+      <c r="CH1" s="139" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI1" s="139"/>
+      <c r="CJ1" s="139"/>
+      <c r="CK1" s="139" t="s">
+        <v>119</v>
+      </c>
+      <c r="CL1" s="139"/>
+      <c r="CM1" s="139"/>
+      <c r="CN1" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148" t="s">
-        <v>122</v>
-      </c>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148" t="s">
+      <c r="CO1" s="139"/>
+      <c r="CP1" s="139"/>
+      <c r="CQ1" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="CR1" s="139"/>
+      <c r="CS1" s="139"/>
+      <c r="CT1" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148" t="s">
-        <v>125</v>
-      </c>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148" t="s">
+      <c r="CU1" s="139"/>
+      <c r="CV1" s="139"/>
+      <c r="CW1" s="140" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX1" s="139"/>
+      <c r="CY1" s="139"/>
+      <c r="CZ1" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="149" t="s">
+      <c r="DA1" s="139"/>
+      <c r="DB1" s="139"/>
+      <c r="DC1" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="DD1" s="139"/>
+      <c r="DE1" s="139"/>
+      <c r="DF1" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148" t="s">
-        <v>131</v>
-      </c>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148" t="s">
-        <v>134</v>
-      </c>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
+      <c r="DG1" s="139"/>
+      <c r="DH1" s="139"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -10697,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -20731,7 +20740,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -22175,14 +22184,14 @@
       </c>
       <c r="B49" s="60" t="str">
         <f>Resultat!E53</f>
-        <v>V40</v>
+        <v>England</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="60" t="str">
         <f>Resultat!G53</f>
-        <v>V38</v>
+        <v>Schweiz</v>
       </c>
       <c r="E49" s="33" t="s">
         <v>43</v>
@@ -22521,14 +22530,14 @@
       </c>
       <c r="B50" s="60" t="str">
         <f>Resultat!E54</f>
-        <v>V43</v>
+        <v>Nederländerna</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="60" t="str">
         <f>Resultat!G54</f>
-        <v>V44</v>
+        <v>Turkiet</v>
       </c>
       <c r="E50" s="33">
         <v>2</v>
@@ -29296,7 +29305,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29472,7 +29481,7 @@
         <v>77</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="DF90" s="103" t="s">
         <v>77</v>
@@ -29495,7 +29504,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29613,7 +29622,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29655,7 +29664,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29675,7 +29684,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29702,141 +29711,141 @@
         <v>34</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="K94" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="N94" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q94" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>94</v>
-      </c>
-      <c r="H94" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="K94" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>96</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>98</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI94" s="110" t="s">
         <v>96</v>
-      </c>
-      <c r="AI94" s="110" t="s">
-        <v>100</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
@@ -29984,7 +29993,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30039,7 +30048,7 @@
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30080,7 +30089,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30110,7 +30119,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30129,7 +30138,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30324,23 +30333,11 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30356,11 +30353,23 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -30470,10 +30479,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37746,19 +37755,19 @@
     <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="str">
         <f>Resultat!E53</f>
-        <v>V40</v>
+        <v>England</v>
       </c>
       <c r="B48" s="19" t="str">
         <f>Kuponger!D49</f>
-        <v>V38</v>
+        <v>Schweiz</v>
       </c>
       <c r="C48">
         <f>IF(AND(Resultat!$H53&lt;&gt;"",Kuponger!E49&lt;&gt;""),IF(Resultat!$H53=Kuponger!E49,1,0),0) + IF(AND(Resultat!$I53&lt;&gt;"",Kuponger!F49&lt;&gt;"",Resultat!$K53&lt;&gt;"",Kuponger!G49&lt;&gt;""),IF(AND(Resultat!$I53=Kuponger!F49,Resultat!$K53=Kuponger!G49),3,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(A48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(A48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(A48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(B48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(B48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(B48))=Resultat!$H53),1,0)</f>
@@ -37770,7 +37779,7 @@
       </c>
       <c r="G48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(D48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(D48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(D48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(E48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(E48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(E48))=Resultat!$H53),1,0)</f>
@@ -37794,7 +37803,7 @@
       </c>
       <c r="M48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(J48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(J48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(J48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(K48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(K48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(K48))=Resultat!$H53),1,0)</f>
@@ -37806,7 +37815,7 @@
       </c>
       <c r="P48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(M48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(M48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(M48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(N48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(N48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(N48))=Resultat!$H53),1,0)</f>
@@ -37814,7 +37823,7 @@
       </c>
       <c r="R48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(O48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(O48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(O48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(P48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(P48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(P48))=Resultat!$H53),1,0)</f>
@@ -37830,11 +37839,11 @@
       </c>
       <c r="V48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(S48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(S48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(S48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(T48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(T48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(T48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(U48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(U48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(U48))=Resultat!$H53),1,0)</f>
@@ -37842,7 +37851,7 @@
       </c>
       <c r="Y48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(V48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(V48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(V48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(W48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(W48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(W48))=Resultat!$H53),1,0)</f>
@@ -37850,11 +37859,11 @@
       </c>
       <c r="AA48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(X48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(X48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(X48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(Y48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(Y48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(Y48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(Z48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(Z48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(Z48))=Resultat!$H53),1,0)</f>
@@ -37882,11 +37891,11 @@
       </c>
       <c r="AI48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(AF48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(AF48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(AF48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(AG48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(AG48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(AG48))=Resultat!$H53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48">
         <f ca="1">IF(AND(Resultat!$I53&lt;&gt;"",OFFSET(Kuponger!$F49,0,3*COLUMN(AH48))=Resultat!$I53,OFFSET(Kuponger!$G49,0,3*COLUMN(AH48))=Resultat!$K53),3,0) + IF(AND(Resultat!$H53&lt;&gt;"",OFFSET(Kuponger!$E49,0,3*COLUMN(AH48))=Resultat!$H53),1,0)</f>
@@ -37900,11 +37909,11 @@
     <row r="49" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="str">
         <f>Resultat!E54</f>
-        <v>V43</v>
+        <v>Nederländerna</v>
       </c>
       <c r="B49" s="19" t="str">
         <f>Kuponger!D50</f>
-        <v>V44</v>
+        <v>Turkiet</v>
       </c>
       <c r="C49">
         <f>IF(AND(Resultat!$H54&lt;&gt;"",Kuponger!E50&lt;&gt;""),IF(Resultat!$H54=Kuponger!E50,1,0),0) + IF(AND(Resultat!$I54&lt;&gt;"",Kuponger!F50&lt;&gt;"",Resultat!$K54&lt;&gt;"",Kuponger!G50&lt;&gt;""),IF(AND(Resultat!$I54=Kuponger!F50,Resultat!$K54=Kuponger!G50),3,0),0)</f>
@@ -37944,7 +37953,7 @@
       </c>
       <c r="L49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(I49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(I49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(I49))=Resultat!$H54),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(J49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(J49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(J49))=Resultat!$H54),1,0)</f>
@@ -37976,7 +37985,7 @@
       </c>
       <c r="T49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(Q49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(Q49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(Q49))=Resultat!$H54),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(R49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(R49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(R49))=Resultat!$H54),1,0)</f>
@@ -37988,7 +37997,7 @@
       </c>
       <c r="W49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(T49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(T49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(T49))=Resultat!$H54),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(U49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(U49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(U49))=Resultat!$H54),1,0)</f>
@@ -38004,7 +38013,7 @@
       </c>
       <c r="AA49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(X49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(X49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(X49))=Resultat!$H54),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(Y49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(Y49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(Y49))=Resultat!$H54),1,0)</f>
@@ -38016,7 +38025,7 @@
       </c>
       <c r="AD49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(AA49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(AA49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(AA49))=Resultat!$H54),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(AB49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(AB49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(AB49))=Resultat!$H54),1,0)</f>
@@ -38028,11 +38037,11 @@
       </c>
       <c r="AG49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(AD49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(AD49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(AD49))=Resultat!$H54),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(AE49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(AE49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(AE49))=Resultat!$H54),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI49">
         <f ca="1">IF(AND(Resultat!$I54&lt;&gt;"",OFFSET(Kuponger!$F50,0,3*COLUMN(AF49))=Resultat!$I54,OFFSET(Kuponger!$G50,0,3*COLUMN(AF49))=Resultat!$K54),3,0) + IF(AND(Resultat!$H54&lt;&gt;"",OFFSET(Kuponger!$E50,0,3*COLUMN(AF49))=Resultat!$H54),1,0)</f>
@@ -39871,7 +39880,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40025,11 +40034,11 @@
       </c>
       <c r="C63" s="13">
         <f ca="1">SUM(C2:C62)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40041,7 +40050,7 @@
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40061,11 +40070,11 @@
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40077,7 +40086,7 @@
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40085,7 +40094,7 @@
       </c>
       <c r="R63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40093,7 +40102,7 @@
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40101,11 +40110,11 @@
       </c>
       <c r="V63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40113,7 +40122,7 @@
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40121,11 +40130,11 @@
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40133,7 +40142,7 @@
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40145,19 +40154,19 @@
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AI63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA93A3DE-3D41-46F6-9665-8E6AC5C3CD6C}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA4E683-E63E-480F-A088-5F6FF71C2120}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="135">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -307,12 +307,6 @@
   </si>
   <si>
     <t>V48</t>
-  </si>
-  <si>
-    <t>V45</t>
-  </si>
-  <si>
-    <t>V46</t>
   </si>
   <si>
     <t>V49</t>
@@ -1978,19 +1972,19 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45</c:v>
@@ -2002,7 +1996,7 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>50</c:v>
@@ -2011,7 +2005,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>50</c:v>
@@ -2023,10 +2017,10 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>38</c:v>
@@ -2038,31 +2032,31 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>57</c:v>
@@ -2080,7 +2074,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView topLeftCell="A2" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4803,7 +4797,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
@@ -4895,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -5257,18 +5251,24 @@
         <v>0.875</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="F56" s="69"/>
       <c r="G56" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="68"/>
-      <c r="I56" s="64"/>
+        <v>27</v>
+      </c>
+      <c r="H56" s="68">
+        <v>1</v>
+      </c>
+      <c r="I56" s="64">
+        <v>2</v>
+      </c>
       <c r="J56" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="K56" s="66"/>
+      <c r="K56" s="66">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="70">
@@ -5284,11 +5284,11 @@
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
@@ -5684,9 +5684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP103" sqref="AP103"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5752,7 +5752,7 @@
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
@@ -5777,12 +5777,12 @@
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
@@ -5802,12 +5802,12 @@
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
@@ -5817,107 +5817,107 @@
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
       <c r="BP1" s="139" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BQ1" s="139"/>
       <c r="BR1" s="139"/>
       <c r="BS1" s="139" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BT1" s="139"/>
       <c r="BU1" s="139"/>
       <c r="BV1" s="139" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BW1" s="139"/>
       <c r="BX1" s="139"/>
       <c r="BY1" s="139" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BZ1" s="139"/>
       <c r="CA1" s="139"/>
       <c r="CB1" s="139" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="CC1" s="139"/>
       <c r="CD1" s="139"/>
       <c r="CE1" s="139" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="CF1" s="139"/>
       <c r="CG1" s="139"/>
       <c r="CH1" s="139" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="CI1" s="139"/>
       <c r="CJ1" s="139"/>
       <c r="CK1" s="139" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="CL1" s="139"/>
       <c r="CM1" s="139"/>
       <c r="CN1" s="139" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CO1" s="139"/>
       <c r="CP1" s="139"/>
       <c r="CQ1" s="139" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="CR1" s="139"/>
       <c r="CS1" s="139"/>
       <c r="CT1" s="139" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="CU1" s="139"/>
       <c r="CV1" s="139"/>
       <c r="CW1" s="140" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CX1" s="139"/>
       <c r="CY1" s="139"/>
       <c r="CZ1" s="139" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="DA1" s="139"/>
       <c r="DB1" s="139"/>
       <c r="DC1" s="139" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="DD1" s="139"/>
       <c r="DE1" s="139"/>
       <c r="DF1" s="139" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="DG1" s="139"/>
       <c r="DH1" s="139"/>
@@ -10706,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -20740,7 +20740,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -23219,11 +23219,11 @@
       </c>
       <c r="B52" s="60" t="str">
         <f>Resultat!E56</f>
-        <v>V45</v>
+        <v>Spanien</v>
       </c>
       <c r="D52" s="60" t="str">
         <f>Resultat!G56</f>
-        <v>V46</v>
+        <v>Frankrike</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>43</v>
@@ -29305,7 +29305,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29481,7 +29481,7 @@
         <v>77</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="DF90" s="103" t="s">
         <v>77</v>
@@ -29504,7 +29504,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29622,7 +29622,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29664,7 +29664,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29684,7 +29684,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29711,141 +29711,141 @@
         <v>34</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="K94" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="H94" s="103" t="s">
+      <c r="N94" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="K94" s="107" t="s">
+      <c r="Q94" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>92</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>94</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI94" s="110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
@@ -29993,7 +29993,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30048,7 +30048,7 @@
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30089,7 +30089,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30119,7 +30119,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30138,7 +30138,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30482,7 +30482,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38217,11 +38217,11 @@
     <row r="51" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="str">
         <f>Resultat!E56</f>
-        <v>V45</v>
+        <v>Spanien</v>
       </c>
       <c r="B51" s="19" t="str">
         <f>Kuponger!D52</f>
-        <v>V46</v>
+        <v>Frankrike</v>
       </c>
       <c r="C51">
         <f>IF(AND(Resultat!$H56&lt;&gt;"",Kuponger!E52&lt;&gt;""),IF(Resultat!$H56=Kuponger!E52,1,0),0) + IF(AND(Resultat!$I56&lt;&gt;"",Kuponger!F52&lt;&gt;"",Resultat!$K56&lt;&gt;"",Kuponger!G52&lt;&gt;""),IF(AND(Resultat!$I56=Kuponger!F52,Resultat!$K56=Kuponger!G52),3,0),0)</f>
@@ -38229,11 +38229,11 @@
       </c>
       <c r="D51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(A51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(A51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(A51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(B51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(B51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(B51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(C51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(C51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(C51))=Resultat!$H56),1,0)</f>
@@ -38241,11 +38241,11 @@
       </c>
       <c r="G51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(D51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(D51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(D51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(E51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(E51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(E51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(F51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(F51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(F51))=Resultat!$H56),1,0)</f>
@@ -38261,7 +38261,7 @@
       </c>
       <c r="L51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(I51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(I51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(I51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(J51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(J51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(J51))=Resultat!$H56),1,0)</f>
@@ -38273,7 +38273,7 @@
       </c>
       <c r="O51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(L51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(L51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(L51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(M51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(M51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(M51))=Resultat!$H56),1,0)</f>
@@ -38289,11 +38289,11 @@
       </c>
       <c r="S51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(P51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(P51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(P51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(Q51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(Q51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(Q51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(R51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(R51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(R51))=Resultat!$H56),1,0)</f>
@@ -38309,31 +38309,31 @@
       </c>
       <c r="X51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(U51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(U51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(U51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(V51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(V51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(V51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(W51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(W51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(W51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(X51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(X51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(X51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(Y51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(Y51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(Y51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(Z51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(Z51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(Z51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(AA51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(AA51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(AA51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(AB51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(AB51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(AB51))=Resultat!$H56),1,0)</f>
@@ -38341,7 +38341,7 @@
       </c>
       <c r="AF51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(AC51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(AC51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(AC51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(AD51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(AD51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(AD51))=Resultat!$H56),1,0)</f>
@@ -38365,7 +38365,7 @@
       </c>
       <c r="AL51">
         <f ca="1">IF(AND(Resultat!$I56&lt;&gt;"",OFFSET(Kuponger!$F52,0,3*COLUMN(AI51))=Resultat!$I56,OFFSET(Kuponger!$G52,0,3*COLUMN(AI51))=Resultat!$K56),3,0) + IF(AND(Resultat!$H56&lt;&gt;"",OFFSET(Kuponger!$E52,0,3*COLUMN(AI51))=Resultat!$H56),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.35">
@@ -39880,7 +39880,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40038,11 +40038,11 @@
       </c>
       <c r="D63" s="13">
         <f t="shared" ref="D63:AL63" ca="1" si="0">SUM(D2:D62)</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40050,11 +40050,11 @@
       </c>
       <c r="G63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40070,7 +40070,7 @@
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40082,7 +40082,7 @@
       </c>
       <c r="O63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40098,11 +40098,11 @@
       </c>
       <c r="S63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40118,31 +40118,31 @@
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40150,7 +40150,7 @@
       </c>
       <c r="AF63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40174,7 +40174,7 @@
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GustavNåfält_hat89ub\OneDrive - Retail Logistics Excellence - Relex Oy\Privat\EM_Tips\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="13_ncr:1_{1A72A3E9-31DE-41B1-9A3B-0FF77DA0BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA4E683-E63E-480F-A088-5F6FF71C2120}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDA6554-C9DB-47E3-9E1A-6FC280FADD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="133">
   <si>
     <t>EM-TIPS</t>
   </si>
@@ -301,12 +301,6 @@
   </si>
   <si>
     <t>Semi</t>
-  </si>
-  <si>
-    <t>V47</t>
-  </si>
-  <si>
-    <t>V48</t>
   </si>
   <si>
     <t>V49</t>
@@ -1683,11 +1677,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1710,11 +1704,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1990,13 +1984,13 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>50</c:v>
@@ -2020,7 +2014,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>38</c:v>
@@ -2029,7 +2023,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48</c:v>
@@ -2041,16 +2035,16 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45</c:v>
@@ -2059,7 +2053,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>55</c:v>
@@ -2068,13 +2062,13 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>55</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,10 +3026,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3335,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4797,7 +4787,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
@@ -4889,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="99" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N45" s="100"/>
       <c r="O45" s="101"/>
@@ -5224,18 +5214,24 @@
         <v>0.875</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" s="68"/>
-      <c r="I55" s="64"/>
+        <v>10</v>
+      </c>
+      <c r="H55" s="68">
+        <v>2</v>
+      </c>
+      <c r="I55" s="64">
+        <v>1</v>
+      </c>
       <c r="J55" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="K55" s="66"/>
+      <c r="K55" s="66">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="57">
@@ -5284,11 +5280,11 @@
         <v>0.875</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="76"/>
@@ -5684,8 +5680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -5736,11 +5732,11 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="141" t="s">
         <v>50</v>
       </c>
@@ -5752,7 +5748,7 @@
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
       <c r="K1" s="141" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L1" s="142"/>
       <c r="M1" s="143"/>
@@ -5777,12 +5773,12 @@
       <c r="X1" s="142"/>
       <c r="Y1" s="143"/>
       <c r="Z1" s="145" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA1" s="146"/>
       <c r="AB1" s="147"/>
       <c r="AC1" s="145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AD1" s="146"/>
       <c r="AE1" s="147"/>
@@ -5802,12 +5798,12 @@
       <c r="AM1" s="142"/>
       <c r="AN1" s="143"/>
       <c r="AO1" s="141" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AP1" s="142"/>
       <c r="AQ1" s="143"/>
       <c r="AR1" s="144" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS1" s="144"/>
       <c r="AT1" s="144"/>
@@ -5817,110 +5813,110 @@
       <c r="AV1" s="142"/>
       <c r="AW1" s="143"/>
       <c r="AX1" s="141" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY1" s="142"/>
       <c r="AZ1" s="143"/>
       <c r="BA1" s="141" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BB1" s="142"/>
       <c r="BC1" s="143"/>
       <c r="BD1" s="141" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BE1" s="142"/>
       <c r="BF1" s="143"/>
       <c r="BG1" s="141" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BH1" s="142"/>
       <c r="BI1" s="143"/>
       <c r="BJ1" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BK1" s="142"/>
       <c r="BL1" s="143"/>
       <c r="BM1" s="141" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BN1" s="142"/>
       <c r="BO1" s="143"/>
-      <c r="BP1" s="139" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BP1" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ1" s="148"/>
+      <c r="BR1" s="148"/>
+      <c r="BS1" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT1" s="148"/>
+      <c r="BU1" s="148"/>
+      <c r="BV1" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="BW1" s="148"/>
+      <c r="BX1" s="148"/>
+      <c r="BY1" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="139" t="s">
+      <c r="BZ1" s="148"/>
+      <c r="CA1" s="148"/>
+      <c r="CB1" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="BW1" s="139"/>
-      <c r="BX1" s="139"/>
-      <c r="BY1" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ1" s="139"/>
-      <c r="CA1" s="139"/>
-      <c r="CB1" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="CC1" s="139"/>
-      <c r="CD1" s="139"/>
-      <c r="CE1" s="139" t="s">
+      <c r="CC1" s="148"/>
+      <c r="CD1" s="148"/>
+      <c r="CE1" s="148" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF1" s="148"/>
+      <c r="CG1" s="148"/>
+      <c r="CH1" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="CF1" s="139"/>
-      <c r="CG1" s="139"/>
-      <c r="CH1" s="139" t="s">
+      <c r="CI1" s="148"/>
+      <c r="CJ1" s="148"/>
+      <c r="CK1" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="CL1" s="148"/>
+      <c r="CM1" s="148"/>
+      <c r="CN1" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="CI1" s="139"/>
-      <c r="CJ1" s="139"/>
-      <c r="CK1" s="139" t="s">
+      <c r="CO1" s="148"/>
+      <c r="CP1" s="148"/>
+      <c r="CQ1" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="CL1" s="139"/>
-      <c r="CM1" s="139"/>
-      <c r="CN1" s="139" t="s">
-        <v>118</v>
-      </c>
-      <c r="CO1" s="139"/>
-      <c r="CP1" s="139"/>
-      <c r="CQ1" s="139" t="s">
+      <c r="CR1" s="148"/>
+      <c r="CS1" s="148"/>
+      <c r="CT1" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="CR1" s="139"/>
-      <c r="CS1" s="139"/>
-      <c r="CT1" s="139" t="s">
-        <v>121</v>
-      </c>
-      <c r="CU1" s="139"/>
-      <c r="CV1" s="139"/>
-      <c r="CW1" s="140" t="s">
-        <v>124</v>
-      </c>
-      <c r="CX1" s="139"/>
-      <c r="CY1" s="139"/>
-      <c r="CZ1" s="139" t="s">
+      <c r="CU1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="DA1" s="139"/>
-      <c r="DB1" s="139"/>
-      <c r="DC1" s="139" t="s">
-        <v>127</v>
-      </c>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="139"/>
-      <c r="DF1" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="DG1" s="139"/>
-      <c r="DH1" s="139"/>
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:117" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -10706,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="CS15" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CT15" s="32">
         <v>1</v>
@@ -20740,7 +20736,7 @@
         <v>1</v>
       </c>
       <c r="CS44" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CT44" s="33">
         <v>1</v>
@@ -22876,11 +22872,11 @@
       </c>
       <c r="B51" s="60" t="str">
         <f>Resultat!E55</f>
-        <v>V47</v>
+        <v>Nederländerna</v>
       </c>
       <c r="D51" s="60" t="str">
         <f>Resultat!G55</f>
-        <v>V48</v>
+        <v>England</v>
       </c>
       <c r="E51" s="33">
         <v>1</v>
@@ -29305,7 +29301,7 @@
         <v>4</v>
       </c>
       <c r="DC89" s="115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="DF89" s="103" t="s">
         <v>4</v>
@@ -29481,7 +29477,7 @@
         <v>77</v>
       </c>
       <c r="DC90" s="115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="DF90" s="103" t="s">
         <v>77</v>
@@ -29504,7 +29500,7 @@
       <c r="BZ91" s="31"/>
       <c r="CA91" s="31"/>
       <c r="CB91" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CC91" s="31"/>
       <c r="CD91" s="31"/>
@@ -29622,7 +29618,7 @@
         <v>27</v>
       </c>
       <c r="BA93" s="103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BB93" s="93"/>
       <c r="BD93" s="103" t="s">
@@ -29664,7 +29660,7 @@
       <c r="CC93" s="30"/>
       <c r="CD93" s="30"/>
       <c r="CE93" s="121" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="CF93" s="30"/>
       <c r="CG93" s="30"/>
@@ -29684,7 +29680,7 @@
       <c r="CO93" s="30"/>
       <c r="CP93" s="30"/>
       <c r="CQ93" s="103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="CR93" s="30"/>
       <c r="CS93" s="30"/>
@@ -29711,141 +29707,141 @@
         <v>34</v>
       </c>
       <c r="E94" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="K94" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="H94" s="103" t="s">
+      <c r="N94" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="K94" s="107" t="s">
+      <c r="Q94" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="T94" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="W94" s="107" t="s">
         <v>90</v>
-      </c>
-      <c r="N94" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q94" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="T94" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="W94" s="107" t="s">
-        <v>92</v>
       </c>
       <c r="X94" s="93"/>
       <c r="Z94" s="107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC94" s="107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD94" s="93"/>
       <c r="AF94" s="108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI94" s="110" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AJ94" s="93"/>
       <c r="AL94" s="95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AO94" s="95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AP94" s="93"/>
       <c r="AR94" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AU94" s="95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV94" s="93"/>
       <c r="AX94" s="95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BA94" s="107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BB94" s="93"/>
       <c r="BD94" s="107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BG94" s="95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BH94" s="93"/>
       <c r="BJ94" s="108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BM94" s="107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BP94" s="108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BQ94" s="30"/>
       <c r="BR94" s="30"/>
       <c r="BS94" s="119" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BT94" s="30"/>
       <c r="BU94" s="30"/>
       <c r="BV94" s="107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BW94" s="30"/>
       <c r="BX94" s="30"/>
       <c r="BY94" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BZ94" s="30"/>
       <c r="CA94" s="30"/>
       <c r="CB94" s="107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="CC94" s="30"/>
       <c r="CD94" s="30"/>
       <c r="CE94" s="124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="CF94" s="30"/>
       <c r="CG94" s="30"/>
       <c r="CH94" s="107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="CI94" s="30"/>
       <c r="CJ94" s="30"/>
       <c r="CK94" s="128" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="CL94" s="30"/>
       <c r="CM94" s="30"/>
       <c r="CN94" s="95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="CO94" s="30"/>
       <c r="CP94" s="30"/>
       <c r="CQ94" s="107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CR94" s="30"/>
       <c r="CS94" s="30"/>
       <c r="CT94" s="103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="CU94" s="30"/>
       <c r="CV94" s="30"/>
       <c r="CW94" s="107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="CZ94" s="128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="DC94" s="128" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="DF94" s="107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
@@ -29993,7 +29989,7 @@
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
       <c r="D96" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>30</v>
@@ -30048,7 +30044,7 @@
       </c>
       <c r="AV96" s="93"/>
       <c r="AX96" s="107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AY96" s="93"/>
       <c r="BA96" s="107" t="s">
@@ -30089,7 +30085,7 @@
       <c r="BZ96" s="30"/>
       <c r="CA96" s="30"/>
       <c r="CB96" s="107" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30119,7 +30115,7 @@
       <c r="CR96" s="30"/>
       <c r="CS96" s="30"/>
       <c r="CT96" s="107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="CU96" s="30"/>
       <c r="CV96" s="30"/>
@@ -30138,7 +30134,7 @@
     </row>
     <row r="98" spans="4:110" x14ac:dyDescent="0.35">
       <c r="D98" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E98" s="30">
         <f>ABS(Resultat!$N$44-Kuponger!E95)</f>
@@ -30333,11 +30329,23 @@
     <protectedRange password="DCE9" sqref="DF57:DF60 DF63:DF66 DF69:DF72 DF75:DF78 DF81:DF84 DF87:DF90" name="Tipstecken_12"/>
   </protectedRanges>
   <mergeCells count="37">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:CY1"/>
+    <mergeCell ref="CZ1:DB1"/>
+    <mergeCell ref="DC1:DE1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CQ1:CS1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
@@ -30353,23 +30361,11 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CY1"/>
-    <mergeCell ref="CZ1:DB1"/>
-    <mergeCell ref="DC1:DE1"/>
-    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="18">
@@ -30480,9 +30476,9 @@
   <dimension ref="A1:AV64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomLeft" activeCell="AK50" sqref="AK50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38063,11 +38059,11 @@
     <row r="50" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="str">
         <f>Resultat!E55</f>
-        <v>V47</v>
+        <v>Nederländerna</v>
       </c>
       <c r="B50" s="19" t="str">
         <f>Kuponger!D51</f>
-        <v>V48</v>
+        <v>England</v>
       </c>
       <c r="C50">
         <f>IF(AND(Resultat!$H55&lt;&gt;"",Kuponger!E51&lt;&gt;""),IF(Resultat!$H55=Kuponger!E51,1,0),0) + IF(AND(Resultat!$I55&lt;&gt;"",Kuponger!F51&lt;&gt;"",Resultat!$K55&lt;&gt;"",Kuponger!G51&lt;&gt;""),IF(AND(Resultat!$I55=Kuponger!F51,Resultat!$K55=Kuponger!G51),3,0),0)</f>
@@ -38099,7 +38095,7 @@
       </c>
       <c r="J50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(G50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(G50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(G50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(H50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(H50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(H50))=Resultat!$H55),1,0)</f>
@@ -38107,7 +38103,7 @@
       </c>
       <c r="L50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(I50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(I50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(I50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(J50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(J50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(J50))=Resultat!$H55),1,0)</f>
@@ -38139,7 +38135,7 @@
       </c>
       <c r="T50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(Q50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(Q50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(Q50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(R50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(R50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(R50))=Resultat!$H55),1,0)</f>
@@ -38151,7 +38147,7 @@
       </c>
       <c r="W50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(T50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(T50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(T50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(U50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(U50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(U50))=Resultat!$H55),1,0)</f>
@@ -38167,11 +38163,11 @@
       </c>
       <c r="AA50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(X50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(X50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(X50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(Y50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(Y50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(Y50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(Z50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(Z50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(Z50))=Resultat!$H55),1,0)</f>
@@ -38179,7 +38175,7 @@
       </c>
       <c r="AD50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(AA50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(AA50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(AA50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(AB50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(AB50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(AB50))=Resultat!$H55),1,0)</f>
@@ -38191,7 +38187,7 @@
       </c>
       <c r="AG50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(AD50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(AD50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(AD50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(AE50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(AE50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(AE50))=Resultat!$H55),1,0)</f>
@@ -38203,15 +38199,15 @@
       </c>
       <c r="AJ50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(AG50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(AG50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(AG50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(AH50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(AH50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(AH50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL50">
         <f ca="1">IF(AND(Resultat!$I55&lt;&gt;"",OFFSET(Kuponger!$F51,0,3*COLUMN(AI50))=Resultat!$I55,OFFSET(Kuponger!$G51,0,3*COLUMN(AI50))=Resultat!$K55),3,0) + IF(AND(Resultat!$H55&lt;&gt;"",OFFSET(Kuponger!$E51,0,3*COLUMN(AI50))=Resultat!$H55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.35">
@@ -39880,7 +39876,7 @@
     </row>
     <row r="62" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62">
@@ -40062,7 +40058,7 @@
       </c>
       <c r="J63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40070,7 +40066,7 @@
       </c>
       <c r="L63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40102,7 +40098,7 @@
       </c>
       <c r="T63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40114,7 +40110,7 @@
       </c>
       <c r="W63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40130,11 +40126,11 @@
       </c>
       <c r="AA63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40142,7 +40138,7 @@
       </c>
       <c r="AD63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AE63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40154,7 +40150,7 @@
       </c>
       <c r="AG63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -40166,15 +40162,15 @@
       </c>
       <c r="AJ63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL63" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM63" s="13"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/gustav_nafalt_relexsolutions_com/Documents/Privat/EM_Tips/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="13_ncr:1_{EEDA6554-C9DB-47E3-9E1A-6FC280FADD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0602A656-F75F-4C88-B9B0-8CD6D36D3A4A}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{EEDA6554-C9DB-47E3-9E1A-6FC280FADD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F486F45-6ABA-4C1C-9291-687081256A0C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultat" sheetId="1" r:id="rId1"/>
@@ -1953,7 +1953,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>49</c:v>
@@ -1962,7 +1962,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>36</c:v>
@@ -1992,10 +1992,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>46</c:v>
@@ -2007,7 +2007,7 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>51</c:v>
@@ -2016,13 +2016,13 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>66</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>55</c:v>
@@ -3298,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView topLeftCell="A4" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5692,9 +5692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DM98"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF93" sqref="AF93"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI94" sqref="AI94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30487,10 +30487,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomLeft" activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39596,143 +39596,143 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!F94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(A60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!G94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(B60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="F60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!H94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(C60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="G60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!I94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(D60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="H60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!J94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(E60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="I60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!K94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(F60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!L94,5,0),0)</f>
-        <v>0</v>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(G60))=Resultat!$N43,5,0)</f>
+        <v>5</v>
       </c>
       <c r="K60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!M94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(H60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="L60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!N94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(I60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="M60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!O94,5,0),0)</f>
-        <v>0</v>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(J60))=Resultat!$N43,5,0)</f>
+        <v>5</v>
       </c>
       <c r="N60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!P94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(K60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="O60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!Q94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(L60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="P60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!R94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(M60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!S94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(N60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="R60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!T94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(O60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="S60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!U94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(P60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="T60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!V94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(Q60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="U60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!W94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(R60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="V60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!X94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(S60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="W60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!Y94,5,0),0)</f>
-        <v>0</v>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(T60))=Resultat!$N43,5,0)</f>
+        <v>5</v>
       </c>
       <c r="X60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!Z94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(U60))=Resultat!$N43,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(V60))=Resultat!$N43,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(W60))=Resultat!$N43,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(X60))=Resultat!$N43,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(Y60))=Resultat!$N43,5,0)</f>
         <v>5</v>
       </c>
-      <c r="Y60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AA94,5,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AB94,5,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AC94,5,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AD94,5,0),0)</f>
-        <v>0</v>
-      </c>
       <c r="AC60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AE94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(Z60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="AD60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AF94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AA60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="AE60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AG94,5,0),0)</f>
-        <v>0</v>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AB60))=Resultat!$N43,5,0)</f>
+        <v>5</v>
       </c>
       <c r="AF60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AH94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AC60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="AG60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AI94,5,0),0)</f>
-        <v>5</v>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AD60))=Resultat!$N43,5,0)</f>
+        <v>0</v>
       </c>
       <c r="AH60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AJ94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AE60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="AI60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AK94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AF60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AL94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AG60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="AK60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AM94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AH60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
       <c r="AL60">
-        <f>IF(AND(Resultat!$N43&lt;&gt;""),IF(Resultat!$N43=Kuponger!AN94,5,0),0)</f>
+        <f ca="1">IF(OFFSET(Kuponger!$E94,0,3*COLUMN(AI60))=Resultat!$N43,5,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -40070,7 +40070,7 @@
       </c>
       <c r="J63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K63" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -40082,7 +40082,7 @@
       </c>
       <c r="M63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N63" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -40122,11 +40122,11 @@
       </c>
       <c r="W63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="X63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Y63" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -40142,7 +40142,7 @@
       </c>
       <c r="AB63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AC63" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -40154,7 +40154,7 @@
       </c>
       <c r="AE63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF63" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -40162,7 +40162,7 @@
       </c>
       <c r="AG63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AH63" s="12">
         <f t="shared" ca="1" si="0"/>
